--- a/benchmarks/measure_androidApps.xlsx
+++ b/benchmarks/measure_androidApps.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yazeedyousefalmalaq/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DC4988-84DE-7740-98B1-DD81EF7BF0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03C3AC8-5D7A-A145-BEF8-1DD3169C7DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" activeTab="1" xr2:uid="{E8F05331-52A1-CA4F-9453-9597BCD39B9A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{E8F05331-52A1-CA4F-9453-9597BCD39B9A}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
     <sheet name="graphs" sheetId="4" r:id="rId2"/>
+    <sheet name="baseline_data" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="44" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2649" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3255" uniqueCount="59">
   <si>
     <t>power</t>
   </si>
@@ -143,12 +144,87 @@
   <si>
     <t>BatterySaver_web</t>
   </si>
+  <si>
+    <t>core</t>
+  </si>
+  <si>
+    <t>games</t>
+  </si>
+  <si>
+    <t>Idle</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Benchmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baseline </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battery Saver </t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>Power (Watt)</t>
+  </si>
+  <si>
+    <t>Energy (J)</t>
+  </si>
+  <si>
+    <t>Background music</t>
+  </si>
+  <si>
+    <t>Video playing</t>
+  </si>
+  <si>
+    <t>Social media</t>
+  </si>
+  <si>
+    <t>Web browsing</t>
+  </si>
+  <si>
+    <t>Video call</t>
+  </si>
+  <si>
+    <t>baseline</t>
+  </si>
+  <si>
+    <t>Battery Saver</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t> change</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>brightness</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -171,8 +247,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,8 +267,44 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -203,11 +321,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -215,6 +482,92 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,7 +689,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>graphs!$A$33:$A$38</c:f>
+              <c:f>graphs!$K$51:$K$56</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -362,7 +715,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>graphs!$B$33:$B$38</c:f>
+              <c:f>graphs!$L$51:$L$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -716,7 +1069,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>graphs!$A$33:$A$38</c:f>
+              <c:f>graphs!$K$51:$K$56</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -742,7 +1095,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>graphs!$C$33:$C$38</c:f>
+              <c:f>graphs!$M$51:$M$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1091,7 +1444,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>graphs!$A$33:$A$38</c:f>
+              <c:f>graphs!$K$51:$K$56</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1117,7 +1470,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>graphs!$D$33:$D$38</c:f>
+              <c:f>graphs!$N$51:$N$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3078,11 +3431,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45328.973668749997" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="288" xr:uid="{543196CF-DC8E-1B43-ABF5-EC27E54E099A}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45335.597599652778" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="342" xr:uid="{A9C1AC84-55F4-3F41-861C-8028C2803F6D}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="D1:P289" sheet="data"/>
+    <worksheetSource ref="D1:Q343" sheet="data"/>
   </cacheSource>
-  <cacheFields count="13">
+  <cacheFields count="14">
     <cacheField name="power" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.289856" maxValue="3.6663000000000001"/>
     </cacheField>
@@ -3163,6 +3516,14 @@
         <s v="n"/>
       </sharedItems>
     </cacheField>
+    <cacheField name="brightness" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="100" count="4">
+        <m/>
+        <n v="1"/>
+        <n v="10"/>
+        <n v="100"/>
+      </sharedItems>
+    </cacheField>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -3173,7 +3534,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="288">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="342">
   <r>
     <n v="1.52092"/>
     <n v="220.8"/>
@@ -3188,6 +3549,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.509763"/>
@@ -3203,6 +3565,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.350349"/>
@@ -3218,6 +3581,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.507083"/>
@@ -3233,6 +3597,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.4136299999999999"/>
@@ -3248,6 +3613,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.4702980000000001"/>
@@ -3263,6 +3629,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.398428"/>
@@ -3278,6 +3645,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.4664330000000001"/>
@@ -3293,6 +3661,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.4625109999999999"/>
@@ -3308,12 +3677,14 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.3984460000000001"/>
     <n v="193.2"/>
     <n v="138.15336300000001"/>
     <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -3338,6 +3709,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="3.0296439999999998"/>
@@ -3353,6 +3725,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="2.9947119999999998"/>
@@ -3368,6 +3741,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="3.0806339999999999"/>
@@ -3383,6 +3757,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="3.0528840000000002"/>
@@ -3398,6 +3773,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.88212599999999997"/>
@@ -3413,6 +3789,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.91082099999999999"/>
@@ -3428,6 +3805,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.91882799999999998"/>
@@ -3443,6 +3821,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.91883899999999996"/>
@@ -3458,6 +3837,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.0097339999999999"/>
@@ -3473,6 +3853,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.37767400000000001"/>
@@ -3488,6 +3869,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.42693900000000001"/>
@@ -3503,6 +3885,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.341557"/>
@@ -3518,6 +3901,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.422346"/>
@@ -3533,6 +3917,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.56923900000000005"/>
@@ -3548,6 +3933,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.1992339999999999"/>
@@ -3563,6 +3949,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.75898699999999997"/>
@@ -3578,6 +3965,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.76454800000000001"/>
@@ -3593,6 +3981,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.77586599999999994"/>
@@ -3608,6 +3997,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.775837"/>
@@ -3623,6 +4013,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.78703599999999996"/>
@@ -3638,6 +4029,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.77922999999999998"/>
@@ -3653,6 +4045,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.79146300000000003"/>
@@ -3668,6 +4061,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.77012999999999998"/>
@@ -3683,6 +4077,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.68305199999999999"/>
@@ -3698,6 +4093,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.94363600000000003"/>
@@ -3713,6 +4109,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.80522800000000005"/>
@@ -3728,6 +4125,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.74813700000000005"/>
@@ -3743,6 +4141,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.75351699999999999"/>
@@ -3758,6 +4157,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.66570799999999997"/>
@@ -3773,6 +4173,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.72902599999999995"/>
@@ -3788,6 +4189,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.69825300000000001"/>
@@ -3803,6 +4205,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.74594000000000005"/>
@@ -3818,6 +4221,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.65059100000000003"/>
@@ -3833,6 +4237,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.667578"/>
@@ -3848,6 +4253,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.82634399999999997"/>
@@ -3863,6 +4269,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.81366700000000003"/>
@@ -3878,6 +4285,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.83515899999999998"/>
@@ -3893,6 +4301,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.58298899999999998"/>
@@ -3908,6 +4317,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.50546400000000002"/>
@@ -3923,6 +4333,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.53049299999999999"/>
@@ -3938,6 +4349,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.55418500000000004"/>
@@ -3953,6 +4365,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.543615"/>
@@ -3968,6 +4381,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.4902070000000001"/>
@@ -3983,6 +4397,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.4462299999999999"/>
@@ -3998,6 +4413,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.494291"/>
@@ -4013,6 +4429,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.543682"/>
@@ -4028,6 +4445,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.5179940000000001"/>
@@ -4043,6 +4461,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.769075"/>
@@ -4058,6 +4477,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.4662980000000001"/>
@@ -4073,6 +4493,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.474202"/>
@@ -4088,6 +4509,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.478186"/>
@@ -4103,6 +4525,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.478092"/>
@@ -4118,6 +4541,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.350265"/>
@@ -4133,6 +4557,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.3120069999999999"/>
@@ -4148,6 +4573,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.399065"/>
@@ -4163,6 +4589,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.387723"/>
@@ -4178,6 +4605,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.5577430000000001"/>
@@ -4193,6 +4621,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.461519"/>
@@ -4208,6 +4637,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.4852110000000001"/>
@@ -4223,6 +4653,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.4851989999999999"/>
@@ -4238,6 +4669,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.531633"/>
@@ -4253,6 +4685,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.4821139999999999"/>
@@ -4268,6 +4701,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.413548"/>
@@ -4283,6 +4717,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.439465"/>
@@ -4298,6 +4733,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.5180940000000001"/>
@@ -4313,6 +4749,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.4853050000000001"/>
@@ -4328,6 +4765,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.45040000000000002"/>
@@ -4343,6 +4781,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.38963900000000001"/>
@@ -4358,6 +4797,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.61018499999999998"/>
@@ -4373,6 +4813,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.37676599999999999"/>
@@ -4388,6 +4829,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.348972"/>
@@ -4403,6 +4845,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.38318999999999998"/>
@@ -4418,6 +4861,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.32048900000000002"/>
@@ -4433,6 +4877,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.33916800000000003"/>
@@ -4448,6 +4893,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.34914000000000001"/>
@@ -4463,6 +4909,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.33571000000000001"/>
@@ -4478,6 +4925,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.463891"/>
@@ -4493,6 +4941,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.46389200000000003"/>
@@ -4508,6 +4957,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.42345899999999997"/>
@@ -4523,6 +4973,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.47015800000000002"/>
@@ -4538,6 +4989,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.34511500000000001"/>
@@ -4553,6 +5005,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.289856"/>
@@ -4568,6 +5021,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.30491699999999999"/>
@@ -4583,6 +5037,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.30851099999999998"/>
@@ -4598,6 +5053,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.31343799999999999"/>
@@ -4613,6 +5069,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.61335799999999996"/>
@@ -4628,6 +5085,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.41127999999999998"/>
@@ -4643,6 +5101,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.39574100000000001"/>
@@ -4658,6 +5117,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.382969"/>
@@ -4673,6 +5133,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.396505"/>
@@ -4688,6 +5149,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.968064"/>
@@ -4703,6 +5165,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.586084"/>
@@ -4718,6 +5181,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.666876"/>
@@ -4733,6 +5197,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.8024340000000001"/>
@@ -4748,6 +5213,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.8215239999999999"/>
@@ -4763,6 +5229,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.7031130000000001"/>
@@ -4778,6 +5245,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.434917"/>
@@ -4793,6 +5261,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.6063320000000001"/>
@@ -4808,6 +5277,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.4733240000000001"/>
@@ -4823,6 +5293,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.4540219999999999"/>
@@ -4838,6 +5309,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.775414"/>
@@ -4853,6 +5325,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.64072"/>
@@ -4868,6 +5341,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.5989169999999999"/>
@@ -4883,6 +5357,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.5701419999999999"/>
@@ -4898,6 +5373,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.5531090000000001"/>
@@ -4913,6 +5389,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.55324"/>
@@ -4928,6 +5405,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.553269"/>
@@ -4943,6 +5421,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.398307"/>
@@ -4958,6 +5437,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.5289520000000001"/>
@@ -4973,6 +5453,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.453746"/>
@@ -4988,6 +5469,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.6527339999999999"/>
@@ -5003,6 +5485,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.697306"/>
@@ -5018,6 +5501,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.7359519999999999"/>
@@ -5033,6 +5517,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.5662529999999999"/>
@@ -5048,6 +5533,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.589194"/>
@@ -5063,6 +5549,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="2.8501750000000001"/>
@@ -5078,6 +5565,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="3.4226040000000002"/>
@@ -5093,6 +5581,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="2.472172"/>
@@ -5108,6 +5597,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="2.8923559999999999"/>
@@ -5123,6 +5613,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="2.9090919999999998"/>
@@ -5138,6 +5629,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="2.7566440000000001"/>
@@ -5153,6 +5645,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="2.844646"/>
@@ -5168,6 +5661,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="2.6092939999999998"/>
@@ -5183,6 +5677,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="2.6459600000000001"/>
@@ -5198,6 +5693,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="2.7316919999999998"/>
@@ -5213,6 +5709,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.9806440000000001"/>
@@ -5228,6 +5725,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="2.2378089999999999"/>
@@ -5243,6 +5741,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="2.061099"/>
@@ -5258,6 +5757,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="2.276538"/>
@@ -5273,6 +5773,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="2.2351580000000002"/>
@@ -5288,6 +5789,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="2.4854539999999998"/>
@@ -5303,6 +5805,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="2.5475400000000001"/>
@@ -5318,6 +5821,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="2.4724279999999998"/>
@@ -5333,6 +5837,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="2.7593899999999998"/>
@@ -5348,6 +5853,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="2.6311270000000002"/>
@@ -5363,6 +5869,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="2.9600590000000002"/>
@@ -5378,6 +5885,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="3.2550279999999998"/>
@@ -5393,6 +5901,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="3.0294949999999998"/>
@@ -5408,6 +5917,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="3.063256"/>
@@ -5423,6 +5933,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="3.1152470000000001"/>
@@ -5438,6 +5949,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="2.0433089999999998"/>
@@ -5453,6 +5965,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.8942159999999999"/>
@@ -5468,6 +5981,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="2.2064349999999999"/>
@@ -5483,6 +5997,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="2.2966129999999998"/>
@@ -5498,6 +6013,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.9106209999999999"/>
@@ -5513,6 +6029,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="2.1219239999999999"/>
@@ -5528,6 +6045,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="2.2126190000000001"/>
@@ -5543,6 +6061,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.973643"/>
@@ -5558,6 +6077,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="2.0491790000000001"/>
@@ -5573,6 +6093,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="2.0315159999999999"/>
@@ -5588,6 +6109,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.900401"/>
@@ -5597,12 +6119,13 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.768983"/>
@@ -5612,12 +6135,13 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.7903"/>
@@ -5627,12 +6151,13 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.7492780000000001"/>
@@ -5642,12 +6167,13 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.831893"/>
@@ -5657,12 +6183,13 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.9106300000000001"/>
@@ -5678,6 +6205,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.860414"/>
@@ -5693,6 +6221,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.739671"/>
@@ -5708,6 +6237,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.91073"/>
@@ -5723,6 +6253,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.8840539999999999"/>
@@ -5738,6 +6269,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.816195"/>
@@ -5753,6 +6285,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.7751479999999999"/>
@@ -5768,6 +6301,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.69733"/>
@@ -5783,6 +6317,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.7641009999999999"/>
@@ -5798,6 +6333,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.8070679999999999"/>
@@ -5813,6 +6349,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.8398509999999999"/>
@@ -5828,6 +6365,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.6449339999999999"/>
@@ -5843,6 +6381,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.8800600000000001"/>
@@ -5858,6 +6397,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.8056650000000001"/>
@@ -5873,6 +6413,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.839861"/>
@@ -5888,6 +6429,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.66197799999999996"/>
@@ -5903,6 +6445,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.649227"/>
@@ -5918,6 +6461,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.65605000000000002"/>
@@ -5933,6 +6477,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.5360259999999999"/>
@@ -5948,6 +6493,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.3782110000000001"/>
@@ -5963,6 +6509,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.4063950000000001"/>
@@ -5978,6 +6525,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.589272"/>
@@ -5993,6 +6541,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.614587"/>
@@ -6008,6 +6557,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.5990489999999999"/>
@@ -6023,6 +6573,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.40022400000000002"/>
@@ -6038,6 +6589,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.32867099999999999"/>
@@ -6053,6 +6605,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.30774499999999999"/>
@@ -6068,6 +6621,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="3.13307"/>
@@ -6083,6 +6637,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="3.0696400000000001"/>
@@ -6098,6 +6653,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="2.7898610000000001"/>
@@ -6113,6 +6669,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.845874"/>
@@ -6128,6 +6685,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.6703049999999999"/>
@@ -6143,6 +6701,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.8362369999999999"/>
@@ -6158,6 +6717,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.84015300000000004"/>
@@ -6173,6 +6733,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.53675799999999996"/>
@@ -6188,6 +6749,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.70419200000000004"/>
@@ -6203,6 +6765,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.4547140000000001"/>
@@ -6218,6 +6781,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.3878239999999999"/>
@@ -6233,6 +6797,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.3268930000000001"/>
@@ -6248,6 +6813,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.5801810000000001"/>
@@ -6263,6 +6829,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.4063129999999999"/>
@@ -6278,6 +6845,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.428193"/>
@@ -6293,6 +6861,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.522276"/>
@@ -6308,6 +6877,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.497447"/>
@@ -6323,6 +6893,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.531739"/>
@@ -6338,6 +6909,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.3039"/>
@@ -6353,6 +6925,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.342005"/>
@@ -6368,6 +6941,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.47609000000000001"/>
@@ -6383,6 +6957,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="2.5177350000000001"/>
@@ -6398,6 +6973,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="2.9768669999999999"/>
@@ -6413,6 +6989,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="3.0213450000000002"/>
@@ -6428,6 +7005,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.60859700000000005"/>
@@ -6443,6 +7021,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.57031299999999996"/>
@@ -6458,6 +7037,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.65059699999999998"/>
@@ -6473,6 +7053,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.1190230000000001"/>
@@ -6488,6 +7069,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.1095159999999999"/>
@@ -6503,6 +7085,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.096425"/>
@@ -6518,6 +7101,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.40283600000000003"/>
@@ -6533,6 +7117,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.33194899999999999"/>
@@ -6548,6 +7133,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.303564"/>
@@ -6563,6 +7149,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.3054859999999999"/>
@@ -6578,6 +7165,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.3020160000000001"/>
@@ -6593,6 +7181,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.3603529999999999"/>
@@ -6608,6 +7197,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="2.602382"/>
@@ -6623,6 +7213,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="2.7323059999999999"/>
@@ -6638,6 +7229,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.370528"/>
@@ -6653,6 +7245,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.297642"/>
@@ -6668,6 +7261,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.42011"/>
@@ -6683,6 +7277,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.65100499999999994"/>
@@ -6698,6 +7293,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.61656900000000003"/>
@@ -6713,6 +7309,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.67524799999999996"/>
@@ -6728,6 +7325,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.1835519999999999"/>
@@ -6743,6 +7341,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.1517569999999999"/>
@@ -6758,6 +7357,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.1986159999999999"/>
@@ -6773,6 +7373,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.3774390000000001"/>
@@ -6788,6 +7389,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.5181260000000001"/>
@@ -6803,6 +7405,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.535056"/>
@@ -6818,6 +7421,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.31182100000000001"/>
@@ -6833,6 +7437,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.32553799999999999"/>
@@ -6848,6 +7453,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.42935899999999999"/>
@@ -6863,6 +7469,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.6105039999999999"/>
@@ -6878,6 +7485,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.5446310000000001"/>
@@ -6893,6 +7501,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.607866"/>
@@ -6908,6 +7517,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="3.159897"/>
@@ -6923,6 +7533,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="3.0803379999999998"/>
@@ -6938,6 +7549,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="2.842768"/>
@@ -6953,6 +7565,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.68311299999999997"/>
@@ -6968,6 +7581,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.64352100000000001"/>
@@ -6983,6 +7597,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.753548"/>
@@ -6998,6 +7613,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.5577289999999999"/>
@@ -7013,6 +7629,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.5223150000000001"/>
@@ -7028,6 +7645,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.5533380000000001"/>
@@ -7043,6 +7661,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.33771099999999998"/>
@@ -7058,6 +7677,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.320913"/>
@@ -7073,6 +7693,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.41580400000000001"/>
@@ -7088,6 +7709,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.6571750000000001"/>
@@ -7103,6 +7725,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.477314"/>
@@ -7118,6 +7741,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.6883250000000001"/>
@@ -7133,6 +7757,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="3.272259"/>
@@ -7148,6 +7773,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="3.0367790000000001"/>
@@ -7163,6 +7789,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="3.0870500000000001"/>
@@ -7178,6 +7805,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.805887"/>
@@ -7193,6 +7821,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.7752410000000001"/>
@@ -7208,6 +7837,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.8448640000000001"/>
@@ -7223,6 +7853,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.80986400000000003"/>
@@ -7238,6 +7869,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.813581"/>
@@ -7253,6 +7885,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.75494300000000003"/>
@@ -7268,6 +7901,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.5780700000000001"/>
@@ -7283,6 +7917,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.5470159999999999"/>
@@ -7298,6 +7933,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.5756030000000001"/>
@@ -7313,6 +7949,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.39077000000000001"/>
@@ -7328,6 +7965,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.41426000000000002"/>
@@ -7343,6 +7981,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0.48706899999999997"/>
@@ -7358,6 +7997,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.6713089999999999"/>
@@ -7373,6 +8013,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.644147"/>
@@ -7388,6 +8029,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1.865391"/>
@@ -7403,6 +8045,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="3.3377340000000002"/>
@@ -7418,6 +8061,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="3.2526869999999999"/>
@@ -7433,6 +8077,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="3.6663000000000001"/>
@@ -7448,6 +8093,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="2.2785169999999999"/>
@@ -7463,6 +8109,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="2.2051349999999998"/>
@@ -7478,6 +8125,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="2.2050420000000002"/>
@@ -7493,17 +8141,882 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="0.56889599999999996"/>
+    <n v="82.8"/>
+    <n v="145.54499300000001"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="0.49798700000000001"/>
+    <n v="82.8"/>
+    <n v="166.269544"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="0.79300599999999999"/>
+    <n v="110.4"/>
+    <n v="139.21712600000001"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="0.64042399999999999"/>
+    <n v="82.8"/>
+    <n v="129.289288"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="0.64884200000000003"/>
+    <n v="82.8"/>
+    <n v="127.612005"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="0.84875900000000004"/>
+    <n v="110.4"/>
+    <n v="130.072183"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="0.66573199999999999"/>
+    <n v="82.8"/>
+    <n v="124.37428800000001"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="0.65466000000000002"/>
+    <n v="82.8"/>
+    <n v="126.477912"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="0.70613800000000004"/>
+    <n v="110.4"/>
+    <n v="156.343435"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="1.5445880000000001"/>
+    <n v="193.2"/>
+    <n v="125.081883"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="1.4891970000000001"/>
+    <n v="193.2"/>
+    <n v="129.73434700000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="1.5096430000000001"/>
+    <n v="193.2"/>
+    <n v="127.977251"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="1.4703459999999999"/>
+    <n v="193.2"/>
+    <n v="131.39767599999999"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="1.4395739999999999"/>
+    <n v="193.2"/>
+    <n v="134.20639199999999"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="1.420134"/>
+    <n v="193.2"/>
+    <n v="136.043522"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="1.8942840000000001"/>
+    <n v="248.4"/>
+    <n v="131.13135500000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="1.875256"/>
+    <n v="248.4"/>
+    <n v="132.46193700000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="1.889184"/>
+    <n v="248.4"/>
+    <n v="131.48532499999999"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="0.40493299999999999"/>
+    <n v="55.2"/>
+    <n v="136.31875099999999"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="0.392569"/>
+    <n v="55.2"/>
+    <n v="140.61229"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="0.47877900000000001"/>
+    <n v="82.8"/>
+    <n v="172.93994900000001"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="0.31708599999999998"/>
+    <n v="55.2"/>
+    <n v="174.08509699999999"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="0.32798300000000002"/>
+    <n v="55.2"/>
+    <n v="168.301301"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="0.42105599999999999"/>
+    <n v="82.8"/>
+    <n v="196.64840899999999"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="0.37340699999999999"/>
+    <n v="55.2"/>
+    <n v="147.82809800000001"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="0.41725299999999999"/>
+    <n v="55.2"/>
+    <n v="132.293915"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="0.38459700000000002"/>
+    <n v="55.2"/>
+    <n v="143.52676400000001"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="1.9638439999999999"/>
+    <n v="248.4"/>
+    <n v="126.486637"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="1.984626"/>
+    <n v="248.4"/>
+    <n v="125.162097"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="1.8375049999999999"/>
+    <n v="220.8"/>
+    <n v="120.16297"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="1.4200790000000001"/>
+    <n v="193.2"/>
+    <n v="136.048811"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="1.5991150000000001"/>
+    <n v="220.8"/>
+    <n v="138.076412"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="1.5742290000000001"/>
+    <n v="220.8"/>
+    <n v="140.25913600000001"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="1.812767"/>
+    <n v="248.4"/>
+    <n v="137.02811"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="1.7505109999999999"/>
+    <n v="220.8"/>
+    <n v="126.13459899999999"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="1.7808120000000001"/>
+    <n v="248.4"/>
+    <n v="139.48695900000001"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="3.4055080000000002"/>
+    <n v="414"/>
+    <n v="121.567761"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="3.3675980000000001"/>
+    <n v="441.6"/>
+    <n v="131.132024"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="1.6659489999999999"/>
+    <n v="220.8"/>
+    <n v="132.53706"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="3.044543"/>
+    <n v="386.4"/>
+    <n v="126.915593"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="2.9544969999999999"/>
+    <n v="386.4"/>
+    <n v="130.78369599999999"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="2.9866389999999998"/>
+    <n v="386.4"/>
+    <n v="129.376206"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="3.3097539999999999"/>
+    <n v="414"/>
+    <n v="125.084822"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="3.281908"/>
+    <n v="414"/>
+    <n v="126.146146"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="3.3097850000000002"/>
+    <n v="414"/>
+    <n v="125.083652"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="2.2786330000000001"/>
+    <n v="303.60000000000002"/>
+    <n v="133.237798"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="2.3804979999999998"/>
+    <n v="303.60000000000002"/>
+    <n v="127.53635800000001"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="2.3921290000000002"/>
+    <n v="303.60000000000002"/>
+    <n v="126.916239"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="2.6629360000000002"/>
+    <n v="331.2"/>
+    <n v="124.373985"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="2.5461839999999998"/>
+    <n v="331.2"/>
+    <n v="130.076989"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="2.6479059999999999"/>
+    <n v="331.2"/>
+    <n v="125.079964"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="3.0376919999999998"/>
+    <n v="386.4"/>
+    <n v="127.201857"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="2.8927010000000002"/>
+    <n v="358.8"/>
+    <n v="124.03633600000001"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="3.0871189999999999"/>
+    <n v="386.4"/>
+    <n v="125.165246"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{84C7EE22-B48D-484F-B6AB-C46C1DDEFB66}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A11:D24" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="9" colPageCount="1"/>
-  <pivotFields count="13">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9F9001DB-D9A3-5646-91DD-0316D3CF59BF}" name="PivotTable1" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A12:C55" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="9" colPageCount="1"/>
+  <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="13">
         <item x="3"/>
@@ -7585,46 +9098,146 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
-  <rowFields count="1">
+  <rowFields count="2">
     <field x="3"/>
+    <field x="13"/>
   </rowFields>
-  <rowItems count="13">
+  <rowItems count="43">
     <i>
       <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
     </i>
     <i>
       <x v="1"/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
     <i>
       <x v="2"/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
     <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
       <x v="3"/>
     </i>
     <i>
       <x v="4"/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
     <i>
       <x v="5"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
     </i>
     <i>
       <x v="6"/>
     </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
     <i>
       <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
     </i>
     <i>
       <x v="8"/>
     </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
     <i>
       <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
     </i>
     <i>
       <x v="10"/>
     </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
     <i>
       <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
     </i>
     <i t="grand">
       <x/>
@@ -7633,15 +9246,12 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="3">
+  <colItems count="2">
     <i>
       <x/>
     </i>
     <i i="1">
       <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
     </i>
   </colItems>
   <pageFields count="9">
@@ -7655,9 +9265,8 @@
     <pageField fld="11" hier="-1"/>
     <pageField fld="12" hier="-1"/>
   </pageFields>
-  <dataFields count="3">
+  <dataFields count="2">
     <dataField name="Average of power" fld="0" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Average of time" fld="2" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="ave of energy" fld="1" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -7969,10 +9578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0313F6-CA27-BF47-9BC2-0DD6D4E40827}">
-  <dimension ref="D1:P289"/>
+  <dimension ref="D1:Q343"/>
   <sheetViews>
-    <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="E310" zoomScale="107" workbookViewId="0">
+      <selection activeCell="C325" sqref="C325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7980,7 +9589,7 @@
     <col min="7" max="7" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D1" t="s">
         <v>0</v>
       </c>
@@ -8020,8 +9629,11 @@
       <c r="P1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="Q1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D2">
         <v>1.52092</v>
       </c>
@@ -8062,7 +9674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D3">
         <v>1.509763</v>
       </c>
@@ -8103,7 +9715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D4">
         <v>1.350349</v>
       </c>
@@ -8144,7 +9756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D5">
         <v>1.507083</v>
       </c>
@@ -8185,7 +9797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D6">
         <v>1.4136299999999999</v>
       </c>
@@ -8226,7 +9838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D7">
         <v>1.4702980000000001</v>
       </c>
@@ -8267,7 +9879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D8">
         <v>1.398428</v>
       </c>
@@ -8308,7 +9920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D9">
         <v>1.4664330000000001</v>
       </c>
@@ -8349,7 +9961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D10">
         <v>1.4625109999999999</v>
       </c>
@@ -8390,7 +10002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D11">
         <v>1.3984460000000001</v>
       </c>
@@ -8431,7 +10043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D12">
         <v>2.923149</v>
       </c>
@@ -8472,7 +10084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D13">
         <v>3.0296439999999998</v>
       </c>
@@ -8513,7 +10125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D14">
         <v>2.9947119999999998</v>
       </c>
@@ -8554,7 +10166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D15">
         <v>3.0806339999999999</v>
       </c>
@@ -8595,7 +10207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D16">
         <v>3.0528840000000002</v>
       </c>
@@ -14644,8 +16256,8 @@
       <c r="J163" t="s">
         <v>6</v>
       </c>
-      <c r="K163" s="4" t="s">
-        <v>6</v>
+      <c r="K163" t="s">
+        <v>24</v>
       </c>
       <c r="L163" t="s">
         <v>24</v>
@@ -14685,8 +16297,8 @@
       <c r="J164" t="s">
         <v>6</v>
       </c>
-      <c r="K164" s="4" t="s">
-        <v>6</v>
+      <c r="K164" t="s">
+        <v>24</v>
       </c>
       <c r="L164" t="s">
         <v>24</v>
@@ -14726,8 +16338,8 @@
       <c r="J165" t="s">
         <v>6</v>
       </c>
-      <c r="K165" s="4" t="s">
-        <v>6</v>
+      <c r="K165" t="s">
+        <v>24</v>
       </c>
       <c r="L165" t="s">
         <v>24</v>
@@ -14767,8 +16379,8 @@
       <c r="J166" t="s">
         <v>6</v>
       </c>
-      <c r="K166" s="4" t="s">
-        <v>6</v>
+      <c r="K166" t="s">
+        <v>24</v>
       </c>
       <c r="L166" t="s">
         <v>24</v>
@@ -14808,8 +16420,8 @@
       <c r="J167" t="s">
         <v>6</v>
       </c>
-      <c r="K167" s="4" t="s">
-        <v>6</v>
+      <c r="K167" t="s">
+        <v>24</v>
       </c>
       <c r="L167" t="s">
         <v>24</v>
@@ -19788,7 +21400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="289" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="289" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D289">
         <v>2.2050420000000002</v>
       </c>
@@ -19827,6 +21439,2382 @@
       </c>
       <c r="P289" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="290" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D290">
+        <v>0.56889599999999996</v>
+      </c>
+      <c r="E290">
+        <v>82.8</v>
+      </c>
+      <c r="F290">
+        <v>145.54499300000001</v>
+      </c>
+      <c r="G290" t="s">
+        <v>17</v>
+      </c>
+      <c r="H290">
+        <v>8</v>
+      </c>
+      <c r="I290" t="s">
+        <v>6</v>
+      </c>
+      <c r="J290" t="s">
+        <v>6</v>
+      </c>
+      <c r="K290" t="s">
+        <v>6</v>
+      </c>
+      <c r="L290" t="s">
+        <v>6</v>
+      </c>
+      <c r="M290" t="s">
+        <v>6</v>
+      </c>
+      <c r="N290" t="s">
+        <v>6</v>
+      </c>
+      <c r="O290" t="s">
+        <v>6</v>
+      </c>
+      <c r="P290" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D291">
+        <v>0.49798700000000001</v>
+      </c>
+      <c r="E291">
+        <v>82.8</v>
+      </c>
+      <c r="F291">
+        <v>166.269544</v>
+      </c>
+      <c r="G291" t="s">
+        <v>17</v>
+      </c>
+      <c r="H291">
+        <v>8</v>
+      </c>
+      <c r="I291" t="s">
+        <v>6</v>
+      </c>
+      <c r="J291" t="s">
+        <v>6</v>
+      </c>
+      <c r="K291" t="s">
+        <v>6</v>
+      </c>
+      <c r="L291" t="s">
+        <v>6</v>
+      </c>
+      <c r="M291" t="s">
+        <v>6</v>
+      </c>
+      <c r="N291" t="s">
+        <v>6</v>
+      </c>
+      <c r="O291" t="s">
+        <v>6</v>
+      </c>
+      <c r="P291" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D292">
+        <v>0.79300599999999999</v>
+      </c>
+      <c r="E292">
+        <v>110.4</v>
+      </c>
+      <c r="F292">
+        <v>139.21712600000001</v>
+      </c>
+      <c r="G292" t="s">
+        <v>17</v>
+      </c>
+      <c r="H292">
+        <v>8</v>
+      </c>
+      <c r="I292" t="s">
+        <v>6</v>
+      </c>
+      <c r="J292" t="s">
+        <v>6</v>
+      </c>
+      <c r="K292" t="s">
+        <v>6</v>
+      </c>
+      <c r="L292" t="s">
+        <v>6</v>
+      </c>
+      <c r="M292" t="s">
+        <v>6</v>
+      </c>
+      <c r="N292" t="s">
+        <v>6</v>
+      </c>
+      <c r="O292" t="s">
+        <v>6</v>
+      </c>
+      <c r="P292" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D293">
+        <v>0.64042399999999999</v>
+      </c>
+      <c r="E293">
+        <v>82.8</v>
+      </c>
+      <c r="F293">
+        <v>129.289288</v>
+      </c>
+      <c r="G293" t="s">
+        <v>17</v>
+      </c>
+      <c r="H293">
+        <v>8</v>
+      </c>
+      <c r="I293" t="s">
+        <v>6</v>
+      </c>
+      <c r="J293" t="s">
+        <v>6</v>
+      </c>
+      <c r="K293" t="s">
+        <v>6</v>
+      </c>
+      <c r="L293" t="s">
+        <v>6</v>
+      </c>
+      <c r="M293" t="s">
+        <v>6</v>
+      </c>
+      <c r="N293" t="s">
+        <v>6</v>
+      </c>
+      <c r="O293" t="s">
+        <v>6</v>
+      </c>
+      <c r="P293" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q293">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="294" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D294">
+        <v>0.64884200000000003</v>
+      </c>
+      <c r="E294">
+        <v>82.8</v>
+      </c>
+      <c r="F294">
+        <v>127.612005</v>
+      </c>
+      <c r="G294" t="s">
+        <v>17</v>
+      </c>
+      <c r="H294">
+        <v>8</v>
+      </c>
+      <c r="I294" t="s">
+        <v>6</v>
+      </c>
+      <c r="J294" t="s">
+        <v>6</v>
+      </c>
+      <c r="K294" t="s">
+        <v>6</v>
+      </c>
+      <c r="L294" t="s">
+        <v>6</v>
+      </c>
+      <c r="M294" t="s">
+        <v>6</v>
+      </c>
+      <c r="N294" t="s">
+        <v>6</v>
+      </c>
+      <c r="O294" t="s">
+        <v>6</v>
+      </c>
+      <c r="P294" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q294">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="295" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D295">
+        <v>0.84875900000000004</v>
+      </c>
+      <c r="E295">
+        <v>110.4</v>
+      </c>
+      <c r="F295">
+        <v>130.072183</v>
+      </c>
+      <c r="G295" t="s">
+        <v>17</v>
+      </c>
+      <c r="H295">
+        <v>8</v>
+      </c>
+      <c r="I295" t="s">
+        <v>6</v>
+      </c>
+      <c r="J295" t="s">
+        <v>6</v>
+      </c>
+      <c r="K295" t="s">
+        <v>6</v>
+      </c>
+      <c r="L295" t="s">
+        <v>6</v>
+      </c>
+      <c r="M295" t="s">
+        <v>6</v>
+      </c>
+      <c r="N295" t="s">
+        <v>6</v>
+      </c>
+      <c r="O295" t="s">
+        <v>6</v>
+      </c>
+      <c r="P295" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q295">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="296" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D296">
+        <v>0.66573199999999999</v>
+      </c>
+      <c r="E296">
+        <v>82.8</v>
+      </c>
+      <c r="F296">
+        <v>124.37428800000001</v>
+      </c>
+      <c r="G296" t="s">
+        <v>17</v>
+      </c>
+      <c r="H296">
+        <v>8</v>
+      </c>
+      <c r="I296" t="s">
+        <v>6</v>
+      </c>
+      <c r="J296" t="s">
+        <v>6</v>
+      </c>
+      <c r="K296" t="s">
+        <v>6</v>
+      </c>
+      <c r="L296" t="s">
+        <v>6</v>
+      </c>
+      <c r="M296" t="s">
+        <v>6</v>
+      </c>
+      <c r="N296" t="s">
+        <v>6</v>
+      </c>
+      <c r="O296" t="s">
+        <v>6</v>
+      </c>
+      <c r="P296" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q296">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="297" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D297">
+        <v>0.65466000000000002</v>
+      </c>
+      <c r="E297">
+        <v>82.8</v>
+      </c>
+      <c r="F297">
+        <v>126.477912</v>
+      </c>
+      <c r="G297" t="s">
+        <v>17</v>
+      </c>
+      <c r="H297">
+        <v>8</v>
+      </c>
+      <c r="I297" t="s">
+        <v>6</v>
+      </c>
+      <c r="J297" t="s">
+        <v>6</v>
+      </c>
+      <c r="K297" t="s">
+        <v>6</v>
+      </c>
+      <c r="L297" t="s">
+        <v>6</v>
+      </c>
+      <c r="M297" t="s">
+        <v>6</v>
+      </c>
+      <c r="N297" t="s">
+        <v>6</v>
+      </c>
+      <c r="O297" t="s">
+        <v>6</v>
+      </c>
+      <c r="P297" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q297">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="298" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D298">
+        <v>0.70613800000000004</v>
+      </c>
+      <c r="E298">
+        <v>110.4</v>
+      </c>
+      <c r="F298">
+        <v>156.343435</v>
+      </c>
+      <c r="G298" t="s">
+        <v>17</v>
+      </c>
+      <c r="H298">
+        <v>8</v>
+      </c>
+      <c r="I298" t="s">
+        <v>6</v>
+      </c>
+      <c r="J298" t="s">
+        <v>6</v>
+      </c>
+      <c r="K298" t="s">
+        <v>6</v>
+      </c>
+      <c r="L298" t="s">
+        <v>6</v>
+      </c>
+      <c r="M298" t="s">
+        <v>6</v>
+      </c>
+      <c r="N298" t="s">
+        <v>6</v>
+      </c>
+      <c r="O298" t="s">
+        <v>6</v>
+      </c>
+      <c r="P298" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q298">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="299" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D299">
+        <v>1.5445880000000001</v>
+      </c>
+      <c r="E299">
+        <v>193.2</v>
+      </c>
+      <c r="F299">
+        <v>125.081883</v>
+      </c>
+      <c r="G299" t="s">
+        <v>4</v>
+      </c>
+      <c r="H299">
+        <v>8</v>
+      </c>
+      <c r="I299" t="s">
+        <v>6</v>
+      </c>
+      <c r="J299" t="s">
+        <v>6</v>
+      </c>
+      <c r="K299" t="s">
+        <v>6</v>
+      </c>
+      <c r="L299" t="s">
+        <v>6</v>
+      </c>
+      <c r="M299" t="s">
+        <v>6</v>
+      </c>
+      <c r="N299" t="s">
+        <v>6</v>
+      </c>
+      <c r="O299" t="s">
+        <v>6</v>
+      </c>
+      <c r="P299" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D300">
+        <v>1.4891970000000001</v>
+      </c>
+      <c r="E300">
+        <v>193.2</v>
+      </c>
+      <c r="F300">
+        <v>129.73434700000001</v>
+      </c>
+      <c r="G300" t="s">
+        <v>4</v>
+      </c>
+      <c r="H300">
+        <v>8</v>
+      </c>
+      <c r="I300" t="s">
+        <v>6</v>
+      </c>
+      <c r="J300" t="s">
+        <v>6</v>
+      </c>
+      <c r="K300" t="s">
+        <v>6</v>
+      </c>
+      <c r="L300" t="s">
+        <v>6</v>
+      </c>
+      <c r="M300" t="s">
+        <v>6</v>
+      </c>
+      <c r="N300" t="s">
+        <v>6</v>
+      </c>
+      <c r="O300" t="s">
+        <v>6</v>
+      </c>
+      <c r="P300" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D301">
+        <v>1.5096430000000001</v>
+      </c>
+      <c r="E301">
+        <v>193.2</v>
+      </c>
+      <c r="F301">
+        <v>127.977251</v>
+      </c>
+      <c r="G301" t="s">
+        <v>4</v>
+      </c>
+      <c r="H301">
+        <v>8</v>
+      </c>
+      <c r="I301" t="s">
+        <v>6</v>
+      </c>
+      <c r="J301" t="s">
+        <v>6</v>
+      </c>
+      <c r="K301" t="s">
+        <v>6</v>
+      </c>
+      <c r="L301" t="s">
+        <v>6</v>
+      </c>
+      <c r="M301" t="s">
+        <v>6</v>
+      </c>
+      <c r="N301" t="s">
+        <v>6</v>
+      </c>
+      <c r="O301" t="s">
+        <v>6</v>
+      </c>
+      <c r="P301" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D302">
+        <v>1.4703459999999999</v>
+      </c>
+      <c r="E302">
+        <v>193.2</v>
+      </c>
+      <c r="F302">
+        <v>131.39767599999999</v>
+      </c>
+      <c r="G302" t="s">
+        <v>4</v>
+      </c>
+      <c r="H302">
+        <v>8</v>
+      </c>
+      <c r="I302" t="s">
+        <v>6</v>
+      </c>
+      <c r="J302" t="s">
+        <v>6</v>
+      </c>
+      <c r="K302" t="s">
+        <v>6</v>
+      </c>
+      <c r="L302" t="s">
+        <v>6</v>
+      </c>
+      <c r="M302" t="s">
+        <v>6</v>
+      </c>
+      <c r="N302" t="s">
+        <v>6</v>
+      </c>
+      <c r="O302" t="s">
+        <v>6</v>
+      </c>
+      <c r="P302" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q302">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="303" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D303">
+        <v>1.4395739999999999</v>
+      </c>
+      <c r="E303">
+        <v>193.2</v>
+      </c>
+      <c r="F303">
+        <v>134.20639199999999</v>
+      </c>
+      <c r="G303" t="s">
+        <v>4</v>
+      </c>
+      <c r="H303">
+        <v>8</v>
+      </c>
+      <c r="I303" t="s">
+        <v>6</v>
+      </c>
+      <c r="J303" t="s">
+        <v>6</v>
+      </c>
+      <c r="K303" t="s">
+        <v>6</v>
+      </c>
+      <c r="L303" t="s">
+        <v>6</v>
+      </c>
+      <c r="M303" t="s">
+        <v>6</v>
+      </c>
+      <c r="N303" t="s">
+        <v>6</v>
+      </c>
+      <c r="O303" t="s">
+        <v>6</v>
+      </c>
+      <c r="P303" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q303">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="304" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D304">
+        <v>1.420134</v>
+      </c>
+      <c r="E304">
+        <v>193.2</v>
+      </c>
+      <c r="F304">
+        <v>136.043522</v>
+      </c>
+      <c r="G304" t="s">
+        <v>4</v>
+      </c>
+      <c r="H304">
+        <v>8</v>
+      </c>
+      <c r="I304" t="s">
+        <v>6</v>
+      </c>
+      <c r="J304" t="s">
+        <v>6</v>
+      </c>
+      <c r="K304" t="s">
+        <v>6</v>
+      </c>
+      <c r="L304" t="s">
+        <v>6</v>
+      </c>
+      <c r="M304" t="s">
+        <v>6</v>
+      </c>
+      <c r="N304" t="s">
+        <v>6</v>
+      </c>
+      <c r="O304" t="s">
+        <v>6</v>
+      </c>
+      <c r="P304" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q304">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="305" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D305">
+        <v>1.8942840000000001</v>
+      </c>
+      <c r="E305">
+        <v>248.4</v>
+      </c>
+      <c r="F305">
+        <v>131.13135500000001</v>
+      </c>
+      <c r="G305" t="s">
+        <v>4</v>
+      </c>
+      <c r="H305">
+        <v>8</v>
+      </c>
+      <c r="I305" t="s">
+        <v>6</v>
+      </c>
+      <c r="J305" t="s">
+        <v>6</v>
+      </c>
+      <c r="K305" t="s">
+        <v>6</v>
+      </c>
+      <c r="L305" t="s">
+        <v>6</v>
+      </c>
+      <c r="M305" t="s">
+        <v>6</v>
+      </c>
+      <c r="N305" t="s">
+        <v>6</v>
+      </c>
+      <c r="O305" t="s">
+        <v>6</v>
+      </c>
+      <c r="P305" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q305">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="306" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D306">
+        <v>1.875256</v>
+      </c>
+      <c r="E306">
+        <v>248.4</v>
+      </c>
+      <c r="F306">
+        <v>132.46193700000001</v>
+      </c>
+      <c r="G306" t="s">
+        <v>4</v>
+      </c>
+      <c r="H306">
+        <v>8</v>
+      </c>
+      <c r="I306" t="s">
+        <v>6</v>
+      </c>
+      <c r="J306" t="s">
+        <v>6</v>
+      </c>
+      <c r="K306" t="s">
+        <v>6</v>
+      </c>
+      <c r="L306" t="s">
+        <v>6</v>
+      </c>
+      <c r="M306" t="s">
+        <v>6</v>
+      </c>
+      <c r="N306" t="s">
+        <v>6</v>
+      </c>
+      <c r="O306" t="s">
+        <v>6</v>
+      </c>
+      <c r="P306" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q306">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="307" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D307">
+        <v>1.889184</v>
+      </c>
+      <c r="E307">
+        <v>248.4</v>
+      </c>
+      <c r="F307">
+        <v>131.48532499999999</v>
+      </c>
+      <c r="G307" t="s">
+        <v>4</v>
+      </c>
+      <c r="H307">
+        <v>8</v>
+      </c>
+      <c r="I307" t="s">
+        <v>6</v>
+      </c>
+      <c r="J307" t="s">
+        <v>6</v>
+      </c>
+      <c r="K307" t="s">
+        <v>6</v>
+      </c>
+      <c r="L307" t="s">
+        <v>6</v>
+      </c>
+      <c r="M307" t="s">
+        <v>6</v>
+      </c>
+      <c r="N307" t="s">
+        <v>6</v>
+      </c>
+      <c r="O307" t="s">
+        <v>6</v>
+      </c>
+      <c r="P307" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q307">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="308" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D308">
+        <v>0.40493299999999999</v>
+      </c>
+      <c r="E308">
+        <v>55.2</v>
+      </c>
+      <c r="F308">
+        <v>136.31875099999999</v>
+      </c>
+      <c r="G308" t="s">
+        <v>22</v>
+      </c>
+      <c r="H308">
+        <v>8</v>
+      </c>
+      <c r="I308" t="s">
+        <v>6</v>
+      </c>
+      <c r="J308" t="s">
+        <v>6</v>
+      </c>
+      <c r="K308" t="s">
+        <v>6</v>
+      </c>
+      <c r="L308" t="s">
+        <v>6</v>
+      </c>
+      <c r="M308" t="s">
+        <v>6</v>
+      </c>
+      <c r="N308" t="s">
+        <v>6</v>
+      </c>
+      <c r="O308" t="s">
+        <v>6</v>
+      </c>
+      <c r="P308" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D309">
+        <v>0.392569</v>
+      </c>
+      <c r="E309">
+        <v>55.2</v>
+      </c>
+      <c r="F309">
+        <v>140.61229</v>
+      </c>
+      <c r="G309" t="s">
+        <v>22</v>
+      </c>
+      <c r="H309">
+        <v>8</v>
+      </c>
+      <c r="I309" t="s">
+        <v>6</v>
+      </c>
+      <c r="J309" t="s">
+        <v>6</v>
+      </c>
+      <c r="K309" t="s">
+        <v>6</v>
+      </c>
+      <c r="L309" t="s">
+        <v>6</v>
+      </c>
+      <c r="M309" t="s">
+        <v>6</v>
+      </c>
+      <c r="N309" t="s">
+        <v>6</v>
+      </c>
+      <c r="O309" t="s">
+        <v>6</v>
+      </c>
+      <c r="P309" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D310">
+        <v>0.47877900000000001</v>
+      </c>
+      <c r="E310">
+        <v>82.8</v>
+      </c>
+      <c r="F310">
+        <v>172.93994900000001</v>
+      </c>
+      <c r="G310" t="s">
+        <v>22</v>
+      </c>
+      <c r="H310">
+        <v>8</v>
+      </c>
+      <c r="I310" t="s">
+        <v>6</v>
+      </c>
+      <c r="J310" t="s">
+        <v>6</v>
+      </c>
+      <c r="K310" t="s">
+        <v>6</v>
+      </c>
+      <c r="L310" t="s">
+        <v>6</v>
+      </c>
+      <c r="M310" t="s">
+        <v>6</v>
+      </c>
+      <c r="N310" t="s">
+        <v>6</v>
+      </c>
+      <c r="O310" t="s">
+        <v>6</v>
+      </c>
+      <c r="P310" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D311">
+        <v>0.31708599999999998</v>
+      </c>
+      <c r="E311">
+        <v>55.2</v>
+      </c>
+      <c r="F311">
+        <v>174.08509699999999</v>
+      </c>
+      <c r="G311" t="s">
+        <v>22</v>
+      </c>
+      <c r="H311">
+        <v>8</v>
+      </c>
+      <c r="I311" t="s">
+        <v>6</v>
+      </c>
+      <c r="J311" t="s">
+        <v>6</v>
+      </c>
+      <c r="K311" t="s">
+        <v>6</v>
+      </c>
+      <c r="L311" t="s">
+        <v>6</v>
+      </c>
+      <c r="M311" t="s">
+        <v>6</v>
+      </c>
+      <c r="N311" t="s">
+        <v>6</v>
+      </c>
+      <c r="O311" t="s">
+        <v>6</v>
+      </c>
+      <c r="P311" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q311">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="312" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D312">
+        <v>0.32798300000000002</v>
+      </c>
+      <c r="E312">
+        <v>55.2</v>
+      </c>
+      <c r="F312">
+        <v>168.301301</v>
+      </c>
+      <c r="G312" t="s">
+        <v>22</v>
+      </c>
+      <c r="H312">
+        <v>8</v>
+      </c>
+      <c r="I312" t="s">
+        <v>6</v>
+      </c>
+      <c r="J312" t="s">
+        <v>6</v>
+      </c>
+      <c r="K312" t="s">
+        <v>6</v>
+      </c>
+      <c r="L312" t="s">
+        <v>6</v>
+      </c>
+      <c r="M312" t="s">
+        <v>6</v>
+      </c>
+      <c r="N312" t="s">
+        <v>6</v>
+      </c>
+      <c r="O312" t="s">
+        <v>6</v>
+      </c>
+      <c r="P312" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q312">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="313" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D313">
+        <v>0.42105599999999999</v>
+      </c>
+      <c r="E313">
+        <v>82.8</v>
+      </c>
+      <c r="F313">
+        <v>196.64840899999999</v>
+      </c>
+      <c r="G313" t="s">
+        <v>22</v>
+      </c>
+      <c r="H313">
+        <v>8</v>
+      </c>
+      <c r="I313" t="s">
+        <v>6</v>
+      </c>
+      <c r="J313" t="s">
+        <v>6</v>
+      </c>
+      <c r="K313" t="s">
+        <v>6</v>
+      </c>
+      <c r="L313" t="s">
+        <v>6</v>
+      </c>
+      <c r="M313" t="s">
+        <v>6</v>
+      </c>
+      <c r="N313" t="s">
+        <v>6</v>
+      </c>
+      <c r="O313" t="s">
+        <v>6</v>
+      </c>
+      <c r="P313" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q313">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="314" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D314">
+        <v>0.37340699999999999</v>
+      </c>
+      <c r="E314">
+        <v>55.2</v>
+      </c>
+      <c r="F314">
+        <v>147.82809800000001</v>
+      </c>
+      <c r="G314" t="s">
+        <v>22</v>
+      </c>
+      <c r="H314">
+        <v>8</v>
+      </c>
+      <c r="I314" t="s">
+        <v>6</v>
+      </c>
+      <c r="J314" t="s">
+        <v>6</v>
+      </c>
+      <c r="K314" t="s">
+        <v>6</v>
+      </c>
+      <c r="L314" t="s">
+        <v>6</v>
+      </c>
+      <c r="M314" t="s">
+        <v>6</v>
+      </c>
+      <c r="N314" t="s">
+        <v>6</v>
+      </c>
+      <c r="O314" t="s">
+        <v>6</v>
+      </c>
+      <c r="P314" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q314">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="315" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D315">
+        <v>0.41725299999999999</v>
+      </c>
+      <c r="E315">
+        <v>55.2</v>
+      </c>
+      <c r="F315">
+        <v>132.293915</v>
+      </c>
+      <c r="G315" t="s">
+        <v>22</v>
+      </c>
+      <c r="H315">
+        <v>8</v>
+      </c>
+      <c r="I315" t="s">
+        <v>6</v>
+      </c>
+      <c r="J315" t="s">
+        <v>6</v>
+      </c>
+      <c r="K315" t="s">
+        <v>6</v>
+      </c>
+      <c r="L315" t="s">
+        <v>6</v>
+      </c>
+      <c r="M315" t="s">
+        <v>6</v>
+      </c>
+      <c r="N315" t="s">
+        <v>6</v>
+      </c>
+      <c r="O315" t="s">
+        <v>6</v>
+      </c>
+      <c r="P315" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q315">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="316" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D316">
+        <v>0.38459700000000002</v>
+      </c>
+      <c r="E316">
+        <v>55.2</v>
+      </c>
+      <c r="F316">
+        <v>143.52676400000001</v>
+      </c>
+      <c r="G316" t="s">
+        <v>22</v>
+      </c>
+      <c r="H316">
+        <v>8</v>
+      </c>
+      <c r="I316" t="s">
+        <v>6</v>
+      </c>
+      <c r="J316" t="s">
+        <v>6</v>
+      </c>
+      <c r="K316" t="s">
+        <v>6</v>
+      </c>
+      <c r="L316" t="s">
+        <v>6</v>
+      </c>
+      <c r="M316" t="s">
+        <v>6</v>
+      </c>
+      <c r="N316" t="s">
+        <v>6</v>
+      </c>
+      <c r="O316" t="s">
+        <v>6</v>
+      </c>
+      <c r="P316" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q316">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="317" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D317">
+        <v>1.9638439999999999</v>
+      </c>
+      <c r="E317">
+        <v>248.4</v>
+      </c>
+      <c r="F317">
+        <v>126.486637</v>
+      </c>
+      <c r="G317" t="s">
+        <v>7</v>
+      </c>
+      <c r="H317">
+        <v>8</v>
+      </c>
+      <c r="I317" t="s">
+        <v>6</v>
+      </c>
+      <c r="J317" t="s">
+        <v>6</v>
+      </c>
+      <c r="K317" t="s">
+        <v>6</v>
+      </c>
+      <c r="L317" t="s">
+        <v>6</v>
+      </c>
+      <c r="M317" t="s">
+        <v>6</v>
+      </c>
+      <c r="N317" t="s">
+        <v>6</v>
+      </c>
+      <c r="O317" t="s">
+        <v>6</v>
+      </c>
+      <c r="P317" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D318">
+        <v>1.984626</v>
+      </c>
+      <c r="E318">
+        <v>248.4</v>
+      </c>
+      <c r="F318">
+        <v>125.162097</v>
+      </c>
+      <c r="G318" t="s">
+        <v>7</v>
+      </c>
+      <c r="H318">
+        <v>8</v>
+      </c>
+      <c r="I318" t="s">
+        <v>6</v>
+      </c>
+      <c r="J318" t="s">
+        <v>6</v>
+      </c>
+      <c r="K318" t="s">
+        <v>6</v>
+      </c>
+      <c r="L318" t="s">
+        <v>6</v>
+      </c>
+      <c r="M318" t="s">
+        <v>6</v>
+      </c>
+      <c r="N318" t="s">
+        <v>6</v>
+      </c>
+      <c r="O318" t="s">
+        <v>6</v>
+      </c>
+      <c r="P318" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D319">
+        <v>1.8375049999999999</v>
+      </c>
+      <c r="E319">
+        <v>220.8</v>
+      </c>
+      <c r="F319">
+        <v>120.16297</v>
+      </c>
+      <c r="G319" t="s">
+        <v>7</v>
+      </c>
+      <c r="H319">
+        <v>8</v>
+      </c>
+      <c r="I319" t="s">
+        <v>6</v>
+      </c>
+      <c r="J319" t="s">
+        <v>6</v>
+      </c>
+      <c r="K319" t="s">
+        <v>6</v>
+      </c>
+      <c r="L319" t="s">
+        <v>6</v>
+      </c>
+      <c r="M319" t="s">
+        <v>6</v>
+      </c>
+      <c r="N319" t="s">
+        <v>6</v>
+      </c>
+      <c r="O319" t="s">
+        <v>6</v>
+      </c>
+      <c r="P319" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D320">
+        <v>1.4200790000000001</v>
+      </c>
+      <c r="E320">
+        <v>193.2</v>
+      </c>
+      <c r="F320">
+        <v>136.048811</v>
+      </c>
+      <c r="G320" t="s">
+        <v>7</v>
+      </c>
+      <c r="H320">
+        <v>8</v>
+      </c>
+      <c r="I320" t="s">
+        <v>6</v>
+      </c>
+      <c r="J320" t="s">
+        <v>6</v>
+      </c>
+      <c r="K320" t="s">
+        <v>6</v>
+      </c>
+      <c r="L320" t="s">
+        <v>6</v>
+      </c>
+      <c r="M320" t="s">
+        <v>6</v>
+      </c>
+      <c r="N320" t="s">
+        <v>6</v>
+      </c>
+      <c r="O320" t="s">
+        <v>6</v>
+      </c>
+      <c r="P320" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q320">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="321" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D321">
+        <v>1.5991150000000001</v>
+      </c>
+      <c r="E321">
+        <v>220.8</v>
+      </c>
+      <c r="F321">
+        <v>138.076412</v>
+      </c>
+      <c r="G321" t="s">
+        <v>7</v>
+      </c>
+      <c r="H321">
+        <v>8</v>
+      </c>
+      <c r="I321" t="s">
+        <v>6</v>
+      </c>
+      <c r="J321" t="s">
+        <v>6</v>
+      </c>
+      <c r="K321" t="s">
+        <v>6</v>
+      </c>
+      <c r="L321" t="s">
+        <v>6</v>
+      </c>
+      <c r="M321" t="s">
+        <v>6</v>
+      </c>
+      <c r="N321" t="s">
+        <v>6</v>
+      </c>
+      <c r="O321" t="s">
+        <v>6</v>
+      </c>
+      <c r="P321" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q321">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="322" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D322">
+        <v>1.5742290000000001</v>
+      </c>
+      <c r="E322">
+        <v>220.8</v>
+      </c>
+      <c r="F322">
+        <v>140.25913600000001</v>
+      </c>
+      <c r="G322" t="s">
+        <v>7</v>
+      </c>
+      <c r="H322">
+        <v>8</v>
+      </c>
+      <c r="I322" t="s">
+        <v>6</v>
+      </c>
+      <c r="J322" t="s">
+        <v>6</v>
+      </c>
+      <c r="K322" t="s">
+        <v>6</v>
+      </c>
+      <c r="L322" t="s">
+        <v>6</v>
+      </c>
+      <c r="M322" t="s">
+        <v>6</v>
+      </c>
+      <c r="N322" t="s">
+        <v>6</v>
+      </c>
+      <c r="O322" t="s">
+        <v>6</v>
+      </c>
+      <c r="P322" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q322">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="323" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D323">
+        <v>1.812767</v>
+      </c>
+      <c r="E323">
+        <v>248.4</v>
+      </c>
+      <c r="F323">
+        <v>137.02811</v>
+      </c>
+      <c r="G323" t="s">
+        <v>7</v>
+      </c>
+      <c r="H323">
+        <v>8</v>
+      </c>
+      <c r="I323" t="s">
+        <v>6</v>
+      </c>
+      <c r="J323" t="s">
+        <v>6</v>
+      </c>
+      <c r="K323" t="s">
+        <v>6</v>
+      </c>
+      <c r="L323" t="s">
+        <v>6</v>
+      </c>
+      <c r="M323" t="s">
+        <v>6</v>
+      </c>
+      <c r="N323" t="s">
+        <v>6</v>
+      </c>
+      <c r="O323" t="s">
+        <v>6</v>
+      </c>
+      <c r="P323" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q323">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="324" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D324">
+        <v>1.7505109999999999</v>
+      </c>
+      <c r="E324">
+        <v>220.8</v>
+      </c>
+      <c r="F324">
+        <v>126.13459899999999</v>
+      </c>
+      <c r="G324" t="s">
+        <v>7</v>
+      </c>
+      <c r="H324">
+        <v>8</v>
+      </c>
+      <c r="I324" t="s">
+        <v>6</v>
+      </c>
+      <c r="J324" t="s">
+        <v>6</v>
+      </c>
+      <c r="K324" t="s">
+        <v>6</v>
+      </c>
+      <c r="L324" t="s">
+        <v>6</v>
+      </c>
+      <c r="M324" t="s">
+        <v>6</v>
+      </c>
+      <c r="N324" t="s">
+        <v>6</v>
+      </c>
+      <c r="O324" t="s">
+        <v>6</v>
+      </c>
+      <c r="P324" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q324">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="325" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D325">
+        <v>1.7808120000000001</v>
+      </c>
+      <c r="E325">
+        <v>248.4</v>
+      </c>
+      <c r="F325">
+        <v>139.48695900000001</v>
+      </c>
+      <c r="G325" t="s">
+        <v>7</v>
+      </c>
+      <c r="H325">
+        <v>8</v>
+      </c>
+      <c r="I325" t="s">
+        <v>6</v>
+      </c>
+      <c r="J325" t="s">
+        <v>6</v>
+      </c>
+      <c r="K325" t="s">
+        <v>6</v>
+      </c>
+      <c r="L325" t="s">
+        <v>6</v>
+      </c>
+      <c r="M325" t="s">
+        <v>6</v>
+      </c>
+      <c r="N325" t="s">
+        <v>6</v>
+      </c>
+      <c r="O325" t="s">
+        <v>6</v>
+      </c>
+      <c r="P325" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q325">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="326" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D326">
+        <v>3.4055080000000002</v>
+      </c>
+      <c r="E326">
+        <v>414</v>
+      </c>
+      <c r="F326">
+        <v>121.567761</v>
+      </c>
+      <c r="G326" t="s">
+        <v>16</v>
+      </c>
+      <c r="H326">
+        <v>8</v>
+      </c>
+      <c r="I326" t="s">
+        <v>6</v>
+      </c>
+      <c r="J326" t="s">
+        <v>6</v>
+      </c>
+      <c r="K326" t="s">
+        <v>6</v>
+      </c>
+      <c r="L326" t="s">
+        <v>6</v>
+      </c>
+      <c r="M326" t="s">
+        <v>6</v>
+      </c>
+      <c r="N326" t="s">
+        <v>6</v>
+      </c>
+      <c r="O326" t="s">
+        <v>6</v>
+      </c>
+      <c r="P326" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D327">
+        <v>3.3675980000000001</v>
+      </c>
+      <c r="E327">
+        <v>441.6</v>
+      </c>
+      <c r="F327">
+        <v>131.132024</v>
+      </c>
+      <c r="G327" t="s">
+        <v>16</v>
+      </c>
+      <c r="H327">
+        <v>8</v>
+      </c>
+      <c r="I327" t="s">
+        <v>6</v>
+      </c>
+      <c r="J327" t="s">
+        <v>6</v>
+      </c>
+      <c r="K327" t="s">
+        <v>6</v>
+      </c>
+      <c r="L327" t="s">
+        <v>6</v>
+      </c>
+      <c r="M327" t="s">
+        <v>6</v>
+      </c>
+      <c r="N327" t="s">
+        <v>6</v>
+      </c>
+      <c r="O327" t="s">
+        <v>6</v>
+      </c>
+      <c r="P327" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D328">
+        <v>1.6659489999999999</v>
+      </c>
+      <c r="E328">
+        <v>220.8</v>
+      </c>
+      <c r="F328">
+        <v>132.53706</v>
+      </c>
+      <c r="G328" t="s">
+        <v>16</v>
+      </c>
+      <c r="H328">
+        <v>8</v>
+      </c>
+      <c r="I328" t="s">
+        <v>6</v>
+      </c>
+      <c r="J328" t="s">
+        <v>6</v>
+      </c>
+      <c r="K328" t="s">
+        <v>6</v>
+      </c>
+      <c r="L328" t="s">
+        <v>6</v>
+      </c>
+      <c r="M328" t="s">
+        <v>6</v>
+      </c>
+      <c r="N328" t="s">
+        <v>6</v>
+      </c>
+      <c r="O328" t="s">
+        <v>6</v>
+      </c>
+      <c r="P328" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D329">
+        <v>3.044543</v>
+      </c>
+      <c r="E329">
+        <v>386.4</v>
+      </c>
+      <c r="F329">
+        <v>126.915593</v>
+      </c>
+      <c r="G329" t="s">
+        <v>16</v>
+      </c>
+      <c r="H329">
+        <v>8</v>
+      </c>
+      <c r="I329" t="s">
+        <v>6</v>
+      </c>
+      <c r="J329" t="s">
+        <v>6</v>
+      </c>
+      <c r="K329" t="s">
+        <v>6</v>
+      </c>
+      <c r="L329" t="s">
+        <v>6</v>
+      </c>
+      <c r="M329" t="s">
+        <v>6</v>
+      </c>
+      <c r="N329" t="s">
+        <v>6</v>
+      </c>
+      <c r="O329" t="s">
+        <v>6</v>
+      </c>
+      <c r="P329" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q329">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="330" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D330">
+        <v>2.9544969999999999</v>
+      </c>
+      <c r="E330">
+        <v>386.4</v>
+      </c>
+      <c r="F330">
+        <v>130.78369599999999</v>
+      </c>
+      <c r="G330" t="s">
+        <v>16</v>
+      </c>
+      <c r="H330">
+        <v>8</v>
+      </c>
+      <c r="I330" t="s">
+        <v>6</v>
+      </c>
+      <c r="J330" t="s">
+        <v>6</v>
+      </c>
+      <c r="K330" t="s">
+        <v>6</v>
+      </c>
+      <c r="L330" t="s">
+        <v>6</v>
+      </c>
+      <c r="M330" t="s">
+        <v>6</v>
+      </c>
+      <c r="N330" t="s">
+        <v>6</v>
+      </c>
+      <c r="O330" t="s">
+        <v>6</v>
+      </c>
+      <c r="P330" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q330">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="331" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D331">
+        <v>2.9866389999999998</v>
+      </c>
+      <c r="E331">
+        <v>386.4</v>
+      </c>
+      <c r="F331">
+        <v>129.376206</v>
+      </c>
+      <c r="G331" t="s">
+        <v>16</v>
+      </c>
+      <c r="H331">
+        <v>8</v>
+      </c>
+      <c r="I331" t="s">
+        <v>6</v>
+      </c>
+      <c r="J331" t="s">
+        <v>6</v>
+      </c>
+      <c r="K331" t="s">
+        <v>6</v>
+      </c>
+      <c r="L331" t="s">
+        <v>6</v>
+      </c>
+      <c r="M331" t="s">
+        <v>6</v>
+      </c>
+      <c r="N331" t="s">
+        <v>6</v>
+      </c>
+      <c r="O331" t="s">
+        <v>6</v>
+      </c>
+      <c r="P331" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q331">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="332" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D332">
+        <v>3.3097539999999999</v>
+      </c>
+      <c r="E332">
+        <v>414</v>
+      </c>
+      <c r="F332">
+        <v>125.084822</v>
+      </c>
+      <c r="G332" t="s">
+        <v>16</v>
+      </c>
+      <c r="H332">
+        <v>8</v>
+      </c>
+      <c r="I332" t="s">
+        <v>6</v>
+      </c>
+      <c r="J332" t="s">
+        <v>6</v>
+      </c>
+      <c r="K332" t="s">
+        <v>6</v>
+      </c>
+      <c r="L332" t="s">
+        <v>6</v>
+      </c>
+      <c r="M332" t="s">
+        <v>6</v>
+      </c>
+      <c r="N332" t="s">
+        <v>6</v>
+      </c>
+      <c r="O332" t="s">
+        <v>6</v>
+      </c>
+      <c r="P332" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q332">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="333" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D333">
+        <v>3.281908</v>
+      </c>
+      <c r="E333">
+        <v>414</v>
+      </c>
+      <c r="F333">
+        <v>126.146146</v>
+      </c>
+      <c r="G333" t="s">
+        <v>16</v>
+      </c>
+      <c r="H333">
+        <v>8</v>
+      </c>
+      <c r="I333" t="s">
+        <v>6</v>
+      </c>
+      <c r="J333" t="s">
+        <v>6</v>
+      </c>
+      <c r="K333" t="s">
+        <v>6</v>
+      </c>
+      <c r="L333" t="s">
+        <v>6</v>
+      </c>
+      <c r="M333" t="s">
+        <v>6</v>
+      </c>
+      <c r="N333" t="s">
+        <v>6</v>
+      </c>
+      <c r="O333" t="s">
+        <v>6</v>
+      </c>
+      <c r="P333" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q333">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="334" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D334">
+        <v>3.3097850000000002</v>
+      </c>
+      <c r="E334">
+        <v>414</v>
+      </c>
+      <c r="F334">
+        <v>125.083652</v>
+      </c>
+      <c r="G334" t="s">
+        <v>16</v>
+      </c>
+      <c r="H334">
+        <v>8</v>
+      </c>
+      <c r="I334" t="s">
+        <v>6</v>
+      </c>
+      <c r="J334" t="s">
+        <v>6</v>
+      </c>
+      <c r="K334" t="s">
+        <v>6</v>
+      </c>
+      <c r="L334" t="s">
+        <v>6</v>
+      </c>
+      <c r="M334" t="s">
+        <v>6</v>
+      </c>
+      <c r="N334" t="s">
+        <v>6</v>
+      </c>
+      <c r="O334" t="s">
+        <v>6</v>
+      </c>
+      <c r="P334" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q334">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="335" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D335">
+        <v>2.2786330000000001</v>
+      </c>
+      <c r="E335">
+        <v>303.60000000000002</v>
+      </c>
+      <c r="F335">
+        <v>133.237798</v>
+      </c>
+      <c r="G335" t="s">
+        <v>25</v>
+      </c>
+      <c r="H335">
+        <v>8</v>
+      </c>
+      <c r="I335" t="s">
+        <v>6</v>
+      </c>
+      <c r="J335" t="s">
+        <v>6</v>
+      </c>
+      <c r="K335" t="s">
+        <v>6</v>
+      </c>
+      <c r="L335" t="s">
+        <v>6</v>
+      </c>
+      <c r="M335" t="s">
+        <v>6</v>
+      </c>
+      <c r="N335" t="s">
+        <v>6</v>
+      </c>
+      <c r="O335" t="s">
+        <v>6</v>
+      </c>
+      <c r="P335" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D336">
+        <v>2.3804979999999998</v>
+      </c>
+      <c r="E336">
+        <v>303.60000000000002</v>
+      </c>
+      <c r="F336">
+        <v>127.53635800000001</v>
+      </c>
+      <c r="G336" t="s">
+        <v>25</v>
+      </c>
+      <c r="H336">
+        <v>8</v>
+      </c>
+      <c r="I336" t="s">
+        <v>6</v>
+      </c>
+      <c r="J336" t="s">
+        <v>6</v>
+      </c>
+      <c r="K336" t="s">
+        <v>6</v>
+      </c>
+      <c r="L336" t="s">
+        <v>6</v>
+      </c>
+      <c r="M336" t="s">
+        <v>6</v>
+      </c>
+      <c r="N336" t="s">
+        <v>6</v>
+      </c>
+      <c r="O336" t="s">
+        <v>6</v>
+      </c>
+      <c r="P336" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D337">
+        <v>2.3921290000000002</v>
+      </c>
+      <c r="E337">
+        <v>303.60000000000002</v>
+      </c>
+      <c r="F337">
+        <v>126.916239</v>
+      </c>
+      <c r="G337" t="s">
+        <v>25</v>
+      </c>
+      <c r="H337">
+        <v>8</v>
+      </c>
+      <c r="I337" t="s">
+        <v>6</v>
+      </c>
+      <c r="J337" t="s">
+        <v>6</v>
+      </c>
+      <c r="K337" t="s">
+        <v>6</v>
+      </c>
+      <c r="L337" t="s">
+        <v>6</v>
+      </c>
+      <c r="M337" t="s">
+        <v>6</v>
+      </c>
+      <c r="N337" t="s">
+        <v>6</v>
+      </c>
+      <c r="O337" t="s">
+        <v>6</v>
+      </c>
+      <c r="P337" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D338">
+        <v>2.6629360000000002</v>
+      </c>
+      <c r="E338">
+        <v>331.2</v>
+      </c>
+      <c r="F338">
+        <v>124.373985</v>
+      </c>
+      <c r="G338" t="s">
+        <v>25</v>
+      </c>
+      <c r="H338">
+        <v>8</v>
+      </c>
+      <c r="I338" t="s">
+        <v>6</v>
+      </c>
+      <c r="J338" t="s">
+        <v>6</v>
+      </c>
+      <c r="K338" t="s">
+        <v>6</v>
+      </c>
+      <c r="L338" t="s">
+        <v>6</v>
+      </c>
+      <c r="M338" t="s">
+        <v>6</v>
+      </c>
+      <c r="N338" t="s">
+        <v>6</v>
+      </c>
+      <c r="O338" t="s">
+        <v>6</v>
+      </c>
+      <c r="P338" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q338">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="339" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D339">
+        <v>2.5461839999999998</v>
+      </c>
+      <c r="E339">
+        <v>331.2</v>
+      </c>
+      <c r="F339">
+        <v>130.076989</v>
+      </c>
+      <c r="G339" t="s">
+        <v>25</v>
+      </c>
+      <c r="H339">
+        <v>8</v>
+      </c>
+      <c r="I339" t="s">
+        <v>6</v>
+      </c>
+      <c r="J339" t="s">
+        <v>6</v>
+      </c>
+      <c r="K339" t="s">
+        <v>6</v>
+      </c>
+      <c r="L339" t="s">
+        <v>6</v>
+      </c>
+      <c r="M339" t="s">
+        <v>6</v>
+      </c>
+      <c r="N339" t="s">
+        <v>6</v>
+      </c>
+      <c r="O339" t="s">
+        <v>6</v>
+      </c>
+      <c r="P339" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q339">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="340" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D340">
+        <v>2.6479059999999999</v>
+      </c>
+      <c r="E340">
+        <v>331.2</v>
+      </c>
+      <c r="F340">
+        <v>125.079964</v>
+      </c>
+      <c r="G340" t="s">
+        <v>25</v>
+      </c>
+      <c r="H340">
+        <v>8</v>
+      </c>
+      <c r="I340" t="s">
+        <v>6</v>
+      </c>
+      <c r="J340" t="s">
+        <v>6</v>
+      </c>
+      <c r="K340" t="s">
+        <v>6</v>
+      </c>
+      <c r="L340" t="s">
+        <v>6</v>
+      </c>
+      <c r="M340" t="s">
+        <v>6</v>
+      </c>
+      <c r="N340" t="s">
+        <v>6</v>
+      </c>
+      <c r="O340" t="s">
+        <v>6</v>
+      </c>
+      <c r="P340" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q340">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="341" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D341">
+        <v>3.0376919999999998</v>
+      </c>
+      <c r="E341">
+        <v>386.4</v>
+      </c>
+      <c r="F341">
+        <v>127.201857</v>
+      </c>
+      <c r="G341" t="s">
+        <v>25</v>
+      </c>
+      <c r="H341">
+        <v>8</v>
+      </c>
+      <c r="I341" t="s">
+        <v>6</v>
+      </c>
+      <c r="J341" t="s">
+        <v>6</v>
+      </c>
+      <c r="K341" t="s">
+        <v>6</v>
+      </c>
+      <c r="L341" t="s">
+        <v>6</v>
+      </c>
+      <c r="M341" t="s">
+        <v>6</v>
+      </c>
+      <c r="N341" t="s">
+        <v>6</v>
+      </c>
+      <c r="O341" t="s">
+        <v>6</v>
+      </c>
+      <c r="P341" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q341">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="342" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D342">
+        <v>2.8927010000000002</v>
+      </c>
+      <c r="E342">
+        <v>358.8</v>
+      </c>
+      <c r="F342">
+        <v>124.03633600000001</v>
+      </c>
+      <c r="G342" t="s">
+        <v>25</v>
+      </c>
+      <c r="H342">
+        <v>8</v>
+      </c>
+      <c r="I342" t="s">
+        <v>6</v>
+      </c>
+      <c r="J342" t="s">
+        <v>6</v>
+      </c>
+      <c r="K342" t="s">
+        <v>6</v>
+      </c>
+      <c r="L342" t="s">
+        <v>6</v>
+      </c>
+      <c r="M342" t="s">
+        <v>6</v>
+      </c>
+      <c r="N342" t="s">
+        <v>6</v>
+      </c>
+      <c r="O342" t="s">
+        <v>6</v>
+      </c>
+      <c r="P342" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q342">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="343" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D343">
+        <v>3.0871189999999999</v>
+      </c>
+      <c r="E343">
+        <v>386.4</v>
+      </c>
+      <c r="F343">
+        <v>125.165246</v>
+      </c>
+      <c r="G343" t="s">
+        <v>25</v>
+      </c>
+      <c r="H343">
+        <v>8</v>
+      </c>
+      <c r="I343" t="s">
+        <v>6</v>
+      </c>
+      <c r="J343" t="s">
+        <v>6</v>
+      </c>
+      <c r="K343" t="s">
+        <v>6</v>
+      </c>
+      <c r="L343" t="s">
+        <v>6</v>
+      </c>
+      <c r="M343" t="s">
+        <v>6</v>
+      </c>
+      <c r="N343" t="s">
+        <v>6</v>
+      </c>
+      <c r="O343" t="s">
+        <v>6</v>
+      </c>
+      <c r="P343" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q343">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -19836,389 +23824,3027 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA991820-23B8-B243-8ED6-E6F6E289C662}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A2:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="83" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="12" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B2" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B12">
+      <c r="B13" s="5">
+        <v>0.76177085714285719</v>
+      </c>
+      <c r="C13" s="5">
+        <v>100.54285714285716</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="38">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.61996299999999993</v>
+      </c>
+      <c r="C14" s="5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="38">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.71267499999999995</v>
+      </c>
+      <c r="C15" s="5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="38">
+        <v>100</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.67551000000000005</v>
+      </c>
+      <c r="C16" s="5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="5">
         <v>0.92806959999999994</v>
       </c>
-      <c r="C12">
-        <v>124.667174</v>
-      </c>
-      <c r="D12">
+      <c r="C17" s="5">
         <v>115.92</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B13">
+      <c r="B18" s="5">
+        <v>1.5520229999999999</v>
+      </c>
+      <c r="C18" s="5">
+        <v>205.02857142857141</v>
+      </c>
+      <c r="E18">
+        <f>((GETPIVOTDATA("ave of energy",$A$11,"app","BatterySaver_backgroundmusic")-GETPIVOTDATA("ave of energy",$A$11,"app","background_music"))/GETPIVOTDATA("ave of energy",$A$11,"app","background_music"))*100</f>
+        <v>-17.647058823529427</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="38">
+        <v>1</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1.5144760000000002</v>
+      </c>
+      <c r="C19" s="5">
+        <v>193.19999999999996</v>
+      </c>
+      <c r="E19">
+        <f>((GETPIVOTDATA("ave of energy",$A$11,"app","BatterySaver_game")-GETPIVOTDATA("ave of energy",$A$11,"app","game"))/GETPIVOTDATA("ave of energy",$A$11,"app","game"))*100</f>
+        <v>-10.256410256410248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="38">
+        <v>10</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1.4433513333333332</v>
+      </c>
+      <c r="C20" s="5">
+        <v>193.19999999999996</v>
+      </c>
+      <c r="E20">
+        <f>((GETPIVOTDATA("ave of energy",$A$11,"app","BatterySaver_socialmedia")-GETPIVOTDATA("ave of energy",$A$11,"app","social_media"))/GETPIVOTDATA("ave of energy",$A$11,"app","social_media"))*100</f>
+        <v>-4.1666666666666616</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="38">
+        <v>100</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1.8862413333333334</v>
+      </c>
+      <c r="C21" s="5">
+        <v>248.4</v>
+      </c>
+      <c r="E21">
+        <f>((GETPIVOTDATA("ave of energy",$A$11,"app","BatterySaver_idle")-GETPIVOTDATA("ave of energy",$A$11,"app","idle"))/GETPIVOTDATA("ave of energy",$A$11,"app","idle"))*100</f>
+        <v>2.0833333333333144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="5">
         <v>1.4392232</v>
       </c>
-      <c r="C13">
-        <v>134.31204499999998</v>
-      </c>
-      <c r="D13">
+      <c r="C22" s="5">
         <v>193.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="E22">
+        <f>((GETPIVOTDATA("ave of energy",$A$11,"app","BatterySaver_videocall")-GETPIVOTDATA("ave of energy",$A$11,"app","video_call"))/GETPIVOTDATA("ave of energy",$A$11,"app","video_call"))*100</f>
+        <v>-2.3809523809523778</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B14">
+      <c r="B23" s="5">
+        <v>1.6446595000000002</v>
+      </c>
+      <c r="C23" s="5">
+        <v>220.79999999999998</v>
+      </c>
+      <c r="E23">
+        <f>((GETPIVOTDATA("ave of energy",$A$11,"app","BatterySaver_web")-GETPIVOTDATA("ave of energy",$A$11,"app","web"))/GETPIVOTDATA("ave of energy",$A$11,"app","web"))*100</f>
+        <v>-20.697167755991298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="38">
+        <v>1</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1.9286583333333331</v>
+      </c>
+      <c r="C24" s="5">
+        <v>239.20000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="38">
+        <v>10</v>
+      </c>
+      <c r="B25" s="5">
+        <v>1.5311410000000001</v>
+      </c>
+      <c r="C25" s="5">
+        <v>211.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="38">
+        <v>100</v>
+      </c>
+      <c r="B26" s="5">
+        <v>1.7813633333333332</v>
+      </c>
+      <c r="C26" s="5">
+        <v>239.20000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="5">
         <v>1.4603489999999997</v>
       </c>
-      <c r="C14">
-        <v>139.878828</v>
-      </c>
-      <c r="D14">
+      <c r="C27" s="5">
         <v>204.24</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
+      <c r="B28" s="5">
+        <v>3.0290859999999999</v>
+      </c>
+      <c r="C28" s="5">
+        <v>386.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="38">
+        <v>1</v>
+      </c>
+      <c r="B29" s="5">
+        <v>2.8130183333333334</v>
+      </c>
+      <c r="C29" s="5">
+        <v>358.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="38">
+        <v>10</v>
+      </c>
+      <c r="B30" s="5">
+        <v>2.9952263333333335</v>
+      </c>
+      <c r="C30" s="5">
+        <v>386.39999999999992</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="38">
+        <v>100</v>
+      </c>
+      <c r="B31" s="5">
+        <v>3.3004823333333335</v>
+      </c>
+      <c r="C31" s="5">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="5">
         <v>3.0162046</v>
       </c>
-      <c r="C15">
-        <v>128.15018519999998</v>
-      </c>
-      <c r="D15">
+      <c r="C32" s="5">
         <v>386.4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B16">
+      <c r="B33" s="5">
+        <v>0.40395842857142866</v>
+      </c>
+      <c r="C33" s="5">
+        <v>63.085714285714289</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="38">
+        <v>1</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0.425427</v>
+      </c>
+      <c r="C34" s="5">
+        <v>64.399999999999991</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="38">
+        <v>10</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0.355375</v>
+      </c>
+      <c r="C35" s="5">
+        <v>64.399999999999991</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="38">
+        <v>100</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0.39175233333333331</v>
+      </c>
+      <c r="C36" s="5">
+        <v>55.20000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="5">
         <v>0.42755100000000007</v>
       </c>
-      <c r="C16">
-        <v>155.7137366</v>
-      </c>
-      <c r="D16">
+      <c r="C37" s="5">
         <v>66.240000000000009</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17">
-        <v>1.8020742000000003</v>
-      </c>
-      <c r="C17">
-        <v>131.731325</v>
-      </c>
-      <c r="D17">
-        <v>237.36000000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18">
-        <v>0.65575166666666662</v>
-      </c>
-      <c r="C18">
-        <v>126.27527833333333</v>
-      </c>
-      <c r="D18">
-        <v>82.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19">
-        <v>1.4402106666666665</v>
-      </c>
-      <c r="C19">
-        <v>127.76912800000001</v>
-      </c>
-      <c r="D19">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20">
-        <v>1.6009693333333335</v>
-      </c>
-      <c r="C20">
-        <v>132.13346766666666</v>
-      </c>
-      <c r="D20">
-        <v>211.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21">
-        <v>0.34554666666666667</v>
-      </c>
-      <c r="C21">
-        <v>184.734151</v>
-      </c>
-      <c r="D21">
-        <v>64.399999999999991</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22">
-        <v>2.9975236666666665</v>
-      </c>
-      <c r="C22">
-        <v>125.93867366666666</v>
-      </c>
-      <c r="D22">
-        <v>377.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23">
-        <v>1.7841386666666665</v>
-      </c>
-      <c r="C23">
-        <v>134.012835</v>
-      </c>
-      <c r="D23">
-        <v>239.20000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24">
-        <v>1.4966620833333331</v>
-      </c>
-      <c r="C24">
-        <v>136.76785562500001</v>
-      </c>
-      <c r="D24">
-        <v>197.79999999999995</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33">
-        <v>0.92806960000000005</v>
-      </c>
-      <c r="C33">
-        <v>124.667174</v>
-      </c>
-      <c r="D33">
-        <v>115.92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34">
-        <v>1.4392232</v>
-      </c>
-      <c r="C34">
-        <v>134.31204499999998</v>
-      </c>
-      <c r="D34">
-        <v>193.2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35">
-        <v>1.4603489999999999</v>
-      </c>
-      <c r="C35">
-        <v>139.878828</v>
-      </c>
-      <c r="D35">
-        <v>204.24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36">
-        <v>3.0162046</v>
-      </c>
-      <c r="C36">
-        <v>128.15018519999998</v>
-      </c>
-      <c r="D36">
-        <v>386.4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37">
-        <v>0.42755100000000007</v>
-      </c>
-      <c r="C37">
-        <v>155.7137366</v>
-      </c>
-      <c r="D37">
-        <v>66.240000000000009</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="5">
+        <v>2.3525835000000002</v>
+      </c>
+      <c r="C38" s="5">
+        <v>301.62857142857149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="38">
+        <v>1</v>
+      </c>
+      <c r="B39" s="5">
+        <v>2.3504200000000002</v>
+      </c>
+      <c r="C39" s="5">
+        <v>303.60000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="38">
+        <v>10</v>
+      </c>
+      <c r="B40" s="5">
+        <v>2.6190086666666663</v>
+      </c>
+      <c r="C40" s="5">
+        <v>331.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="38">
+        <v>100</v>
+      </c>
+      <c r="B41" s="5">
+        <v>3.0058373333333335</v>
+      </c>
+      <c r="C41" s="5">
+        <v>377.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="5">
         <v>1.8020742000000003</v>
       </c>
-      <c r="C38">
+      <c r="C42" s="5">
+        <v>237.36000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="5">
+        <v>0.65575166666666662</v>
+      </c>
+      <c r="C43" s="5">
+        <v>82.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0.65575166666666662</v>
+      </c>
+      <c r="C44" s="5">
+        <v>82.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="5">
+        <v>1.4402106666666665</v>
+      </c>
+      <c r="C45" s="5">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="5">
+        <v>1.4402106666666665</v>
+      </c>
+      <c r="C46" s="5">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="5">
+        <v>1.6009693333333335</v>
+      </c>
+      <c r="C47" s="5">
+        <v>211.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="5">
+        <v>1.6009693333333335</v>
+      </c>
+      <c r="C48" s="5">
+        <v>211.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="5">
+        <v>0.34554666666666667</v>
+      </c>
+      <c r="C49" s="5">
+        <v>64.399999999999991</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="5">
+        <v>0.34554666666666667</v>
+      </c>
+      <c r="C50" s="5">
+        <v>64.399999999999991</v>
+      </c>
+      <c r="K50" t="s">
+        <v>27</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="5">
+        <v>2.9975236666666665</v>
+      </c>
+      <c r="C51" s="5">
+        <v>377.2</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L51">
+        <v>0.92806960000000005</v>
+      </c>
+      <c r="M51">
+        <v>124.667174</v>
+      </c>
+      <c r="N51">
+        <v>115.92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="5">
+        <v>2.9975236666666665</v>
+      </c>
+      <c r="C52" s="5">
+        <v>377.2</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52">
+        <v>1.4392232</v>
+      </c>
+      <c r="M52">
+        <v>134.31204499999998</v>
+      </c>
+      <c r="N52">
+        <v>193.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="5">
+        <v>1.7841386666666665</v>
+      </c>
+      <c r="C53" s="5">
+        <v>239.20000000000002</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L53">
+        <v>1.4603489999999999</v>
+      </c>
+      <c r="M53">
+        <v>139.878828</v>
+      </c>
+      <c r="N53">
+        <v>204.24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="5">
+        <v>1.7841386666666665</v>
+      </c>
+      <c r="C54" s="5">
+        <v>239.20000000000002</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L54">
+        <v>3.0162046</v>
+      </c>
+      <c r="M54">
+        <v>128.15018519999998</v>
+      </c>
+      <c r="N54">
+        <v>386.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="5">
+        <v>1.5969564705882362</v>
+      </c>
+      <c r="C55" s="5">
+        <v>209.43529411764715</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L55">
+        <v>0.42755100000000007</v>
+      </c>
+      <c r="M55">
+        <v>155.7137366</v>
+      </c>
+      <c r="N55">
+        <v>66.240000000000009</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K56" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L56">
+        <v>1.8020742000000003</v>
+      </c>
+      <c r="M56">
         <v>131.731325</v>
       </c>
-      <c r="D38">
+      <c r="N56">
         <v>237.36000000000004</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D4B144-EB39-2C40-BD56-F415EA0167F6}">
+  <dimension ref="C3:AH69"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="50" workbookViewId="0">
+      <selection activeCell="X26" sqref="X26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="17.1640625" customWidth="1"/>
+    <col min="10" max="13" width="10.83203125" style="16"/>
+    <col min="23" max="23" width="21.1640625" customWidth="1"/>
+    <col min="24" max="24" width="12.6640625" customWidth="1"/>
+    <col min="25" max="25" width="6.33203125" customWidth="1"/>
+    <col min="26" max="26" width="6.5" customWidth="1"/>
+    <col min="27" max="28" width="6.6640625" customWidth="1"/>
+    <col min="29" max="29" width="7.5" customWidth="1"/>
+    <col min="30" max="30" width="8" customWidth="1"/>
+    <col min="31" max="31" width="6.5" customWidth="1"/>
+    <col min="32" max="32" width="7.6640625" customWidth="1"/>
+    <col min="33" max="33" width="6.6640625" customWidth="1"/>
+    <col min="34" max="34" width="7.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="E3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="14"/>
+      <c r="P3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" s="7"/>
+    </row>
+    <row r="4" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" t="s">
+        <v>44</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="V4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="4:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.84875900000000004</v>
+      </c>
+      <c r="F5" s="8">
+        <v>110.4</v>
+      </c>
+      <c r="G5" s="8">
+        <v>130.072183</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="8">
+        <v>8</v>
+      </c>
+      <c r="J5" s="16">
+        <f>AVERAGE(E5:E14)</f>
+        <v>0.76983529999999989</v>
+      </c>
+      <c r="K5" s="16">
+        <f>STDEV(E5:E14)</f>
+        <v>0.11077911733219498</v>
+      </c>
+      <c r="L5" s="16">
+        <f>AVERAGE(F5:F14)</f>
+        <v>104.88</v>
+      </c>
+      <c r="M5" s="16">
+        <f>STDEV(F5:F14)</f>
+        <v>11.637181789419735</v>
+      </c>
+      <c r="P5" s="8">
+        <v>0.72573100000000001</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>110.4</v>
+      </c>
+      <c r="R5" s="8">
+        <v>152.12255400000001</v>
+      </c>
+      <c r="S5">
+        <f>AVERAGE(P5:P14)</f>
+        <v>0.71014179999999993</v>
+      </c>
+      <c r="T5">
+        <f>_xlfn.STDEV.S(P5:P14)</f>
+        <v>4.4469593521366466E-2</v>
+      </c>
+      <c r="U5">
+        <f>AVERAGE(Q5:Q14)</f>
+        <v>102.11999999999999</v>
+      </c>
+      <c r="V5">
+        <f>_xlfn.STDEV.S(Q5:Q14)</f>
+        <v>13.332066606494388</v>
+      </c>
+    </row>
+    <row r="6" spans="4:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.68901999999999997</v>
+      </c>
+      <c r="F6" s="8">
+        <v>82.8</v>
+      </c>
+      <c r="G6" s="8">
+        <v>120.170683</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="8">
+        <v>8</v>
+      </c>
+      <c r="P6" s="8">
+        <v>0.64707099999999995</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>82.8</v>
+      </c>
+      <c r="R6" s="8">
+        <v>127.961207</v>
+      </c>
+      <c r="X6" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y6" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="34"/>
+      <c r="AH6" s="36"/>
+    </row>
+    <row r="7" spans="4:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.88212599999999997</v>
+      </c>
+      <c r="F7" s="8">
+        <v>110.4</v>
+      </c>
+      <c r="G7" s="8">
+        <v>125.15219</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="8">
+        <v>8</v>
+      </c>
+      <c r="P7" s="8">
+        <v>0.72367099999999995</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>110.4</v>
+      </c>
+      <c r="R7" s="8">
+        <v>152.555452</v>
+      </c>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD7" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE7" s="36"/>
+      <c r="AF7" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG7" s="36"/>
+      <c r="AH7" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="4:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.777281</v>
+      </c>
+      <c r="F8" s="8">
+        <v>110.4</v>
+      </c>
+      <c r="G8" s="8">
+        <v>142.03363100000001</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="8">
+        <v>8</v>
+      </c>
+      <c r="P8" s="8">
+        <v>0.65600099999999995</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>82.8</v>
+      </c>
+      <c r="R8" s="8">
+        <v>126.219352</v>
+      </c>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z8" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA8" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB8" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC8" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD8" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE8" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF8" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG8" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH8" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.91082099999999999</v>
+      </c>
+      <c r="F9" s="8">
+        <v>110.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>121.209337</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="8">
+        <v>8</v>
+      </c>
+      <c r="P9" s="8">
+        <v>0.69828400000000002</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>110.4</v>
+      </c>
+      <c r="R9" s="8">
+        <v>158.10188400000001</v>
+      </c>
+      <c r="X9" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y9" s="21">
+        <v>0.76980000000000004</v>
+      </c>
+      <c r="Z9" s="22">
+        <v>0.1108</v>
+      </c>
+      <c r="AA9" s="23">
+        <v>0.71009999999999995</v>
+      </c>
+      <c r="AB9" s="22">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="AC9" s="24">
+        <v>-7.7499999999999999E-2</v>
+      </c>
+      <c r="AD9" s="23">
+        <v>104.88</v>
+      </c>
+      <c r="AE9" s="22">
+        <v>11.6372</v>
+      </c>
+      <c r="AF9" s="23">
+        <v>102.12</v>
+      </c>
+      <c r="AG9" s="22">
+        <v>13.332100000000001</v>
+      </c>
+      <c r="AH9" s="24">
+        <v>-2.63E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.79306100000000002</v>
+      </c>
+      <c r="F10" s="8">
+        <v>110.4</v>
+      </c>
+      <c r="G10" s="8">
+        <v>139.207446</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="8">
+        <v>8</v>
+      </c>
+      <c r="P10" s="8">
+        <v>0.65242199999999995</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>82.8</v>
+      </c>
+      <c r="R10" s="8">
+        <v>126.911727</v>
+      </c>
+      <c r="X10" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y10" s="21">
+        <v>1.5265</v>
+      </c>
+      <c r="Z10" s="22">
+        <v>9.7699999999999995E-2</v>
+      </c>
+      <c r="AA10" s="23">
+        <v>1.3444</v>
+      </c>
+      <c r="AB10" s="22">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="AC10" s="24">
+        <v>-0.1193</v>
+      </c>
+      <c r="AD10" s="23">
+        <v>198.72</v>
+      </c>
+      <c r="AE10" s="22">
+        <v>17.4558</v>
+      </c>
+      <c r="AF10" s="23">
+        <v>182.16</v>
+      </c>
+      <c r="AG10" s="22">
+        <v>14.252599999999999</v>
+      </c>
+      <c r="AH10" s="24">
+        <v>-8.3299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.52721200000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>82.8</v>
+      </c>
+      <c r="G11" s="8">
+        <v>157.052685</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="8">
+        <v>8</v>
+      </c>
+      <c r="P11" s="8">
+        <v>0.73934200000000005</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>110.4</v>
+      </c>
+      <c r="R11" s="8">
+        <v>149.321943</v>
+      </c>
+      <c r="X11" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y11" s="21">
+        <v>1.7797000000000001</v>
+      </c>
+      <c r="Z11" s="22">
+        <v>0.1613</v>
+      </c>
+      <c r="AA11" s="23">
+        <v>1.2854000000000001</v>
+      </c>
+      <c r="AB11" s="25">
+        <v>9.1200000000000003E-2</v>
+      </c>
+      <c r="AC11" s="24">
+        <v>-0.27779999999999999</v>
+      </c>
+      <c r="AD11" s="23">
+        <v>234.6</v>
+      </c>
+      <c r="AE11" s="22">
+        <v>14.5465</v>
+      </c>
+      <c r="AF11" s="23">
+        <v>171.12</v>
+      </c>
+      <c r="AG11" s="22">
+        <v>11.6372</v>
+      </c>
+      <c r="AH11" s="24">
+        <v>-0.27060000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.81566000000000005</v>
+      </c>
+      <c r="F12" s="8">
+        <v>110.4</v>
+      </c>
+      <c r="G12" s="8">
+        <v>135.350549</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="8">
+        <v>8</v>
+      </c>
+      <c r="P12" s="8">
+        <v>0.77356000000000003</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>110.4</v>
+      </c>
+      <c r="R12" s="8">
+        <v>142.716837</v>
+      </c>
+      <c r="X12" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y12" s="21">
+        <v>2.3784000000000001</v>
+      </c>
+      <c r="Z12" s="22">
+        <v>0.14879999999999999</v>
+      </c>
+      <c r="AA12" s="23">
+        <v>2.6858</v>
+      </c>
+      <c r="AB12" s="22">
+        <v>0.12620000000000001</v>
+      </c>
+      <c r="AC12" s="24">
+        <v>0.12920000000000001</v>
+      </c>
+      <c r="AD12" s="23">
+        <v>295.32</v>
+      </c>
+      <c r="AE12" s="22">
+        <v>13.332100000000001</v>
+      </c>
+      <c r="AF12" s="23">
+        <v>342.24</v>
+      </c>
+      <c r="AG12" s="22">
+        <v>14.252599999999999</v>
+      </c>
+      <c r="AH12" s="24">
+        <v>0.15890000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.72902500000000003</v>
+      </c>
+      <c r="F13" s="8">
+        <v>110.4</v>
+      </c>
+      <c r="G13" s="8">
+        <v>151.43511599999999</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="8">
+        <v>8</v>
+      </c>
+      <c r="P13" s="8">
+        <v>0.74286600000000003</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>110.4</v>
+      </c>
+      <c r="R13" s="8">
+        <v>148.61358999999999</v>
+      </c>
+      <c r="X13" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y13" s="21">
+        <v>3.2019000000000002</v>
+      </c>
+      <c r="Z13" s="22">
+        <v>0.13930000000000001</v>
+      </c>
+      <c r="AA13" s="23">
+        <v>3.2054</v>
+      </c>
+      <c r="AB13" s="22">
+        <v>5.91E-2</v>
+      </c>
+      <c r="AC13" s="24">
+        <v>1.07E-3</v>
+      </c>
+      <c r="AD13" s="23">
+        <v>408.48</v>
+      </c>
+      <c r="AE13" s="22">
+        <v>11.6372</v>
+      </c>
+      <c r="AF13" s="23">
+        <v>405.72</v>
+      </c>
+      <c r="AG13" s="22">
+        <v>13.332100000000001</v>
+      </c>
+      <c r="AH13" s="24">
+        <v>-6.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="4:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.72538800000000003</v>
+      </c>
+      <c r="F14" s="8">
+        <v>110.4</v>
+      </c>
+      <c r="G14" s="8">
+        <v>152.194413</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="8">
+        <v>8</v>
+      </c>
+      <c r="P14" s="8">
+        <v>0.74246999999999996</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>110.4</v>
+      </c>
+      <c r="R14" s="8">
+        <v>148.69296600000001</v>
+      </c>
+      <c r="X14" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y14" s="27">
+        <v>0.45879999999999999</v>
+      </c>
+      <c r="Z14" s="28">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="AA14" s="29">
+        <v>0.28460000000000002</v>
+      </c>
+      <c r="AB14" s="28">
+        <v>4.8300000000000003E-2</v>
+      </c>
+      <c r="AC14" s="30">
+        <v>-0.37969999999999998</v>
+      </c>
+      <c r="AD14" s="29">
+        <v>77.28</v>
+      </c>
+      <c r="AE14" s="28">
+        <v>21.7712</v>
+      </c>
+      <c r="AF14" s="29">
+        <v>57.96</v>
+      </c>
+      <c r="AG14" s="28">
+        <v>8.7279</v>
+      </c>
+      <c r="AH14" s="30">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1.770926</v>
+      </c>
+      <c r="F15" s="9">
+        <v>248.4</v>
+      </c>
+      <c r="G15" s="9">
+        <v>140.26563100000001</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="9">
+        <v>8</v>
+      </c>
+      <c r="J15" s="16">
+        <f>AVERAGE(E15:E24)</f>
+        <v>1.5265120999999999</v>
+      </c>
+      <c r="K15" s="16">
+        <f>_xlfn.STDEV.S(E15:E24)</f>
+        <v>9.7662820740488987E-2</v>
+      </c>
+      <c r="L15" s="16">
+        <f>AVERAGE(F15:F24)</f>
+        <v>198.72000000000003</v>
+      </c>
+      <c r="M15" s="16">
+        <f>_xlfn.STDEV.S(F15:F24)</f>
+        <v>17.455772684129464</v>
+      </c>
+      <c r="P15" s="9">
+        <v>1.360438</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>193.2</v>
+      </c>
+      <c r="R15" s="9">
+        <v>142.013071</v>
+      </c>
+      <c r="S15">
+        <f>AVERAGE(P15:P24)</f>
+        <v>1.3443513000000002</v>
+      </c>
+      <c r="T15">
+        <f>_xlfn.STDEV.S(P15:P24)</f>
+        <v>3.2865592622917265E-2</v>
+      </c>
+      <c r="U15">
+        <f>AVERAGE(Q15:Q24)</f>
+        <v>182.16</v>
+      </c>
+      <c r="V15">
+        <f>_xlfn.STDEV.S(Q15:Q24)</f>
+        <v>14.252578714043288</v>
+      </c>
+    </row>
+    <row r="16" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1.5445709999999999</v>
+      </c>
+      <c r="F16" s="9">
+        <v>193.2</v>
+      </c>
+      <c r="G16" s="9">
+        <v>125.083314</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="9">
+        <v>8</v>
+      </c>
+      <c r="P16" s="9">
+        <v>1.360436</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>193.2</v>
+      </c>
+      <c r="R16" s="9">
+        <v>142.01333700000001</v>
+      </c>
+    </row>
+    <row r="17" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1.4311529999999999</v>
+      </c>
+      <c r="F17" s="9">
+        <v>193.2</v>
+      </c>
+      <c r="G17" s="9">
+        <v>134.99605099999999</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="9">
+        <v>8</v>
+      </c>
+      <c r="P17" s="9">
+        <v>1.304886</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>165.6</v>
+      </c>
+      <c r="R17" s="9">
+        <v>126.90766600000001</v>
+      </c>
+    </row>
+    <row r="18" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1.485255</v>
+      </c>
+      <c r="F18" s="9">
+        <v>193.2</v>
+      </c>
+      <c r="G18" s="9">
+        <v>130.078698</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="9">
+        <v>8</v>
+      </c>
+      <c r="P18" s="9">
+        <v>1.3886559999999999</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>193.2</v>
+      </c>
+      <c r="R18" s="9">
+        <v>139.12732199999999</v>
+      </c>
+    </row>
+    <row r="19" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1.5533870000000001</v>
+      </c>
+      <c r="F19" s="9">
+        <v>193.2</v>
+      </c>
+      <c r="G19" s="9">
+        <v>124.37336500000001</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="9">
+        <v>8</v>
+      </c>
+      <c r="P19" s="9">
+        <v>1.377448</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>193.2</v>
+      </c>
+      <c r="R19" s="9">
+        <v>140.259379</v>
+      </c>
+      <c r="X19" s="13"/>
+    </row>
+    <row r="20" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20" s="9">
+        <v>1.423724</v>
+      </c>
+      <c r="F20" s="9">
+        <v>193.2</v>
+      </c>
+      <c r="G20" s="9">
+        <v>135.70047400000001</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="9">
+        <v>8</v>
+      </c>
+      <c r="P20" s="9">
+        <v>1.3048690000000001</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>165.6</v>
+      </c>
+      <c r="R20" s="9">
+        <v>126.909305</v>
+      </c>
+    </row>
+    <row r="21" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21" s="9">
+        <v>1.5014730000000001</v>
+      </c>
+      <c r="F21" s="9">
+        <v>193.2</v>
+      </c>
+      <c r="G21" s="9">
+        <v>128.67363499999999</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="9">
+        <v>8</v>
+      </c>
+      <c r="P21" s="9">
+        <v>1.301258</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>165.6</v>
+      </c>
+      <c r="R21" s="9">
+        <v>127.261478</v>
+      </c>
+    </row>
+    <row r="22" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22" s="9">
+        <v>1.5532999999999999</v>
+      </c>
+      <c r="F22" s="9">
+        <v>193.2</v>
+      </c>
+      <c r="G22" s="9">
+        <v>124.380377</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="9">
+        <v>8</v>
+      </c>
+      <c r="P22" s="9">
+        <v>1.327566</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>193.2</v>
+      </c>
+      <c r="R22" s="9">
+        <v>145.52945600000001</v>
+      </c>
+    </row>
+    <row r="23" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>9</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1.523185</v>
+      </c>
+      <c r="F23" s="9">
+        <v>193.2</v>
+      </c>
+      <c r="G23" s="9">
+        <v>126.83952499999999</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="9">
+        <v>8</v>
+      </c>
+      <c r="P23" s="9">
+        <v>1.374185</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>165.6</v>
+      </c>
+      <c r="R23" s="9">
+        <v>120.507835</v>
+      </c>
+    </row>
+    <row r="24" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24" s="9">
+        <v>1.4781470000000001</v>
+      </c>
+      <c r="F24" s="9">
+        <v>193.2</v>
+      </c>
+      <c r="G24" s="9">
+        <v>130.70416299999999</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="9">
+        <v>8</v>
+      </c>
+      <c r="P24" s="9">
+        <v>1.343771</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>193.2</v>
+      </c>
+      <c r="R24" s="9">
+        <v>143.774486</v>
+      </c>
+    </row>
+    <row r="25" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0.570608</v>
+      </c>
+      <c r="F25" s="10">
+        <v>82.8</v>
+      </c>
+      <c r="G25" s="10">
+        <v>145.10827499999999</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" s="10">
+        <v>8</v>
+      </c>
+      <c r="J25" s="16">
+        <f>AVERAGE(E25:E34)</f>
+        <v>0.45879729999999996</v>
+      </c>
+      <c r="K25" s="16">
+        <f>_xlfn.STDEV.S(E25:E34)</f>
+        <v>7.603472081745874E-2</v>
+      </c>
+      <c r="L25" s="16">
+        <f>AVERAGE(F25:F34)</f>
+        <v>77.279999999999987</v>
+      </c>
+      <c r="M25" s="16">
+        <f>_xlfn.STDEV.S(F25:F34)</f>
+        <v>21.771173601806641</v>
+      </c>
+      <c r="P25" s="10">
+        <v>0.39878799999999998</v>
+      </c>
+      <c r="Q25" s="10">
+        <v>82.8</v>
+      </c>
+      <c r="R25" s="10">
+        <v>207.62911</v>
+      </c>
+      <c r="S25">
+        <f>AVERAGE(P25:P34)</f>
+        <v>0.28458270000000002</v>
+      </c>
+      <c r="T25">
+        <f>_xlfn.STDEV.S(P25:P34)</f>
+        <v>4.8334799835338019E-2</v>
+      </c>
+      <c r="U25">
+        <f>AVERAGE(Q25:Q34)</f>
+        <v>57.96</v>
+      </c>
+      <c r="V25">
+        <f>_xlfn.STDEV.S(Q25:Q34)</f>
+        <v>8.7278863420647426</v>
+      </c>
+    </row>
+    <row r="26" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0.41212599999999999</v>
+      </c>
+      <c r="F26" s="10">
+        <v>55.2</v>
+      </c>
+      <c r="G26" s="10">
+        <v>133.939739</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" s="10">
+        <v>8</v>
+      </c>
+      <c r="P26" s="10">
+        <v>0.29174</v>
+      </c>
+      <c r="Q26" s="10">
+        <v>55.2</v>
+      </c>
+      <c r="R26" s="10">
+        <v>189.209554</v>
+      </c>
+    </row>
+    <row r="27" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0.55690899999999999</v>
+      </c>
+      <c r="F27" s="10">
+        <v>110.4</v>
+      </c>
+      <c r="G27" s="10">
+        <v>198.237111</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" s="10">
+        <v>8</v>
+      </c>
+      <c r="P27" s="10">
+        <v>0.28360299999999999</v>
+      </c>
+      <c r="Q27" s="10">
+        <v>55.2</v>
+      </c>
+      <c r="R27" s="10">
+        <v>194.63797</v>
+      </c>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+    </row>
+    <row r="28" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0.467389</v>
+      </c>
+      <c r="F28" s="10">
+        <v>82.8</v>
+      </c>
+      <c r="G28" s="10">
+        <v>177.154189</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" s="10">
+        <v>8</v>
+      </c>
+      <c r="P28" s="10">
+        <v>0.31453399999999998</v>
+      </c>
+      <c r="Q28" s="10">
+        <v>55.2</v>
+      </c>
+      <c r="R28" s="10">
+        <v>175.49762699999999</v>
+      </c>
+    </row>
+    <row r="29" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0.38985700000000001</v>
+      </c>
+      <c r="F29" s="10">
+        <v>55.2</v>
+      </c>
+      <c r="G29" s="10">
+        <v>141.590372</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" s="10">
+        <v>8</v>
+      </c>
+      <c r="P29" s="10">
+        <v>0.29612300000000003</v>
+      </c>
+      <c r="Q29" s="10">
+        <v>55.2</v>
+      </c>
+      <c r="R29" s="10">
+        <v>186.40896699999999</v>
+      </c>
+    </row>
+    <row r="30" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0.36265399999999998</v>
+      </c>
+      <c r="F30" s="10">
+        <v>55.2</v>
+      </c>
+      <c r="G30" s="10">
+        <v>152.211116</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I30" s="10">
+        <v>8</v>
+      </c>
+      <c r="P30" s="10">
+        <v>0.26716499999999999</v>
+      </c>
+      <c r="Q30" s="10">
+        <v>55.2</v>
+      </c>
+      <c r="R30" s="10">
+        <v>206.614161</v>
+      </c>
+    </row>
+    <row r="31" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <v>7</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0.40914099999999998</v>
+      </c>
+      <c r="F31" s="10">
+        <v>55.2</v>
+      </c>
+      <c r="G31" s="10">
+        <v>134.91679999999999</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31" s="10">
+        <v>8</v>
+      </c>
+      <c r="P31" s="10">
+        <v>0.27495700000000001</v>
+      </c>
+      <c r="Q31" s="10">
+        <v>55.2</v>
+      </c>
+      <c r="R31" s="10">
+        <v>200.75841299999999</v>
+      </c>
+    </row>
+    <row r="32" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0.42676399999999998</v>
+      </c>
+      <c r="F32" s="10">
+        <v>82.8</v>
+      </c>
+      <c r="G32" s="10">
+        <v>194.01834700000001</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I32" s="10">
+        <v>8</v>
+      </c>
+      <c r="P32" s="10">
+        <v>0.25594699999999998</v>
+      </c>
+      <c r="Q32" s="10">
+        <v>55.2</v>
+      </c>
+      <c r="R32" s="10">
+        <v>215.669918</v>
+      </c>
+    </row>
+    <row r="33" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <v>9</v>
+      </c>
+      <c r="E33" s="10">
+        <v>0.435614</v>
+      </c>
+      <c r="F33" s="10">
+        <v>82.8</v>
+      </c>
+      <c r="G33" s="10">
+        <v>190.07647</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" s="10">
+        <v>8</v>
+      </c>
+      <c r="P33" s="10">
+        <v>0.236292</v>
+      </c>
+      <c r="Q33" s="10">
+        <v>55.2</v>
+      </c>
+      <c r="R33" s="10">
+        <v>233.60929400000001</v>
+      </c>
+    </row>
+    <row r="34" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34" s="10">
+        <v>0.55691100000000004</v>
+      </c>
+      <c r="F34" s="10">
+        <v>110.4</v>
+      </c>
+      <c r="G34" s="10">
+        <v>198.236321</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I34" s="10">
+        <v>8</v>
+      </c>
+      <c r="P34" s="10">
+        <v>0.22667799999999999</v>
+      </c>
+      <c r="Q34" s="10">
+        <v>55.2</v>
+      </c>
+      <c r="R34" s="10">
+        <v>243.51707500000001</v>
+      </c>
+    </row>
+    <row r="35" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="11">
+        <v>1.9316390000000001</v>
+      </c>
+      <c r="F35" s="11">
+        <v>248.4</v>
+      </c>
+      <c r="G35" s="11">
+        <v>128.59545900000001</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="11">
+        <v>8</v>
+      </c>
+      <c r="J35" s="16">
+        <f>AVERAGE(E35:E44)</f>
+        <v>1.7797374000000001</v>
+      </c>
+      <c r="K35" s="16">
+        <f>_xlfn.STDEV.S(E35:E44)</f>
+        <v>0.16129962317872915</v>
+      </c>
+      <c r="L35" s="16">
+        <f>AVERAGE(F35:F44)</f>
+        <v>234.60000000000005</v>
+      </c>
+      <c r="M35" s="16">
+        <f>_xlfn.STDEV.S(F35:F44)</f>
+        <v>14.546477236774543</v>
+      </c>
+      <c r="P35" s="11">
+        <v>1.291361</v>
+      </c>
+      <c r="Q35" s="11">
+        <v>165.6</v>
+      </c>
+      <c r="R35" s="11">
+        <v>128.23677699999999</v>
+      </c>
+      <c r="S35">
+        <f>AVERAGE(P35:P44)</f>
+        <v>1.285363</v>
+      </c>
+      <c r="T35">
+        <f>_xlfn.STDEV.S(P35:P44)</f>
+        <v>9.1165943874039104E-2</v>
+      </c>
+      <c r="U35">
+        <f>AVERAGE(Q35:Q44)</f>
+        <v>171.11999999999998</v>
+      </c>
+      <c r="V35">
+        <f>_xlfn.STDEV.S(Q35:Q44)</f>
+        <v>11.637181789419634</v>
+      </c>
+    </row>
+    <row r="36" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" s="11">
+        <v>1.9529380000000001</v>
+      </c>
+      <c r="F36" s="11">
+        <v>248.4</v>
+      </c>
+      <c r="G36" s="11">
+        <v>127.19295099999999</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="11">
+        <v>8</v>
+      </c>
+      <c r="P36" s="11">
+        <v>1.263684</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>165.6</v>
+      </c>
+      <c r="R36" s="11">
+        <v>131.04547099999999</v>
+      </c>
+    </row>
+    <row r="37" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37" s="11">
+        <v>1.8604240000000001</v>
+      </c>
+      <c r="F37" s="11">
+        <v>248.4</v>
+      </c>
+      <c r="G37" s="11">
+        <v>133.517921</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="11">
+        <v>8</v>
+      </c>
+      <c r="P37" s="11">
+        <v>1.3604039999999999</v>
+      </c>
+      <c r="Q37" s="11">
+        <v>193.2</v>
+      </c>
+      <c r="R37" s="11">
+        <v>142.01660999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38" s="11">
+        <v>1.780149</v>
+      </c>
+      <c r="F38" s="11">
+        <v>220.8</v>
+      </c>
+      <c r="G38" s="11">
+        <v>124.034595</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="11">
+        <v>8</v>
+      </c>
+      <c r="P38" s="11">
+        <v>1.2835559999999999</v>
+      </c>
+      <c r="Q38" s="11">
+        <v>165.6</v>
+      </c>
+      <c r="R38" s="11">
+        <v>129.01661200000001</v>
+      </c>
+    </row>
+    <row r="39" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39" s="11">
+        <v>1.5584659999999999</v>
+      </c>
+      <c r="F39" s="11">
+        <v>220.8</v>
+      </c>
+      <c r="G39" s="11">
+        <v>141.677786</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="11">
+        <v>8</v>
+      </c>
+      <c r="P39" s="11">
+        <v>1.111073</v>
+      </c>
+      <c r="Q39" s="11">
+        <v>165.6</v>
+      </c>
+      <c r="R39" s="11">
+        <v>149.04513800000001</v>
+      </c>
+    </row>
+    <row r="40" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <v>6</v>
+      </c>
+      <c r="E40" s="11">
+        <v>1.775345</v>
+      </c>
+      <c r="F40" s="11">
+        <v>248.4</v>
+      </c>
+      <c r="G40" s="11">
+        <v>139.916496</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" s="11">
+        <v>8</v>
+      </c>
+      <c r="P40" s="11">
+        <v>1.33152</v>
+      </c>
+      <c r="Q40" s="11">
+        <v>165.6</v>
+      </c>
+      <c r="R40" s="11">
+        <v>124.369111</v>
+      </c>
+    </row>
+    <row r="41" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41" s="11">
+        <v>2.0142229999999999</v>
+      </c>
+      <c r="F41" s="11">
+        <v>248.4</v>
+      </c>
+      <c r="G41" s="11">
+        <v>123.322963</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="11">
+        <v>8</v>
+      </c>
+      <c r="P41" s="11">
+        <v>1.23963</v>
+      </c>
+      <c r="Q41" s="11">
+        <v>165.6</v>
+      </c>
+      <c r="R41" s="11">
+        <v>133.58825899999999</v>
+      </c>
+    </row>
+    <row r="42" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D42">
+        <v>8</v>
+      </c>
+      <c r="E42" s="11">
+        <v>1.725376</v>
+      </c>
+      <c r="F42" s="11">
+        <v>220.8</v>
+      </c>
+      <c r="G42" s="11">
+        <v>127.972104</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="11">
+        <v>8</v>
+      </c>
+      <c r="P42" s="11">
+        <v>1.3129230000000001</v>
+      </c>
+      <c r="Q42" s="11">
+        <v>165.6</v>
+      </c>
+      <c r="R42" s="11">
+        <v>126.130765</v>
+      </c>
+    </row>
+    <row r="43" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <v>9</v>
+      </c>
+      <c r="E43" s="11">
+        <v>1.5632269999999999</v>
+      </c>
+      <c r="F43" s="11">
+        <v>220.8</v>
+      </c>
+      <c r="G43" s="11">
+        <v>141.24624399999999</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="11">
+        <v>8</v>
+      </c>
+      <c r="P43" s="11">
+        <v>1.2085710000000001</v>
+      </c>
+      <c r="Q43" s="11">
+        <v>165.6</v>
+      </c>
+      <c r="R43" s="11">
+        <v>137.021289</v>
+      </c>
+    </row>
+    <row r="44" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D44">
+        <v>10</v>
+      </c>
+      <c r="E44" s="11">
+        <v>1.6355869999999999</v>
+      </c>
+      <c r="F44" s="11">
+        <v>220.8</v>
+      </c>
+      <c r="G44" s="11">
+        <v>134.99737099999999</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" s="11">
+        <v>8</v>
+      </c>
+      <c r="P44" s="11">
+        <v>1.4509080000000001</v>
+      </c>
+      <c r="Q44" s="11">
+        <v>193.2</v>
+      </c>
+      <c r="R44" s="11">
+        <v>133.15798899999999</v>
+      </c>
+    </row>
+    <row r="45" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" s="12">
+        <v>3.1569539999999998</v>
+      </c>
+      <c r="F45" s="12">
+        <v>414</v>
+      </c>
+      <c r="G45" s="12">
+        <v>131.13906800000001</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" s="12">
+        <v>8</v>
+      </c>
+      <c r="J45" s="16">
+        <f>AVERAGE(E45:E54)</f>
+        <v>3.2019495</v>
+      </c>
+      <c r="K45" s="16">
+        <f>_xlfn.STDEV.S(E45:E54)</f>
+        <v>0.13927428088188673</v>
+      </c>
+      <c r="L45" s="16">
+        <f>AVERAGE(F45:F54)</f>
+        <v>408.48</v>
+      </c>
+      <c r="M45" s="16">
+        <f>_xlfn.STDEV.S(F45:F54)</f>
+        <v>11.637181789419643</v>
+      </c>
+      <c r="P45" s="12">
+        <v>3.1969810000000001</v>
+      </c>
+      <c r="Q45" s="12">
+        <v>386.4</v>
+      </c>
+      <c r="R45" s="12">
+        <v>120.86402200000001</v>
+      </c>
+      <c r="S45">
+        <f>AVERAGE(P45:P54)</f>
+        <v>3.2053658999999994</v>
+      </c>
+      <c r="T45">
+        <f>_xlfn.STDEV.S(P45:P54)</f>
+        <v>5.9091693594597275E-2</v>
+      </c>
+      <c r="U45">
+        <f>AVERAGE(Q45:Q54)</f>
+        <v>405.71999999999997</v>
+      </c>
+      <c r="V45">
+        <f>_xlfn.STDEV.S(Q45:Q54)</f>
+        <v>13.332066606494296</v>
+      </c>
+    </row>
+    <row r="46" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46" s="12">
+        <v>3.1824650000000001</v>
+      </c>
+      <c r="F46" s="12">
+        <v>414</v>
+      </c>
+      <c r="G46" s="12">
+        <v>130.08786000000001</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="12">
+        <v>8</v>
+      </c>
+      <c r="P46" s="12">
+        <v>3.1512709999999999</v>
+      </c>
+      <c r="Q46" s="12">
+        <v>386.4</v>
+      </c>
+      <c r="R46" s="12">
+        <v>122.617189</v>
+      </c>
+    </row>
+    <row r="47" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47" s="12">
+        <v>2.907438</v>
+      </c>
+      <c r="F47" s="12">
+        <v>386.4</v>
+      </c>
+      <c r="G47" s="12">
+        <v>132.900532</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="12">
+        <v>8</v>
+      </c>
+      <c r="P47" s="12">
+        <v>3.254934</v>
+      </c>
+      <c r="Q47" s="12">
+        <v>414</v>
+      </c>
+      <c r="R47" s="12">
+        <v>127.191508</v>
+      </c>
+    </row>
+    <row r="48" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48" s="12">
+        <v>3.0377869999999998</v>
+      </c>
+      <c r="F48" s="12">
+        <v>386.4</v>
+      </c>
+      <c r="G48" s="12">
+        <v>127.19785400000001</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" s="12">
+        <v>8</v>
+      </c>
+      <c r="P48" s="12">
+        <v>3.1043980000000002</v>
+      </c>
+      <c r="Q48" s="12">
+        <v>386.4</v>
+      </c>
+      <c r="R48" s="12">
+        <v>124.46859000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49" s="12">
+        <v>3.261619</v>
+      </c>
+      <c r="F49" s="12">
+        <v>414</v>
+      </c>
+      <c r="G49" s="12">
+        <v>126.930846</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="12">
+        <v>8</v>
+      </c>
+      <c r="P49" s="12">
+        <v>3.2548439999999998</v>
+      </c>
+      <c r="Q49" s="12">
+        <v>414</v>
+      </c>
+      <c r="R49" s="12">
+        <v>127.195021</v>
+      </c>
+    </row>
+    <row r="50" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <v>6</v>
+      </c>
+      <c r="E50" s="12">
+        <v>3.3472659999999999</v>
+      </c>
+      <c r="F50" s="12">
+        <v>414</v>
+      </c>
+      <c r="G50" s="12">
+        <v>123.683018</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" s="12">
+        <v>8</v>
+      </c>
+      <c r="P50" s="12">
+        <v>3.2820019999999999</v>
+      </c>
+      <c r="Q50" s="12">
+        <v>414</v>
+      </c>
+      <c r="R50" s="12">
+        <v>126.14251299999999</v>
+      </c>
+    </row>
+    <row r="51" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <v>7</v>
+      </c>
+      <c r="E51" s="12">
+        <v>3.3376570000000001</v>
+      </c>
+      <c r="F51" s="12">
+        <v>414</v>
+      </c>
+      <c r="G51" s="12">
+        <v>124.039115</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="12">
+        <v>8</v>
+      </c>
+      <c r="P51" s="12">
+        <v>3.16533</v>
+      </c>
+      <c r="Q51" s="12">
+        <v>414</v>
+      </c>
+      <c r="R51" s="12">
+        <v>130.79206600000001</v>
+      </c>
+    </row>
+    <row r="52" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <v>8</v>
+      </c>
+      <c r="E52" s="12">
+        <v>3.309647</v>
+      </c>
+      <c r="F52" s="12">
+        <v>414</v>
+      </c>
+      <c r="G52" s="12">
+        <v>125.08886800000001</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" s="12">
+        <v>8</v>
+      </c>
+      <c r="P52" s="12">
+        <v>3.165197</v>
+      </c>
+      <c r="Q52" s="12">
+        <v>414</v>
+      </c>
+      <c r="R52" s="12">
+        <v>130.79756399999999</v>
+      </c>
+    </row>
+    <row r="53" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <v>9</v>
+      </c>
+      <c r="E53" s="12">
+        <v>3.2616689999999999</v>
+      </c>
+      <c r="F53" s="12">
+        <v>414</v>
+      </c>
+      <c r="G53" s="12">
+        <v>126.928883</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" s="12">
+        <v>8</v>
+      </c>
+      <c r="P53" s="12">
+        <v>3.2082799999999998</v>
+      </c>
+      <c r="Q53" s="12">
+        <v>414</v>
+      </c>
+      <c r="R53" s="12">
+        <v>129.041123</v>
+      </c>
+    </row>
+    <row r="54" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D54">
+        <v>10</v>
+      </c>
+      <c r="E54" s="12">
+        <v>3.216993</v>
+      </c>
+      <c r="F54" s="12">
+        <v>414</v>
+      </c>
+      <c r="G54" s="12">
+        <v>128.691619</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" s="12">
+        <v>8</v>
+      </c>
+      <c r="P54" s="12">
+        <v>3.2704219999999999</v>
+      </c>
+      <c r="Q54" s="12">
+        <v>414</v>
+      </c>
+      <c r="R54" s="12">
+        <v>126.58916600000001</v>
+      </c>
+    </row>
+    <row r="55" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>2.4053969999999998</v>
+      </c>
+      <c r="F55">
+        <v>303.60000000000002</v>
+      </c>
+      <c r="G55">
+        <v>126.21616299999999</v>
+      </c>
+      <c r="H55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I55">
+        <v>8</v>
+      </c>
+      <c r="J55" s="16">
+        <f>AVERAGE(E55:E64)</f>
+        <v>2.3784163999999999</v>
+      </c>
+      <c r="K55" s="16">
+        <f>_xlfn.STDEV.S(E55:E64)</f>
+        <v>0.14883313766482095</v>
+      </c>
+      <c r="L55" s="16">
+        <f>AVERAGE(F55:F64)</f>
+        <v>295.32</v>
+      </c>
+      <c r="M55" s="16">
+        <f>_xlfn.STDEV.S(F55:F64)</f>
+        <v>13.332066606494294</v>
+      </c>
+      <c r="P55">
+        <v>2.732313</v>
+      </c>
+      <c r="Q55">
+        <v>331.2</v>
+      </c>
+      <c r="R55">
+        <v>121.21596099999999</v>
+      </c>
+      <c r="S55">
+        <f>AVERAGE(P55:P64)</f>
+        <v>2.6857847000000006</v>
+      </c>
+      <c r="T55">
+        <f>_xlfn.STDEV.S(P55:P64)</f>
+        <v>0.12621801269060876</v>
+      </c>
+      <c r="U55">
+        <f>AVERAGE(Q55:Q64)</f>
+        <v>342.2399999999999</v>
+      </c>
+      <c r="V55">
+        <f>_xlfn.STDEV.S(Q55:Q64)</f>
+        <v>14.252578714043304</v>
+      </c>
+    </row>
+    <row r="56" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>2.5265909999999998</v>
+      </c>
+      <c r="F56">
+        <v>303.60000000000002</v>
+      </c>
+      <c r="G56">
+        <v>120.161922</v>
+      </c>
+      <c r="H56" t="s">
+        <v>25</v>
+      </c>
+      <c r="I56">
+        <v>8</v>
+      </c>
+      <c r="P56">
+        <v>2.8445339999999999</v>
+      </c>
+      <c r="Q56">
+        <v>358.8</v>
+      </c>
+      <c r="R56">
+        <v>126.136639</v>
+      </c>
+    </row>
+    <row r="57" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>2.412102</v>
+      </c>
+      <c r="F57">
+        <v>303.60000000000002</v>
+      </c>
+      <c r="G57">
+        <v>125.865335</v>
+      </c>
+      <c r="H57" t="s">
+        <v>25</v>
+      </c>
+      <c r="I57">
+        <v>8</v>
+      </c>
+      <c r="P57">
+        <v>2.8666160000000001</v>
+      </c>
+      <c r="Q57">
+        <v>358.8</v>
+      </c>
+      <c r="R57">
+        <v>125.164995</v>
+      </c>
+    </row>
+    <row r="58" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58">
+        <v>2.2003370000000002</v>
+      </c>
+      <c r="F58">
+        <v>276</v>
+      </c>
+      <c r="G58">
+        <v>125.435312</v>
+      </c>
+      <c r="H58" t="s">
+        <v>25</v>
+      </c>
+      <c r="I58">
+        <v>8</v>
+      </c>
+      <c r="P58">
+        <v>2.7142019999999998</v>
+      </c>
+      <c r="Q58">
+        <v>358.8</v>
+      </c>
+      <c r="R58">
+        <v>132.193547</v>
+      </c>
+    </row>
+    <row r="59" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59">
+        <v>2.3402349999999998</v>
+      </c>
+      <c r="F59">
+        <v>303.60000000000002</v>
+      </c>
+      <c r="G59">
+        <v>129.730557</v>
+      </c>
+      <c r="H59" t="s">
+        <v>25</v>
+      </c>
+      <c r="I59">
+        <v>8</v>
+      </c>
+      <c r="P59">
+        <v>2.6022650000000001</v>
+      </c>
+      <c r="Q59">
+        <v>331.2</v>
+      </c>
+      <c r="R59">
+        <v>127.27372200000001</v>
+      </c>
+    </row>
+    <row r="60" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D60">
+        <v>6</v>
+      </c>
+      <c r="E60">
+        <v>2.5045039999999998</v>
+      </c>
+      <c r="F60">
+        <v>303.60000000000002</v>
+      </c>
+      <c r="G60">
+        <v>121.22159000000001</v>
+      </c>
+      <c r="H60" t="s">
+        <v>25</v>
+      </c>
+      <c r="I60">
+        <v>8</v>
+      </c>
+      <c r="P60">
+        <v>2.7748710000000001</v>
+      </c>
+      <c r="Q60">
+        <v>358.8</v>
+      </c>
+      <c r="R60">
+        <v>129.30330699999999</v>
+      </c>
+    </row>
+    <row r="61" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D61">
+        <v>7</v>
+      </c>
+      <c r="E61">
+        <v>2.0947079999999998</v>
+      </c>
+      <c r="F61">
+        <v>276</v>
+      </c>
+      <c r="G61">
+        <v>131.76059799999999</v>
+      </c>
+      <c r="H61" t="s">
+        <v>25</v>
+      </c>
+      <c r="I61">
+        <v>8</v>
+      </c>
+      <c r="P61">
+        <v>2.5054639999999999</v>
+      </c>
+      <c r="Q61">
+        <v>331.2</v>
+      </c>
+      <c r="R61">
+        <v>132.191059</v>
+      </c>
+    </row>
+    <row r="62" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D62">
+        <v>8</v>
+      </c>
+      <c r="E62">
+        <v>2.276802</v>
+      </c>
+      <c r="F62">
+        <v>276</v>
+      </c>
+      <c r="G62">
+        <v>121.222639</v>
+      </c>
+      <c r="H62" t="s">
+        <v>25</v>
+      </c>
+      <c r="I62">
+        <v>8</v>
+      </c>
+      <c r="P62">
+        <v>2.5476019999999999</v>
+      </c>
+      <c r="Q62">
+        <v>331.2</v>
+      </c>
+      <c r="R62">
+        <v>130.004626</v>
+      </c>
+    </row>
+    <row r="63" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D63">
+        <v>9</v>
+      </c>
+      <c r="E63">
+        <v>2.5190489999999999</v>
+      </c>
+      <c r="F63">
+        <v>303.60000000000002</v>
+      </c>
+      <c r="G63">
+        <v>120.52167799999999</v>
+      </c>
+      <c r="H63" t="s">
+        <v>25</v>
+      </c>
+      <c r="I63">
+        <v>8</v>
+      </c>
+      <c r="P63">
+        <v>2.5614270000000001</v>
+      </c>
+      <c r="Q63">
+        <v>331.2</v>
+      </c>
+      <c r="R63">
+        <v>129.30294499999999</v>
+      </c>
+    </row>
+    <row r="64" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D64">
+        <v>10</v>
+      </c>
+      <c r="E64">
+        <v>2.5044390000000001</v>
+      </c>
+      <c r="F64">
+        <v>303.60000000000002</v>
+      </c>
+      <c r="G64">
+        <v>121.224765</v>
+      </c>
+      <c r="H64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I64">
+        <v>8</v>
+      </c>
+      <c r="P64">
+        <v>2.7085530000000002</v>
+      </c>
+      <c r="Q64">
+        <v>331.2</v>
+      </c>
+      <c r="R64">
+        <v>122.279307</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="X6:X8"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="AD6:AH6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/benchmarks/measure_androidApps.xlsx
+++ b/benchmarks/measure_androidApps.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yazeedyousefalmalaq/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0986E0-C943-6A4A-8FD0-FDE24B7978E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637281AE-909E-E045-8C1F-24C841747069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{E8F05331-52A1-CA4F-9453-9597BCD39B9A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{E8F05331-52A1-CA4F-9453-9597BCD39B9A}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
     <sheet name="graphs" sheetId="4" r:id="rId2"/>
     <sheet name="baseline_vs_BatterySaver" sheetId="8" r:id="rId3"/>
+    <sheet name="qos_data" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="29" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4776" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4855" uniqueCount="83">
   <si>
     <t>power</t>
   </si>
@@ -234,12 +235,73 @@
   <si>
     <t>5G_only_WifiOff</t>
   </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>start_total_frame</t>
+  </si>
+  <si>
+    <t>start_Janky_frames</t>
+  </si>
+  <si>
+    <t>start_Number_Missed_Vsync</t>
+  </si>
+  <si>
+    <t>end_time</t>
+  </si>
+  <si>
+    <t>end_total_frame</t>
+  </si>
+  <si>
+    <t>end_Number_Missed_Vsync</t>
+  </si>
+  <si>
+    <t>Diff_time</t>
+  </si>
+  <si>
+    <t>Diff_total_frame</t>
+  </si>
+  <si>
+    <t>Diff_Number_Missed_Vsync</t>
+  </si>
+  <si>
+    <t>end_Janky_frames</t>
+  </si>
+  <si>
+    <t>Diff_Janky_frames</t>
+  </si>
+  <si>
+    <t>start_Janky_frames_legacy</t>
+  </si>
+  <si>
+    <t>end_Janky_frames_legacy</t>
+  </si>
+  <si>
+    <t>Diff_Janky_frames_legacy</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>tiktok</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -267,6 +329,19 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -486,10 +561,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -574,13 +650,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -10787,7 +10865,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B003860-75F0-4244-9EFE-509E78544668}" name="PivotTable1" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B003860-75F0-4244-9EFE-509E78544668}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A12:C47" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="9" colPageCount="1"/>
   <pivotFields count="15">
     <pivotField dataField="1" showAll="0"/>
@@ -11393,8 +11471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0313F6-CA27-BF47-9BC2-0DD6D4E40827}">
   <dimension ref="D1:R423"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H363" sqref="H363:H423"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31293,7 +31371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA991820-23B8-B243-8ED6-E6F6E289C662}">
   <dimension ref="A2:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+    <sheetView zoomScale="83" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -31393,10 +31471,10 @@
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="34">
+      <c r="B13">
         <v>0.97075316666666633</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13">
         <v>128.80000000000007</v>
       </c>
     </row>
@@ -31404,10 +31482,10 @@
       <c r="A14" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14">
         <v>1.2633284</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14">
         <v>168.35999999999999</v>
       </c>
     </row>
@@ -31415,10 +31493,10 @@
       <c r="A15" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="34">
+      <c r="B15">
         <v>0.76177085714285719</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15">
         <v>100.54285714285713</v>
       </c>
     </row>
@@ -31426,10 +31504,10 @@
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="34">
+      <c r="B16">
         <v>1.8696725416666657</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16">
         <v>244.94999999999985</v>
       </c>
     </row>
@@ -31437,10 +31515,10 @@
       <c r="A17" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="34">
+      <c r="B17">
         <v>2.3143818999999999</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C17">
         <v>300.83999999999997</v>
       </c>
     </row>
@@ -31448,10 +31526,10 @@
       <c r="A18" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18">
         <v>1.5520230000000002</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18">
         <v>205.02857142857141</v>
       </c>
       <c r="E18">
@@ -31463,10 +31541,10 @@
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="34">
+      <c r="B19">
         <v>2.1368915833333335</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19">
         <v>277.14999999999998</v>
       </c>
       <c r="E19">
@@ -31478,10 +31556,10 @@
       <c r="A20" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="34">
+      <c r="B20">
         <v>2.8260165000000002</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20">
         <v>356.04000000000008</v>
       </c>
       <c r="E20">
@@ -31493,10 +31571,10 @@
       <c r="A21" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="34">
+      <c r="B21">
         <v>1.6446594999999999</v>
       </c>
-      <c r="C21" s="34">
+      <c r="C21">
         <v>220.8</v>
       </c>
       <c r="E21">
@@ -31508,10 +31586,10 @@
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="34">
+      <c r="B22">
         <v>3.7818950416666666</v>
       </c>
-      <c r="C22" s="34">
+      <c r="C22">
         <v>476.09999999999991</v>
       </c>
       <c r="E22">
@@ -31523,10 +31601,10 @@
       <c r="A23" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="34">
+      <c r="B23">
         <v>4.8358277000000003</v>
       </c>
-      <c r="C23" s="34">
+      <c r="C23">
         <v>601.68000000000006</v>
       </c>
       <c r="E23">
@@ -31538,10 +31616,10 @@
       <c r="A24" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="34">
+      <c r="B24">
         <v>3.0290859999999995</v>
       </c>
-      <c r="C24" s="34">
+      <c r="C24">
         <v>386.40000000000003</v>
       </c>
     </row>
@@ -31549,10 +31627,10 @@
       <c r="A25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="34">
+      <c r="B25">
         <v>0.87817829166666661</v>
       </c>
-      <c r="C25" s="34">
+      <c r="C25">
         <v>120.74999999999996</v>
       </c>
     </row>
@@ -31560,10 +31638,10 @@
       <c r="A26" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="34">
+      <c r="B26">
         <v>1.5420860999999999</v>
       </c>
-      <c r="C26" s="34">
+      <c r="C26">
         <v>201.48000000000002</v>
       </c>
     </row>
@@ -31571,10 +31649,10 @@
       <c r="A27" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="34">
+      <c r="B27">
         <v>0.40395842857142855</v>
       </c>
-      <c r="C27" s="34">
+      <c r="C27">
         <v>63.085714285714296</v>
       </c>
     </row>
@@ -31582,10 +31660,10 @@
       <c r="A28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="34">
+      <c r="B28">
         <v>3.0330675</v>
       </c>
-      <c r="C28" s="34">
+      <c r="C28">
         <v>382.94999999999987</v>
       </c>
     </row>
@@ -31593,10 +31671,10 @@
       <c r="A29" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="34">
+      <c r="B29">
         <v>3.985745099999999</v>
       </c>
-      <c r="C29" s="34">
+      <c r="C29">
         <v>496.8</v>
       </c>
     </row>
@@ -31604,10 +31682,10 @@
       <c r="A30" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="34">
+      <c r="B30">
         <v>2.3525835000000002</v>
       </c>
-      <c r="C30" s="34">
+      <c r="C30">
         <v>301.62857142857143</v>
       </c>
     </row>
@@ -31615,10 +31693,10 @@
       <c r="A31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="34">
+      <c r="B31">
         <v>0.65575166666666662</v>
       </c>
-      <c r="C31" s="34">
+      <c r="C31">
         <v>82.8</v>
       </c>
     </row>
@@ -31626,10 +31704,10 @@
       <c r="A32" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="34">
+      <c r="B32">
         <v>0.65575166666666662</v>
       </c>
-      <c r="C32" s="34">
+      <c r="C32">
         <v>82.8</v>
       </c>
     </row>
@@ -31637,10 +31715,10 @@
       <c r="A33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="34">
+      <c r="B33">
         <v>1.4402106666666665</v>
       </c>
-      <c r="C33" s="34">
+      <c r="C33">
         <v>184</v>
       </c>
     </row>
@@ -31648,10 +31726,10 @@
       <c r="A34" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="34">
+      <c r="B34">
         <v>1.4402106666666665</v>
       </c>
-      <c r="C34" s="34">
+      <c r="C34">
         <v>184</v>
       </c>
     </row>
@@ -31659,10 +31737,10 @@
       <c r="A35" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="34">
+      <c r="B35">
         <v>1.6009693333333335</v>
       </c>
-      <c r="C35" s="34">
+      <c r="C35">
         <v>211.6</v>
       </c>
     </row>
@@ -31670,10 +31748,10 @@
       <c r="A36" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="34">
+      <c r="B36">
         <v>1.6009693333333335</v>
       </c>
-      <c r="C36" s="34">
+      <c r="C36">
         <v>211.6</v>
       </c>
     </row>
@@ -31681,10 +31759,10 @@
       <c r="A37" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="34">
+      <c r="B37">
         <v>0.34554666666666667</v>
       </c>
-      <c r="C37" s="34">
+      <c r="C37">
         <v>64.399999999999991</v>
       </c>
     </row>
@@ -31692,10 +31770,10 @@
       <c r="A38" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="34">
+      <c r="B38">
         <v>0.34554666666666667</v>
       </c>
-      <c r="C38" s="34">
+      <c r="C38">
         <v>64.399999999999991</v>
       </c>
     </row>
@@ -31703,10 +31781,10 @@
       <c r="A39" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="34">
+      <c r="B39">
         <v>2.9975236666666665</v>
       </c>
-      <c r="C39" s="34">
+      <c r="C39">
         <v>377.2</v>
       </c>
     </row>
@@ -31714,10 +31792,10 @@
       <c r="A40" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="34">
+      <c r="B40">
         <v>2.9975236666666665</v>
       </c>
-      <c r="C40" s="34">
+      <c r="C40">
         <v>377.2</v>
       </c>
     </row>
@@ -31725,10 +31803,10 @@
       <c r="A41" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="34">
+      <c r="B41">
         <v>1.7841386666666665</v>
       </c>
-      <c r="C41" s="34">
+      <c r="C41">
         <v>239.20000000000002</v>
       </c>
     </row>
@@ -31736,10 +31814,10 @@
       <c r="A42" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="34">
+      <c r="B42">
         <v>1.7841386666666665</v>
       </c>
-      <c r="C42" s="34">
+      <c r="C42">
         <v>239.20000000000002</v>
       </c>
     </row>
@@ -31747,10 +31825,10 @@
       <c r="A43" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="34">
+      <c r="B43">
         <v>0.86155210000000015</v>
       </c>
-      <c r="C43" s="34">
+      <c r="C43">
         <v>115.92</v>
       </c>
     </row>
@@ -31758,10 +31836,10 @@
       <c r="A44" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="34">
+      <c r="B44">
         <v>0.86155210000000015</v>
       </c>
-      <c r="C44" s="34">
+      <c r="C44">
         <v>115.92</v>
       </c>
     </row>
@@ -31769,10 +31847,10 @@
       <c r="A45" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B45" s="34">
+      <c r="B45">
         <v>0.38592520000000002</v>
       </c>
-      <c r="C45" s="34">
+      <c r="C45">
         <v>55.2</v>
       </c>
     </row>
@@ -31780,10 +31858,10 @@
       <c r="A46" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="34">
+      <c r="B46">
         <v>0.38592520000000002</v>
       </c>
-      <c r="C46" s="34">
+      <c r="C46">
         <v>55.2</v>
       </c>
     </row>
@@ -31791,22 +31869,18 @@
       <c r="A47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B47" s="34">
+      <c r="B47">
         <v>1.8848252197802184</v>
       </c>
-      <c r="C47" s="34">
+      <c r="C47">
         <v>243.54725274725286</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="35"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
+      <c r="A48" s="3"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="35"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
+      <c r="A49" s="3"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K50" t="s">
@@ -34229,11 +34303,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
     <mergeCell ref="W27:X27"/>
     <mergeCell ref="AA7:AB7"/>
     <mergeCell ref="AF7:AG7"/>
@@ -34243,7 +34312,4110 @@
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="Y6:AC6"/>
     <mergeCell ref="AD6:AH6"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0219BCBC-716A-5940-81AB-4D60E7D624CF}">
+  <dimension ref="A1:U88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W18" sqref="W18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="36"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" customWidth="1"/>
+    <col min="9" max="9" width="18.5" customWidth="1"/>
+    <col min="10" max="10" width="26" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.1640625" customWidth="1"/>
+    <col min="14" max="14" width="15.83203125" customWidth="1"/>
+    <col min="15" max="15" width="23.83203125" customWidth="1"/>
+    <col min="16" max="16" width="24.1640625" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" customWidth="1"/>
+    <col min="18" max="18" width="24.1640625" customWidth="1"/>
+    <col min="19" max="19" width="18.83203125" customWidth="1"/>
+    <col min="20" max="20" width="19.33203125" customWidth="1"/>
+    <col min="21" max="21" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>-3.6368079999999998</v>
+      </c>
+      <c r="E2">
+        <v>-469.2</v>
+      </c>
+      <c r="F2">
+        <v>129.01424499999999</v>
+      </c>
+      <c r="G2" s="34">
+        <v>0.50834490740740745</v>
+      </c>
+      <c r="H2" s="35">
+        <v>46</v>
+      </c>
+      <c r="I2" s="35">
+        <v>5</v>
+      </c>
+      <c r="J2" s="35">
+        <v>7</v>
+      </c>
+      <c r="K2" s="35">
+        <v>3</v>
+      </c>
+      <c r="L2" s="34">
+        <v>0.50993055555555555</v>
+      </c>
+      <c r="M2">
+        <v>5829</v>
+      </c>
+      <c r="N2">
+        <v>35</v>
+      </c>
+      <c r="O2">
+        <v>40</v>
+      </c>
+      <c r="P2">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="34">
+        <f>L2-G2</f>
+        <v>1.5856481481481E-3</v>
+      </c>
+      <c r="R2">
+        <f>M2-H2</f>
+        <v>5783</v>
+      </c>
+      <c r="S2">
+        <f>N2-I2</f>
+        <v>30</v>
+      </c>
+      <c r="T2">
+        <f>O2-J2</f>
+        <v>33</v>
+      </c>
+      <c r="U2">
+        <f>P2-K2</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>-3.140495</v>
+      </c>
+      <c r="E3">
+        <v>-414</v>
+      </c>
+      <c r="F3">
+        <v>131.82634100000001</v>
+      </c>
+      <c r="G3" s="34">
+        <v>0.51020833333333337</v>
+      </c>
+      <c r="H3" s="35">
+        <v>6806</v>
+      </c>
+      <c r="I3" s="35">
+        <v>42</v>
+      </c>
+      <c r="J3" s="35">
+        <v>114</v>
+      </c>
+      <c r="K3" s="35">
+        <v>21</v>
+      </c>
+      <c r="L3" s="34">
+        <v>0.51177083333333329</v>
+      </c>
+      <c r="M3">
+        <v>12707</v>
+      </c>
+      <c r="N3">
+        <v>46</v>
+      </c>
+      <c r="O3">
+        <v>152</v>
+      </c>
+      <c r="P3">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="34">
+        <f t="shared" ref="Q3:Q11" si="0">L3-G3</f>
+        <v>1.5624999999999112E-3</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R11" si="1">M3-H3</f>
+        <v>5901</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S11" si="2">N3-I3</f>
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T11" si="3">O3-J3</f>
+        <v>38</v>
+      </c>
+      <c r="U3">
+        <f>P3-K3</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>-3.3173089999999998</v>
+      </c>
+      <c r="E4">
+        <v>-414</v>
+      </c>
+      <c r="F4">
+        <v>124.799959</v>
+      </c>
+      <c r="G4" s="34">
+        <v>0.51204861111111111</v>
+      </c>
+      <c r="H4" s="35">
+        <v>13577</v>
+      </c>
+      <c r="I4" s="35">
+        <v>53</v>
+      </c>
+      <c r="J4" s="35">
+        <v>159</v>
+      </c>
+      <c r="K4" s="35">
+        <v>28</v>
+      </c>
+      <c r="L4" s="34">
+        <v>0.51347222222222222</v>
+      </c>
+      <c r="M4">
+        <v>18849</v>
+      </c>
+      <c r="N4">
+        <v>57</v>
+      </c>
+      <c r="O4">
+        <v>165</v>
+      </c>
+      <c r="P4">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="34">
+        <f t="shared" si="0"/>
+        <v>1.4236111111111116E-3</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="1"/>
+        <v>5272</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="U4">
+        <f>P4-K4</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>-3.157257</v>
+      </c>
+      <c r="E5">
+        <v>-414</v>
+      </c>
+      <c r="F5">
+        <v>131.126465</v>
+      </c>
+      <c r="G5" s="34">
+        <v>0.51375000000000004</v>
+      </c>
+      <c r="H5" s="35">
+        <v>19705</v>
+      </c>
+      <c r="I5" s="35">
+        <v>62</v>
+      </c>
+      <c r="J5" s="35">
+        <v>170</v>
+      </c>
+      <c r="K5" s="35">
+        <v>31</v>
+      </c>
+      <c r="L5" s="34">
+        <v>0.51534722222222218</v>
+      </c>
+      <c r="M5">
+        <v>25739</v>
+      </c>
+      <c r="N5">
+        <v>67</v>
+      </c>
+      <c r="O5">
+        <v>176</v>
+      </c>
+      <c r="P5">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="34">
+        <f t="shared" si="0"/>
+        <v>1.5972222222221388E-3</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>6034</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="U5">
+        <f>P5-K5</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>-3.2620800000000001</v>
+      </c>
+      <c r="E6">
+        <v>-414</v>
+      </c>
+      <c r="F6">
+        <v>126.912898</v>
+      </c>
+      <c r="G6" s="34">
+        <v>0.515625</v>
+      </c>
+      <c r="H6" s="35">
+        <v>26623</v>
+      </c>
+      <c r="I6" s="35">
+        <v>73</v>
+      </c>
+      <c r="J6" s="35">
+        <v>180</v>
+      </c>
+      <c r="K6" s="35">
+        <v>36</v>
+      </c>
+      <c r="L6" s="34">
+        <v>0.51716435185185183</v>
+      </c>
+      <c r="M6">
+        <v>32411</v>
+      </c>
+      <c r="N6">
+        <v>80</v>
+      </c>
+      <c r="O6">
+        <v>188</v>
+      </c>
+      <c r="P6">
+        <v>39</v>
+      </c>
+      <c r="Q6" s="34">
+        <f t="shared" si="0"/>
+        <v>1.5393518518518334E-3</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="1"/>
+        <v>5788</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="U6">
+        <f>P6-K6</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>-3.2530290000000002</v>
+      </c>
+      <c r="E7">
+        <v>-414</v>
+      </c>
+      <c r="F7">
+        <v>127.265996</v>
+      </c>
+      <c r="G7" s="34">
+        <v>0.51744212962962965</v>
+      </c>
+      <c r="H7" s="35">
+        <v>33262</v>
+      </c>
+      <c r="I7" s="35">
+        <v>86</v>
+      </c>
+      <c r="J7" s="35">
+        <v>192</v>
+      </c>
+      <c r="K7" s="35">
+        <v>41</v>
+      </c>
+      <c r="L7" s="34">
+        <v>0.51899305555555553</v>
+      </c>
+      <c r="M7">
+        <v>39091</v>
+      </c>
+      <c r="N7">
+        <v>90</v>
+      </c>
+      <c r="O7">
+        <v>198</v>
+      </c>
+      <c r="P7">
+        <v>43</v>
+      </c>
+      <c r="Q7" s="34">
+        <f t="shared" si="0"/>
+        <v>1.5509259259258723E-3</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>5829</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="U7">
+        <f>P7-K7</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>-3.3568950000000002</v>
+      </c>
+      <c r="E8">
+        <v>-414</v>
+      </c>
+      <c r="F8">
+        <v>123.328236</v>
+      </c>
+      <c r="G8" s="34">
+        <v>0.51928240740740739</v>
+      </c>
+      <c r="H8" s="35">
+        <v>39976</v>
+      </c>
+      <c r="I8" s="35">
+        <v>96</v>
+      </c>
+      <c r="J8" s="35">
+        <v>203</v>
+      </c>
+      <c r="K8" s="35">
+        <v>45</v>
+      </c>
+      <c r="L8" s="34">
+        <v>0.52072916666666669</v>
+      </c>
+      <c r="M8">
+        <v>45394</v>
+      </c>
+      <c r="N8">
+        <v>103</v>
+      </c>
+      <c r="O8">
+        <v>211</v>
+      </c>
+      <c r="P8">
+        <v>49</v>
+      </c>
+      <c r="Q8" s="34">
+        <f t="shared" si="0"/>
+        <v>1.4467592592593004E-3</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>5418</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="U8">
+        <f>P8-K8</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>-3.5205250000000001</v>
+      </c>
+      <c r="E9">
+        <v>-441.6</v>
+      </c>
+      <c r="F9">
+        <v>125.43583700000001</v>
+      </c>
+      <c r="G9" s="34">
+        <v>0.5210069444444444</v>
+      </c>
+      <c r="H9" s="35">
+        <v>46256</v>
+      </c>
+      <c r="I9" s="35">
+        <v>110</v>
+      </c>
+      <c r="J9" s="35">
+        <v>217</v>
+      </c>
+      <c r="K9" s="35">
+        <v>52</v>
+      </c>
+      <c r="L9" s="34">
+        <v>0.52258101851851857</v>
+      </c>
+      <c r="M9">
+        <v>52341</v>
+      </c>
+      <c r="N9">
+        <v>118</v>
+      </c>
+      <c r="O9">
+        <v>225</v>
+      </c>
+      <c r="P9">
+        <v>54</v>
+      </c>
+      <c r="Q9" s="34">
+        <f t="shared" si="0"/>
+        <v>1.5740740740741721E-3</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>6085</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="U9">
+        <f>P9-K9</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>-3.530446</v>
+      </c>
+      <c r="E10">
+        <v>-441.6</v>
+      </c>
+      <c r="F10">
+        <v>125.08333399999999</v>
+      </c>
+      <c r="G10" s="34">
+        <v>0.52285879629629628</v>
+      </c>
+      <c r="H10" s="35">
+        <v>53275</v>
+      </c>
+      <c r="I10" s="35">
+        <v>125</v>
+      </c>
+      <c r="J10" s="35">
+        <v>231</v>
+      </c>
+      <c r="K10" s="35">
+        <v>56</v>
+      </c>
+      <c r="L10" s="34">
+        <v>0.52434027777777781</v>
+      </c>
+      <c r="M10">
+        <v>58824</v>
+      </c>
+      <c r="N10">
+        <v>132</v>
+      </c>
+      <c r="O10">
+        <v>267</v>
+      </c>
+      <c r="P10">
+        <v>59</v>
+      </c>
+      <c r="Q10" s="34">
+        <f t="shared" si="0"/>
+        <v>1.481481481481528E-3</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>5549</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="U10">
+        <f>P10-K10</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>-2.9467789999999998</v>
+      </c>
+      <c r="E11">
+        <v>-386.4</v>
+      </c>
+      <c r="F11">
+        <v>131.12623199999999</v>
+      </c>
+      <c r="G11" s="34">
+        <v>0.53832175925925929</v>
+      </c>
+      <c r="H11" s="35">
+        <v>45</v>
+      </c>
+      <c r="I11" s="35">
+        <v>3</v>
+      </c>
+      <c r="J11" s="35">
+        <v>6</v>
+      </c>
+      <c r="K11" s="35">
+        <v>1</v>
+      </c>
+      <c r="L11" s="34">
+        <v>0.53986111111111112</v>
+      </c>
+      <c r="M11">
+        <v>4600</v>
+      </c>
+      <c r="N11">
+        <v>24</v>
+      </c>
+      <c r="O11">
+        <v>36</v>
+      </c>
+      <c r="P11">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="34">
+        <f t="shared" si="0"/>
+        <v>1.5393518518518334E-3</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>4555</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="U11">
+        <f>P11-K11</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="36">
+        <v>-0.86565400000000003</v>
+      </c>
+      <c r="E12" s="36">
+        <v>-110.4</v>
+      </c>
+      <c r="F12" s="36">
+        <v>127.53363299999999</v>
+      </c>
+      <c r="G12" s="38">
+        <v>0.55158564814814814</v>
+      </c>
+      <c r="H12" s="36">
+        <v>29</v>
+      </c>
+      <c r="I12" s="36">
+        <v>2</v>
+      </c>
+      <c r="J12" s="36">
+        <v>4</v>
+      </c>
+      <c r="K12" s="36">
+        <v>2</v>
+      </c>
+      <c r="L12" s="38">
+        <v>0.5533217592592593</v>
+      </c>
+      <c r="M12" s="36">
+        <v>334</v>
+      </c>
+      <c r="N12" s="36">
+        <v>6</v>
+      </c>
+      <c r="O12" s="36">
+        <v>110</v>
+      </c>
+      <c r="P12" s="36">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="34">
+        <f t="shared" ref="Q12:Q21" si="4">L12-G12</f>
+        <v>1.7361111111111605E-3</v>
+      </c>
+      <c r="R12">
+        <f t="shared" ref="R12:R21" si="5">M12-H12</f>
+        <v>305</v>
+      </c>
+      <c r="S12">
+        <f t="shared" ref="S12:S21" si="6">N12-I12</f>
+        <v>4</v>
+      </c>
+      <c r="T12">
+        <f t="shared" ref="T12:T21" si="7">O12-J12</f>
+        <v>106</v>
+      </c>
+      <c r="U12">
+        <f t="shared" ref="U12:U21" si="8">P12-K12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="36">
+        <v>-0.77358199999999999</v>
+      </c>
+      <c r="E13" s="36">
+        <v>-110.4</v>
+      </c>
+      <c r="F13" s="36">
+        <v>142.71280200000001</v>
+      </c>
+      <c r="G13" s="38">
+        <v>0.55359953703703701</v>
+      </c>
+      <c r="H13" s="36">
+        <v>1188</v>
+      </c>
+      <c r="I13" s="36">
+        <v>9</v>
+      </c>
+      <c r="J13" s="36">
+        <v>128</v>
+      </c>
+      <c r="K13" s="36">
+        <v>3</v>
+      </c>
+      <c r="L13" s="38">
+        <v>0.55560185185185185</v>
+      </c>
+      <c r="M13" s="36">
+        <v>1393</v>
+      </c>
+      <c r="N13" s="36">
+        <v>12</v>
+      </c>
+      <c r="O13" s="36">
+        <v>135</v>
+      </c>
+      <c r="P13" s="36">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="34">
+        <f t="shared" si="4"/>
+        <v>2.0023148148148318E-3</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="5"/>
+        <v>205</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="36">
+        <v>-0.80987200000000004</v>
+      </c>
+      <c r="E14" s="36">
+        <v>-110.4</v>
+      </c>
+      <c r="F14" s="36">
+        <v>136.31788499999999</v>
+      </c>
+      <c r="G14" s="38">
+        <v>0.55587962962962967</v>
+      </c>
+      <c r="H14" s="36">
+        <v>2249</v>
+      </c>
+      <c r="I14" s="36">
+        <v>14</v>
+      </c>
+      <c r="J14" s="36">
+        <v>145</v>
+      </c>
+      <c r="K14" s="36">
+        <v>5</v>
+      </c>
+      <c r="L14" s="38">
+        <v>0.55789351851851854</v>
+      </c>
+      <c r="M14" s="36">
+        <v>2448</v>
+      </c>
+      <c r="N14" s="36">
+        <v>16</v>
+      </c>
+      <c r="O14" s="36">
+        <v>149</v>
+      </c>
+      <c r="P14" s="36">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="34">
+        <f t="shared" si="4"/>
+        <v>2.0138888888888706E-3</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="5"/>
+        <v>199</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="36">
+        <v>-0.64350700000000005</v>
+      </c>
+      <c r="E15" s="36">
+        <v>-82.8</v>
+      </c>
+      <c r="F15" s="36">
+        <v>128.67000100000001</v>
+      </c>
+      <c r="G15" s="38">
+        <v>0.5581828703703704</v>
+      </c>
+      <c r="H15">
+        <v>3165</v>
+      </c>
+      <c r="I15" s="36">
+        <v>20</v>
+      </c>
+      <c r="J15" s="36">
+        <v>157</v>
+      </c>
+      <c r="K15" s="36">
+        <v>6</v>
+      </c>
+      <c r="L15" s="38">
+        <v>0.55964120370370374</v>
+      </c>
+      <c r="M15" s="36">
+        <v>3546</v>
+      </c>
+      <c r="N15" s="36">
+        <v>26</v>
+      </c>
+      <c r="O15" s="36">
+        <v>209</v>
+      </c>
+      <c r="P15" s="36">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="34">
+        <f t="shared" si="4"/>
+        <v>1.4583333333333393E-3</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="5"/>
+        <v>381</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="7"/>
+        <v>52</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="36">
+        <v>-0.77162799999999998</v>
+      </c>
+      <c r="E16" s="36">
+        <v>-110.4</v>
+      </c>
+      <c r="F16" s="36">
+        <v>143.07418100000001</v>
+      </c>
+      <c r="G16" s="38">
+        <v>0.5599305555555556</v>
+      </c>
+      <c r="H16" s="36">
+        <v>3568</v>
+      </c>
+      <c r="I16" s="36">
+        <v>27</v>
+      </c>
+      <c r="J16" s="36">
+        <v>213</v>
+      </c>
+      <c r="K16" s="36">
+        <v>7</v>
+      </c>
+      <c r="L16" s="38">
+        <v>0.56162037037037038</v>
+      </c>
+      <c r="M16" s="36">
+        <v>3783</v>
+      </c>
+      <c r="N16" s="36">
+        <v>32</v>
+      </c>
+      <c r="O16" s="36">
+        <v>218</v>
+      </c>
+      <c r="P16" s="36">
+        <v>7</v>
+      </c>
+      <c r="Q16" s="34">
+        <f t="shared" si="4"/>
+        <v>1.6898148148147829E-3</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="5"/>
+        <v>215</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="36">
+        <v>-0.75494499999999998</v>
+      </c>
+      <c r="E17" s="36">
+        <v>-110.4</v>
+      </c>
+      <c r="F17" s="36">
+        <v>146.23579100000001</v>
+      </c>
+      <c r="G17" s="38">
+        <v>0.5618981481481482</v>
+      </c>
+      <c r="H17" s="36">
+        <v>3783</v>
+      </c>
+      <c r="I17" s="36">
+        <v>32</v>
+      </c>
+      <c r="J17" s="36">
+        <v>218</v>
+      </c>
+      <c r="K17" s="36">
+        <v>7</v>
+      </c>
+      <c r="L17" s="38">
+        <v>0.56361111111111106</v>
+      </c>
+      <c r="M17" s="36">
+        <v>3783</v>
+      </c>
+      <c r="N17" s="36">
+        <v>32</v>
+      </c>
+      <c r="O17" s="36">
+        <v>218</v>
+      </c>
+      <c r="P17" s="36">
+        <v>7</v>
+      </c>
+      <c r="Q17" s="34">
+        <f t="shared" si="4"/>
+        <v>1.7129629629628607E-3</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="36">
+        <v>-0.75494099999999997</v>
+      </c>
+      <c r="E18" s="36">
+        <v>-110.4</v>
+      </c>
+      <c r="F18" s="36">
+        <v>146.23668000000001</v>
+      </c>
+      <c r="G18" s="38">
+        <v>0.56388888888888888</v>
+      </c>
+      <c r="H18" s="36">
+        <v>4638</v>
+      </c>
+      <c r="I18" s="36">
+        <v>35</v>
+      </c>
+      <c r="J18" s="36">
+        <v>252</v>
+      </c>
+      <c r="K18" s="36">
+        <v>9</v>
+      </c>
+      <c r="L18" s="38">
+        <v>0.56556712962962963</v>
+      </c>
+      <c r="M18" s="36">
+        <v>4837</v>
+      </c>
+      <c r="N18" s="36">
+        <v>38</v>
+      </c>
+      <c r="O18" s="36">
+        <v>258</v>
+      </c>
+      <c r="P18" s="36">
+        <v>9</v>
+      </c>
+      <c r="Q18" s="34">
+        <f t="shared" si="4"/>
+        <v>1.678240740740744E-3</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="5"/>
+        <v>199</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="36">
+        <v>-0.95757599999999998</v>
+      </c>
+      <c r="E19" s="36">
+        <v>-138</v>
+      </c>
+      <c r="F19" s="36">
+        <v>144.11382</v>
+      </c>
+      <c r="G19" s="38">
+        <v>0.56584490740740745</v>
+      </c>
+      <c r="H19" s="36">
+        <v>5693</v>
+      </c>
+      <c r="I19" s="36">
+        <v>42</v>
+      </c>
+      <c r="J19" s="36">
+        <v>284</v>
+      </c>
+      <c r="K19" s="36">
+        <v>11</v>
+      </c>
+      <c r="L19" s="38">
+        <v>0.56748842592592597</v>
+      </c>
+      <c r="M19" s="36">
+        <v>5888</v>
+      </c>
+      <c r="N19" s="36">
+        <v>45</v>
+      </c>
+      <c r="O19" s="36">
+        <v>288</v>
+      </c>
+      <c r="P19" s="36">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="34">
+        <f t="shared" si="4"/>
+        <v>1.6435185185185164E-3</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="5"/>
+        <v>195</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="36">
+        <v>-0.91941499999999998</v>
+      </c>
+      <c r="E20" s="36">
+        <v>-138</v>
+      </c>
+      <c r="F20" s="36">
+        <v>150.09546700000001</v>
+      </c>
+      <c r="G20" s="38">
+        <v>0.56776620370370368</v>
+      </c>
+      <c r="H20" s="36">
+        <v>6343</v>
+      </c>
+      <c r="I20" s="36">
+        <v>51</v>
+      </c>
+      <c r="J20" s="36">
+        <v>297</v>
+      </c>
+      <c r="K20" s="36">
+        <v>14</v>
+      </c>
+      <c r="L20" s="38">
+        <v>0.56953703703703706</v>
+      </c>
+      <c r="M20" s="36">
+        <v>6566</v>
+      </c>
+      <c r="N20" s="36">
+        <v>56</v>
+      </c>
+      <c r="O20" s="36">
+        <v>304</v>
+      </c>
+      <c r="P20" s="36">
+        <v>17</v>
+      </c>
+      <c r="Q20" s="34">
+        <f t="shared" si="4"/>
+        <v>1.7708333333333881E-3</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="5"/>
+        <v>223</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="36">
+        <v>-0.74778199999999995</v>
+      </c>
+      <c r="E21" s="36">
+        <v>-110.4</v>
+      </c>
+      <c r="F21" s="36">
+        <v>147.63664399999999</v>
+      </c>
+      <c r="G21" s="38">
+        <v>0.56981481481481477</v>
+      </c>
+      <c r="H21" s="36">
+        <v>7413</v>
+      </c>
+      <c r="I21" s="36">
+        <v>59</v>
+      </c>
+      <c r="J21" s="36">
+        <v>314</v>
+      </c>
+      <c r="K21" s="36">
+        <v>18</v>
+      </c>
+      <c r="L21" s="38">
+        <v>0.57158564814814816</v>
+      </c>
+      <c r="M21" s="36">
+        <v>7613</v>
+      </c>
+      <c r="N21" s="36">
+        <v>62</v>
+      </c>
+      <c r="O21" s="36">
+        <v>320</v>
+      </c>
+      <c r="P21" s="36">
+        <v>18</v>
+      </c>
+      <c r="Q21" s="34">
+        <f t="shared" si="4"/>
+        <v>1.7708333333333881E-3</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="5"/>
+        <v>200</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="36">
+        <v>-1.657254</v>
+      </c>
+      <c r="E22" s="36">
+        <v>-220.8</v>
+      </c>
+      <c r="F22" s="36">
+        <v>133.232418</v>
+      </c>
+      <c r="G22" s="38">
+        <v>0.57190972222222225</v>
+      </c>
+      <c r="H22" s="36">
+        <v>123</v>
+      </c>
+      <c r="I22" s="36">
+        <v>3</v>
+      </c>
+      <c r="J22" s="39">
+        <v>7</v>
+      </c>
+      <c r="K22" s="36">
+        <v>1</v>
+      </c>
+      <c r="L22" s="38">
+        <v>0.57368055555555553</v>
+      </c>
+      <c r="M22" s="36">
+        <v>4144</v>
+      </c>
+      <c r="N22" s="36">
+        <v>49</v>
+      </c>
+      <c r="O22" s="36">
+        <v>60</v>
+      </c>
+      <c r="P22" s="36">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="34">
+        <f t="shared" ref="Q22:Q31" si="9">L22-G22</f>
+        <v>1.7708333333332771E-3</v>
+      </c>
+      <c r="R22">
+        <f t="shared" ref="R22:R31" si="10">M22-H22</f>
+        <v>4021</v>
+      </c>
+      <c r="S22">
+        <f t="shared" ref="S22:S31" si="11">N22-I22</f>
+        <v>46</v>
+      </c>
+      <c r="T22">
+        <f t="shared" ref="T22:T31" si="12">O22-J22</f>
+        <v>53</v>
+      </c>
+      <c r="U22">
+        <f t="shared" ref="U22:U31" si="13">P22-K22</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="36">
+        <v>-1.614679</v>
+      </c>
+      <c r="E23" s="36">
+        <v>-220.8</v>
+      </c>
+      <c r="F23" s="36">
+        <v>136.745462</v>
+      </c>
+      <c r="G23" s="38">
+        <v>0.57400462962962961</v>
+      </c>
+      <c r="H23" s="36">
+        <v>136</v>
+      </c>
+      <c r="I23" s="36">
+        <v>5</v>
+      </c>
+      <c r="J23" s="36">
+        <v>6</v>
+      </c>
+      <c r="K23" s="36">
+        <v>3</v>
+      </c>
+      <c r="L23" s="38">
+        <v>0.57578703703703704</v>
+      </c>
+      <c r="M23" s="36">
+        <v>4116</v>
+      </c>
+      <c r="N23" s="36">
+        <v>50</v>
+      </c>
+      <c r="O23" s="36">
+        <v>91</v>
+      </c>
+      <c r="P23" s="36">
+        <v>9</v>
+      </c>
+      <c r="Q23" s="34">
+        <f t="shared" si="9"/>
+        <v>1.782407407407427E-3</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="10"/>
+        <v>3980</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="11"/>
+        <v>45</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="12"/>
+        <v>85</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="36">
+        <v>-1.6704859999999999</v>
+      </c>
+      <c r="E24" s="36">
+        <v>-220.8</v>
+      </c>
+      <c r="F24" s="36">
+        <v>132.17709500000001</v>
+      </c>
+      <c r="G24" s="38">
+        <v>0.57611111111111113</v>
+      </c>
+      <c r="H24" s="36">
+        <v>157</v>
+      </c>
+      <c r="I24" s="36">
+        <v>3</v>
+      </c>
+      <c r="J24" s="36">
+        <v>5</v>
+      </c>
+      <c r="K24" s="36">
+        <v>2</v>
+      </c>
+      <c r="L24" s="38">
+        <v>0.57771990740740742</v>
+      </c>
+      <c r="M24" s="36">
+        <v>3238</v>
+      </c>
+      <c r="N24" s="36">
+        <v>35</v>
+      </c>
+      <c r="O24" s="39">
+        <v>98</v>
+      </c>
+      <c r="P24" s="36">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="34">
+        <f t="shared" si="9"/>
+        <v>1.6087962962962887E-3</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="10"/>
+        <v>3081</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="11"/>
+        <v>32</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="12"/>
+        <v>93</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="36">
+        <v>-1.9859720000000001</v>
+      </c>
+      <c r="E25" s="36">
+        <v>-248.4</v>
+      </c>
+      <c r="F25" s="36">
+        <v>125.077307</v>
+      </c>
+      <c r="G25" s="38">
+        <v>0.57805555555555554</v>
+      </c>
+      <c r="H25" s="36">
+        <v>148</v>
+      </c>
+      <c r="I25" s="36">
+        <v>2</v>
+      </c>
+      <c r="J25" s="36">
+        <v>4</v>
+      </c>
+      <c r="K25" s="36">
+        <v>1</v>
+      </c>
+      <c r="L25" s="38">
+        <v>0.57966435185185183</v>
+      </c>
+      <c r="M25" s="36">
+        <v>3353</v>
+      </c>
+      <c r="N25" s="36">
+        <v>36</v>
+      </c>
+      <c r="O25" s="39">
+        <v>96</v>
+      </c>
+      <c r="P25" s="36">
+        <v>4</v>
+      </c>
+      <c r="Q25" s="34">
+        <f t="shared" si="9"/>
+        <v>1.6087962962962887E-3</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="10"/>
+        <v>3205</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="11"/>
+        <v>34</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="12"/>
+        <v>92</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="36">
+        <v>-1.5982240000000001</v>
+      </c>
+      <c r="E26" s="36">
+        <v>-220.8</v>
+      </c>
+      <c r="F26" s="36">
+        <v>138.15330700000001</v>
+      </c>
+      <c r="G26" s="38">
+        <v>0.57998842592592592</v>
+      </c>
+      <c r="H26" s="36">
+        <v>96</v>
+      </c>
+      <c r="I26" s="36">
+        <v>3</v>
+      </c>
+      <c r="J26" s="39">
+        <v>4</v>
+      </c>
+      <c r="K26" s="36">
+        <v>1</v>
+      </c>
+      <c r="L26" s="38">
+        <v>0.58172453703703708</v>
+      </c>
+      <c r="M26" s="36">
+        <v>3747</v>
+      </c>
+      <c r="N26" s="36">
+        <v>33</v>
+      </c>
+      <c r="O26" s="36">
+        <v>83</v>
+      </c>
+      <c r="P26" s="36">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="34">
+        <f t="shared" si="9"/>
+        <v>1.7361111111111605E-3</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="10"/>
+        <v>3651</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="12"/>
+        <v>79</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="36">
+        <v>-1.825847</v>
+      </c>
+      <c r="E27" s="36">
+        <v>-248.4</v>
+      </c>
+      <c r="F27" s="36">
+        <v>136.04647</v>
+      </c>
+      <c r="G27" s="38">
+        <v>0.58206018518518521</v>
+      </c>
+      <c r="H27" s="36">
+        <v>105</v>
+      </c>
+      <c r="I27" s="36">
+        <v>6</v>
+      </c>
+      <c r="J27" s="36">
+        <v>6</v>
+      </c>
+      <c r="K27" s="36">
+        <v>4</v>
+      </c>
+      <c r="L27" s="38">
+        <v>0.58376157407407403</v>
+      </c>
+      <c r="M27" s="36">
+        <v>3679</v>
+      </c>
+      <c r="N27" s="36">
+        <v>36</v>
+      </c>
+      <c r="O27" s="36">
+        <v>42</v>
+      </c>
+      <c r="P27" s="36">
+        <v>8</v>
+      </c>
+      <c r="Q27" s="34">
+        <f t="shared" si="9"/>
+        <v>1.7013888888888218E-3</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="10"/>
+        <v>3574</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="12"/>
+        <v>36</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="36">
+        <v>-1.775461</v>
+      </c>
+      <c r="E28" s="36">
+        <v>-248.4</v>
+      </c>
+      <c r="F28" s="36">
+        <v>139.907295</v>
+      </c>
+      <c r="G28" s="38">
+        <v>0.58409722222222227</v>
+      </c>
+      <c r="H28" s="36">
+        <v>102</v>
+      </c>
+      <c r="I28" s="36">
+        <v>3</v>
+      </c>
+      <c r="J28" s="36">
+        <v>4</v>
+      </c>
+      <c r="K28" s="37">
+        <v>1</v>
+      </c>
+      <c r="L28" s="38">
+        <v>0.58584490740740736</v>
+      </c>
+      <c r="M28" s="36">
+        <v>3773</v>
+      </c>
+      <c r="N28" s="36">
+        <v>45</v>
+      </c>
+      <c r="O28" s="36">
+        <v>62</v>
+      </c>
+      <c r="P28" s="36">
+        <v>8</v>
+      </c>
+      <c r="Q28" s="34">
+        <f t="shared" si="9"/>
+        <v>1.7476851851850883E-3</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="10"/>
+        <v>3671</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="11"/>
+        <v>42</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="12"/>
+        <v>58</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="36">
+        <v>-1.7506219999999999</v>
+      </c>
+      <c r="E29" s="36">
+        <v>-220.8</v>
+      </c>
+      <c r="F29" s="36">
+        <v>126.126597</v>
+      </c>
+      <c r="G29" s="38">
+        <v>0.58618055555555559</v>
+      </c>
+      <c r="H29" s="36">
+        <v>225</v>
+      </c>
+      <c r="I29" s="36">
+        <v>6</v>
+      </c>
+      <c r="J29" s="36">
+        <v>14</v>
+      </c>
+      <c r="K29" s="36">
+        <v>3</v>
+      </c>
+      <c r="L29" s="38">
+        <v>0.58776620370370369</v>
+      </c>
+      <c r="M29" s="36">
+        <v>3628</v>
+      </c>
+      <c r="N29" s="36">
+        <v>42</v>
+      </c>
+      <c r="O29" s="36">
+        <v>157</v>
+      </c>
+      <c r="P29" s="36">
+        <v>7</v>
+      </c>
+      <c r="Q29" s="34">
+        <f t="shared" si="9"/>
+        <v>1.5856481481481E-3</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="10"/>
+        <v>3403</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="11"/>
+        <v>36</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="12"/>
+        <v>143</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="36">
+        <v>-2.3467730000000002</v>
+      </c>
+      <c r="E30" s="36">
+        <v>-303.60000000000002</v>
+      </c>
+      <c r="F30" s="36">
+        <v>129.36911599999999</v>
+      </c>
+      <c r="G30" s="38">
+        <v>0.58809027777777778</v>
+      </c>
+      <c r="H30" s="36">
+        <v>110</v>
+      </c>
+      <c r="I30" s="36">
+        <v>3</v>
+      </c>
+      <c r="J30" s="36">
+        <v>4</v>
+      </c>
+      <c r="K30" s="36">
+        <v>1</v>
+      </c>
+      <c r="L30" s="38">
+        <v>0.58968750000000003</v>
+      </c>
+      <c r="M30" s="36">
+        <v>2339</v>
+      </c>
+      <c r="N30" s="36">
+        <v>29</v>
+      </c>
+      <c r="O30" s="36">
+        <v>41</v>
+      </c>
+      <c r="P30" s="36">
+        <v>5</v>
+      </c>
+      <c r="Q30" s="34">
+        <f t="shared" si="9"/>
+        <v>1.5972222222222499E-3</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="10"/>
+        <v>2229</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="11"/>
+        <v>26</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="12"/>
+        <v>37</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="36">
+        <v>-1.707775</v>
+      </c>
+      <c r="E31" s="36">
+        <v>-220.8</v>
+      </c>
+      <c r="F31" s="36">
+        <v>129.29102700000001</v>
+      </c>
+      <c r="G31" s="38">
+        <v>0.59002314814814816</v>
+      </c>
+      <c r="H31" s="36">
+        <v>114</v>
+      </c>
+      <c r="I31" s="36">
+        <v>3</v>
+      </c>
+      <c r="J31" s="36">
+        <v>4</v>
+      </c>
+      <c r="K31" s="36">
+        <v>1</v>
+      </c>
+      <c r="L31" s="38">
+        <v>0.59164351851851849</v>
+      </c>
+      <c r="M31" s="36">
+        <v>3473</v>
+      </c>
+      <c r="N31" s="36">
+        <v>42</v>
+      </c>
+      <c r="O31" s="36">
+        <v>110</v>
+      </c>
+      <c r="P31" s="36">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="34">
+        <f t="shared" si="9"/>
+        <v>1.6203703703703276E-3</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="10"/>
+        <v>3359</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="11"/>
+        <v>39</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="12"/>
+        <v>106</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="36">
+        <v>-1.657254</v>
+      </c>
+      <c r="E32" s="36">
+        <v>-220.8</v>
+      </c>
+      <c r="F32" s="36">
+        <v>133.232418</v>
+      </c>
+      <c r="G32" s="38">
+        <v>0.57188657407407406</v>
+      </c>
+      <c r="H32" s="37">
+        <v>42</v>
+      </c>
+      <c r="I32" s="36">
+        <v>11</v>
+      </c>
+      <c r="J32" s="36">
+        <v>13</v>
+      </c>
+      <c r="K32" s="36">
+        <v>10</v>
+      </c>
+      <c r="L32" s="38">
+        <v>0.57365740740740745</v>
+      </c>
+      <c r="M32" s="36">
+        <v>1998</v>
+      </c>
+      <c r="N32" s="36">
+        <v>38</v>
+      </c>
+      <c r="O32" s="36">
+        <v>68</v>
+      </c>
+      <c r="P32" s="36">
+        <v>22</v>
+      </c>
+      <c r="Q32" s="34">
+        <f t="shared" ref="Q32:Q41" si="14">L32-G32</f>
+        <v>1.7708333333333881E-3</v>
+      </c>
+      <c r="R32">
+        <f t="shared" ref="R32:R41" si="15">M32-H32</f>
+        <v>1956</v>
+      </c>
+      <c r="S32">
+        <f t="shared" ref="S32:S41" si="16">N32-I32</f>
+        <v>27</v>
+      </c>
+      <c r="T32">
+        <f t="shared" ref="T32:T41" si="17">O32-J32</f>
+        <v>55</v>
+      </c>
+      <c r="U32">
+        <f t="shared" ref="U32:U41" si="18">P32-K32</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="36">
+        <v>-1.614679</v>
+      </c>
+      <c r="E33" s="36">
+        <v>-220.8</v>
+      </c>
+      <c r="F33" s="36">
+        <v>136.745462</v>
+      </c>
+      <c r="G33" s="38">
+        <v>0.57398148148148154</v>
+      </c>
+      <c r="H33" s="37">
+        <v>63</v>
+      </c>
+      <c r="I33" s="36">
+        <v>3</v>
+      </c>
+      <c r="J33" s="36">
+        <v>7</v>
+      </c>
+      <c r="K33" s="36">
+        <v>2</v>
+      </c>
+      <c r="L33" s="38">
+        <v>0.57576388888888885</v>
+      </c>
+      <c r="M33" s="37">
+        <v>1801</v>
+      </c>
+      <c r="N33" s="36">
+        <v>42</v>
+      </c>
+      <c r="O33" s="36">
+        <v>106</v>
+      </c>
+      <c r="P33" s="36">
+        <v>14</v>
+      </c>
+      <c r="Q33" s="34">
+        <f t="shared" si="14"/>
+        <v>1.782407407407316E-3</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="15"/>
+        <v>1738</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="16"/>
+        <v>39</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="17"/>
+        <v>99</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="18"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="36">
+        <v>-1.6704859999999999</v>
+      </c>
+      <c r="E34" s="36">
+        <v>-220.8</v>
+      </c>
+      <c r="F34" s="36">
+        <v>132.17709500000001</v>
+      </c>
+      <c r="G34" s="38">
+        <v>0.57608796296296294</v>
+      </c>
+      <c r="H34" s="36">
+        <v>60</v>
+      </c>
+      <c r="I34" s="36">
+        <v>4</v>
+      </c>
+      <c r="J34" s="36">
+        <v>7</v>
+      </c>
+      <c r="K34" s="36">
+        <v>3</v>
+      </c>
+      <c r="L34" s="38">
+        <v>0.57769675925925923</v>
+      </c>
+      <c r="M34" s="36">
+        <v>1768</v>
+      </c>
+      <c r="N34" s="36">
+        <v>35</v>
+      </c>
+      <c r="O34" s="36">
+        <v>95</v>
+      </c>
+      <c r="P34" s="36">
+        <v>9</v>
+      </c>
+      <c r="Q34" s="34">
+        <f t="shared" si="14"/>
+        <v>1.6087962962962887E-3</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="15"/>
+        <v>1708</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="16"/>
+        <v>31</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="17"/>
+        <v>88</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="36">
+        <v>-1.9859720000000001</v>
+      </c>
+      <c r="E35" s="36">
+        <v>-248.4</v>
+      </c>
+      <c r="F35" s="36">
+        <v>125.077307</v>
+      </c>
+      <c r="G35" s="38">
+        <v>0.57803240740740736</v>
+      </c>
+      <c r="H35" s="36">
+        <v>61</v>
+      </c>
+      <c r="I35" s="36">
+        <v>5</v>
+      </c>
+      <c r="J35" s="37">
+        <v>8</v>
+      </c>
+      <c r="K35" s="36">
+        <v>3</v>
+      </c>
+      <c r="L35" s="38">
+        <v>0.57964120370370376</v>
+      </c>
+      <c r="M35" s="36">
+        <v>1936</v>
+      </c>
+      <c r="N35" s="36">
+        <v>40</v>
+      </c>
+      <c r="O35" s="37">
+        <v>79</v>
+      </c>
+      <c r="P35" s="36">
+        <v>15</v>
+      </c>
+      <c r="Q35" s="34">
+        <f t="shared" si="14"/>
+        <v>1.6087962962963998E-3</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="15"/>
+        <v>1875</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="16"/>
+        <v>35</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="17"/>
+        <v>71</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="18"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="36">
+        <v>-1.5982240000000001</v>
+      </c>
+      <c r="E36" s="36">
+        <v>-220.8</v>
+      </c>
+      <c r="F36" s="36">
+        <v>138.15330700000001</v>
+      </c>
+      <c r="G36" s="38">
+        <v>0.57996527777777773</v>
+      </c>
+      <c r="H36" s="36">
+        <v>63</v>
+      </c>
+      <c r="I36" s="36">
+        <v>3</v>
+      </c>
+      <c r="J36" s="36">
+        <v>7</v>
+      </c>
+      <c r="K36" s="36">
+        <v>2</v>
+      </c>
+      <c r="L36" s="38">
+        <v>0.58170138888888889</v>
+      </c>
+      <c r="M36" s="36">
+        <v>1780</v>
+      </c>
+      <c r="N36" s="36">
+        <v>33</v>
+      </c>
+      <c r="O36" s="36">
+        <v>66</v>
+      </c>
+      <c r="P36" s="36">
+        <v>12</v>
+      </c>
+      <c r="Q36" s="34">
+        <f t="shared" si="14"/>
+        <v>1.7361111111111605E-3</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="15"/>
+        <v>1717</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="17"/>
+        <v>59</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="36">
+        <v>-1.825847</v>
+      </c>
+      <c r="E37" s="36">
+        <v>-248.4</v>
+      </c>
+      <c r="F37" s="36">
+        <v>136.04647</v>
+      </c>
+      <c r="G37" s="38">
+        <v>0.58203703703703702</v>
+      </c>
+      <c r="H37" s="36">
+        <v>64</v>
+      </c>
+      <c r="I37" s="36">
+        <v>3</v>
+      </c>
+      <c r="J37" s="36">
+        <v>8</v>
+      </c>
+      <c r="K37" s="36">
+        <v>2</v>
+      </c>
+      <c r="L37" s="38">
+        <v>0.58373842592592595</v>
+      </c>
+      <c r="M37" s="36">
+        <v>1757</v>
+      </c>
+      <c r="N37" s="36">
+        <v>29</v>
+      </c>
+      <c r="O37" s="36">
+        <v>78</v>
+      </c>
+      <c r="P37" s="36">
+        <v>8</v>
+      </c>
+      <c r="Q37" s="34">
+        <f t="shared" si="14"/>
+        <v>1.7013888888889328E-3</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="15"/>
+        <v>1693</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="16"/>
+        <v>26</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="36">
+        <v>-1.775461</v>
+      </c>
+      <c r="E38" s="36">
+        <v>-248.4</v>
+      </c>
+      <c r="F38" s="36">
+        <v>139.907295</v>
+      </c>
+      <c r="G38" s="38">
+        <v>0.58406250000000004</v>
+      </c>
+      <c r="H38" s="36">
+        <v>74</v>
+      </c>
+      <c r="I38" s="36">
+        <v>5</v>
+      </c>
+      <c r="J38" s="36">
+        <v>8</v>
+      </c>
+      <c r="K38" s="36">
+        <v>2</v>
+      </c>
+      <c r="L38" s="38">
+        <v>0.58582175925925928</v>
+      </c>
+      <c r="M38" s="36">
+        <v>1946</v>
+      </c>
+      <c r="N38" s="36">
+        <v>43</v>
+      </c>
+      <c r="O38" s="36">
+        <v>120</v>
+      </c>
+      <c r="P38" s="36">
+        <v>17</v>
+      </c>
+      <c r="Q38" s="34">
+        <f t="shared" si="14"/>
+        <v>1.7592592592592382E-3</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="15"/>
+        <v>1872</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="16"/>
+        <v>38</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="17"/>
+        <v>112</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="18"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="36">
+        <v>-1.7506219999999999</v>
+      </c>
+      <c r="E39" s="36">
+        <v>-220.8</v>
+      </c>
+      <c r="F39" s="36">
+        <v>126.126597</v>
+      </c>
+      <c r="G39" s="38">
+        <v>0.5861574074074074</v>
+      </c>
+      <c r="H39" s="36">
+        <v>63</v>
+      </c>
+      <c r="I39" s="36">
+        <v>3</v>
+      </c>
+      <c r="J39" s="36">
+        <v>8</v>
+      </c>
+      <c r="K39" s="36">
+        <v>2</v>
+      </c>
+      <c r="L39" s="38">
+        <v>0.58773148148148147</v>
+      </c>
+      <c r="M39" s="36">
+        <v>1983</v>
+      </c>
+      <c r="N39" s="36">
+        <v>36</v>
+      </c>
+      <c r="O39" s="37">
+        <v>125</v>
+      </c>
+      <c r="P39" s="36">
+        <v>16</v>
+      </c>
+      <c r="Q39" s="34">
+        <f t="shared" si="14"/>
+        <v>1.5740740740740611E-3</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="15"/>
+        <v>1920</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="16"/>
+        <v>33</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="17"/>
+        <v>117</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="18"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="36">
+        <v>-2.3467730000000002</v>
+      </c>
+      <c r="E40" s="36">
+        <v>-303.60000000000002</v>
+      </c>
+      <c r="F40" s="36">
+        <v>129.36911599999999</v>
+      </c>
+      <c r="G40" s="38">
+        <v>0.58806712962962959</v>
+      </c>
+      <c r="H40" s="36">
+        <v>63</v>
+      </c>
+      <c r="I40" s="36">
+        <v>4</v>
+      </c>
+      <c r="J40" s="37">
+        <v>6</v>
+      </c>
+      <c r="K40" s="36">
+        <v>2</v>
+      </c>
+      <c r="L40" s="38">
+        <v>0.58966435185185184</v>
+      </c>
+      <c r="M40" s="36">
+        <v>4483</v>
+      </c>
+      <c r="N40" s="36">
+        <v>122</v>
+      </c>
+      <c r="O40" s="36">
+        <v>376</v>
+      </c>
+      <c r="P40" s="36">
+        <v>50</v>
+      </c>
+      <c r="Q40" s="34">
+        <f t="shared" si="14"/>
+        <v>1.5972222222222499E-3</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="15"/>
+        <v>4420</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="16"/>
+        <v>118</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="17"/>
+        <v>370</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="18"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="36">
+        <v>-1.707775</v>
+      </c>
+      <c r="E41" s="36">
+        <v>-220.8</v>
+      </c>
+      <c r="F41" s="36">
+        <v>129.29102700000001</v>
+      </c>
+      <c r="G41" s="38">
+        <v>0.58998842592592593</v>
+      </c>
+      <c r="H41" s="36">
+        <v>64</v>
+      </c>
+      <c r="I41" s="36">
+        <v>3</v>
+      </c>
+      <c r="J41" s="36">
+        <v>7</v>
+      </c>
+      <c r="K41" s="36">
+        <v>2</v>
+      </c>
+      <c r="L41" s="38">
+        <v>0.59162037037037041</v>
+      </c>
+      <c r="M41" s="36">
+        <v>1909</v>
+      </c>
+      <c r="N41" s="36">
+        <v>34</v>
+      </c>
+      <c r="O41" s="36">
+        <v>88</v>
+      </c>
+      <c r="P41" s="37">
+        <v>12</v>
+      </c>
+      <c r="Q41" s="34">
+        <f t="shared" si="14"/>
+        <v>1.6319444444444775E-3</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="15"/>
+        <v>1845</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="16"/>
+        <v>31</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="17"/>
+        <v>81</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="36">
+        <v>-1.409192</v>
+      </c>
+      <c r="E42" s="36">
+        <v>-193.2</v>
+      </c>
+      <c r="F42" s="36">
+        <v>137.09985399999999</v>
+      </c>
+      <c r="G42" s="38">
+        <v>0.59193287037037035</v>
+      </c>
+      <c r="H42" s="39">
+        <v>6</v>
+      </c>
+      <c r="I42" s="36">
+        <v>0</v>
+      </c>
+      <c r="J42" s="36">
+        <v>0</v>
+      </c>
+      <c r="K42" s="36">
+        <v>0</v>
+      </c>
+      <c r="L42" s="38">
+        <v>0.59351851851851856</v>
+      </c>
+      <c r="M42" s="36">
+        <v>177</v>
+      </c>
+      <c r="N42" s="36">
+        <v>8</v>
+      </c>
+      <c r="O42" s="37">
+        <v>26</v>
+      </c>
+      <c r="P42" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="34">
+        <f t="shared" ref="Q42:Q51" si="19">L42-G42</f>
+        <v>1.585648148148211E-3</v>
+      </c>
+      <c r="R42">
+        <f t="shared" ref="R42:R51" si="20">M42-H42</f>
+        <v>171</v>
+      </c>
+      <c r="S42">
+        <f t="shared" ref="S42:S51" si="21">N42-I42</f>
+        <v>8</v>
+      </c>
+      <c r="T42">
+        <f t="shared" ref="T42:T51" si="22">O42-J42</f>
+        <v>26</v>
+      </c>
+      <c r="U42">
+        <f t="shared" ref="U42:U51" si="23">P42-K42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="36">
+        <v>-1.4312</v>
+      </c>
+      <c r="E43" s="36">
+        <v>-193.2</v>
+      </c>
+      <c r="F43" s="36">
+        <v>134.99161899999999</v>
+      </c>
+      <c r="G43" s="38">
+        <v>0.59380787037037042</v>
+      </c>
+      <c r="H43" s="36">
+        <v>6</v>
+      </c>
+      <c r="I43" s="36">
+        <v>0</v>
+      </c>
+      <c r="J43" s="37">
+        <v>0</v>
+      </c>
+      <c r="K43" s="37">
+        <v>0</v>
+      </c>
+      <c r="L43" s="38">
+        <v>0.59552083333333339</v>
+      </c>
+      <c r="M43" s="36">
+        <v>7</v>
+      </c>
+      <c r="N43" s="36">
+        <v>0</v>
+      </c>
+      <c r="O43" s="36">
+        <v>0</v>
+      </c>
+      <c r="P43" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="34">
+        <f t="shared" si="19"/>
+        <v>1.7129629629629717E-3</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="36">
+        <v>-1.423746</v>
+      </c>
+      <c r="E44" s="36">
+        <v>-193.2</v>
+      </c>
+      <c r="F44" s="36">
+        <v>135.69832099999999</v>
+      </c>
+      <c r="G44" s="38">
+        <v>0.5957986111111111</v>
+      </c>
+      <c r="H44" s="36">
+        <v>6</v>
+      </c>
+      <c r="I44" s="36">
+        <v>0</v>
+      </c>
+      <c r="J44" s="36">
+        <v>0</v>
+      </c>
+      <c r="K44" s="36">
+        <v>0</v>
+      </c>
+      <c r="L44" s="38">
+        <v>0.59747685185185184</v>
+      </c>
+      <c r="M44" s="36">
+        <v>742</v>
+      </c>
+      <c r="N44" s="36">
+        <v>23</v>
+      </c>
+      <c r="O44" s="36">
+        <v>25</v>
+      </c>
+      <c r="P44" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="34">
+        <f t="shared" si="19"/>
+        <v>1.678240740740744E-3</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="20"/>
+        <v>736</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="21"/>
+        <v>23</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="22"/>
+        <v>25</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="36">
+        <v>-1.4470959999999999</v>
+      </c>
+      <c r="E45" s="36">
+        <v>-193.2</v>
+      </c>
+      <c r="F45" s="36">
+        <v>133.50873899999999</v>
+      </c>
+      <c r="G45" s="38">
+        <v>0.59775462962962966</v>
+      </c>
+      <c r="H45" s="36">
+        <v>6</v>
+      </c>
+      <c r="I45" s="36">
+        <v>0</v>
+      </c>
+      <c r="J45" s="36">
+        <v>0</v>
+      </c>
+      <c r="K45" s="36">
+        <v>0</v>
+      </c>
+      <c r="L45" s="38">
+        <v>0.59945601851851849</v>
+      </c>
+      <c r="M45" s="36">
+        <v>7</v>
+      </c>
+      <c r="N45" s="36">
+        <v>1</v>
+      </c>
+      <c r="O45" s="37">
+        <v>1</v>
+      </c>
+      <c r="P45" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="34">
+        <f t="shared" si="19"/>
+        <v>1.7013888888888218E-3</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="36">
+        <v>-1.4616359999999999</v>
+      </c>
+      <c r="E46" s="36">
+        <v>-193.2</v>
+      </c>
+      <c r="F46" s="36">
+        <v>132.180622</v>
+      </c>
+      <c r="G46" s="38">
+        <v>0.59974537037037035</v>
+      </c>
+      <c r="H46" s="36">
+        <v>6</v>
+      </c>
+      <c r="I46" s="36">
+        <v>0</v>
+      </c>
+      <c r="J46" s="36">
+        <v>0</v>
+      </c>
+      <c r="K46" s="36">
+        <v>0</v>
+      </c>
+      <c r="L46" s="38">
+        <v>0.60142361111111109</v>
+      </c>
+      <c r="M46" s="36">
+        <v>7</v>
+      </c>
+      <c r="N46" s="36">
+        <v>0</v>
+      </c>
+      <c r="O46" s="36">
+        <v>0</v>
+      </c>
+      <c r="P46" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="34">
+        <f t="shared" si="19"/>
+        <v>1.678240740740744E-3</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="36">
+        <v>-1.3048150000000001</v>
+      </c>
+      <c r="E47" s="36">
+        <v>-165.6</v>
+      </c>
+      <c r="F47" s="36">
+        <v>126.914552</v>
+      </c>
+      <c r="G47" s="38">
+        <v>0.60170138888888891</v>
+      </c>
+      <c r="H47" s="36">
+        <v>6</v>
+      </c>
+      <c r="I47" s="36">
+        <v>0</v>
+      </c>
+      <c r="J47" s="36">
+        <v>0</v>
+      </c>
+      <c r="K47" s="37">
+        <v>0</v>
+      </c>
+      <c r="L47" s="38">
+        <v>0.60329861111111116</v>
+      </c>
+      <c r="M47" s="36">
+        <v>3426</v>
+      </c>
+      <c r="N47" s="36">
+        <v>3</v>
+      </c>
+      <c r="O47" s="36">
+        <v>2686</v>
+      </c>
+      <c r="P47" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="34">
+        <f t="shared" si="19"/>
+        <v>1.5972222222222499E-3</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="20"/>
+        <v>3420</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="22"/>
+        <v>2686</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="36">
+        <v>-1.544662</v>
+      </c>
+      <c r="E48" s="36">
+        <v>-193.2</v>
+      </c>
+      <c r="F48" s="36">
+        <v>125.075943</v>
+      </c>
+      <c r="G48" s="38">
+        <v>0.60357638888888887</v>
+      </c>
+      <c r="H48" s="36">
+        <v>6</v>
+      </c>
+      <c r="I48" s="36">
+        <v>0</v>
+      </c>
+      <c r="J48" s="36">
+        <v>0</v>
+      </c>
+      <c r="K48" s="37">
+        <v>0</v>
+      </c>
+      <c r="L48" s="38">
+        <v>0.60518518518518516</v>
+      </c>
+      <c r="M48" s="36">
+        <v>1027</v>
+      </c>
+      <c r="N48" s="36">
+        <v>7</v>
+      </c>
+      <c r="O48" s="36">
+        <v>387</v>
+      </c>
+      <c r="P48" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="34">
+        <f t="shared" si="19"/>
+        <v>1.6087962962962887E-3</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="20"/>
+        <v>1021</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="22"/>
+        <v>387</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="36">
+        <v>-1.5447299999999999</v>
+      </c>
+      <c r="E49" s="36">
+        <v>-193.2</v>
+      </c>
+      <c r="F49" s="36">
+        <v>125.070373</v>
+      </c>
+      <c r="G49" s="38">
+        <v>0.60546296296296298</v>
+      </c>
+      <c r="H49" s="36">
+        <v>6</v>
+      </c>
+      <c r="I49" s="36">
+        <v>0</v>
+      </c>
+      <c r="J49" s="36">
+        <v>0</v>
+      </c>
+      <c r="K49" s="36">
+        <v>0</v>
+      </c>
+      <c r="L49" s="38">
+        <v>0.60712962962962957</v>
+      </c>
+      <c r="M49" s="36">
+        <v>7</v>
+      </c>
+      <c r="N49" s="36">
+        <v>0</v>
+      </c>
+      <c r="O49" s="36">
+        <v>0</v>
+      </c>
+      <c r="P49" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="34">
+        <f t="shared" si="19"/>
+        <v>1.6666666666665941E-3</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="36">
+        <v>-1.230688</v>
+      </c>
+      <c r="E50" s="36">
+        <v>-165.6</v>
+      </c>
+      <c r="F50" s="36">
+        <v>134.558897</v>
+      </c>
+      <c r="G50" s="38">
+        <v>0.6074074074074074</v>
+      </c>
+      <c r="H50" s="36">
+        <v>6</v>
+      </c>
+      <c r="I50" s="36">
+        <v>0</v>
+      </c>
+      <c r="J50" s="36">
+        <v>0</v>
+      </c>
+      <c r="K50" s="36">
+        <v>0</v>
+      </c>
+      <c r="L50" s="38">
+        <v>0.6091550925925926</v>
+      </c>
+      <c r="M50" s="36">
+        <v>7</v>
+      </c>
+      <c r="N50" s="36">
+        <v>1</v>
+      </c>
+      <c r="O50" s="36">
+        <v>1</v>
+      </c>
+      <c r="P50" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="34">
+        <f t="shared" si="19"/>
+        <v>1.7476851851851993E-3</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="36">
+        <v>-1.3663069999999999</v>
+      </c>
+      <c r="E51" s="36">
+        <v>-165.6</v>
+      </c>
+      <c r="F51" s="36">
+        <v>121.20261000000001</v>
+      </c>
+      <c r="G51" s="38">
+        <v>0.60943287037037042</v>
+      </c>
+      <c r="H51" s="36">
+        <v>6</v>
+      </c>
+      <c r="I51" s="36">
+        <v>0</v>
+      </c>
+      <c r="J51" s="37">
+        <v>0</v>
+      </c>
+      <c r="K51" s="36">
+        <v>0</v>
+      </c>
+      <c r="L51" s="38">
+        <v>0.61085648148148153</v>
+      </c>
+      <c r="M51" s="36">
+        <v>7</v>
+      </c>
+      <c r="N51" s="36">
+        <v>0</v>
+      </c>
+      <c r="O51" s="37">
+        <v>0</v>
+      </c>
+      <c r="P51" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="34">
+        <f t="shared" si="19"/>
+        <v>1.4236111111111116E-3</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C52" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="36">
+        <v>-2.0892710000000001</v>
+      </c>
+      <c r="E52" s="36">
+        <v>-276</v>
+      </c>
+      <c r="F52" s="36">
+        <v>132.10351600000001</v>
+      </c>
+      <c r="G52" s="38">
+        <v>0.6111226851851852</v>
+      </c>
+      <c r="H52" s="36">
+        <v>18</v>
+      </c>
+      <c r="I52" s="36">
+        <v>2</v>
+      </c>
+      <c r="J52" s="36">
+        <v>3</v>
+      </c>
+      <c r="K52" s="36">
+        <v>1</v>
+      </c>
+      <c r="L52" s="38">
+        <v>0.61275462962962968</v>
+      </c>
+      <c r="M52" s="37">
+        <v>4808</v>
+      </c>
+      <c r="N52" s="36">
+        <v>72</v>
+      </c>
+      <c r="O52" s="36">
+        <v>625</v>
+      </c>
+      <c r="P52" s="36">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="34">
+        <f t="shared" ref="Q52:Q61" si="24">L52-G52</f>
+        <v>1.6319444444444775E-3</v>
+      </c>
+      <c r="R52">
+        <f t="shared" ref="R52:R61" si="25">M52-H52</f>
+        <v>4790</v>
+      </c>
+      <c r="S52">
+        <f t="shared" ref="S52:S61" si="26">N52-I52</f>
+        <v>70</v>
+      </c>
+      <c r="T52">
+        <f t="shared" ref="T52:T61" si="27">O52-J52</f>
+        <v>622</v>
+      </c>
+      <c r="U52">
+        <f t="shared" ref="U52:U61" si="28">P52-K52</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C53" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="36">
+        <v>-2.4680879999999998</v>
+      </c>
+      <c r="E53" s="36">
+        <v>-303.60000000000002</v>
+      </c>
+      <c r="F53" s="36">
+        <v>123.010177</v>
+      </c>
+      <c r="G53" s="38">
+        <v>0.61302083333333335</v>
+      </c>
+      <c r="H53" s="36">
+        <v>22</v>
+      </c>
+      <c r="I53" s="36">
+        <v>2</v>
+      </c>
+      <c r="J53" s="36">
+        <v>5</v>
+      </c>
+      <c r="K53" s="36">
+        <v>1</v>
+      </c>
+      <c r="L53" s="38">
+        <v>0.61447916666666669</v>
+      </c>
+      <c r="M53" s="36">
+        <v>4193</v>
+      </c>
+      <c r="N53" s="36">
+        <v>110</v>
+      </c>
+      <c r="O53" s="36">
+        <v>443</v>
+      </c>
+      <c r="P53" s="36">
+        <v>5</v>
+      </c>
+      <c r="Q53" s="34">
+        <f t="shared" si="24"/>
+        <v>1.4583333333333393E-3</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="25"/>
+        <v>4171</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="26"/>
+        <v>108</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="27"/>
+        <v>438</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C54" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="36">
+        <v>-2.5431279999999998</v>
+      </c>
+      <c r="E54" s="36">
+        <v>-331.2</v>
+      </c>
+      <c r="F54" s="36">
+        <v>130.23330100000001</v>
+      </c>
+      <c r="G54" s="38">
+        <v>0.61474537037037036</v>
+      </c>
+      <c r="H54" s="36">
+        <v>21</v>
+      </c>
+      <c r="I54" s="36">
+        <v>3</v>
+      </c>
+      <c r="J54" s="36">
+        <v>4</v>
+      </c>
+      <c r="K54" s="36">
+        <v>1</v>
+      </c>
+      <c r="L54" s="38">
+        <v>0.61623842592592593</v>
+      </c>
+      <c r="M54" s="36">
+        <v>4472</v>
+      </c>
+      <c r="N54" s="36">
+        <v>71</v>
+      </c>
+      <c r="O54" s="36">
+        <v>1225</v>
+      </c>
+      <c r="P54" s="36">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="34">
+        <f t="shared" si="24"/>
+        <v>1.4930555555555669E-3</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="25"/>
+        <v>4451</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="26"/>
+        <v>68</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="27"/>
+        <v>1221</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C55" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="36">
+        <v>-2.4617770000000001</v>
+      </c>
+      <c r="E55" s="36">
+        <v>-303.60000000000002</v>
+      </c>
+      <c r="F55" s="36">
+        <v>123.325542</v>
+      </c>
+      <c r="G55" s="38">
+        <v>0.6165046296296296</v>
+      </c>
+      <c r="H55" s="36">
+        <v>19</v>
+      </c>
+      <c r="I55" s="36">
+        <v>2</v>
+      </c>
+      <c r="J55" s="36">
+        <v>4</v>
+      </c>
+      <c r="K55" s="36">
+        <v>1</v>
+      </c>
+      <c r="L55" s="38">
+        <v>0.61802083333333335</v>
+      </c>
+      <c r="M55" s="37">
+        <v>4780</v>
+      </c>
+      <c r="N55" s="36">
+        <v>54</v>
+      </c>
+      <c r="O55" s="36">
+        <v>272</v>
+      </c>
+      <c r="P55" s="36">
+        <v>6</v>
+      </c>
+      <c r="Q55" s="34">
+        <f t="shared" si="24"/>
+        <v>1.5162037037037557E-3</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="25"/>
+        <v>4761</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="26"/>
+        <v>52</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="27"/>
+        <v>268</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C56" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="36">
+        <v>-2.4272040000000001</v>
+      </c>
+      <c r="E56" s="36">
+        <v>-303.60000000000002</v>
+      </c>
+      <c r="F56" s="36">
+        <v>125.082173</v>
+      </c>
+      <c r="G56" s="38">
+        <v>0.61828703703703702</v>
+      </c>
+      <c r="H56" s="36">
+        <v>20</v>
+      </c>
+      <c r="I56" s="36">
+        <v>2</v>
+      </c>
+      <c r="J56" s="36">
+        <v>3</v>
+      </c>
+      <c r="K56" s="36">
+        <v>1</v>
+      </c>
+      <c r="L56" s="38">
+        <v>0.61981481481481482</v>
+      </c>
+      <c r="M56" s="36">
+        <v>4685</v>
+      </c>
+      <c r="N56" s="36">
+        <v>60</v>
+      </c>
+      <c r="O56" s="37">
+        <v>1069</v>
+      </c>
+      <c r="P56" s="37">
+        <v>5</v>
+      </c>
+      <c r="Q56" s="34">
+        <f t="shared" si="24"/>
+        <v>1.5277777777777946E-3</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="25"/>
+        <v>4665</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="26"/>
+        <v>58</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="27"/>
+        <v>1066</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C57" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" s="36">
+        <v>-2.0142199999999999</v>
+      </c>
+      <c r="E57" s="36">
+        <v>-248.4</v>
+      </c>
+      <c r="F57" s="36">
+        <v>123.323161</v>
+      </c>
+      <c r="G57" s="38">
+        <v>0.62008101851851849</v>
+      </c>
+      <c r="H57" s="36">
+        <v>20</v>
+      </c>
+      <c r="I57" s="36">
+        <v>2</v>
+      </c>
+      <c r="J57" s="36">
+        <v>6</v>
+      </c>
+      <c r="K57" s="37">
+        <v>1</v>
+      </c>
+      <c r="L57" s="38">
+        <v>0.62159722222222225</v>
+      </c>
+      <c r="M57" s="36">
+        <v>4039</v>
+      </c>
+      <c r="N57" s="36">
+        <v>120</v>
+      </c>
+      <c r="O57" s="36">
+        <v>363</v>
+      </c>
+      <c r="P57" s="37">
+        <v>6</v>
+      </c>
+      <c r="Q57" s="34">
+        <f t="shared" si="24"/>
+        <v>1.5162037037037557E-3</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="25"/>
+        <v>4019</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="26"/>
+        <v>118</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="27"/>
+        <v>357</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C58" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="36">
+        <v>-2.6703100000000002</v>
+      </c>
+      <c r="E58" s="36">
+        <v>-331.2</v>
+      </c>
+      <c r="F58" s="36">
+        <v>124.03054299999999</v>
+      </c>
+      <c r="G58" s="38">
+        <v>0.62187499999999996</v>
+      </c>
+      <c r="H58" s="36">
+        <v>18</v>
+      </c>
+      <c r="I58" s="36">
+        <v>2</v>
+      </c>
+      <c r="J58" s="36">
+        <v>3</v>
+      </c>
+      <c r="K58" s="37">
+        <v>1</v>
+      </c>
+      <c r="L58" s="38">
+        <v>0.62337962962962967</v>
+      </c>
+      <c r="M58" s="36">
+        <v>4766</v>
+      </c>
+      <c r="N58" s="36">
+        <v>57</v>
+      </c>
+      <c r="O58" s="36">
+        <v>1492</v>
+      </c>
+      <c r="P58" s="36">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="34">
+        <f t="shared" si="24"/>
+        <v>1.5046296296297168E-3</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="25"/>
+        <v>4748</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="26"/>
+        <v>55</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="27"/>
+        <v>1489</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C59" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="36">
+        <v>-2.439378</v>
+      </c>
+      <c r="E59" s="36">
+        <v>-303.60000000000002</v>
+      </c>
+      <c r="F59" s="36">
+        <v>124.45796300000001</v>
+      </c>
+      <c r="G59" s="38">
+        <v>0.62364583333333334</v>
+      </c>
+      <c r="H59" s="36">
+        <v>19</v>
+      </c>
+      <c r="I59" s="36">
+        <v>2</v>
+      </c>
+      <c r="J59" s="36">
+        <v>3</v>
+      </c>
+      <c r="K59" s="36">
+        <v>1</v>
+      </c>
+      <c r="L59" s="38">
+        <v>0.62509259259259264</v>
+      </c>
+      <c r="M59" s="36">
+        <v>4161</v>
+      </c>
+      <c r="N59" s="36">
+        <v>97</v>
+      </c>
+      <c r="O59" s="36">
+        <v>942</v>
+      </c>
+      <c r="P59" s="36">
+        <v>7</v>
+      </c>
+      <c r="Q59" s="34">
+        <f t="shared" si="24"/>
+        <v>1.4467592592593004E-3</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="25"/>
+        <v>4142</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="26"/>
+        <v>95</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="27"/>
+        <v>939</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="28"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C60" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" s="36">
+        <v>-2.5476589999999999</v>
+      </c>
+      <c r="E60" s="36">
+        <v>-331.2</v>
+      </c>
+      <c r="F60" s="36">
+        <v>130.00170299999999</v>
+      </c>
+      <c r="G60" s="38">
+        <v>0.62535879629629632</v>
+      </c>
+      <c r="H60" s="37">
+        <v>20</v>
+      </c>
+      <c r="I60" s="36">
+        <v>2</v>
+      </c>
+      <c r="J60" s="36">
+        <v>6</v>
+      </c>
+      <c r="K60" s="36">
+        <v>1</v>
+      </c>
+      <c r="L60" s="38">
+        <v>0.62692129629629634</v>
+      </c>
+      <c r="M60" s="36">
+        <v>4930</v>
+      </c>
+      <c r="N60" s="36">
+        <v>62</v>
+      </c>
+      <c r="O60" s="36">
+        <v>1023</v>
+      </c>
+      <c r="P60" s="36">
+        <v>8</v>
+      </c>
+      <c r="Q60" s="34">
+        <f t="shared" si="24"/>
+        <v>1.5625000000000222E-3</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="25"/>
+        <v>4910</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="26"/>
+        <v>60</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="27"/>
+        <v>1017</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="28"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C61" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="36">
+        <v>-2.5055010000000002</v>
+      </c>
+      <c r="E61" s="36">
+        <v>-331.2</v>
+      </c>
+      <c r="F61" s="36">
+        <v>132.18914000000001</v>
+      </c>
+      <c r="G61" s="38">
+        <v>0.62718750000000001</v>
+      </c>
+      <c r="H61" s="36">
+        <v>16</v>
+      </c>
+      <c r="I61" s="36">
+        <v>2</v>
+      </c>
+      <c r="J61" s="36">
+        <v>3</v>
+      </c>
+      <c r="K61" s="36">
+        <v>1</v>
+      </c>
+      <c r="L61" s="38">
+        <v>0.6287152777777778</v>
+      </c>
+      <c r="M61" s="37">
+        <v>4796</v>
+      </c>
+      <c r="N61" s="36">
+        <v>62</v>
+      </c>
+      <c r="O61" s="36">
+        <v>1064</v>
+      </c>
+      <c r="P61" s="36">
+        <v>8</v>
+      </c>
+      <c r="Q61" s="34">
+        <f t="shared" si="24"/>
+        <v>1.5277777777777946E-3</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="25"/>
+        <v>4780</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="26"/>
+        <v>60</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="27"/>
+        <v>1061</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="28"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="36"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+      <c r="M62" s="36"/>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C63" s="38"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="36"/>
+      <c r="M63" s="36"/>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C64" s="38"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="36"/>
+      <c r="K64" s="36"/>
+      <c r="M64" s="36"/>
+    </row>
+    <row r="65" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C65" s="38"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="36"/>
+      <c r="M65" s="37"/>
+    </row>
+    <row r="66" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C66" s="38"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="36"/>
+    </row>
+    <row r="67" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="G67" s="38"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="36"/>
+    </row>
+    <row r="68" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="G68" s="38"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="36"/>
+    </row>
+    <row r="69" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="G69" s="38"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="36"/>
+    </row>
+    <row r="70" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="G70" s="38"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="36"/>
+      <c r="K70" s="36"/>
+    </row>
+    <row r="71" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="G71" s="38"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="36"/>
+    </row>
+    <row r="72" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="G72" s="38"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="37"/>
+    </row>
+    <row r="73" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="H73" s="36"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="37"/>
+      <c r="K73" s="37"/>
+    </row>
+    <row r="74" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="H74" s="36"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="37"/>
+      <c r="K74" s="37"/>
+    </row>
+    <row r="75" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="H75" s="36"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="37"/>
+      <c r="K75" s="37"/>
+    </row>
+    <row r="76" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="H76" s="36"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="37"/>
+      <c r="K76" s="36"/>
+    </row>
+    <row r="77" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="H77" s="36"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="36"/>
+      <c r="K77" s="36"/>
+    </row>
+    <row r="78" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="H78" s="36"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="36"/>
+      <c r="K78" s="36"/>
+    </row>
+    <row r="79" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="H79" s="37"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="36"/>
+      <c r="K79" s="36"/>
+    </row>
+    <row r="80" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="H80" s="36"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="36"/>
+      <c r="K80" s="36"/>
+    </row>
+    <row r="81" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H81" s="36"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="36"/>
+      <c r="K81" s="36"/>
+    </row>
+    <row r="82" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H82" s="37"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="36"/>
+      <c r="K82" s="36"/>
+    </row>
+    <row r="83" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H83" s="38"/>
+      <c r="J83" s="36"/>
+    </row>
+    <row r="84" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H84" s="38"/>
+    </row>
+    <row r="85" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H85" s="38"/>
+    </row>
+    <row r="86" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H86" s="38"/>
+    </row>
+    <row r="87" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H87" s="38"/>
+    </row>
+    <row r="88" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H88" s="38"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/benchmarks/measure_androidApps.xlsx
+++ b/benchmarks/measure_androidApps.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yazeedyousefalmalaq/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637281AE-909E-E045-8C1F-24C841747069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B18B6A0-06B6-8540-9C67-D33C21C72225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{E8F05331-52A1-CA4F-9453-9597BCD39B9A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{E8F05331-52A1-CA4F-9453-9597BCD39B9A}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
     <sheet name="graphs" sheetId="4" r:id="rId2"/>
     <sheet name="baseline_vs_BatterySaver" sheetId="8" r:id="rId3"/>
     <sheet name="qos_data" sheetId="9" r:id="rId4"/>
+    <sheet name="qos_results" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
+    <pivotCache cacheId="6" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4855" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4867" uniqueCount="87">
   <si>
     <t>power</t>
   </si>
@@ -292,6 +294,18 @@
   <si>
     <t>tiktok</t>
   </si>
+  <si>
+    <t>Average of Diff_total_frame</t>
+  </si>
+  <si>
+    <t>Average of Diff_Janky_frames</t>
+  </si>
+  <si>
+    <t>Average of Diff_Janky_frames_legacy</t>
+  </si>
+  <si>
+    <t>Average of Diff_Number_Missed_Vsync</t>
+  </si>
 </sst>
 </file>
 
@@ -299,7 +313,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -565,7 +579,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -626,6 +640,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -650,12 +667,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3685,6 +3697,85 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45362.743223958336" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="60" xr:uid="{D6E1AB7D-ACF1-CF48-BF4A-7DA6296F52C4}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="C1:U61" sheet="qos_data"/>
+  </cacheSource>
+  <cacheFields count="19">
+    <cacheField name="app" numFmtId="0">
+      <sharedItems count="6">
+        <s v="video_call"/>
+        <s v="background_music"/>
+        <s v="twitter"/>
+        <s v="tiktok"/>
+        <s v="game"/>
+        <s v="web"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Power" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-3.6368079999999998" maxValue="-0.64350700000000005"/>
+    </cacheField>
+    <cacheField name="Energy" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-469.2" maxValue="-82.8"/>
+    </cacheField>
+    <cacheField name="Time" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="121.20261000000001" maxValue="150.09546700000001"/>
+    </cacheField>
+    <cacheField name="start_time" numFmtId="21">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T12:12:01" maxDate="1899-12-30T15:03:09"/>
+    </cacheField>
+    <cacheField name="start_total_frame" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="6" maxValue="53275"/>
+    </cacheField>
+    <cacheField name="start_Janky_frames" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="125"/>
+    </cacheField>
+    <cacheField name="start_Janky_frames_legacy" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="314"/>
+    </cacheField>
+    <cacheField name="start_Number_Missed_Vsync" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="56"/>
+    </cacheField>
+    <cacheField name="end_time" numFmtId="21">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T12:14:18" maxDate="1899-12-30T15:05:21"/>
+    </cacheField>
+    <cacheField name="end_total_frame" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="7" maxValue="58824"/>
+    </cacheField>
+    <cacheField name="end_Janky_frames" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="132"/>
+    </cacheField>
+    <cacheField name="end_Janky_frames_legacy" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="2686"/>
+    </cacheField>
+    <cacheField name="end_Number_Missed_Vsync" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="59"/>
+    </cacheField>
+    <cacheField name="Diff_time" numFmtId="21">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T00:02:03" maxDate="1899-12-30T00:02:54"/>
+    </cacheField>
+    <cacheField name="Diff_total_frame" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="6085"/>
+    </cacheField>
+    <cacheField name="Diff_Janky_frames" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="118"/>
+    </cacheField>
+    <cacheField name="Diff_Janky_frames_legacy" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="2686"/>
+    </cacheField>
+    <cacheField name="Diff_Number_Missed_Vsync" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="48"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="422">
   <r>
@@ -10864,8 +10955,1273 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="60">
+  <r>
+    <x v="0"/>
+    <n v="-3.6368079999999998"/>
+    <n v="-469.2"/>
+    <n v="129.01424499999999"/>
+    <d v="1899-12-30T12:12:01"/>
+    <n v="46"/>
+    <n v="5"/>
+    <n v="7"/>
+    <n v="3"/>
+    <d v="1899-12-30T12:14:18"/>
+    <n v="5829"/>
+    <n v="35"/>
+    <n v="40"/>
+    <n v="19"/>
+    <d v="1899-12-30T00:02:17"/>
+    <n v="5783"/>
+    <n v="30"/>
+    <n v="33"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="-3.140495"/>
+    <n v="-414"/>
+    <n v="131.82634100000001"/>
+    <d v="1899-12-30T12:14:42"/>
+    <n v="6806"/>
+    <n v="42"/>
+    <n v="114"/>
+    <n v="21"/>
+    <d v="1899-12-30T12:16:57"/>
+    <n v="12707"/>
+    <n v="46"/>
+    <n v="152"/>
+    <n v="25"/>
+    <d v="1899-12-30T00:02:15"/>
+    <n v="5901"/>
+    <n v="4"/>
+    <n v="38"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="-3.3173089999999998"/>
+    <n v="-414"/>
+    <n v="124.799959"/>
+    <d v="1899-12-30T12:17:21"/>
+    <n v="13577"/>
+    <n v="53"/>
+    <n v="159"/>
+    <n v="28"/>
+    <d v="1899-12-30T12:19:24"/>
+    <n v="18849"/>
+    <n v="57"/>
+    <n v="165"/>
+    <n v="31"/>
+    <d v="1899-12-30T00:02:03"/>
+    <n v="5272"/>
+    <n v="4"/>
+    <n v="6"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="-3.157257"/>
+    <n v="-414"/>
+    <n v="131.126465"/>
+    <d v="1899-12-30T12:19:48"/>
+    <n v="19705"/>
+    <n v="62"/>
+    <n v="170"/>
+    <n v="31"/>
+    <d v="1899-12-30T12:22:06"/>
+    <n v="25739"/>
+    <n v="67"/>
+    <n v="176"/>
+    <n v="34"/>
+    <d v="1899-12-30T00:02:18"/>
+    <n v="6034"/>
+    <n v="5"/>
+    <n v="6"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="-3.2620800000000001"/>
+    <n v="-414"/>
+    <n v="126.912898"/>
+    <d v="1899-12-30T12:22:30"/>
+    <n v="26623"/>
+    <n v="73"/>
+    <n v="180"/>
+    <n v="36"/>
+    <d v="1899-12-30T12:24:43"/>
+    <n v="32411"/>
+    <n v="80"/>
+    <n v="188"/>
+    <n v="39"/>
+    <d v="1899-12-30T00:02:13"/>
+    <n v="5788"/>
+    <n v="7"/>
+    <n v="8"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="-3.2530290000000002"/>
+    <n v="-414"/>
+    <n v="127.265996"/>
+    <d v="1899-12-30T12:25:07"/>
+    <n v="33262"/>
+    <n v="86"/>
+    <n v="192"/>
+    <n v="41"/>
+    <d v="1899-12-30T12:27:21"/>
+    <n v="39091"/>
+    <n v="90"/>
+    <n v="198"/>
+    <n v="43"/>
+    <d v="1899-12-30T00:02:14"/>
+    <n v="5829"/>
+    <n v="4"/>
+    <n v="6"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="-3.3568950000000002"/>
+    <n v="-414"/>
+    <n v="123.328236"/>
+    <d v="1899-12-30T12:27:46"/>
+    <n v="39976"/>
+    <n v="96"/>
+    <n v="203"/>
+    <n v="45"/>
+    <d v="1899-12-30T12:29:51"/>
+    <n v="45394"/>
+    <n v="103"/>
+    <n v="211"/>
+    <n v="49"/>
+    <d v="1899-12-30T00:02:05"/>
+    <n v="5418"/>
+    <n v="7"/>
+    <n v="8"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="-3.5205250000000001"/>
+    <n v="-441.6"/>
+    <n v="125.43583700000001"/>
+    <d v="1899-12-30T12:30:15"/>
+    <n v="46256"/>
+    <n v="110"/>
+    <n v="217"/>
+    <n v="52"/>
+    <d v="1899-12-30T12:32:31"/>
+    <n v="52341"/>
+    <n v="118"/>
+    <n v="225"/>
+    <n v="54"/>
+    <d v="1899-12-30T00:02:16"/>
+    <n v="6085"/>
+    <n v="8"/>
+    <n v="8"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="-3.530446"/>
+    <n v="-441.6"/>
+    <n v="125.08333399999999"/>
+    <d v="1899-12-30T12:32:55"/>
+    <n v="53275"/>
+    <n v="125"/>
+    <n v="231"/>
+    <n v="56"/>
+    <d v="1899-12-30T12:35:03"/>
+    <n v="58824"/>
+    <n v="132"/>
+    <n v="267"/>
+    <n v="59"/>
+    <d v="1899-12-30T00:02:08"/>
+    <n v="5549"/>
+    <n v="7"/>
+    <n v="36"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="-2.9467789999999998"/>
+    <n v="-386.4"/>
+    <n v="131.12623199999999"/>
+    <d v="1899-12-30T12:55:11"/>
+    <n v="45"/>
+    <n v="3"/>
+    <n v="6"/>
+    <n v="1"/>
+    <d v="1899-12-30T12:57:24"/>
+    <n v="4600"/>
+    <n v="24"/>
+    <n v="36"/>
+    <n v="16"/>
+    <d v="1899-12-30T00:02:13"/>
+    <n v="4555"/>
+    <n v="21"/>
+    <n v="30"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="-0.86565400000000003"/>
+    <n v="-110.4"/>
+    <n v="127.53363299999999"/>
+    <d v="1899-12-30T13:14:17"/>
+    <n v="29"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="2"/>
+    <d v="1899-12-30T13:16:47"/>
+    <n v="334"/>
+    <n v="6"/>
+    <n v="110"/>
+    <n v="2"/>
+    <d v="1899-12-30T00:02:30"/>
+    <n v="305"/>
+    <n v="4"/>
+    <n v="106"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="-0.77358199999999999"/>
+    <n v="-110.4"/>
+    <n v="142.71280200000001"/>
+    <d v="1899-12-30T13:17:11"/>
+    <n v="1188"/>
+    <n v="9"/>
+    <n v="128"/>
+    <n v="3"/>
+    <d v="1899-12-30T13:20:04"/>
+    <n v="1393"/>
+    <n v="12"/>
+    <n v="135"/>
+    <n v="3"/>
+    <d v="1899-12-30T00:02:53"/>
+    <n v="205"/>
+    <n v="3"/>
+    <n v="7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="-0.80987200000000004"/>
+    <n v="-110.4"/>
+    <n v="136.31788499999999"/>
+    <d v="1899-12-30T13:20:28"/>
+    <n v="2249"/>
+    <n v="14"/>
+    <n v="145"/>
+    <n v="5"/>
+    <d v="1899-12-30T13:23:22"/>
+    <n v="2448"/>
+    <n v="16"/>
+    <n v="149"/>
+    <n v="5"/>
+    <d v="1899-12-30T00:02:54"/>
+    <n v="199"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="-0.64350700000000005"/>
+    <n v="-82.8"/>
+    <n v="128.67000100000001"/>
+    <d v="1899-12-30T13:23:47"/>
+    <n v="3165"/>
+    <n v="20"/>
+    <n v="157"/>
+    <n v="6"/>
+    <d v="1899-12-30T13:25:53"/>
+    <n v="3546"/>
+    <n v="26"/>
+    <n v="209"/>
+    <n v="6"/>
+    <d v="1899-12-30T00:02:06"/>
+    <n v="381"/>
+    <n v="6"/>
+    <n v="52"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="-0.77162799999999998"/>
+    <n v="-110.4"/>
+    <n v="143.07418100000001"/>
+    <d v="1899-12-30T13:26:18"/>
+    <n v="3568"/>
+    <n v="27"/>
+    <n v="213"/>
+    <n v="7"/>
+    <d v="1899-12-30T13:28:44"/>
+    <n v="3783"/>
+    <n v="32"/>
+    <n v="218"/>
+    <n v="7"/>
+    <d v="1899-12-30T00:02:26"/>
+    <n v="215"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="-0.75494499999999998"/>
+    <n v="-110.4"/>
+    <n v="146.23579100000001"/>
+    <d v="1899-12-30T13:29:08"/>
+    <n v="3783"/>
+    <n v="32"/>
+    <n v="218"/>
+    <n v="7"/>
+    <d v="1899-12-30T13:31:36"/>
+    <n v="3783"/>
+    <n v="32"/>
+    <n v="218"/>
+    <n v="7"/>
+    <d v="1899-12-30T00:02:28"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="-0.75494099999999997"/>
+    <n v="-110.4"/>
+    <n v="146.23668000000001"/>
+    <d v="1899-12-30T13:32:00"/>
+    <n v="4638"/>
+    <n v="35"/>
+    <n v="252"/>
+    <n v="9"/>
+    <d v="1899-12-30T13:34:25"/>
+    <n v="4837"/>
+    <n v="38"/>
+    <n v="258"/>
+    <n v="9"/>
+    <d v="1899-12-30T00:02:25"/>
+    <n v="199"/>
+    <n v="3"/>
+    <n v="6"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="-0.95757599999999998"/>
+    <n v="-138"/>
+    <n v="144.11382"/>
+    <d v="1899-12-30T13:34:49"/>
+    <n v="5693"/>
+    <n v="42"/>
+    <n v="284"/>
+    <n v="11"/>
+    <d v="1899-12-30T13:37:11"/>
+    <n v="5888"/>
+    <n v="45"/>
+    <n v="288"/>
+    <n v="11"/>
+    <d v="1899-12-30T00:02:22"/>
+    <n v="195"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="-0.91941499999999998"/>
+    <n v="-138"/>
+    <n v="150.09546700000001"/>
+    <d v="1899-12-30T13:37:35"/>
+    <n v="6343"/>
+    <n v="51"/>
+    <n v="297"/>
+    <n v="14"/>
+    <d v="1899-12-30T13:40:08"/>
+    <n v="6566"/>
+    <n v="56"/>
+    <n v="304"/>
+    <n v="17"/>
+    <d v="1899-12-30T00:02:33"/>
+    <n v="223"/>
+    <n v="5"/>
+    <n v="7"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="-0.74778199999999995"/>
+    <n v="-110.4"/>
+    <n v="147.63664399999999"/>
+    <d v="1899-12-30T13:40:32"/>
+    <n v="7413"/>
+    <n v="59"/>
+    <n v="314"/>
+    <n v="18"/>
+    <d v="1899-12-30T13:43:05"/>
+    <n v="7613"/>
+    <n v="62"/>
+    <n v="320"/>
+    <n v="18"/>
+    <d v="1899-12-30T00:02:33"/>
+    <n v="200"/>
+    <n v="3"/>
+    <n v="6"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="-1.657254"/>
+    <n v="-220.8"/>
+    <n v="133.232418"/>
+    <d v="1899-12-30T13:43:33"/>
+    <n v="123"/>
+    <n v="3"/>
+    <n v="7"/>
+    <n v="1"/>
+    <d v="1899-12-30T13:46:06"/>
+    <n v="4144"/>
+    <n v="49"/>
+    <n v="60"/>
+    <n v="4"/>
+    <d v="1899-12-30T00:02:33"/>
+    <n v="4021"/>
+    <n v="46"/>
+    <n v="53"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="-1.614679"/>
+    <n v="-220.8"/>
+    <n v="136.745462"/>
+    <d v="1899-12-30T13:46:34"/>
+    <n v="136"/>
+    <n v="5"/>
+    <n v="6"/>
+    <n v="3"/>
+    <d v="1899-12-30T13:49:08"/>
+    <n v="4116"/>
+    <n v="50"/>
+    <n v="91"/>
+    <n v="9"/>
+    <d v="1899-12-30T00:02:34"/>
+    <n v="3980"/>
+    <n v="45"/>
+    <n v="85"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="-1.6704859999999999"/>
+    <n v="-220.8"/>
+    <n v="132.17709500000001"/>
+    <d v="1899-12-30T13:49:36"/>
+    <n v="157"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="2"/>
+    <d v="1899-12-30T13:51:55"/>
+    <n v="3238"/>
+    <n v="35"/>
+    <n v="98"/>
+    <n v="4"/>
+    <d v="1899-12-30T00:02:19"/>
+    <n v="3081"/>
+    <n v="32"/>
+    <n v="93"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="-1.9859720000000001"/>
+    <n v="-248.4"/>
+    <n v="125.077307"/>
+    <d v="1899-12-30T13:52:24"/>
+    <n v="148"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="1"/>
+    <d v="1899-12-30T13:54:43"/>
+    <n v="3353"/>
+    <n v="36"/>
+    <n v="96"/>
+    <n v="4"/>
+    <d v="1899-12-30T00:02:19"/>
+    <n v="3205"/>
+    <n v="34"/>
+    <n v="92"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="-1.5982240000000001"/>
+    <n v="-220.8"/>
+    <n v="138.15330700000001"/>
+    <d v="1899-12-30T13:55:11"/>
+    <n v="96"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="1"/>
+    <d v="1899-12-30T13:57:41"/>
+    <n v="3747"/>
+    <n v="33"/>
+    <n v="83"/>
+    <n v="5"/>
+    <d v="1899-12-30T00:02:30"/>
+    <n v="3651"/>
+    <n v="30"/>
+    <n v="79"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="-1.825847"/>
+    <n v="-248.4"/>
+    <n v="136.04647"/>
+    <d v="1899-12-30T13:58:10"/>
+    <n v="105"/>
+    <n v="6"/>
+    <n v="6"/>
+    <n v="4"/>
+    <d v="1899-12-30T14:00:37"/>
+    <n v="3679"/>
+    <n v="36"/>
+    <n v="42"/>
+    <n v="8"/>
+    <d v="1899-12-30T00:02:27"/>
+    <n v="3574"/>
+    <n v="30"/>
+    <n v="36"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="-1.775461"/>
+    <n v="-248.4"/>
+    <n v="139.907295"/>
+    <d v="1899-12-30T14:01:06"/>
+    <n v="102"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="1"/>
+    <d v="1899-12-30T14:03:37"/>
+    <n v="3773"/>
+    <n v="45"/>
+    <n v="62"/>
+    <n v="8"/>
+    <d v="1899-12-30T00:02:31"/>
+    <n v="3671"/>
+    <n v="42"/>
+    <n v="58"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="-1.7506219999999999"/>
+    <n v="-220.8"/>
+    <n v="126.126597"/>
+    <d v="1899-12-30T14:04:06"/>
+    <n v="225"/>
+    <n v="6"/>
+    <n v="14"/>
+    <n v="3"/>
+    <d v="1899-12-30T14:06:23"/>
+    <n v="3628"/>
+    <n v="42"/>
+    <n v="157"/>
+    <n v="7"/>
+    <d v="1899-12-30T00:02:17"/>
+    <n v="3403"/>
+    <n v="36"/>
+    <n v="143"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="-2.3467730000000002"/>
+    <n v="-303.60000000000002"/>
+    <n v="129.36911599999999"/>
+    <d v="1899-12-30T14:06:51"/>
+    <n v="110"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="1"/>
+    <d v="1899-12-30T14:09:09"/>
+    <n v="2339"/>
+    <n v="29"/>
+    <n v="41"/>
+    <n v="5"/>
+    <d v="1899-12-30T00:02:18"/>
+    <n v="2229"/>
+    <n v="26"/>
+    <n v="37"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="-1.707775"/>
+    <n v="-220.8"/>
+    <n v="129.29102700000001"/>
+    <d v="1899-12-30T14:09:38"/>
+    <n v="114"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="1"/>
+    <d v="1899-12-30T14:11:58"/>
+    <n v="3473"/>
+    <n v="42"/>
+    <n v="110"/>
+    <n v="6"/>
+    <d v="1899-12-30T00:02:20"/>
+    <n v="3359"/>
+    <n v="39"/>
+    <n v="106"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="-1.657254"/>
+    <n v="-220.8"/>
+    <n v="133.232418"/>
+    <d v="1899-12-30T13:43:31"/>
+    <n v="42"/>
+    <n v="11"/>
+    <n v="13"/>
+    <n v="10"/>
+    <d v="1899-12-30T13:46:04"/>
+    <n v="1998"/>
+    <n v="38"/>
+    <n v="68"/>
+    <n v="22"/>
+    <d v="1899-12-30T00:02:33"/>
+    <n v="1956"/>
+    <n v="27"/>
+    <n v="55"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="-1.614679"/>
+    <n v="-220.8"/>
+    <n v="136.745462"/>
+    <d v="1899-12-30T13:46:32"/>
+    <n v="63"/>
+    <n v="3"/>
+    <n v="7"/>
+    <n v="2"/>
+    <d v="1899-12-30T13:49:06"/>
+    <n v="1801"/>
+    <n v="42"/>
+    <n v="106"/>
+    <n v="14"/>
+    <d v="1899-12-30T00:02:34"/>
+    <n v="1738"/>
+    <n v="39"/>
+    <n v="99"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="-1.6704859999999999"/>
+    <n v="-220.8"/>
+    <n v="132.17709500000001"/>
+    <d v="1899-12-30T13:49:34"/>
+    <n v="60"/>
+    <n v="4"/>
+    <n v="7"/>
+    <n v="3"/>
+    <d v="1899-12-30T13:51:53"/>
+    <n v="1768"/>
+    <n v="35"/>
+    <n v="95"/>
+    <n v="9"/>
+    <d v="1899-12-30T00:02:19"/>
+    <n v="1708"/>
+    <n v="31"/>
+    <n v="88"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="-1.9859720000000001"/>
+    <n v="-248.4"/>
+    <n v="125.077307"/>
+    <d v="1899-12-30T13:52:22"/>
+    <n v="61"/>
+    <n v="5"/>
+    <n v="8"/>
+    <n v="3"/>
+    <d v="1899-12-30T13:54:41"/>
+    <n v="1936"/>
+    <n v="40"/>
+    <n v="79"/>
+    <n v="15"/>
+    <d v="1899-12-30T00:02:19"/>
+    <n v="1875"/>
+    <n v="35"/>
+    <n v="71"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="-1.5982240000000001"/>
+    <n v="-220.8"/>
+    <n v="138.15330700000001"/>
+    <d v="1899-12-30T13:55:09"/>
+    <n v="63"/>
+    <n v="3"/>
+    <n v="7"/>
+    <n v="2"/>
+    <d v="1899-12-30T13:57:39"/>
+    <n v="1780"/>
+    <n v="33"/>
+    <n v="66"/>
+    <n v="12"/>
+    <d v="1899-12-30T00:02:30"/>
+    <n v="1717"/>
+    <n v="30"/>
+    <n v="59"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="-1.825847"/>
+    <n v="-248.4"/>
+    <n v="136.04647"/>
+    <d v="1899-12-30T13:58:08"/>
+    <n v="64"/>
+    <n v="3"/>
+    <n v="8"/>
+    <n v="2"/>
+    <d v="1899-12-30T14:00:35"/>
+    <n v="1757"/>
+    <n v="29"/>
+    <n v="78"/>
+    <n v="8"/>
+    <d v="1899-12-30T00:02:27"/>
+    <n v="1693"/>
+    <n v="26"/>
+    <n v="70"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="-1.775461"/>
+    <n v="-248.4"/>
+    <n v="139.907295"/>
+    <d v="1899-12-30T14:01:03"/>
+    <n v="74"/>
+    <n v="5"/>
+    <n v="8"/>
+    <n v="2"/>
+    <d v="1899-12-30T14:03:35"/>
+    <n v="1946"/>
+    <n v="43"/>
+    <n v="120"/>
+    <n v="17"/>
+    <d v="1899-12-30T00:02:32"/>
+    <n v="1872"/>
+    <n v="38"/>
+    <n v="112"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="-1.7506219999999999"/>
+    <n v="-220.8"/>
+    <n v="126.126597"/>
+    <d v="1899-12-30T14:04:04"/>
+    <n v="63"/>
+    <n v="3"/>
+    <n v="8"/>
+    <n v="2"/>
+    <d v="1899-12-30T14:06:20"/>
+    <n v="1983"/>
+    <n v="36"/>
+    <n v="125"/>
+    <n v="16"/>
+    <d v="1899-12-30T00:02:16"/>
+    <n v="1920"/>
+    <n v="33"/>
+    <n v="117"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="-2.3467730000000002"/>
+    <n v="-303.60000000000002"/>
+    <n v="129.36911599999999"/>
+    <d v="1899-12-30T14:06:49"/>
+    <n v="63"/>
+    <n v="4"/>
+    <n v="6"/>
+    <n v="2"/>
+    <d v="1899-12-30T14:09:07"/>
+    <n v="4483"/>
+    <n v="122"/>
+    <n v="376"/>
+    <n v="50"/>
+    <d v="1899-12-30T00:02:18"/>
+    <n v="4420"/>
+    <n v="118"/>
+    <n v="370"/>
+    <n v="48"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="-1.707775"/>
+    <n v="-220.8"/>
+    <n v="129.29102700000001"/>
+    <d v="1899-12-30T14:09:35"/>
+    <n v="64"/>
+    <n v="3"/>
+    <n v="7"/>
+    <n v="2"/>
+    <d v="1899-12-30T14:11:56"/>
+    <n v="1909"/>
+    <n v="34"/>
+    <n v="88"/>
+    <n v="12"/>
+    <d v="1899-12-30T00:02:21"/>
+    <n v="1845"/>
+    <n v="31"/>
+    <n v="81"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="-1.409192"/>
+    <n v="-193.2"/>
+    <n v="137.09985399999999"/>
+    <d v="1899-12-30T14:12:23"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <d v="1899-12-30T14:14:40"/>
+    <n v="177"/>
+    <n v="8"/>
+    <n v="26"/>
+    <n v="0"/>
+    <d v="1899-12-30T00:02:17"/>
+    <n v="171"/>
+    <n v="8"/>
+    <n v="26"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="-1.4312"/>
+    <n v="-193.2"/>
+    <n v="134.99161899999999"/>
+    <d v="1899-12-30T14:15:05"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <d v="1899-12-30T14:17:33"/>
+    <n v="7"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <d v="1899-12-30T00:02:28"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="-1.423746"/>
+    <n v="-193.2"/>
+    <n v="135.69832099999999"/>
+    <d v="1899-12-30T14:17:57"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <d v="1899-12-30T14:20:22"/>
+    <n v="742"/>
+    <n v="23"/>
+    <n v="25"/>
+    <n v="1"/>
+    <d v="1899-12-30T00:02:25"/>
+    <n v="736"/>
+    <n v="23"/>
+    <n v="25"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="-1.4470959999999999"/>
+    <n v="-193.2"/>
+    <n v="133.50873899999999"/>
+    <d v="1899-12-30T14:20:46"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <d v="1899-12-30T14:23:13"/>
+    <n v="7"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <d v="1899-12-30T00:02:27"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="-1.4616359999999999"/>
+    <n v="-193.2"/>
+    <n v="132.180622"/>
+    <d v="1899-12-30T14:23:38"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <d v="1899-12-30T14:26:03"/>
+    <n v="7"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <d v="1899-12-30T00:02:25"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="-1.3048150000000001"/>
+    <n v="-165.6"/>
+    <n v="126.914552"/>
+    <d v="1899-12-30T14:26:27"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <d v="1899-12-30T14:28:45"/>
+    <n v="3426"/>
+    <n v="3"/>
+    <n v="2686"/>
+    <n v="0"/>
+    <d v="1899-12-30T00:02:18"/>
+    <n v="3420"/>
+    <n v="3"/>
+    <n v="2686"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="-1.544662"/>
+    <n v="-193.2"/>
+    <n v="125.075943"/>
+    <d v="1899-12-30T14:29:09"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <d v="1899-12-30T14:31:28"/>
+    <n v="1027"/>
+    <n v="7"/>
+    <n v="387"/>
+    <n v="1"/>
+    <d v="1899-12-30T00:02:19"/>
+    <n v="1021"/>
+    <n v="7"/>
+    <n v="387"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="-1.5447299999999999"/>
+    <n v="-193.2"/>
+    <n v="125.070373"/>
+    <d v="1899-12-30T14:31:52"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <d v="1899-12-30T14:34:16"/>
+    <n v="7"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <d v="1899-12-30T00:02:24"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="-1.230688"/>
+    <n v="-165.6"/>
+    <n v="134.558897"/>
+    <d v="1899-12-30T14:34:40"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <d v="1899-12-30T14:37:11"/>
+    <n v="7"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <d v="1899-12-30T00:02:31"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="-1.3663069999999999"/>
+    <n v="-165.6"/>
+    <n v="121.20261000000001"/>
+    <d v="1899-12-30T14:37:35"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <d v="1899-12-30T14:39:38"/>
+    <n v="7"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <d v="1899-12-30T00:02:03"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="-2.0892710000000001"/>
+    <n v="-276"/>
+    <n v="132.10351600000001"/>
+    <d v="1899-12-30T14:40:01"/>
+    <n v="18"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <d v="1899-12-30T14:42:22"/>
+    <n v="4808"/>
+    <n v="72"/>
+    <n v="625"/>
+    <n v="8"/>
+    <d v="1899-12-30T00:02:21"/>
+    <n v="4790"/>
+    <n v="70"/>
+    <n v="622"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="-2.4680879999999998"/>
+    <n v="-303.60000000000002"/>
+    <n v="123.010177"/>
+    <d v="1899-12-30T14:42:45"/>
+    <n v="22"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="1"/>
+    <d v="1899-12-30T14:44:51"/>
+    <n v="4193"/>
+    <n v="110"/>
+    <n v="443"/>
+    <n v="5"/>
+    <d v="1899-12-30T00:02:06"/>
+    <n v="4171"/>
+    <n v="108"/>
+    <n v="438"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="-2.5431279999999998"/>
+    <n v="-331.2"/>
+    <n v="130.23330100000001"/>
+    <d v="1899-12-30T14:45:14"/>
+    <n v="21"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="1"/>
+    <d v="1899-12-30T14:47:23"/>
+    <n v="4472"/>
+    <n v="71"/>
+    <n v="1225"/>
+    <n v="5"/>
+    <d v="1899-12-30T00:02:09"/>
+    <n v="4451"/>
+    <n v="68"/>
+    <n v="1221"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="-2.4617770000000001"/>
+    <n v="-303.60000000000002"/>
+    <n v="123.325542"/>
+    <d v="1899-12-30T14:47:46"/>
+    <n v="19"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="1"/>
+    <d v="1899-12-30T14:49:57"/>
+    <n v="4780"/>
+    <n v="54"/>
+    <n v="272"/>
+    <n v="6"/>
+    <d v="1899-12-30T00:02:11"/>
+    <n v="4761"/>
+    <n v="52"/>
+    <n v="268"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="-2.4272040000000001"/>
+    <n v="-303.60000000000002"/>
+    <n v="125.082173"/>
+    <d v="1899-12-30T14:50:20"/>
+    <n v="20"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <d v="1899-12-30T14:52:32"/>
+    <n v="4685"/>
+    <n v="60"/>
+    <n v="1069"/>
+    <n v="5"/>
+    <d v="1899-12-30T00:02:12"/>
+    <n v="4665"/>
+    <n v="58"/>
+    <n v="1066"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="-2.0142199999999999"/>
+    <n v="-248.4"/>
+    <n v="123.323161"/>
+    <d v="1899-12-30T14:52:55"/>
+    <n v="20"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="1"/>
+    <d v="1899-12-30T14:55:06"/>
+    <n v="4039"/>
+    <n v="120"/>
+    <n v="363"/>
+    <n v="6"/>
+    <d v="1899-12-30T00:02:11"/>
+    <n v="4019"/>
+    <n v="118"/>
+    <n v="357"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="-2.6703100000000002"/>
+    <n v="-331.2"/>
+    <n v="124.03054299999999"/>
+    <d v="1899-12-30T14:55:30"/>
+    <n v="18"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <d v="1899-12-30T14:57:40"/>
+    <n v="4766"/>
+    <n v="57"/>
+    <n v="1492"/>
+    <n v="5"/>
+    <d v="1899-12-30T00:02:10"/>
+    <n v="4748"/>
+    <n v="55"/>
+    <n v="1489"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="-2.439378"/>
+    <n v="-303.60000000000002"/>
+    <n v="124.45796300000001"/>
+    <d v="1899-12-30T14:58:03"/>
+    <n v="19"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <d v="1899-12-30T15:00:08"/>
+    <n v="4161"/>
+    <n v="97"/>
+    <n v="942"/>
+    <n v="7"/>
+    <d v="1899-12-30T00:02:05"/>
+    <n v="4142"/>
+    <n v="95"/>
+    <n v="939"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="-2.5476589999999999"/>
+    <n v="-331.2"/>
+    <n v="130.00170299999999"/>
+    <d v="1899-12-30T15:00:31"/>
+    <n v="20"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="1"/>
+    <d v="1899-12-30T15:02:46"/>
+    <n v="4930"/>
+    <n v="62"/>
+    <n v="1023"/>
+    <n v="8"/>
+    <d v="1899-12-30T00:02:15"/>
+    <n v="4910"/>
+    <n v="60"/>
+    <n v="1017"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="-2.5055010000000002"/>
+    <n v="-331.2"/>
+    <n v="132.18914000000001"/>
+    <d v="1899-12-30T15:03:09"/>
+    <n v="16"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <d v="1899-12-30T15:05:21"/>
+    <n v="4796"/>
+    <n v="62"/>
+    <n v="1064"/>
+    <n v="8"/>
+    <d v="1899-12-30T00:02:12"/>
+    <n v="4780"/>
+    <n v="60"/>
+    <n v="1061"/>
+    <n v="7"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B003860-75F0-4244-9EFE-509E78544668}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B003860-75F0-4244-9EFE-509E78544668}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A12:C47" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="9" colPageCount="1"/>
   <pivotFields count="15">
     <pivotField dataField="1" showAll="0"/>
@@ -11159,6 +12515,101 @@
   <dataFields count="2">
     <dataField name="Average of power" fld="0" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="ave of energy" fld="1" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{602FBD2F-3E8B-BB4B-B8CB-A76481BF6FD9}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="19">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="1"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="21" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="21" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="21" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="Average of Diff_total_frame" fld="15" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of Diff_Janky_frames" fld="16" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of Diff_Janky_frames_legacy" fld="17" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of Diff_Number_Missed_Vsync" fld="18" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -32012,34 +33463,34 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26" t="s">
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26" t="s">
+      <c r="K3" s="29"/>
+      <c r="L3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="26"/>
-      <c r="P3" s="26" t="s">
+      <c r="M3" s="29"/>
+      <c r="P3" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26" t="s">
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26" t="s">
+      <c r="T3" s="29"/>
+      <c r="U3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="26"/>
+      <c r="V3" s="29"/>
     </row>
     <row r="4" spans="4:34" x14ac:dyDescent="0.2">
       <c r="E4" t="s">
@@ -32180,23 +33631,23 @@
       <c r="R6" s="6">
         <v>127.961207</v>
       </c>
-      <c r="X6" s="30" t="s">
+      <c r="X6" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="Y6" s="27" t="s">
+      <c r="Y6" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="33"/>
-      <c r="AC6" s="29"/>
-      <c r="AD6" s="27" t="s">
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="32"/>
+      <c r="AD6" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="33"/>
-      <c r="AG6" s="33"/>
-      <c r="AH6" s="29"/>
+      <c r="AE6" s="36"/>
+      <c r="AF6" s="36"/>
+      <c r="AG6" s="36"/>
+      <c r="AH6" s="32"/>
     </row>
     <row r="7" spans="4:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D7">
@@ -32226,26 +33677,26 @@
       <c r="R7" s="6">
         <v>152.555452</v>
       </c>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="27" t="s">
+      <c r="X7" s="34"/>
+      <c r="Y7" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="27" t="s">
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="AB7" s="28"/>
+      <c r="AB7" s="31"/>
       <c r="AC7" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AD7" s="27" t="s">
+      <c r="AD7" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="27" t="s">
+      <c r="AE7" s="32"/>
+      <c r="AF7" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="AG7" s="29"/>
+      <c r="AG7" s="32"/>
       <c r="AH7" s="12" t="s">
         <v>42</v>
       </c>
@@ -32278,7 +33729,7 @@
       <c r="R8" s="6">
         <v>126.219352</v>
       </c>
-      <c r="X8" s="32"/>
+      <c r="X8" s="35"/>
       <c r="Y8" s="13" t="s">
         <v>43</v>
       </c>
@@ -33124,8 +34575,8 @@
       </c>
       <c r="U27" s="5"/>
       <c r="V27" s="5"/>
-      <c r="W27" s="26"/>
-      <c r="X27" s="26"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
     </row>
     <row r="28" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D28">
@@ -34303,6 +35754,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="W27:X27"/>
     <mergeCell ref="AA7:AB7"/>
     <mergeCell ref="AF7:AG7"/>
@@ -34312,11 +35768,6 @@
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="Y6:AC6"/>
     <mergeCell ref="AD6:AH6"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34324,15 +35775,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0219BCBC-716A-5940-81AB-4D60E7D624CF}">
-  <dimension ref="A1:U88"/>
+  <dimension ref="C1:U88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="36"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.83203125" customWidth="1"/>
@@ -34423,22 +35873,22 @@
       <c r="F2">
         <v>129.01424499999999</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="26">
         <v>0.50834490740740745</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H2">
         <v>46</v>
       </c>
-      <c r="I2" s="35">
+      <c r="I2">
         <v>5</v>
       </c>
-      <c r="J2" s="35">
+      <c r="J2">
         <v>7</v>
       </c>
-      <c r="K2" s="35">
+      <c r="K2">
         <v>3</v>
       </c>
-      <c r="L2" s="34">
+      <c r="L2" s="26">
         <v>0.50993055555555555</v>
       </c>
       <c r="M2">
@@ -34453,7 +35903,7 @@
       <c r="P2">
         <v>19</v>
       </c>
-      <c r="Q2" s="34">
+      <c r="Q2" s="26">
         <f>L2-G2</f>
         <v>1.5856481481481E-3</v>
       </c>
@@ -34487,22 +35937,22 @@
       <c r="F3">
         <v>131.82634100000001</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="26">
         <v>0.51020833333333337</v>
       </c>
-      <c r="H3" s="35">
+      <c r="H3">
         <v>6806</v>
       </c>
-      <c r="I3" s="35">
+      <c r="I3">
         <v>42</v>
       </c>
-      <c r="J3" s="35">
+      <c r="J3">
         <v>114</v>
       </c>
-      <c r="K3" s="35">
+      <c r="K3">
         <v>21</v>
       </c>
-      <c r="L3" s="34">
+      <c r="L3" s="26">
         <v>0.51177083333333329</v>
       </c>
       <c r="M3">
@@ -34517,7 +35967,7 @@
       <c r="P3">
         <v>25</v>
       </c>
-      <c r="Q3" s="34">
+      <c r="Q3" s="26">
         <f t="shared" ref="Q3:Q11" si="0">L3-G3</f>
         <v>1.5624999999999112E-3</v>
       </c>
@@ -34534,7 +35984,7 @@
         <v>38</v>
       </c>
       <c r="U3">
-        <f>P3-K3</f>
+        <f t="shared" ref="U3:U11" si="4">P3-K3</f>
         <v>4</v>
       </c>
     </row>
@@ -34551,22 +36001,22 @@
       <c r="F4">
         <v>124.799959</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="26">
         <v>0.51204861111111111</v>
       </c>
-      <c r="H4" s="35">
+      <c r="H4">
         <v>13577</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4">
         <v>53</v>
       </c>
-      <c r="J4" s="35">
+      <c r="J4">
         <v>159</v>
       </c>
-      <c r="K4" s="35">
+      <c r="K4">
         <v>28</v>
       </c>
-      <c r="L4" s="34">
+      <c r="L4" s="26">
         <v>0.51347222222222222</v>
       </c>
       <c r="M4">
@@ -34581,7 +36031,7 @@
       <c r="P4">
         <v>31</v>
       </c>
-      <c r="Q4" s="34">
+      <c r="Q4" s="26">
         <f t="shared" si="0"/>
         <v>1.4236111111111116E-3</v>
       </c>
@@ -34598,7 +36048,7 @@
         <v>6</v>
       </c>
       <c r="U4">
-        <f>P4-K4</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -34615,22 +36065,22 @@
       <c r="F5">
         <v>131.126465</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="26">
         <v>0.51375000000000004</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5">
         <v>19705</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5">
         <v>62</v>
       </c>
-      <c r="J5" s="35">
+      <c r="J5">
         <v>170</v>
       </c>
-      <c r="K5" s="35">
+      <c r="K5">
         <v>31</v>
       </c>
-      <c r="L5" s="34">
+      <c r="L5" s="26">
         <v>0.51534722222222218</v>
       </c>
       <c r="M5">
@@ -34645,7 +36095,7 @@
       <c r="P5">
         <v>34</v>
       </c>
-      <c r="Q5" s="34">
+      <c r="Q5" s="26">
         <f t="shared" si="0"/>
         <v>1.5972222222221388E-3</v>
       </c>
@@ -34662,7 +36112,7 @@
         <v>6</v>
       </c>
       <c r="U5">
-        <f>P5-K5</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -34679,22 +36129,22 @@
       <c r="F6">
         <v>126.912898</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="26">
         <v>0.515625</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6">
         <v>26623</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6">
         <v>73</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6">
         <v>180</v>
       </c>
-      <c r="K6" s="35">
+      <c r="K6">
         <v>36</v>
       </c>
-      <c r="L6" s="34">
+      <c r="L6" s="26">
         <v>0.51716435185185183</v>
       </c>
       <c r="M6">
@@ -34709,7 +36159,7 @@
       <c r="P6">
         <v>39</v>
       </c>
-      <c r="Q6" s="34">
+      <c r="Q6" s="26">
         <f t="shared" si="0"/>
         <v>1.5393518518518334E-3</v>
       </c>
@@ -34726,7 +36176,7 @@
         <v>8</v>
       </c>
       <c r="U6">
-        <f>P6-K6</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -34743,22 +36193,22 @@
       <c r="F7">
         <v>127.265996</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="26">
         <v>0.51744212962962965</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7">
         <v>33262</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7">
         <v>86</v>
       </c>
-      <c r="J7" s="35">
+      <c r="J7">
         <v>192</v>
       </c>
-      <c r="K7" s="35">
+      <c r="K7">
         <v>41</v>
       </c>
-      <c r="L7" s="34">
+      <c r="L7" s="26">
         <v>0.51899305555555553</v>
       </c>
       <c r="M7">
@@ -34773,7 +36223,7 @@
       <c r="P7">
         <v>43</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="26">
         <f t="shared" si="0"/>
         <v>1.5509259259258723E-3</v>
       </c>
@@ -34790,7 +36240,7 @@
         <v>6</v>
       </c>
       <c r="U7">
-        <f>P7-K7</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -34807,22 +36257,22 @@
       <c r="F8">
         <v>123.328236</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="26">
         <v>0.51928240740740739</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8">
         <v>39976</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8">
         <v>96</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8">
         <v>203</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8">
         <v>45</v>
       </c>
-      <c r="L8" s="34">
+      <c r="L8" s="26">
         <v>0.52072916666666669</v>
       </c>
       <c r="M8">
@@ -34837,7 +36287,7 @@
       <c r="P8">
         <v>49</v>
       </c>
-      <c r="Q8" s="34">
+      <c r="Q8" s="26">
         <f t="shared" si="0"/>
         <v>1.4467592592593004E-3</v>
       </c>
@@ -34854,7 +36304,7 @@
         <v>8</v>
       </c>
       <c r="U8">
-        <f>P8-K8</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -34871,22 +36321,22 @@
       <c r="F9">
         <v>125.43583700000001</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="26">
         <v>0.5210069444444444</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9">
         <v>46256</v>
       </c>
-      <c r="I9" s="35">
+      <c r="I9">
         <v>110</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9">
         <v>217</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9">
         <v>52</v>
       </c>
-      <c r="L9" s="34">
+      <c r="L9" s="26">
         <v>0.52258101851851857</v>
       </c>
       <c r="M9">
@@ -34901,7 +36351,7 @@
       <c r="P9">
         <v>54</v>
       </c>
-      <c r="Q9" s="34">
+      <c r="Q9" s="26">
         <f t="shared" si="0"/>
         <v>1.5740740740741721E-3</v>
       </c>
@@ -34918,7 +36368,7 @@
         <v>8</v>
       </c>
       <c r="U9">
-        <f>P9-K9</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -34935,22 +36385,22 @@
       <c r="F10">
         <v>125.08333399999999</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="26">
         <v>0.52285879629629628</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10">
         <v>53275</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10">
         <v>125</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10">
         <v>231</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K10">
         <v>56</v>
       </c>
-      <c r="L10" s="34">
+      <c r="L10" s="26">
         <v>0.52434027777777781</v>
       </c>
       <c r="M10">
@@ -34965,7 +36415,7 @@
       <c r="P10">
         <v>59</v>
       </c>
-      <c r="Q10" s="34">
+      <c r="Q10" s="26">
         <f t="shared" si="0"/>
         <v>1.481481481481528E-3</v>
       </c>
@@ -34982,7 +36432,7 @@
         <v>36</v>
       </c>
       <c r="U10">
-        <f>P10-K10</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -34999,22 +36449,22 @@
       <c r="F11">
         <v>131.12623199999999</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="26">
         <v>0.53832175925925929</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11">
         <v>45</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11">
         <v>3</v>
       </c>
-      <c r="J11" s="35">
-        <v>6</v>
-      </c>
-      <c r="K11" s="35">
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="K11">
         <v>1</v>
       </c>
-      <c r="L11" s="34">
+      <c r="L11" s="26">
         <v>0.53986111111111112</v>
       </c>
       <c r="M11">
@@ -35029,7 +36479,7 @@
       <c r="P11">
         <v>16</v>
       </c>
-      <c r="Q11" s="34">
+      <c r="Q11" s="26">
         <f t="shared" si="0"/>
         <v>1.5393518518518334E-3</v>
       </c>
@@ -35046,7 +36496,7 @@
         <v>30</v>
       </c>
       <c r="U11">
-        <f>P11-K11</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
     </row>
@@ -35054,63 +36504,63 @@
       <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12">
         <v>-0.86565400000000003</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12">
         <v>-110.4</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12">
         <v>127.53363299999999</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="26">
         <v>0.55158564814814814</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12">
         <v>29</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I12">
         <v>2</v>
       </c>
-      <c r="J12" s="36">
+      <c r="J12">
         <v>4</v>
       </c>
-      <c r="K12" s="36">
+      <c r="K12">
         <v>2</v>
       </c>
-      <c r="L12" s="38">
+      <c r="L12" s="26">
         <v>0.5533217592592593</v>
       </c>
-      <c r="M12" s="36">
+      <c r="M12">
         <v>334</v>
       </c>
-      <c r="N12" s="36">
-        <v>6</v>
-      </c>
-      <c r="O12" s="36">
+      <c r="N12">
+        <v>6</v>
+      </c>
+      <c r="O12">
         <v>110</v>
       </c>
-      <c r="P12" s="36">
+      <c r="P12">
         <v>2</v>
       </c>
-      <c r="Q12" s="34">
-        <f t="shared" ref="Q12:Q21" si="4">L12-G12</f>
+      <c r="Q12" s="26">
+        <f t="shared" ref="Q12:Q21" si="5">L12-G12</f>
         <v>1.7361111111111605E-3</v>
       </c>
       <c r="R12">
-        <f t="shared" ref="R12:R21" si="5">M12-H12</f>
+        <f t="shared" ref="R12:R21" si="6">M12-H12</f>
         <v>305</v>
       </c>
       <c r="S12">
-        <f t="shared" ref="S12:S21" si="6">N12-I12</f>
+        <f t="shared" ref="S12:S21" si="7">N12-I12</f>
         <v>4</v>
       </c>
       <c r="T12">
-        <f t="shared" ref="T12:T21" si="7">O12-J12</f>
+        <f t="shared" ref="T12:T21" si="8">O12-J12</f>
         <v>106</v>
       </c>
       <c r="U12">
-        <f t="shared" ref="U12:U21" si="8">P12-K12</f>
+        <f t="shared" ref="U12:U21" si="9">P12-K12</f>
         <v>0</v>
       </c>
     </row>
@@ -35118,63 +36568,63 @@
       <c r="C13" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13">
         <v>-0.77358199999999999</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13">
         <v>-110.4</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13">
         <v>142.71280200000001</v>
       </c>
-      <c r="G13" s="38">
+      <c r="G13" s="26">
         <v>0.55359953703703701</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13">
         <v>1188</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13">
         <v>9</v>
       </c>
-      <c r="J13" s="36">
+      <c r="J13">
         <v>128</v>
       </c>
-      <c r="K13" s="36">
+      <c r="K13">
         <v>3</v>
       </c>
-      <c r="L13" s="38">
+      <c r="L13" s="26">
         <v>0.55560185185185185</v>
       </c>
-      <c r="M13" s="36">
+      <c r="M13">
         <v>1393</v>
       </c>
-      <c r="N13" s="36">
+      <c r="N13">
         <v>12</v>
       </c>
-      <c r="O13" s="36">
+      <c r="O13">
         <v>135</v>
       </c>
-      <c r="P13" s="36">
+      <c r="P13">
         <v>3</v>
       </c>
-      <c r="Q13" s="34">
-        <f t="shared" si="4"/>
+      <c r="Q13" s="26">
+        <f t="shared" si="5"/>
         <v>2.0023148148148318E-3</v>
       </c>
       <c r="R13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>205</v>
       </c>
       <c r="S13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="T13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="U13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -35182,63 +36632,63 @@
       <c r="C14" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14">
         <v>-0.80987200000000004</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14">
         <v>-110.4</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14">
         <v>136.31788499999999</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="26">
         <v>0.55587962962962967</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14">
         <v>2249</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14">
         <v>14</v>
       </c>
-      <c r="J14" s="36">
+      <c r="J14">
         <v>145</v>
       </c>
-      <c r="K14" s="36">
+      <c r="K14">
         <v>5</v>
       </c>
-      <c r="L14" s="38">
+      <c r="L14" s="26">
         <v>0.55789351851851854</v>
       </c>
-      <c r="M14" s="36">
+      <c r="M14">
         <v>2448</v>
       </c>
-      <c r="N14" s="36">
+      <c r="N14">
         <v>16</v>
       </c>
-      <c r="O14" s="36">
+      <c r="O14">
         <v>149</v>
       </c>
-      <c r="P14" s="36">
+      <c r="P14">
         <v>5</v>
       </c>
-      <c r="Q14" s="34">
-        <f t="shared" si="4"/>
+      <c r="Q14" s="26">
+        <f t="shared" si="5"/>
         <v>2.0138888888888706E-3</v>
       </c>
       <c r="R14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>199</v>
       </c>
       <c r="S14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="T14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="U14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -35246,63 +36696,63 @@
       <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15">
         <v>-0.64350700000000005</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15">
         <v>-82.8</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15">
         <v>128.67000100000001</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="26">
         <v>0.5581828703703704</v>
       </c>
       <c r="H15">
         <v>3165</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15">
         <v>20</v>
       </c>
-      <c r="J15" s="36">
+      <c r="J15">
         <v>157</v>
       </c>
-      <c r="K15" s="36">
-        <v>6</v>
-      </c>
-      <c r="L15" s="38">
+      <c r="K15">
+        <v>6</v>
+      </c>
+      <c r="L15" s="26">
         <v>0.55964120370370374</v>
       </c>
-      <c r="M15" s="36">
+      <c r="M15">
         <v>3546</v>
       </c>
-      <c r="N15" s="36">
+      <c r="N15">
         <v>26</v>
       </c>
-      <c r="O15" s="36">
+      <c r="O15">
         <v>209</v>
       </c>
-      <c r="P15" s="36">
-        <v>6</v>
-      </c>
-      <c r="Q15" s="34">
-        <f t="shared" si="4"/>
+      <c r="P15">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="26">
+        <f t="shared" si="5"/>
         <v>1.4583333333333393E-3</v>
       </c>
       <c r="R15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>381</v>
       </c>
       <c r="S15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="T15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>52</v>
       </c>
       <c r="U15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -35310,63 +36760,63 @@
       <c r="C16" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16">
         <v>-0.77162799999999998</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16">
         <v>-110.4</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16">
         <v>143.07418100000001</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="26">
         <v>0.5599305555555556</v>
       </c>
-      <c r="H16" s="36">
+      <c r="H16">
         <v>3568</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16">
         <v>27</v>
       </c>
-      <c r="J16" s="36">
+      <c r="J16">
         <v>213</v>
       </c>
-      <c r="K16" s="36">
+      <c r="K16">
         <v>7</v>
       </c>
-      <c r="L16" s="38">
+      <c r="L16" s="26">
         <v>0.56162037037037038</v>
       </c>
-      <c r="M16" s="36">
+      <c r="M16">
         <v>3783</v>
       </c>
-      <c r="N16" s="36">
+      <c r="N16">
         <v>32</v>
       </c>
-      <c r="O16" s="36">
+      <c r="O16">
         <v>218</v>
       </c>
-      <c r="P16" s="36">
+      <c r="P16">
         <v>7</v>
       </c>
-      <c r="Q16" s="34">
-        <f t="shared" si="4"/>
+      <c r="Q16" s="26">
+        <f t="shared" si="5"/>
         <v>1.6898148148147829E-3</v>
       </c>
       <c r="R16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>215</v>
       </c>
       <c r="S16">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="T16">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
+      <c r="T16">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
       <c r="U16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -35374,63 +36824,63 @@
       <c r="C17" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17">
         <v>-0.75494499999999998</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17">
         <v>-110.4</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17">
         <v>146.23579100000001</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17" s="26">
         <v>0.5618981481481482</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17">
         <v>3783</v>
       </c>
-      <c r="I17" s="36">
+      <c r="I17">
         <v>32</v>
       </c>
-      <c r="J17" s="36">
+      <c r="J17">
         <v>218</v>
       </c>
-      <c r="K17" s="36">
+      <c r="K17">
         <v>7</v>
       </c>
-      <c r="L17" s="38">
+      <c r="L17" s="26">
         <v>0.56361111111111106</v>
       </c>
-      <c r="M17" s="36">
+      <c r="M17">
         <v>3783</v>
       </c>
-      <c r="N17" s="36">
+      <c r="N17">
         <v>32</v>
       </c>
-      <c r="O17" s="36">
+      <c r="O17">
         <v>218</v>
       </c>
-      <c r="P17" s="36">
+      <c r="P17">
         <v>7</v>
       </c>
-      <c r="Q17" s="34">
-        <f t="shared" si="4"/>
+      <c r="Q17" s="26">
+        <f t="shared" si="5"/>
         <v>1.7129629629628607E-3</v>
       </c>
       <c r="R17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S17">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T17">
+      <c r="S17">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="T17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="U17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -35438,63 +36888,63 @@
       <c r="C18" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18">
         <v>-0.75494099999999997</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18">
         <v>-110.4</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18">
         <v>146.23668000000001</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G18" s="26">
         <v>0.56388888888888888</v>
       </c>
-      <c r="H18" s="36">
+      <c r="H18">
         <v>4638</v>
       </c>
-      <c r="I18" s="36">
+      <c r="I18">
         <v>35</v>
       </c>
-      <c r="J18" s="36">
+      <c r="J18">
         <v>252</v>
       </c>
-      <c r="K18" s="36">
+      <c r="K18">
         <v>9</v>
       </c>
-      <c r="L18" s="38">
+      <c r="L18" s="26">
         <v>0.56556712962962963</v>
       </c>
-      <c r="M18" s="36">
+      <c r="M18">
         <v>4837</v>
       </c>
-      <c r="N18" s="36">
+      <c r="N18">
         <v>38</v>
       </c>
-      <c r="O18" s="36">
+      <c r="O18">
         <v>258</v>
       </c>
-      <c r="P18" s="36">
+      <c r="P18">
         <v>9</v>
       </c>
-      <c r="Q18" s="34">
-        <f t="shared" si="4"/>
+      <c r="Q18" s="26">
+        <f t="shared" si="5"/>
         <v>1.678240740740744E-3</v>
       </c>
       <c r="R18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>199</v>
       </c>
       <c r="S18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="T18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="U18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -35502,63 +36952,63 @@
       <c r="C19" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19">
         <v>-0.95757599999999998</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19">
         <v>-138</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19">
         <v>144.11382</v>
       </c>
-      <c r="G19" s="38">
+      <c r="G19" s="26">
         <v>0.56584490740740745</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19">
         <v>5693</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19">
         <v>42</v>
       </c>
-      <c r="J19" s="36">
+      <c r="J19">
         <v>284</v>
       </c>
-      <c r="K19" s="36">
+      <c r="K19">
         <v>11</v>
       </c>
-      <c r="L19" s="38">
+      <c r="L19" s="26">
         <v>0.56748842592592597</v>
       </c>
-      <c r="M19" s="36">
+      <c r="M19">
         <v>5888</v>
       </c>
-      <c r="N19" s="36">
+      <c r="N19">
         <v>45</v>
       </c>
-      <c r="O19" s="36">
+      <c r="O19">
         <v>288</v>
       </c>
-      <c r="P19" s="36">
+      <c r="P19">
         <v>11</v>
       </c>
-      <c r="Q19" s="34">
-        <f t="shared" si="4"/>
+      <c r="Q19" s="26">
+        <f t="shared" si="5"/>
         <v>1.6435185185185164E-3</v>
       </c>
       <c r="R19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>195</v>
       </c>
       <c r="S19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="T19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="U19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -35566,63 +37016,63 @@
       <c r="C20" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D20">
         <v>-0.91941499999999998</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20">
         <v>-138</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20">
         <v>150.09546700000001</v>
       </c>
-      <c r="G20" s="38">
+      <c r="G20" s="26">
         <v>0.56776620370370368</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H20">
         <v>6343</v>
       </c>
-      <c r="I20" s="36">
+      <c r="I20">
         <v>51</v>
       </c>
-      <c r="J20" s="36">
+      <c r="J20">
         <v>297</v>
       </c>
-      <c r="K20" s="36">
+      <c r="K20">
         <v>14</v>
       </c>
-      <c r="L20" s="38">
+      <c r="L20" s="26">
         <v>0.56953703703703706</v>
       </c>
-      <c r="M20" s="36">
+      <c r="M20">
         <v>6566</v>
       </c>
-      <c r="N20" s="36">
+      <c r="N20">
         <v>56</v>
       </c>
-      <c r="O20" s="36">
+      <c r="O20">
         <v>304</v>
       </c>
-      <c r="P20" s="36">
+      <c r="P20">
         <v>17</v>
       </c>
-      <c r="Q20" s="34">
-        <f t="shared" si="4"/>
+      <c r="Q20" s="26">
+        <f t="shared" si="5"/>
         <v>1.7708333333333881E-3</v>
       </c>
       <c r="R20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>223</v>
       </c>
       <c r="S20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="T20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="U20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
@@ -35630,63 +37080,63 @@
       <c r="C21" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="36">
+      <c r="D21">
         <v>-0.74778199999999995</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21">
         <v>-110.4</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21">
         <v>147.63664399999999</v>
       </c>
-      <c r="G21" s="38">
+      <c r="G21" s="26">
         <v>0.56981481481481477</v>
       </c>
-      <c r="H21" s="36">
+      <c r="H21">
         <v>7413</v>
       </c>
-      <c r="I21" s="36">
+      <c r="I21">
         <v>59</v>
       </c>
-      <c r="J21" s="36">
+      <c r="J21">
         <v>314</v>
       </c>
-      <c r="K21" s="36">
+      <c r="K21">
         <v>18</v>
       </c>
-      <c r="L21" s="38">
+      <c r="L21" s="26">
         <v>0.57158564814814816</v>
       </c>
-      <c r="M21" s="36">
+      <c r="M21">
         <v>7613</v>
       </c>
-      <c r="N21" s="36">
+      <c r="N21">
         <v>62</v>
       </c>
-      <c r="O21" s="36">
+      <c r="O21">
         <v>320</v>
       </c>
-      <c r="P21" s="36">
+      <c r="P21">
         <v>18</v>
       </c>
-      <c r="Q21" s="34">
-        <f t="shared" si="4"/>
+      <c r="Q21" s="26">
+        <f t="shared" si="5"/>
         <v>1.7708333333333881E-3</v>
       </c>
       <c r="R21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="S21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="T21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="U21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -35694,63 +37144,63 @@
       <c r="C22" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="36">
+      <c r="D22">
         <v>-1.657254</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E22">
         <v>-220.8</v>
       </c>
-      <c r="F22" s="36">
+      <c r="F22">
         <v>133.232418</v>
       </c>
-      <c r="G22" s="38">
+      <c r="G22" s="26">
         <v>0.57190972222222225</v>
       </c>
-      <c r="H22" s="36">
+      <c r="H22">
         <v>123</v>
       </c>
-      <c r="I22" s="36">
+      <c r="I22">
         <v>3</v>
       </c>
-      <c r="J22" s="39">
+      <c r="J22" s="28">
         <v>7</v>
       </c>
-      <c r="K22" s="36">
+      <c r="K22">
         <v>1</v>
       </c>
-      <c r="L22" s="38">
+      <c r="L22" s="26">
         <v>0.57368055555555553</v>
       </c>
-      <c r="M22" s="36">
+      <c r="M22">
         <v>4144</v>
       </c>
-      <c r="N22" s="36">
+      <c r="N22">
         <v>49</v>
       </c>
-      <c r="O22" s="36">
+      <c r="O22">
         <v>60</v>
       </c>
-      <c r="P22" s="36">
+      <c r="P22">
         <v>4</v>
       </c>
-      <c r="Q22" s="34">
-        <f t="shared" ref="Q22:Q31" si="9">L22-G22</f>
+      <c r="Q22" s="26">
+        <f t="shared" ref="Q22:Q31" si="10">L22-G22</f>
         <v>1.7708333333332771E-3</v>
       </c>
       <c r="R22">
-        <f t="shared" ref="R22:R31" si="10">M22-H22</f>
+        <f t="shared" ref="R22:R31" si="11">M22-H22</f>
         <v>4021</v>
       </c>
       <c r="S22">
-        <f t="shared" ref="S22:S31" si="11">N22-I22</f>
+        <f t="shared" ref="S22:S31" si="12">N22-I22</f>
         <v>46</v>
       </c>
       <c r="T22">
-        <f t="shared" ref="T22:T31" si="12">O22-J22</f>
+        <f t="shared" ref="T22:T31" si="13">O22-J22</f>
         <v>53</v>
       </c>
       <c r="U22">
-        <f t="shared" ref="U22:U31" si="13">P22-K22</f>
+        <f t="shared" ref="U22:U31" si="14">P22-K22</f>
         <v>3</v>
       </c>
     </row>
@@ -35758,63 +37208,63 @@
       <c r="C23" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="36">
+      <c r="D23">
         <v>-1.614679</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E23">
         <v>-220.8</v>
       </c>
-      <c r="F23" s="36">
+      <c r="F23">
         <v>136.745462</v>
       </c>
-      <c r="G23" s="38">
+      <c r="G23" s="26">
         <v>0.57400462962962961</v>
       </c>
-      <c r="H23" s="36">
+      <c r="H23">
         <v>136</v>
       </c>
-      <c r="I23" s="36">
+      <c r="I23">
         <v>5</v>
       </c>
-      <c r="J23" s="36">
-        <v>6</v>
-      </c>
-      <c r="K23" s="36">
+      <c r="J23">
+        <v>6</v>
+      </c>
+      <c r="K23">
         <v>3</v>
       </c>
-      <c r="L23" s="38">
+      <c r="L23" s="26">
         <v>0.57578703703703704</v>
       </c>
-      <c r="M23" s="36">
+      <c r="M23">
         <v>4116</v>
       </c>
-      <c r="N23" s="36">
+      <c r="N23">
         <v>50</v>
       </c>
-      <c r="O23" s="36">
+      <c r="O23">
         <v>91</v>
       </c>
-      <c r="P23" s="36">
+      <c r="P23">
         <v>9</v>
       </c>
-      <c r="Q23" s="34">
-        <f t="shared" si="9"/>
+      <c r="Q23" s="26">
+        <f t="shared" si="10"/>
         <v>1.782407407407427E-3</v>
       </c>
       <c r="R23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3980</v>
       </c>
       <c r="S23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
       <c r="T23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>85</v>
       </c>
       <c r="U23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
     </row>
@@ -35822,63 +37272,63 @@
       <c r="C24" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="36">
+      <c r="D24">
         <v>-1.6704859999999999</v>
       </c>
-      <c r="E24" s="36">
+      <c r="E24">
         <v>-220.8</v>
       </c>
-      <c r="F24" s="36">
+      <c r="F24">
         <v>132.17709500000001</v>
       </c>
-      <c r="G24" s="38">
+      <c r="G24" s="26">
         <v>0.57611111111111113</v>
       </c>
-      <c r="H24" s="36">
+      <c r="H24">
         <v>157</v>
       </c>
-      <c r="I24" s="36">
+      <c r="I24">
         <v>3</v>
       </c>
-      <c r="J24" s="36">
+      <c r="J24">
         <v>5</v>
       </c>
-      <c r="K24" s="36">
+      <c r="K24">
         <v>2</v>
       </c>
-      <c r="L24" s="38">
+      <c r="L24" s="26">
         <v>0.57771990740740742</v>
       </c>
-      <c r="M24" s="36">
+      <c r="M24">
         <v>3238</v>
       </c>
-      <c r="N24" s="36">
+      <c r="N24">
         <v>35</v>
       </c>
-      <c r="O24" s="39">
+      <c r="O24" s="28">
         <v>98</v>
       </c>
-      <c r="P24" s="36">
+      <c r="P24">
         <v>4</v>
       </c>
-      <c r="Q24" s="34">
-        <f t="shared" si="9"/>
+      <c r="Q24" s="26">
+        <f t="shared" si="10"/>
         <v>1.6087962962962887E-3</v>
       </c>
       <c r="R24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3081</v>
       </c>
       <c r="S24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="T24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>93</v>
       </c>
       <c r="U24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>
@@ -35886,63 +37336,63 @@
       <c r="C25" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="36">
+      <c r="D25">
         <v>-1.9859720000000001</v>
       </c>
-      <c r="E25" s="36">
+      <c r="E25">
         <v>-248.4</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25">
         <v>125.077307</v>
       </c>
-      <c r="G25" s="38">
+      <c r="G25" s="26">
         <v>0.57805555555555554</v>
       </c>
-      <c r="H25" s="36">
+      <c r="H25">
         <v>148</v>
       </c>
-      <c r="I25" s="36">
+      <c r="I25">
         <v>2</v>
       </c>
-      <c r="J25" s="36">
+      <c r="J25">
         <v>4</v>
       </c>
-      <c r="K25" s="36">
+      <c r="K25">
         <v>1</v>
       </c>
-      <c r="L25" s="38">
+      <c r="L25" s="26">
         <v>0.57966435185185183</v>
       </c>
-      <c r="M25" s="36">
+      <c r="M25">
         <v>3353</v>
       </c>
-      <c r="N25" s="36">
+      <c r="N25">
         <v>36</v>
       </c>
-      <c r="O25" s="39">
+      <c r="O25" s="28">
         <v>96</v>
       </c>
-      <c r="P25" s="36">
+      <c r="P25">
         <v>4</v>
       </c>
-      <c r="Q25" s="34">
-        <f t="shared" si="9"/>
+      <c r="Q25" s="26">
+        <f t="shared" si="10"/>
         <v>1.6087962962962887E-3</v>
       </c>
       <c r="R25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3205</v>
       </c>
       <c r="S25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>34</v>
       </c>
       <c r="T25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>92</v>
       </c>
       <c r="U25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
     </row>
@@ -35950,63 +37400,63 @@
       <c r="C26" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="36">
+      <c r="D26">
         <v>-1.5982240000000001</v>
       </c>
-      <c r="E26" s="36">
+      <c r="E26">
         <v>-220.8</v>
       </c>
-      <c r="F26" s="36">
+      <c r="F26">
         <v>138.15330700000001</v>
       </c>
-      <c r="G26" s="38">
+      <c r="G26" s="26">
         <v>0.57998842592592592</v>
       </c>
-      <c r="H26" s="36">
+      <c r="H26">
         <v>96</v>
       </c>
-      <c r="I26" s="36">
+      <c r="I26">
         <v>3</v>
       </c>
-      <c r="J26" s="39">
+      <c r="J26" s="28">
         <v>4</v>
       </c>
-      <c r="K26" s="36">
+      <c r="K26">
         <v>1</v>
       </c>
-      <c r="L26" s="38">
+      <c r="L26" s="26">
         <v>0.58172453703703708</v>
       </c>
-      <c r="M26" s="36">
+      <c r="M26">
         <v>3747</v>
       </c>
-      <c r="N26" s="36">
+      <c r="N26">
         <v>33</v>
       </c>
-      <c r="O26" s="36">
+      <c r="O26">
         <v>83</v>
       </c>
-      <c r="P26" s="36">
+      <c r="P26">
         <v>5</v>
       </c>
-      <c r="Q26" s="34">
-        <f t="shared" si="9"/>
+      <c r="Q26" s="26">
+        <f t="shared" si="10"/>
         <v>1.7361111111111605E-3</v>
       </c>
       <c r="R26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3651</v>
       </c>
       <c r="S26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="T26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>79</v>
       </c>
       <c r="U26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
     </row>
@@ -36014,63 +37464,63 @@
       <c r="C27" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="36">
+      <c r="D27">
         <v>-1.825847</v>
       </c>
-      <c r="E27" s="36">
+      <c r="E27">
         <v>-248.4</v>
       </c>
-      <c r="F27" s="36">
+      <c r="F27">
         <v>136.04647</v>
       </c>
-      <c r="G27" s="38">
+      <c r="G27" s="26">
         <v>0.58206018518518521</v>
       </c>
-      <c r="H27" s="36">
+      <c r="H27">
         <v>105</v>
       </c>
-      <c r="I27" s="36">
-        <v>6</v>
-      </c>
-      <c r="J27" s="36">
-        <v>6</v>
-      </c>
-      <c r="K27" s="36">
+      <c r="I27">
+        <v>6</v>
+      </c>
+      <c r="J27">
+        <v>6</v>
+      </c>
+      <c r="K27">
         <v>4</v>
       </c>
-      <c r="L27" s="38">
+      <c r="L27" s="26">
         <v>0.58376157407407403</v>
       </c>
-      <c r="M27" s="36">
+      <c r="M27">
         <v>3679</v>
       </c>
-      <c r="N27" s="36">
+      <c r="N27">
         <v>36</v>
       </c>
-      <c r="O27" s="36">
+      <c r="O27">
         <v>42</v>
       </c>
-      <c r="P27" s="36">
+      <c r="P27">
         <v>8</v>
       </c>
-      <c r="Q27" s="34">
-        <f t="shared" si="9"/>
+      <c r="Q27" s="26">
+        <f t="shared" si="10"/>
         <v>1.7013888888888218E-3</v>
       </c>
       <c r="R27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3574</v>
       </c>
       <c r="S27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="T27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>36</v>
       </c>
       <c r="U27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
     </row>
@@ -36078,63 +37528,63 @@
       <c r="C28" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="36">
+      <c r="D28">
         <v>-1.775461</v>
       </c>
-      <c r="E28" s="36">
+      <c r="E28">
         <v>-248.4</v>
       </c>
-      <c r="F28" s="36">
+      <c r="F28">
         <v>139.907295</v>
       </c>
-      <c r="G28" s="38">
+      <c r="G28" s="26">
         <v>0.58409722222222227</v>
       </c>
-      <c r="H28" s="36">
+      <c r="H28">
         <v>102</v>
       </c>
-      <c r="I28" s="36">
+      <c r="I28">
         <v>3</v>
       </c>
-      <c r="J28" s="36">
+      <c r="J28">
         <v>4</v>
       </c>
-      <c r="K28" s="37">
+      <c r="K28" s="27">
         <v>1</v>
       </c>
-      <c r="L28" s="38">
+      <c r="L28" s="26">
         <v>0.58584490740740736</v>
       </c>
-      <c r="M28" s="36">
+      <c r="M28">
         <v>3773</v>
       </c>
-      <c r="N28" s="36">
+      <c r="N28">
         <v>45</v>
       </c>
-      <c r="O28" s="36">
+      <c r="O28">
         <v>62</v>
       </c>
-      <c r="P28" s="36">
+      <c r="P28">
         <v>8</v>
       </c>
-      <c r="Q28" s="34">
-        <f t="shared" si="9"/>
+      <c r="Q28" s="26">
+        <f t="shared" si="10"/>
         <v>1.7476851851850883E-3</v>
       </c>
       <c r="R28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3671</v>
       </c>
       <c r="S28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>42</v>
       </c>
       <c r="T28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>58</v>
       </c>
       <c r="U28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
     </row>
@@ -36142,63 +37592,63 @@
       <c r="C29" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="36">
+      <c r="D29">
         <v>-1.7506219999999999</v>
       </c>
-      <c r="E29" s="36">
+      <c r="E29">
         <v>-220.8</v>
       </c>
-      <c r="F29" s="36">
+      <c r="F29">
         <v>126.126597</v>
       </c>
-      <c r="G29" s="38">
+      <c r="G29" s="26">
         <v>0.58618055555555559</v>
       </c>
-      <c r="H29" s="36">
+      <c r="H29">
         <v>225</v>
       </c>
-      <c r="I29" s="36">
-        <v>6</v>
-      </c>
-      <c r="J29" s="36">
+      <c r="I29">
+        <v>6</v>
+      </c>
+      <c r="J29">
         <v>14</v>
       </c>
-      <c r="K29" s="36">
+      <c r="K29">
         <v>3</v>
       </c>
-      <c r="L29" s="38">
+      <c r="L29" s="26">
         <v>0.58776620370370369</v>
       </c>
-      <c r="M29" s="36">
+      <c r="M29">
         <v>3628</v>
       </c>
-      <c r="N29" s="36">
+      <c r="N29">
         <v>42</v>
       </c>
-      <c r="O29" s="36">
+      <c r="O29">
         <v>157</v>
       </c>
-      <c r="P29" s="36">
+      <c r="P29">
         <v>7</v>
       </c>
-      <c r="Q29" s="34">
-        <f t="shared" si="9"/>
+      <c r="Q29" s="26">
+        <f t="shared" si="10"/>
         <v>1.5856481481481E-3</v>
       </c>
       <c r="R29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3403</v>
       </c>
       <c r="S29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>36</v>
       </c>
       <c r="T29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>143</v>
       </c>
       <c r="U29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
     </row>
@@ -36206,63 +37656,63 @@
       <c r="C30" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="36">
+      <c r="D30">
         <v>-2.3467730000000002</v>
       </c>
-      <c r="E30" s="36">
+      <c r="E30">
         <v>-303.60000000000002</v>
       </c>
-      <c r="F30" s="36">
+      <c r="F30">
         <v>129.36911599999999</v>
       </c>
-      <c r="G30" s="38">
+      <c r="G30" s="26">
         <v>0.58809027777777778</v>
       </c>
-      <c r="H30" s="36">
+      <c r="H30">
         <v>110</v>
       </c>
-      <c r="I30" s="36">
+      <c r="I30">
         <v>3</v>
       </c>
-      <c r="J30" s="36">
+      <c r="J30">
         <v>4</v>
       </c>
-      <c r="K30" s="36">
+      <c r="K30">
         <v>1</v>
       </c>
-      <c r="L30" s="38">
+      <c r="L30" s="26">
         <v>0.58968750000000003</v>
       </c>
-      <c r="M30" s="36">
+      <c r="M30">
         <v>2339</v>
       </c>
-      <c r="N30" s="36">
+      <c r="N30">
         <v>29</v>
       </c>
-      <c r="O30" s="36">
+      <c r="O30">
         <v>41</v>
       </c>
-      <c r="P30" s="36">
+      <c r="P30">
         <v>5</v>
       </c>
-      <c r="Q30" s="34">
-        <f t="shared" si="9"/>
+      <c r="Q30" s="26">
+        <f t="shared" si="10"/>
         <v>1.5972222222222499E-3</v>
       </c>
       <c r="R30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2229</v>
       </c>
       <c r="S30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>26</v>
       </c>
       <c r="T30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>37</v>
       </c>
       <c r="U30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
     </row>
@@ -36270,63 +37720,63 @@
       <c r="C31" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="36">
+      <c r="D31">
         <v>-1.707775</v>
       </c>
-      <c r="E31" s="36">
+      <c r="E31">
         <v>-220.8</v>
       </c>
-      <c r="F31" s="36">
+      <c r="F31">
         <v>129.29102700000001</v>
       </c>
-      <c r="G31" s="38">
+      <c r="G31" s="26">
         <v>0.59002314814814816</v>
       </c>
-      <c r="H31" s="36">
+      <c r="H31">
         <v>114</v>
       </c>
-      <c r="I31" s="36">
+      <c r="I31">
         <v>3</v>
       </c>
-      <c r="J31" s="36">
+      <c r="J31">
         <v>4</v>
       </c>
-      <c r="K31" s="36">
+      <c r="K31">
         <v>1</v>
       </c>
-      <c r="L31" s="38">
+      <c r="L31" s="26">
         <v>0.59164351851851849</v>
       </c>
-      <c r="M31" s="36">
+      <c r="M31">
         <v>3473</v>
       </c>
-      <c r="N31" s="36">
+      <c r="N31">
         <v>42</v>
       </c>
-      <c r="O31" s="36">
+      <c r="O31">
         <v>110</v>
       </c>
-      <c r="P31" s="36">
-        <v>6</v>
-      </c>
-      <c r="Q31" s="34">
-        <f t="shared" si="9"/>
+      <c r="P31">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="26">
+        <f t="shared" si="10"/>
         <v>1.6203703703703276E-3</v>
       </c>
       <c r="R31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3359</v>
       </c>
       <c r="S31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>39</v>
       </c>
       <c r="T31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>106</v>
       </c>
       <c r="U31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
     </row>
@@ -36334,63 +37784,63 @@
       <c r="C32" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="36">
+      <c r="D32">
         <v>-1.657254</v>
       </c>
-      <c r="E32" s="36">
+      <c r="E32">
         <v>-220.8</v>
       </c>
-      <c r="F32" s="36">
+      <c r="F32">
         <v>133.232418</v>
       </c>
-      <c r="G32" s="38">
+      <c r="G32" s="26">
         <v>0.57188657407407406</v>
       </c>
-      <c r="H32" s="37">
+      <c r="H32" s="27">
         <v>42</v>
       </c>
-      <c r="I32" s="36">
+      <c r="I32">
         <v>11</v>
       </c>
-      <c r="J32" s="36">
+      <c r="J32">
         <v>13</v>
       </c>
-      <c r="K32" s="36">
+      <c r="K32">
         <v>10</v>
       </c>
-      <c r="L32" s="38">
+      <c r="L32" s="26">
         <v>0.57365740740740745</v>
       </c>
-      <c r="M32" s="36">
+      <c r="M32">
         <v>1998</v>
       </c>
-      <c r="N32" s="36">
+      <c r="N32">
         <v>38</v>
       </c>
-      <c r="O32" s="36">
+      <c r="O32">
         <v>68</v>
       </c>
-      <c r="P32" s="36">
+      <c r="P32">
         <v>22</v>
       </c>
-      <c r="Q32" s="34">
-        <f t="shared" ref="Q32:Q41" si="14">L32-G32</f>
+      <c r="Q32" s="26">
+        <f t="shared" ref="Q32:Q41" si="15">L32-G32</f>
         <v>1.7708333333333881E-3</v>
       </c>
       <c r="R32">
-        <f t="shared" ref="R32:R41" si="15">M32-H32</f>
+        <f t="shared" ref="R32:R41" si="16">M32-H32</f>
         <v>1956</v>
       </c>
       <c r="S32">
-        <f t="shared" ref="S32:S41" si="16">N32-I32</f>
+        <f t="shared" ref="S32:S41" si="17">N32-I32</f>
         <v>27</v>
       </c>
       <c r="T32">
-        <f t="shared" ref="T32:T41" si="17">O32-J32</f>
+        <f t="shared" ref="T32:T41" si="18">O32-J32</f>
         <v>55</v>
       </c>
       <c r="U32">
-        <f t="shared" ref="U32:U41" si="18">P32-K32</f>
+        <f t="shared" ref="U32:U41" si="19">P32-K32</f>
         <v>12</v>
       </c>
     </row>
@@ -36398,63 +37848,63 @@
       <c r="C33" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="36">
+      <c r="D33">
         <v>-1.614679</v>
       </c>
-      <c r="E33" s="36">
+      <c r="E33">
         <v>-220.8</v>
       </c>
-      <c r="F33" s="36">
+      <c r="F33">
         <v>136.745462</v>
       </c>
-      <c r="G33" s="38">
+      <c r="G33" s="26">
         <v>0.57398148148148154</v>
       </c>
-      <c r="H33" s="37">
+      <c r="H33" s="27">
         <v>63</v>
       </c>
-      <c r="I33" s="36">
+      <c r="I33">
         <v>3</v>
       </c>
-      <c r="J33" s="36">
+      <c r="J33">
         <v>7</v>
       </c>
-      <c r="K33" s="36">
+      <c r="K33">
         <v>2</v>
       </c>
-      <c r="L33" s="38">
+      <c r="L33" s="26">
         <v>0.57576388888888885</v>
       </c>
-      <c r="M33" s="37">
+      <c r="M33" s="27">
         <v>1801</v>
       </c>
-      <c r="N33" s="36">
+      <c r="N33">
         <v>42</v>
       </c>
-      <c r="O33" s="36">
+      <c r="O33">
         <v>106</v>
       </c>
-      <c r="P33" s="36">
+      <c r="P33">
         <v>14</v>
       </c>
-      <c r="Q33" s="34">
-        <f t="shared" si="14"/>
+      <c r="Q33" s="26">
+        <f t="shared" si="15"/>
         <v>1.782407407407316E-3</v>
       </c>
       <c r="R33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1738</v>
       </c>
       <c r="S33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>39</v>
       </c>
       <c r="T33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>99</v>
       </c>
       <c r="U33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>12</v>
       </c>
     </row>
@@ -36462,63 +37912,63 @@
       <c r="C34" t="s">
         <v>82</v>
       </c>
-      <c r="D34" s="36">
+      <c r="D34">
         <v>-1.6704859999999999</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E34">
         <v>-220.8</v>
       </c>
-      <c r="F34" s="36">
+      <c r="F34">
         <v>132.17709500000001</v>
       </c>
-      <c r="G34" s="38">
+      <c r="G34" s="26">
         <v>0.57608796296296294</v>
       </c>
-      <c r="H34" s="36">
+      <c r="H34">
         <v>60</v>
       </c>
-      <c r="I34" s="36">
+      <c r="I34">
         <v>4</v>
       </c>
-      <c r="J34" s="36">
+      <c r="J34">
         <v>7</v>
       </c>
-      <c r="K34" s="36">
+      <c r="K34">
         <v>3</v>
       </c>
-      <c r="L34" s="38">
+      <c r="L34" s="26">
         <v>0.57769675925925923</v>
       </c>
-      <c r="M34" s="36">
+      <c r="M34">
         <v>1768</v>
       </c>
-      <c r="N34" s="36">
+      <c r="N34">
         <v>35</v>
       </c>
-      <c r="O34" s="36">
+      <c r="O34">
         <v>95</v>
       </c>
-      <c r="P34" s="36">
+      <c r="P34">
         <v>9</v>
       </c>
-      <c r="Q34" s="34">
-        <f t="shared" si="14"/>
+      <c r="Q34" s="26">
+        <f t="shared" si="15"/>
         <v>1.6087962962962887E-3</v>
       </c>
       <c r="R34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1708</v>
       </c>
       <c r="S34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>31</v>
       </c>
       <c r="T34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>88</v>
       </c>
       <c r="U34">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
     </row>
@@ -36526,63 +37976,63 @@
       <c r="C35" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="36">
+      <c r="D35">
         <v>-1.9859720000000001</v>
       </c>
-      <c r="E35" s="36">
+      <c r="E35">
         <v>-248.4</v>
       </c>
-      <c r="F35" s="36">
+      <c r="F35">
         <v>125.077307</v>
       </c>
-      <c r="G35" s="38">
+      <c r="G35" s="26">
         <v>0.57803240740740736</v>
       </c>
-      <c r="H35" s="36">
+      <c r="H35">
         <v>61</v>
       </c>
-      <c r="I35" s="36">
+      <c r="I35">
         <v>5</v>
       </c>
-      <c r="J35" s="37">
+      <c r="J35" s="27">
         <v>8</v>
       </c>
-      <c r="K35" s="36">
+      <c r="K35">
         <v>3</v>
       </c>
-      <c r="L35" s="38">
+      <c r="L35" s="26">
         <v>0.57964120370370376</v>
       </c>
-      <c r="M35" s="36">
+      <c r="M35">
         <v>1936</v>
       </c>
-      <c r="N35" s="36">
+      <c r="N35">
         <v>40</v>
       </c>
-      <c r="O35" s="37">
+      <c r="O35" s="27">
         <v>79</v>
       </c>
-      <c r="P35" s="36">
+      <c r="P35">
         <v>15</v>
       </c>
-      <c r="Q35" s="34">
-        <f t="shared" si="14"/>
+      <c r="Q35" s="26">
+        <f t="shared" si="15"/>
         <v>1.6087962962963998E-3</v>
       </c>
       <c r="R35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1875</v>
       </c>
       <c r="S35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>35</v>
       </c>
       <c r="T35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>71</v>
       </c>
       <c r="U35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>12</v>
       </c>
     </row>
@@ -36590,63 +38040,63 @@
       <c r="C36" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="36">
+      <c r="D36">
         <v>-1.5982240000000001</v>
       </c>
-      <c r="E36" s="36">
+      <c r="E36">
         <v>-220.8</v>
       </c>
-      <c r="F36" s="36">
+      <c r="F36">
         <v>138.15330700000001</v>
       </c>
-      <c r="G36" s="38">
+      <c r="G36" s="26">
         <v>0.57996527777777773</v>
       </c>
-      <c r="H36" s="36">
+      <c r="H36">
         <v>63</v>
       </c>
-      <c r="I36" s="36">
+      <c r="I36">
         <v>3</v>
       </c>
-      <c r="J36" s="36">
+      <c r="J36">
         <v>7</v>
       </c>
-      <c r="K36" s="36">
+      <c r="K36">
         <v>2</v>
       </c>
-      <c r="L36" s="38">
+      <c r="L36" s="26">
         <v>0.58170138888888889</v>
       </c>
-      <c r="M36" s="36">
+      <c r="M36">
         <v>1780</v>
       </c>
-      <c r="N36" s="36">
+      <c r="N36">
         <v>33</v>
       </c>
-      <c r="O36" s="36">
+      <c r="O36">
         <v>66</v>
       </c>
-      <c r="P36" s="36">
+      <c r="P36">
         <v>12</v>
       </c>
-      <c r="Q36" s="34">
-        <f t="shared" si="14"/>
+      <c r="Q36" s="26">
+        <f t="shared" si="15"/>
         <v>1.7361111111111605E-3</v>
       </c>
       <c r="R36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1717</v>
       </c>
       <c r="S36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>30</v>
       </c>
       <c r="T36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>59</v>
       </c>
       <c r="U36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
     </row>
@@ -36654,63 +38104,63 @@
       <c r="C37" t="s">
         <v>82</v>
       </c>
-      <c r="D37" s="36">
+      <c r="D37">
         <v>-1.825847</v>
       </c>
-      <c r="E37" s="36">
+      <c r="E37">
         <v>-248.4</v>
       </c>
-      <c r="F37" s="36">
+      <c r="F37">
         <v>136.04647</v>
       </c>
-      <c r="G37" s="38">
+      <c r="G37" s="26">
         <v>0.58203703703703702</v>
       </c>
-      <c r="H37" s="36">
+      <c r="H37">
         <v>64</v>
       </c>
-      <c r="I37" s="36">
+      <c r="I37">
         <v>3</v>
       </c>
-      <c r="J37" s="36">
+      <c r="J37">
         <v>8</v>
       </c>
-      <c r="K37" s="36">
+      <c r="K37">
         <v>2</v>
       </c>
-      <c r="L37" s="38">
+      <c r="L37" s="26">
         <v>0.58373842592592595</v>
       </c>
-      <c r="M37" s="36">
+      <c r="M37">
         <v>1757</v>
       </c>
-      <c r="N37" s="36">
+      <c r="N37">
         <v>29</v>
       </c>
-      <c r="O37" s="36">
+      <c r="O37">
         <v>78</v>
       </c>
-      <c r="P37" s="36">
+      <c r="P37">
         <v>8</v>
       </c>
-      <c r="Q37" s="34">
-        <f t="shared" si="14"/>
+      <c r="Q37" s="26">
+        <f t="shared" si="15"/>
         <v>1.7013888888889328E-3</v>
       </c>
       <c r="R37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1693</v>
       </c>
       <c r="S37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>26</v>
       </c>
       <c r="T37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>70</v>
       </c>
       <c r="U37">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
     </row>
@@ -36718,63 +38168,63 @@
       <c r="C38" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="36">
+      <c r="D38">
         <v>-1.775461</v>
       </c>
-      <c r="E38" s="36">
+      <c r="E38">
         <v>-248.4</v>
       </c>
-      <c r="F38" s="36">
+      <c r="F38">
         <v>139.907295</v>
       </c>
-      <c r="G38" s="38">
+      <c r="G38" s="26">
         <v>0.58406250000000004</v>
       </c>
-      <c r="H38" s="36">
+      <c r="H38">
         <v>74</v>
       </c>
-      <c r="I38" s="36">
+      <c r="I38">
         <v>5</v>
       </c>
-      <c r="J38" s="36">
+      <c r="J38">
         <v>8</v>
       </c>
-      <c r="K38" s="36">
+      <c r="K38">
         <v>2</v>
       </c>
-      <c r="L38" s="38">
+      <c r="L38" s="26">
         <v>0.58582175925925928</v>
       </c>
-      <c r="M38" s="36">
+      <c r="M38">
         <v>1946</v>
       </c>
-      <c r="N38" s="36">
+      <c r="N38">
         <v>43</v>
       </c>
-      <c r="O38" s="36">
+      <c r="O38">
         <v>120</v>
       </c>
-      <c r="P38" s="36">
+      <c r="P38">
         <v>17</v>
       </c>
-      <c r="Q38" s="34">
-        <f t="shared" si="14"/>
+      <c r="Q38" s="26">
+        <f t="shared" si="15"/>
         <v>1.7592592592592382E-3</v>
       </c>
       <c r="R38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1872</v>
       </c>
       <c r="S38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>38</v>
       </c>
       <c r="T38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>112</v>
       </c>
       <c r="U38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
     </row>
@@ -36782,63 +38232,63 @@
       <c r="C39" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="36">
+      <c r="D39">
         <v>-1.7506219999999999</v>
       </c>
-      <c r="E39" s="36">
+      <c r="E39">
         <v>-220.8</v>
       </c>
-      <c r="F39" s="36">
+      <c r="F39">
         <v>126.126597</v>
       </c>
-      <c r="G39" s="38">
+      <c r="G39" s="26">
         <v>0.5861574074074074</v>
       </c>
-      <c r="H39" s="36">
+      <c r="H39">
         <v>63</v>
       </c>
-      <c r="I39" s="36">
+      <c r="I39">
         <v>3</v>
       </c>
-      <c r="J39" s="36">
+      <c r="J39">
         <v>8</v>
       </c>
-      <c r="K39" s="36">
+      <c r="K39">
         <v>2</v>
       </c>
-      <c r="L39" s="38">
+      <c r="L39" s="26">
         <v>0.58773148148148147</v>
       </c>
-      <c r="M39" s="36">
+      <c r="M39">
         <v>1983</v>
       </c>
-      <c r="N39" s="36">
+      <c r="N39">
         <v>36</v>
       </c>
-      <c r="O39" s="37">
+      <c r="O39" s="27">
         <v>125</v>
       </c>
-      <c r="P39" s="36">
+      <c r="P39">
         <v>16</v>
       </c>
-      <c r="Q39" s="34">
-        <f t="shared" si="14"/>
+      <c r="Q39" s="26">
+        <f t="shared" si="15"/>
         <v>1.5740740740740611E-3</v>
       </c>
       <c r="R39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1920</v>
       </c>
       <c r="S39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>33</v>
       </c>
       <c r="T39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>117</v>
       </c>
       <c r="U39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>14</v>
       </c>
     </row>
@@ -36846,63 +38296,63 @@
       <c r="C40" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="36">
+      <c r="D40">
         <v>-2.3467730000000002</v>
       </c>
-      <c r="E40" s="36">
+      <c r="E40">
         <v>-303.60000000000002</v>
       </c>
-      <c r="F40" s="36">
+      <c r="F40">
         <v>129.36911599999999</v>
       </c>
-      <c r="G40" s="38">
+      <c r="G40" s="26">
         <v>0.58806712962962959</v>
       </c>
-      <c r="H40" s="36">
+      <c r="H40">
         <v>63</v>
       </c>
-      <c r="I40" s="36">
+      <c r="I40">
         <v>4</v>
       </c>
-      <c r="J40" s="37">
-        <v>6</v>
-      </c>
-      <c r="K40" s="36">
+      <c r="J40" s="27">
+        <v>6</v>
+      </c>
+      <c r="K40">
         <v>2</v>
       </c>
-      <c r="L40" s="38">
+      <c r="L40" s="26">
         <v>0.58966435185185184</v>
       </c>
-      <c r="M40" s="36">
+      <c r="M40">
         <v>4483</v>
       </c>
-      <c r="N40" s="36">
+      <c r="N40">
         <v>122</v>
       </c>
-      <c r="O40" s="36">
+      <c r="O40">
         <v>376</v>
       </c>
-      <c r="P40" s="36">
+      <c r="P40">
         <v>50</v>
       </c>
-      <c r="Q40" s="34">
-        <f t="shared" si="14"/>
+      <c r="Q40" s="26">
+        <f t="shared" si="15"/>
         <v>1.5972222222222499E-3</v>
       </c>
       <c r="R40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4420</v>
       </c>
       <c r="S40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>118</v>
       </c>
       <c r="T40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>370</v>
       </c>
       <c r="U40">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>48</v>
       </c>
     </row>
@@ -36910,63 +38360,63 @@
       <c r="C41" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="36">
+      <c r="D41">
         <v>-1.707775</v>
       </c>
-      <c r="E41" s="36">
+      <c r="E41">
         <v>-220.8</v>
       </c>
-      <c r="F41" s="36">
+      <c r="F41">
         <v>129.29102700000001</v>
       </c>
-      <c r="G41" s="38">
+      <c r="G41" s="26">
         <v>0.58998842592592593</v>
       </c>
-      <c r="H41" s="36">
+      <c r="H41">
         <v>64</v>
       </c>
-      <c r="I41" s="36">
+      <c r="I41">
         <v>3</v>
       </c>
-      <c r="J41" s="36">
+      <c r="J41">
         <v>7</v>
       </c>
-      <c r="K41" s="36">
+      <c r="K41">
         <v>2</v>
       </c>
-      <c r="L41" s="38">
+      <c r="L41" s="26">
         <v>0.59162037037037041</v>
       </c>
-      <c r="M41" s="36">
+      <c r="M41">
         <v>1909</v>
       </c>
-      <c r="N41" s="36">
+      <c r="N41">
         <v>34</v>
       </c>
-      <c r="O41" s="36">
+      <c r="O41">
         <v>88</v>
       </c>
-      <c r="P41" s="37">
+      <c r="P41" s="27">
         <v>12</v>
       </c>
-      <c r="Q41" s="34">
-        <f t="shared" si="14"/>
+      <c r="Q41" s="26">
+        <f t="shared" si="15"/>
         <v>1.6319444444444775E-3</v>
       </c>
       <c r="R41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1845</v>
       </c>
       <c r="S41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>31</v>
       </c>
       <c r="T41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>81</v>
       </c>
       <c r="U41">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
     </row>
@@ -36974,63 +38424,63 @@
       <c r="C42" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="36">
+      <c r="D42">
         <v>-1.409192</v>
       </c>
-      <c r="E42" s="36">
+      <c r="E42">
         <v>-193.2</v>
       </c>
-      <c r="F42" s="36">
+      <c r="F42">
         <v>137.09985399999999</v>
       </c>
-      <c r="G42" s="38">
+      <c r="G42" s="26">
         <v>0.59193287037037035</v>
       </c>
-      <c r="H42" s="39">
-        <v>6</v>
-      </c>
-      <c r="I42" s="36">
+      <c r="H42" s="28">
+        <v>6</v>
+      </c>
+      <c r="I42">
         <v>0</v>
       </c>
-      <c r="J42" s="36">
+      <c r="J42">
         <v>0</v>
       </c>
-      <c r="K42" s="36">
+      <c r="K42">
         <v>0</v>
       </c>
-      <c r="L42" s="38">
+      <c r="L42" s="26">
         <v>0.59351851851851856</v>
       </c>
-      <c r="M42" s="36">
+      <c r="M42">
         <v>177</v>
       </c>
-      <c r="N42" s="36">
+      <c r="N42">
         <v>8</v>
       </c>
-      <c r="O42" s="37">
+      <c r="O42" s="27">
         <v>26</v>
       </c>
-      <c r="P42" s="37">
+      <c r="P42" s="27">
         <v>0</v>
       </c>
-      <c r="Q42" s="34">
-        <f t="shared" ref="Q42:Q51" si="19">L42-G42</f>
+      <c r="Q42" s="26">
+        <f t="shared" ref="Q42:Q51" si="20">L42-G42</f>
         <v>1.585648148148211E-3</v>
       </c>
       <c r="R42">
-        <f t="shared" ref="R42:R51" si="20">M42-H42</f>
+        <f t="shared" ref="R42:R51" si="21">M42-H42</f>
         <v>171</v>
       </c>
       <c r="S42">
-        <f t="shared" ref="S42:S51" si="21">N42-I42</f>
+        <f t="shared" ref="S42:S51" si="22">N42-I42</f>
         <v>8</v>
       </c>
       <c r="T42">
-        <f t="shared" ref="T42:T51" si="22">O42-J42</f>
+        <f t="shared" ref="T42:T51" si="23">O42-J42</f>
         <v>26</v>
       </c>
       <c r="U42">
-        <f t="shared" ref="U42:U51" si="23">P42-K42</f>
+        <f t="shared" ref="U42:U51" si="24">P42-K42</f>
         <v>0</v>
       </c>
     </row>
@@ -37038,63 +38488,63 @@
       <c r="C43" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="36">
+      <c r="D43">
         <v>-1.4312</v>
       </c>
-      <c r="E43" s="36">
+      <c r="E43">
         <v>-193.2</v>
       </c>
-      <c r="F43" s="36">
+      <c r="F43">
         <v>134.99161899999999</v>
       </c>
-      <c r="G43" s="38">
+      <c r="G43" s="26">
         <v>0.59380787037037042</v>
       </c>
-      <c r="H43" s="36">
-        <v>6</v>
-      </c>
-      <c r="I43" s="36">
+      <c r="H43">
+        <v>6</v>
+      </c>
+      <c r="I43">
         <v>0</v>
       </c>
-      <c r="J43" s="37">
+      <c r="J43" s="27">
         <v>0</v>
       </c>
-      <c r="K43" s="37">
+      <c r="K43" s="27">
         <v>0</v>
       </c>
-      <c r="L43" s="38">
+      <c r="L43" s="26">
         <v>0.59552083333333339</v>
       </c>
-      <c r="M43" s="36">
+      <c r="M43">
         <v>7</v>
       </c>
-      <c r="N43" s="36">
+      <c r="N43">
         <v>0</v>
       </c>
-      <c r="O43" s="36">
+      <c r="O43">
         <v>0</v>
       </c>
-      <c r="P43" s="37">
+      <c r="P43" s="27">
         <v>0</v>
       </c>
-      <c r="Q43" s="34">
-        <f t="shared" si="19"/>
+      <c r="Q43" s="26">
+        <f t="shared" si="20"/>
         <v>1.7129629629629717E-3</v>
       </c>
       <c r="R43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="S43">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="T43">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
+      <c r="T43">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
       <c r="U43">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -37102,63 +38552,63 @@
       <c r="C44" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="36">
+      <c r="D44">
         <v>-1.423746</v>
       </c>
-      <c r="E44" s="36">
+      <c r="E44">
         <v>-193.2</v>
       </c>
-      <c r="F44" s="36">
+      <c r="F44">
         <v>135.69832099999999</v>
       </c>
-      <c r="G44" s="38">
+      <c r="G44" s="26">
         <v>0.5957986111111111</v>
       </c>
-      <c r="H44" s="36">
-        <v>6</v>
-      </c>
-      <c r="I44" s="36">
+      <c r="H44">
+        <v>6</v>
+      </c>
+      <c r="I44">
         <v>0</v>
       </c>
-      <c r="J44" s="36">
+      <c r="J44">
         <v>0</v>
       </c>
-      <c r="K44" s="36">
+      <c r="K44">
         <v>0</v>
       </c>
-      <c r="L44" s="38">
+      <c r="L44" s="26">
         <v>0.59747685185185184</v>
       </c>
-      <c r="M44" s="36">
+      <c r="M44">
         <v>742</v>
       </c>
-      <c r="N44" s="36">
+      <c r="N44">
         <v>23</v>
       </c>
-      <c r="O44" s="36">
+      <c r="O44">
         <v>25</v>
       </c>
-      <c r="P44" s="36">
+      <c r="P44">
         <v>1</v>
       </c>
-      <c r="Q44" s="34">
-        <f t="shared" si="19"/>
+      <c r="Q44" s="26">
+        <f t="shared" si="20"/>
         <v>1.678240740740744E-3</v>
       </c>
       <c r="R44">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>736</v>
       </c>
       <c r="S44">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>23</v>
       </c>
       <c r="T44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>25</v>
       </c>
       <c r="U44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
     </row>
@@ -37166,63 +38616,63 @@
       <c r="C45" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="36">
+      <c r="D45">
         <v>-1.4470959999999999</v>
       </c>
-      <c r="E45" s="36">
+      <c r="E45">
         <v>-193.2</v>
       </c>
-      <c r="F45" s="36">
+      <c r="F45">
         <v>133.50873899999999</v>
       </c>
-      <c r="G45" s="38">
+      <c r="G45" s="26">
         <v>0.59775462962962966</v>
       </c>
-      <c r="H45" s="36">
-        <v>6</v>
-      </c>
-      <c r="I45" s="36">
+      <c r="H45">
+        <v>6</v>
+      </c>
+      <c r="I45">
         <v>0</v>
       </c>
-      <c r="J45" s="36">
+      <c r="J45">
         <v>0</v>
       </c>
-      <c r="K45" s="36">
+      <c r="K45">
         <v>0</v>
       </c>
-      <c r="L45" s="38">
+      <c r="L45" s="26">
         <v>0.59945601851851849</v>
       </c>
-      <c r="M45" s="36">
+      <c r="M45">
         <v>7</v>
       </c>
-      <c r="N45" s="36">
+      <c r="N45">
         <v>1</v>
       </c>
-      <c r="O45" s="37">
+      <c r="O45" s="27">
         <v>1</v>
       </c>
-      <c r="P45" s="36">
+      <c r="P45">
         <v>1</v>
       </c>
-      <c r="Q45" s="34">
-        <f t="shared" si="19"/>
+      <c r="Q45" s="26">
+        <f t="shared" si="20"/>
         <v>1.7013888888888218E-3</v>
       </c>
       <c r="R45">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="S45">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="T45">
+      <c r="S45">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
+      <c r="T45">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
       <c r="U45">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
     </row>
@@ -37230,63 +38680,63 @@
       <c r="C46" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="36">
+      <c r="D46">
         <v>-1.4616359999999999</v>
       </c>
-      <c r="E46" s="36">
+      <c r="E46">
         <v>-193.2</v>
       </c>
-      <c r="F46" s="36">
+      <c r="F46">
         <v>132.180622</v>
       </c>
-      <c r="G46" s="38">
+      <c r="G46" s="26">
         <v>0.59974537037037035</v>
       </c>
-      <c r="H46" s="36">
-        <v>6</v>
-      </c>
-      <c r="I46" s="36">
+      <c r="H46">
+        <v>6</v>
+      </c>
+      <c r="I46">
         <v>0</v>
       </c>
-      <c r="J46" s="36">
+      <c r="J46">
         <v>0</v>
       </c>
-      <c r="K46" s="36">
+      <c r="K46">
         <v>0</v>
       </c>
-      <c r="L46" s="38">
+      <c r="L46" s="26">
         <v>0.60142361111111109</v>
       </c>
-      <c r="M46" s="36">
+      <c r="M46">
         <v>7</v>
       </c>
-      <c r="N46" s="36">
+      <c r="N46">
         <v>0</v>
       </c>
-      <c r="O46" s="36">
+      <c r="O46">
         <v>0</v>
       </c>
-      <c r="P46" s="36">
+      <c r="P46">
         <v>0</v>
       </c>
-      <c r="Q46" s="34">
-        <f t="shared" si="19"/>
+      <c r="Q46" s="26">
+        <f t="shared" si="20"/>
         <v>1.678240740740744E-3</v>
       </c>
       <c r="R46">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="S46">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="T46">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
+      <c r="T46">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
       <c r="U46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -37294,63 +38744,63 @@
       <c r="C47" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="36">
+      <c r="D47">
         <v>-1.3048150000000001</v>
       </c>
-      <c r="E47" s="36">
+      <c r="E47">
         <v>-165.6</v>
       </c>
-      <c r="F47" s="36">
+      <c r="F47">
         <v>126.914552</v>
       </c>
-      <c r="G47" s="38">
+      <c r="G47" s="26">
         <v>0.60170138888888891</v>
       </c>
-      <c r="H47" s="36">
-        <v>6</v>
-      </c>
-      <c r="I47" s="36">
+      <c r="H47">
+        <v>6</v>
+      </c>
+      <c r="I47">
         <v>0</v>
       </c>
-      <c r="J47" s="36">
+      <c r="J47">
         <v>0</v>
       </c>
-      <c r="K47" s="37">
+      <c r="K47" s="27">
         <v>0</v>
       </c>
-      <c r="L47" s="38">
+      <c r="L47" s="26">
         <v>0.60329861111111116</v>
       </c>
-      <c r="M47" s="36">
+      <c r="M47">
         <v>3426</v>
       </c>
-      <c r="N47" s="36">
+      <c r="N47">
         <v>3</v>
       </c>
-      <c r="O47" s="36">
+      <c r="O47">
         <v>2686</v>
       </c>
-      <c r="P47" s="37">
+      <c r="P47" s="27">
         <v>0</v>
       </c>
-      <c r="Q47" s="34">
-        <f t="shared" si="19"/>
+      <c r="Q47" s="26">
+        <f t="shared" si="20"/>
         <v>1.5972222222222499E-3</v>
       </c>
       <c r="R47">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3420</v>
       </c>
       <c r="S47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="T47">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2686</v>
       </c>
       <c r="U47">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -37358,63 +38808,63 @@
       <c r="C48" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="36">
+      <c r="D48">
         <v>-1.544662</v>
       </c>
-      <c r="E48" s="36">
+      <c r="E48">
         <v>-193.2</v>
       </c>
-      <c r="F48" s="36">
+      <c r="F48">
         <v>125.075943</v>
       </c>
-      <c r="G48" s="38">
+      <c r="G48" s="26">
         <v>0.60357638888888887</v>
       </c>
-      <c r="H48" s="36">
-        <v>6</v>
-      </c>
-      <c r="I48" s="36">
+      <c r="H48">
+        <v>6</v>
+      </c>
+      <c r="I48">
         <v>0</v>
       </c>
-      <c r="J48" s="36">
+      <c r="J48">
         <v>0</v>
       </c>
-      <c r="K48" s="37">
+      <c r="K48" s="27">
         <v>0</v>
       </c>
-      <c r="L48" s="38">
+      <c r="L48" s="26">
         <v>0.60518518518518516</v>
       </c>
-      <c r="M48" s="36">
+      <c r="M48">
         <v>1027</v>
       </c>
-      <c r="N48" s="36">
+      <c r="N48">
         <v>7</v>
       </c>
-      <c r="O48" s="36">
+      <c r="O48">
         <v>387</v>
       </c>
-      <c r="P48" s="36">
+      <c r="P48">
         <v>1</v>
       </c>
-      <c r="Q48" s="34">
-        <f t="shared" si="19"/>
+      <c r="Q48" s="26">
+        <f t="shared" si="20"/>
         <v>1.6087962962962887E-3</v>
       </c>
       <c r="R48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1021</v>
       </c>
       <c r="S48">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="T48">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>387</v>
       </c>
       <c r="U48">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
     </row>
@@ -37422,63 +38872,63 @@
       <c r="C49" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="36">
+      <c r="D49">
         <v>-1.5447299999999999</v>
       </c>
-      <c r="E49" s="36">
+      <c r="E49">
         <v>-193.2</v>
       </c>
-      <c r="F49" s="36">
+      <c r="F49">
         <v>125.070373</v>
       </c>
-      <c r="G49" s="38">
+      <c r="G49" s="26">
         <v>0.60546296296296298</v>
       </c>
-      <c r="H49" s="36">
-        <v>6</v>
-      </c>
-      <c r="I49" s="36">
+      <c r="H49">
+        <v>6</v>
+      </c>
+      <c r="I49">
         <v>0</v>
       </c>
-      <c r="J49" s="36">
+      <c r="J49">
         <v>0</v>
       </c>
-      <c r="K49" s="36">
+      <c r="K49">
         <v>0</v>
       </c>
-      <c r="L49" s="38">
+      <c r="L49" s="26">
         <v>0.60712962962962957</v>
       </c>
-      <c r="M49" s="36">
+      <c r="M49">
         <v>7</v>
       </c>
-      <c r="N49" s="36">
+      <c r="N49">
         <v>0</v>
       </c>
-      <c r="O49" s="36">
+      <c r="O49">
         <v>0</v>
       </c>
-      <c r="P49" s="36">
+      <c r="P49">
         <v>0</v>
       </c>
-      <c r="Q49" s="34">
-        <f t="shared" si="19"/>
+      <c r="Q49" s="26">
+        <f t="shared" si="20"/>
         <v>1.6666666666665941E-3</v>
       </c>
       <c r="R49">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="S49">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="T49">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
+      <c r="T49">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
       <c r="U49">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -37486,63 +38936,63 @@
       <c r="C50" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="36">
+      <c r="D50">
         <v>-1.230688</v>
       </c>
-      <c r="E50" s="36">
+      <c r="E50">
         <v>-165.6</v>
       </c>
-      <c r="F50" s="36">
+      <c r="F50">
         <v>134.558897</v>
       </c>
-      <c r="G50" s="38">
+      <c r="G50" s="26">
         <v>0.6074074074074074</v>
       </c>
-      <c r="H50" s="36">
-        <v>6</v>
-      </c>
-      <c r="I50" s="36">
+      <c r="H50">
+        <v>6</v>
+      </c>
+      <c r="I50">
         <v>0</v>
       </c>
-      <c r="J50" s="36">
+      <c r="J50">
         <v>0</v>
       </c>
-      <c r="K50" s="36">
+      <c r="K50">
         <v>0</v>
       </c>
-      <c r="L50" s="38">
+      <c r="L50" s="26">
         <v>0.6091550925925926</v>
       </c>
-      <c r="M50" s="36">
+      <c r="M50">
         <v>7</v>
       </c>
-      <c r="N50" s="36">
+      <c r="N50">
         <v>1</v>
       </c>
-      <c r="O50" s="36">
+      <c r="O50">
         <v>1</v>
       </c>
-      <c r="P50" s="36">
+      <c r="P50">
         <v>1</v>
       </c>
-      <c r="Q50" s="34">
-        <f t="shared" si="19"/>
+      <c r="Q50" s="26">
+        <f t="shared" si="20"/>
         <v>1.7476851851851993E-3</v>
       </c>
       <c r="R50">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="S50">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="T50">
+      <c r="S50">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
+      <c r="T50">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
       <c r="U50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
     </row>
@@ -37550,872 +39000,947 @@
       <c r="C51" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="36">
+      <c r="D51">
         <v>-1.3663069999999999</v>
       </c>
-      <c r="E51" s="36">
+      <c r="E51">
         <v>-165.6</v>
       </c>
-      <c r="F51" s="36">
+      <c r="F51">
         <v>121.20261000000001</v>
       </c>
-      <c r="G51" s="38">
+      <c r="G51" s="26">
         <v>0.60943287037037042</v>
       </c>
-      <c r="H51" s="36">
-        <v>6</v>
-      </c>
-      <c r="I51" s="36">
+      <c r="H51">
+        <v>6</v>
+      </c>
+      <c r="I51">
         <v>0</v>
       </c>
-      <c r="J51" s="37">
+      <c r="J51" s="27">
         <v>0</v>
       </c>
-      <c r="K51" s="36">
+      <c r="K51">
         <v>0</v>
       </c>
-      <c r="L51" s="38">
+      <c r="L51" s="26">
         <v>0.61085648148148153</v>
       </c>
-      <c r="M51" s="36">
+      <c r="M51">
         <v>7</v>
       </c>
-      <c r="N51" s="36">
+      <c r="N51">
         <v>0</v>
       </c>
-      <c r="O51" s="37">
+      <c r="O51" s="27">
         <v>0</v>
       </c>
-      <c r="P51" s="36">
+      <c r="P51">
         <v>0</v>
       </c>
-      <c r="Q51" s="34">
-        <f t="shared" si="19"/>
+      <c r="Q51" s="26">
+        <f t="shared" si="20"/>
         <v>1.4236111111111116E-3</v>
       </c>
       <c r="R51">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="S51">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="T51">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="U51">
+      <c r="T51">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
+      <c r="U51">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C52" s="38" t="s">
+      <c r="C52" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="36">
+      <c r="D52">
         <v>-2.0892710000000001</v>
       </c>
-      <c r="E52" s="36">
+      <c r="E52">
         <v>-276</v>
       </c>
-      <c r="F52" s="36">
+      <c r="F52">
         <v>132.10351600000001</v>
       </c>
-      <c r="G52" s="38">
+      <c r="G52" s="26">
         <v>0.6111226851851852</v>
       </c>
-      <c r="H52" s="36">
+      <c r="H52">
         <v>18</v>
       </c>
-      <c r="I52" s="36">
+      <c r="I52">
         <v>2</v>
       </c>
-      <c r="J52" s="36">
+      <c r="J52">
         <v>3</v>
       </c>
-      <c r="K52" s="36">
+      <c r="K52">
         <v>1</v>
       </c>
-      <c r="L52" s="38">
+      <c r="L52" s="26">
         <v>0.61275462962962968</v>
       </c>
-      <c r="M52" s="37">
+      <c r="M52" s="27">
         <v>4808</v>
       </c>
-      <c r="N52" s="36">
+      <c r="N52">
         <v>72</v>
       </c>
-      <c r="O52" s="36">
+      <c r="O52">
         <v>625</v>
       </c>
-      <c r="P52" s="36">
+      <c r="P52">
         <v>8</v>
       </c>
-      <c r="Q52" s="34">
-        <f t="shared" ref="Q52:Q61" si="24">L52-G52</f>
+      <c r="Q52" s="26">
+        <f t="shared" ref="Q52:Q61" si="25">L52-G52</f>
         <v>1.6319444444444775E-3</v>
       </c>
       <c r="R52">
-        <f t="shared" ref="R52:R61" si="25">M52-H52</f>
+        <f t="shared" ref="R52:R61" si="26">M52-H52</f>
         <v>4790</v>
       </c>
       <c r="S52">
-        <f t="shared" ref="S52:S61" si="26">N52-I52</f>
+        <f t="shared" ref="S52:S61" si="27">N52-I52</f>
         <v>70</v>
       </c>
       <c r="T52">
-        <f t="shared" ref="T52:T61" si="27">O52-J52</f>
+        <f t="shared" ref="T52:T61" si="28">O52-J52</f>
         <v>622</v>
       </c>
       <c r="U52">
-        <f t="shared" ref="U52:U61" si="28">P52-K52</f>
+        <f t="shared" ref="U52:U61" si="29">P52-K52</f>
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C53" s="38" t="s">
+      <c r="C53" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D53" s="36">
+      <c r="D53">
         <v>-2.4680879999999998</v>
       </c>
-      <c r="E53" s="36">
+      <c r="E53">
         <v>-303.60000000000002</v>
       </c>
-      <c r="F53" s="36">
+      <c r="F53">
         <v>123.010177</v>
       </c>
-      <c r="G53" s="38">
+      <c r="G53" s="26">
         <v>0.61302083333333335</v>
       </c>
-      <c r="H53" s="36">
+      <c r="H53">
         <v>22</v>
       </c>
-      <c r="I53" s="36">
+      <c r="I53">
         <v>2</v>
       </c>
-      <c r="J53" s="36">
+      <c r="J53">
         <v>5</v>
       </c>
-      <c r="K53" s="36">
+      <c r="K53">
         <v>1</v>
       </c>
-      <c r="L53" s="38">
+      <c r="L53" s="26">
         <v>0.61447916666666669</v>
       </c>
-      <c r="M53" s="36">
+      <c r="M53">
         <v>4193</v>
       </c>
-      <c r="N53" s="36">
+      <c r="N53">
         <v>110</v>
       </c>
-      <c r="O53" s="36">
+      <c r="O53">
         <v>443</v>
       </c>
-      <c r="P53" s="36">
+      <c r="P53">
         <v>5</v>
       </c>
-      <c r="Q53" s="34">
-        <f t="shared" si="24"/>
+      <c r="Q53" s="26">
+        <f t="shared" si="25"/>
         <v>1.4583333333333393E-3</v>
       </c>
       <c r="R53">
+        <f t="shared" si="26"/>
+        <v>4171</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="27"/>
+        <v>108</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="28"/>
+        <v>438</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C54" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54">
+        <v>-2.5431279999999998</v>
+      </c>
+      <c r="E54">
+        <v>-331.2</v>
+      </c>
+      <c r="F54">
+        <v>130.23330100000001</v>
+      </c>
+      <c r="G54" s="26">
+        <v>0.61474537037037036</v>
+      </c>
+      <c r="H54">
+        <v>21</v>
+      </c>
+      <c r="I54">
+        <v>3</v>
+      </c>
+      <c r="J54">
+        <v>4</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54" s="26">
+        <v>0.61623842592592593</v>
+      </c>
+      <c r="M54">
+        <v>4472</v>
+      </c>
+      <c r="N54">
+        <v>71</v>
+      </c>
+      <c r="O54">
+        <v>1225</v>
+      </c>
+      <c r="P54">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="26">
         <f t="shared" si="25"/>
-        <v>4171</v>
-      </c>
-      <c r="S53">
+        <v>1.4930555555555669E-3</v>
+      </c>
+      <c r="R54">
         <f t="shared" si="26"/>
-        <v>108</v>
-      </c>
-      <c r="T53">
+        <v>4451</v>
+      </c>
+      <c r="S54">
         <f t="shared" si="27"/>
-        <v>438</v>
-      </c>
-      <c r="U53">
+        <v>68</v>
+      </c>
+      <c r="T54">
         <f t="shared" si="28"/>
+        <v>1221</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C54" s="38" t="s">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C55" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D54" s="36">
-        <v>-2.5431279999999998</v>
-      </c>
-      <c r="E54" s="36">
+      <c r="D55">
+        <v>-2.4617770000000001</v>
+      </c>
+      <c r="E55">
+        <v>-303.60000000000002</v>
+      </c>
+      <c r="F55">
+        <v>123.325542</v>
+      </c>
+      <c r="G55" s="26">
+        <v>0.6165046296296296</v>
+      </c>
+      <c r="H55">
+        <v>19</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="J55">
+        <v>4</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55" s="26">
+        <v>0.61802083333333335</v>
+      </c>
+      <c r="M55" s="27">
+        <v>4780</v>
+      </c>
+      <c r="N55">
+        <v>54</v>
+      </c>
+      <c r="O55">
+        <v>272</v>
+      </c>
+      <c r="P55">
+        <v>6</v>
+      </c>
+      <c r="Q55" s="26">
+        <f t="shared" si="25"/>
+        <v>1.5162037037037557E-3</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="26"/>
+        <v>4761</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="27"/>
+        <v>52</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="28"/>
+        <v>268</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C56" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56">
+        <v>-2.4272040000000001</v>
+      </c>
+      <c r="E56">
+        <v>-303.60000000000002</v>
+      </c>
+      <c r="F56">
+        <v>125.082173</v>
+      </c>
+      <c r="G56" s="26">
+        <v>0.61828703703703702</v>
+      </c>
+      <c r="H56">
+        <v>20</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56">
+        <v>3</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56" s="26">
+        <v>0.61981481481481482</v>
+      </c>
+      <c r="M56">
+        <v>4685</v>
+      </c>
+      <c r="N56">
+        <v>60</v>
+      </c>
+      <c r="O56" s="27">
+        <v>1069</v>
+      </c>
+      <c r="P56" s="27">
+        <v>5</v>
+      </c>
+      <c r="Q56" s="26">
+        <f t="shared" si="25"/>
+        <v>1.5277777777777946E-3</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="26"/>
+        <v>4665</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="27"/>
+        <v>58</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="28"/>
+        <v>1066</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C57" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57">
+        <v>-2.0142199999999999</v>
+      </c>
+      <c r="E57">
+        <v>-248.4</v>
+      </c>
+      <c r="F57">
+        <v>123.323161</v>
+      </c>
+      <c r="G57" s="26">
+        <v>0.62008101851851849</v>
+      </c>
+      <c r="H57">
+        <v>20</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57">
+        <v>6</v>
+      </c>
+      <c r="K57" s="27">
+        <v>1</v>
+      </c>
+      <c r="L57" s="26">
+        <v>0.62159722222222225</v>
+      </c>
+      <c r="M57">
+        <v>4039</v>
+      </c>
+      <c r="N57">
+        <v>120</v>
+      </c>
+      <c r="O57">
+        <v>363</v>
+      </c>
+      <c r="P57" s="27">
+        <v>6</v>
+      </c>
+      <c r="Q57" s="26">
+        <f t="shared" si="25"/>
+        <v>1.5162037037037557E-3</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="26"/>
+        <v>4019</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="27"/>
+        <v>118</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="28"/>
+        <v>357</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C58" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58">
+        <v>-2.6703100000000002</v>
+      </c>
+      <c r="E58">
         <v>-331.2</v>
       </c>
-      <c r="F54" s="36">
-        <v>130.23330100000001</v>
-      </c>
-      <c r="G54" s="38">
-        <v>0.61474537037037036</v>
-      </c>
-      <c r="H54" s="36">
-        <v>21</v>
-      </c>
-      <c r="I54" s="36">
+      <c r="F58">
+        <v>124.03054299999999</v>
+      </c>
+      <c r="G58" s="26">
+        <v>0.62187499999999996</v>
+      </c>
+      <c r="H58">
+        <v>18</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58">
         <v>3</v>
       </c>
-      <c r="J54" s="36">
+      <c r="K58" s="27">
+        <v>1</v>
+      </c>
+      <c r="L58" s="26">
+        <v>0.62337962962962967</v>
+      </c>
+      <c r="M58">
+        <v>4766</v>
+      </c>
+      <c r="N58">
+        <v>57</v>
+      </c>
+      <c r="O58">
+        <v>1492</v>
+      </c>
+      <c r="P58">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="26">
+        <f t="shared" si="25"/>
+        <v>1.5046296296297168E-3</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="26"/>
+        <v>4748</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="27"/>
+        <v>55</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="28"/>
+        <v>1489</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
-      <c r="K54" s="36">
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C59" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59">
+        <v>-2.439378</v>
+      </c>
+      <c r="E59">
+        <v>-303.60000000000002</v>
+      </c>
+      <c r="F59">
+        <v>124.45796300000001</v>
+      </c>
+      <c r="G59" s="26">
+        <v>0.62364583333333334</v>
+      </c>
+      <c r="H59">
+        <v>19</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
+      <c r="J59">
+        <v>3</v>
+      </c>
+      <c r="K59">
         <v>1</v>
       </c>
-      <c r="L54" s="38">
-        <v>0.61623842592592593</v>
-      </c>
-      <c r="M54" s="36">
-        <v>4472</v>
-      </c>
-      <c r="N54" s="36">
-        <v>71</v>
-      </c>
-      <c r="O54" s="36">
-        <v>1225</v>
-      </c>
-      <c r="P54" s="36">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="34">
-        <f t="shared" si="24"/>
-        <v>1.4930555555555669E-3</v>
-      </c>
-      <c r="R54">
+      <c r="L59" s="26">
+        <v>0.62509259259259264</v>
+      </c>
+      <c r="M59">
+        <v>4161</v>
+      </c>
+      <c r="N59">
+        <v>97</v>
+      </c>
+      <c r="O59">
+        <v>942</v>
+      </c>
+      <c r="P59">
+        <v>7</v>
+      </c>
+      <c r="Q59" s="26">
         <f t="shared" si="25"/>
-        <v>4451</v>
-      </c>
-      <c r="S54">
+        <v>1.4467592592593004E-3</v>
+      </c>
+      <c r="R59">
         <f t="shared" si="26"/>
-        <v>68</v>
-      </c>
-      <c r="T54">
+        <v>4142</v>
+      </c>
+      <c r="S59">
         <f t="shared" si="27"/>
-        <v>1221</v>
-      </c>
-      <c r="U54">
+        <v>95</v>
+      </c>
+      <c r="T59">
         <f t="shared" si="28"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C55" s="38" t="s">
+        <v>939</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="29"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C60" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D55" s="36">
-        <v>-2.4617770000000001</v>
-      </c>
-      <c r="E55" s="36">
-        <v>-303.60000000000002</v>
-      </c>
-      <c r="F55" s="36">
-        <v>123.325542</v>
-      </c>
-      <c r="G55" s="38">
-        <v>0.6165046296296296</v>
-      </c>
-      <c r="H55" s="36">
-        <v>19</v>
-      </c>
-      <c r="I55" s="36">
+      <c r="D60">
+        <v>-2.5476589999999999</v>
+      </c>
+      <c r="E60">
+        <v>-331.2</v>
+      </c>
+      <c r="F60">
+        <v>130.00170299999999</v>
+      </c>
+      <c r="G60" s="26">
+        <v>0.62535879629629632</v>
+      </c>
+      <c r="H60" s="27">
+        <v>20</v>
+      </c>
+      <c r="I60">
         <v>2</v>
       </c>
-      <c r="J55" s="36">
-        <v>4</v>
-      </c>
-      <c r="K55" s="36">
+      <c r="J60">
+        <v>6</v>
+      </c>
+      <c r="K60">
         <v>1</v>
       </c>
-      <c r="L55" s="38">
-        <v>0.61802083333333335</v>
-      </c>
-      <c r="M55" s="37">
+      <c r="L60" s="26">
+        <v>0.62692129629629634</v>
+      </c>
+      <c r="M60">
+        <v>4930</v>
+      </c>
+      <c r="N60">
+        <v>62</v>
+      </c>
+      <c r="O60">
+        <v>1023</v>
+      </c>
+      <c r="P60">
+        <v>8</v>
+      </c>
+      <c r="Q60" s="26">
+        <f t="shared" si="25"/>
+        <v>1.5625000000000222E-3</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="26"/>
+        <v>4910</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="27"/>
+        <v>60</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="28"/>
+        <v>1017</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="29"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C61" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61">
+        <v>-2.5055010000000002</v>
+      </c>
+      <c r="E61">
+        <v>-331.2</v>
+      </c>
+      <c r="F61">
+        <v>132.18914000000001</v>
+      </c>
+      <c r="G61" s="26">
+        <v>0.62718750000000001</v>
+      </c>
+      <c r="H61">
+        <v>16</v>
+      </c>
+      <c r="I61">
+        <v>2</v>
+      </c>
+      <c r="J61">
+        <v>3</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61" s="26">
+        <v>0.6287152777777778</v>
+      </c>
+      <c r="M61" s="27">
+        <v>4796</v>
+      </c>
+      <c r="N61">
+        <v>62</v>
+      </c>
+      <c r="O61">
+        <v>1064</v>
+      </c>
+      <c r="P61">
+        <v>8</v>
+      </c>
+      <c r="Q61" s="26">
+        <f t="shared" si="25"/>
+        <v>1.5277777777777946E-3</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="26"/>
         <v>4780</v>
       </c>
-      <c r="N55" s="36">
-        <v>54</v>
-      </c>
-      <c r="O55" s="36">
-        <v>272</v>
-      </c>
-      <c r="P55" s="36">
-        <v>6</v>
-      </c>
-      <c r="Q55" s="34">
-        <f t="shared" si="24"/>
-        <v>1.5162037037037557E-3</v>
-      </c>
-      <c r="R55">
-        <f t="shared" si="25"/>
-        <v>4761</v>
-      </c>
-      <c r="S55">
-        <f t="shared" si="26"/>
-        <v>52</v>
-      </c>
-      <c r="T55">
+      <c r="S61">
         <f t="shared" si="27"/>
-        <v>268</v>
-      </c>
-      <c r="U55">
+        <v>60</v>
+      </c>
+      <c r="T61">
         <f t="shared" si="28"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C56" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="D56" s="36">
-        <v>-2.4272040000000001</v>
-      </c>
-      <c r="E56" s="36">
-        <v>-303.60000000000002</v>
-      </c>
-      <c r="F56" s="36">
-        <v>125.082173</v>
-      </c>
-      <c r="G56" s="38">
-        <v>0.61828703703703702</v>
-      </c>
-      <c r="H56" s="36">
-        <v>20</v>
-      </c>
-      <c r="I56" s="36">
-        <v>2</v>
-      </c>
-      <c r="J56" s="36">
-        <v>3</v>
-      </c>
-      <c r="K56" s="36">
-        <v>1</v>
-      </c>
-      <c r="L56" s="38">
-        <v>0.61981481481481482</v>
-      </c>
-      <c r="M56" s="36">
-        <v>4685</v>
-      </c>
-      <c r="N56" s="36">
-        <v>60</v>
-      </c>
-      <c r="O56" s="37">
-        <v>1069</v>
-      </c>
-      <c r="P56" s="37">
-        <v>5</v>
-      </c>
-      <c r="Q56" s="34">
-        <f t="shared" si="24"/>
-        <v>1.5277777777777946E-3</v>
-      </c>
-      <c r="R56">
-        <f t="shared" si="25"/>
-        <v>4665</v>
-      </c>
-      <c r="S56">
-        <f t="shared" si="26"/>
-        <v>58</v>
-      </c>
-      <c r="T56">
-        <f t="shared" si="27"/>
-        <v>1066</v>
-      </c>
-      <c r="U56">
-        <f t="shared" si="28"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C57" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="D57" s="36">
-        <v>-2.0142199999999999</v>
-      </c>
-      <c r="E57" s="36">
-        <v>-248.4</v>
-      </c>
-      <c r="F57" s="36">
-        <v>123.323161</v>
-      </c>
-      <c r="G57" s="38">
-        <v>0.62008101851851849</v>
-      </c>
-      <c r="H57" s="36">
-        <v>20</v>
-      </c>
-      <c r="I57" s="36">
-        <v>2</v>
-      </c>
-      <c r="J57" s="36">
-        <v>6</v>
-      </c>
-      <c r="K57" s="37">
-        <v>1</v>
-      </c>
-      <c r="L57" s="38">
-        <v>0.62159722222222225</v>
-      </c>
-      <c r="M57" s="36">
-        <v>4039</v>
-      </c>
-      <c r="N57" s="36">
-        <v>120</v>
-      </c>
-      <c r="O57" s="36">
-        <v>363</v>
-      </c>
-      <c r="P57" s="37">
-        <v>6</v>
-      </c>
-      <c r="Q57" s="34">
-        <f t="shared" si="24"/>
-        <v>1.5162037037037557E-3</v>
-      </c>
-      <c r="R57">
-        <f t="shared" si="25"/>
-        <v>4019</v>
-      </c>
-      <c r="S57">
-        <f t="shared" si="26"/>
-        <v>118</v>
-      </c>
-      <c r="T57">
-        <f t="shared" si="27"/>
-        <v>357</v>
-      </c>
-      <c r="U57">
-        <f t="shared" si="28"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C58" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" s="36">
-        <v>-2.6703100000000002</v>
-      </c>
-      <c r="E58" s="36">
-        <v>-331.2</v>
-      </c>
-      <c r="F58" s="36">
-        <v>124.03054299999999</v>
-      </c>
-      <c r="G58" s="38">
-        <v>0.62187499999999996</v>
-      </c>
-      <c r="H58" s="36">
-        <v>18</v>
-      </c>
-      <c r="I58" s="36">
-        <v>2</v>
-      </c>
-      <c r="J58" s="36">
-        <v>3</v>
-      </c>
-      <c r="K58" s="37">
-        <v>1</v>
-      </c>
-      <c r="L58" s="38">
-        <v>0.62337962962962967</v>
-      </c>
-      <c r="M58" s="36">
-        <v>4766</v>
-      </c>
-      <c r="N58" s="36">
-        <v>57</v>
-      </c>
-      <c r="O58" s="36">
-        <v>1492</v>
-      </c>
-      <c r="P58" s="36">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="34">
-        <f t="shared" si="24"/>
-        <v>1.5046296296297168E-3</v>
-      </c>
-      <c r="R58">
-        <f t="shared" si="25"/>
-        <v>4748</v>
-      </c>
-      <c r="S58">
-        <f t="shared" si="26"/>
-        <v>55</v>
-      </c>
-      <c r="T58">
-        <f t="shared" si="27"/>
-        <v>1489</v>
-      </c>
-      <c r="U58">
-        <f t="shared" si="28"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C59" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="D59" s="36">
-        <v>-2.439378</v>
-      </c>
-      <c r="E59" s="36">
-        <v>-303.60000000000002</v>
-      </c>
-      <c r="F59" s="36">
-        <v>124.45796300000001</v>
-      </c>
-      <c r="G59" s="38">
-        <v>0.62364583333333334</v>
-      </c>
-      <c r="H59" s="36">
-        <v>19</v>
-      </c>
-      <c r="I59" s="36">
-        <v>2</v>
-      </c>
-      <c r="J59" s="36">
-        <v>3</v>
-      </c>
-      <c r="K59" s="36">
-        <v>1</v>
-      </c>
-      <c r="L59" s="38">
-        <v>0.62509259259259264</v>
-      </c>
-      <c r="M59" s="36">
-        <v>4161</v>
-      </c>
-      <c r="N59" s="36">
-        <v>97</v>
-      </c>
-      <c r="O59" s="36">
-        <v>942</v>
-      </c>
-      <c r="P59" s="36">
+        <v>1061</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="29"/>
         <v>7</v>
       </c>
-      <c r="Q59" s="34">
-        <f t="shared" si="24"/>
-        <v>1.4467592592593004E-3</v>
-      </c>
-      <c r="R59">
-        <f t="shared" si="25"/>
-        <v>4142</v>
-      </c>
-      <c r="S59">
-        <f t="shared" si="26"/>
-        <v>95</v>
-      </c>
-      <c r="T59">
-        <f t="shared" si="27"/>
-        <v>939</v>
-      </c>
-      <c r="U59">
-        <f t="shared" si="28"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C60" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="D60" s="36">
-        <v>-2.5476589999999999</v>
-      </c>
-      <c r="E60" s="36">
-        <v>-331.2</v>
-      </c>
-      <c r="F60" s="36">
-        <v>130.00170299999999</v>
-      </c>
-      <c r="G60" s="38">
-        <v>0.62535879629629632</v>
-      </c>
-      <c r="H60" s="37">
-        <v>20</v>
-      </c>
-      <c r="I60" s="36">
-        <v>2</v>
-      </c>
-      <c r="J60" s="36">
-        <v>6</v>
-      </c>
-      <c r="K60" s="36">
-        <v>1</v>
-      </c>
-      <c r="L60" s="38">
-        <v>0.62692129629629634</v>
-      </c>
-      <c r="M60" s="36">
-        <v>4930</v>
-      </c>
-      <c r="N60" s="36">
-        <v>62</v>
-      </c>
-      <c r="O60" s="36">
-        <v>1023</v>
-      </c>
-      <c r="P60" s="36">
-        <v>8</v>
-      </c>
-      <c r="Q60" s="34">
-        <f t="shared" si="24"/>
-        <v>1.5625000000000222E-3</v>
-      </c>
-      <c r="R60">
-        <f t="shared" si="25"/>
-        <v>4910</v>
-      </c>
-      <c r="S60">
-        <f t="shared" si="26"/>
-        <v>60</v>
-      </c>
-      <c r="T60">
-        <f t="shared" si="27"/>
-        <v>1017</v>
-      </c>
-      <c r="U60">
-        <f t="shared" si="28"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C61" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="D61" s="36">
-        <v>-2.5055010000000002</v>
-      </c>
-      <c r="E61" s="36">
-        <v>-331.2</v>
-      </c>
-      <c r="F61" s="36">
-        <v>132.18914000000001</v>
-      </c>
-      <c r="G61" s="38">
-        <v>0.62718750000000001</v>
-      </c>
-      <c r="H61" s="36">
-        <v>16</v>
-      </c>
-      <c r="I61" s="36">
-        <v>2</v>
-      </c>
-      <c r="J61" s="36">
-        <v>3</v>
-      </c>
-      <c r="K61" s="36">
-        <v>1</v>
-      </c>
-      <c r="L61" s="38">
-        <v>0.6287152777777778</v>
-      </c>
-      <c r="M61" s="37">
-        <v>4796</v>
-      </c>
-      <c r="N61" s="36">
-        <v>62</v>
-      </c>
-      <c r="O61" s="36">
-        <v>1064</v>
-      </c>
-      <c r="P61" s="36">
-        <v>8</v>
-      </c>
-      <c r="Q61" s="34">
-        <f t="shared" si="24"/>
-        <v>1.5277777777777946E-3</v>
-      </c>
-      <c r="R61">
-        <f t="shared" si="25"/>
-        <v>4780</v>
-      </c>
-      <c r="S61">
-        <f t="shared" si="26"/>
-        <v>60</v>
-      </c>
-      <c r="T61">
-        <f t="shared" si="27"/>
-        <v>1061</v>
-      </c>
-      <c r="U61">
-        <f t="shared" si="28"/>
-        <v>7</v>
-      </c>
     </row>
     <row r="62" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C62" s="38"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="36"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="36"/>
-      <c r="M62" s="36"/>
+      <c r="C62" s="26"/>
+      <c r="G62" s="26"/>
     </row>
     <row r="63" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C63" s="38"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="36"/>
-      <c r="K63" s="36"/>
-      <c r="M63" s="36"/>
+      <c r="C63" s="26"/>
+      <c r="G63" s="26"/>
     </row>
     <row r="64" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C64" s="38"/>
-      <c r="G64" s="38"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="36"/>
-      <c r="K64" s="36"/>
-      <c r="M64" s="36"/>
+      <c r="C64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="27"/>
     </row>
     <row r="65" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C65" s="38"/>
-      <c r="G65" s="38"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
-      <c r="J65" s="36"/>
-      <c r="K65" s="36"/>
-      <c r="M65" s="37"/>
+      <c r="C65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="M65" s="27"/>
     </row>
     <row r="66" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C66" s="38"/>
-      <c r="G66" s="38"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="36"/>
-      <c r="K66" s="36"/>
+      <c r="C66" s="26"/>
+      <c r="G66" s="26"/>
     </row>
     <row r="67" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="G67" s="38"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="36"/>
-      <c r="J67" s="36"/>
-      <c r="K67" s="36"/>
+      <c r="G67" s="26"/>
     </row>
     <row r="68" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="G68" s="38"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
-      <c r="J68" s="36"/>
-      <c r="K68" s="36"/>
+      <c r="G68" s="26"/>
     </row>
     <row r="69" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="G69" s="38"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="36"/>
-      <c r="J69" s="36"/>
-      <c r="K69" s="36"/>
+      <c r="G69" s="26"/>
     </row>
     <row r="70" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="G70" s="38"/>
-      <c r="H70" s="37"/>
-      <c r="I70" s="36"/>
-      <c r="J70" s="36"/>
-      <c r="K70" s="36"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="27"/>
     </row>
     <row r="71" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="G71" s="38"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
-      <c r="J71" s="36"/>
-      <c r="K71" s="36"/>
+      <c r="G71" s="26"/>
     </row>
     <row r="72" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="G72" s="38"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
-      <c r="J72" s="36"/>
-      <c r="K72" s="37"/>
+      <c r="G72" s="26"/>
+      <c r="K72" s="27"/>
     </row>
     <row r="73" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="H73" s="36"/>
-      <c r="I73" s="36"/>
-      <c r="J73" s="37"/>
-      <c r="K73" s="37"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="27"/>
     </row>
     <row r="74" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="H74" s="36"/>
-      <c r="I74" s="36"/>
-      <c r="J74" s="37"/>
-      <c r="K74" s="37"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="27"/>
     </row>
     <row r="75" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="H75" s="36"/>
-      <c r="I75" s="36"/>
-      <c r="J75" s="37"/>
-      <c r="K75" s="37"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="27"/>
     </row>
     <row r="76" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="H76" s="36"/>
-      <c r="I76" s="36"/>
-      <c r="J76" s="37"/>
-      <c r="K76" s="36"/>
-    </row>
-    <row r="77" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="H77" s="36"/>
-      <c r="I77" s="36"/>
-      <c r="J77" s="36"/>
-      <c r="K77" s="36"/>
-    </row>
-    <row r="78" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="H78" s="36"/>
-      <c r="I78" s="36"/>
-      <c r="J78" s="36"/>
-      <c r="K78" s="36"/>
+      <c r="J76" s="27"/>
     </row>
     <row r="79" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="H79" s="37"/>
-      <c r="I79" s="36"/>
-      <c r="J79" s="36"/>
-      <c r="K79" s="36"/>
-    </row>
-    <row r="80" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="H80" s="36"/>
-      <c r="I80" s="36"/>
-      <c r="J80" s="36"/>
-      <c r="K80" s="36"/>
-    </row>
-    <row r="81" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H81" s="36"/>
-      <c r="I81" s="36"/>
-      <c r="J81" s="36"/>
-      <c r="K81" s="36"/>
-    </row>
-    <row r="82" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H82" s="37"/>
-      <c r="I82" s="36"/>
-      <c r="J82" s="36"/>
-      <c r="K82" s="36"/>
-    </row>
-    <row r="83" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H83" s="38"/>
-      <c r="J83" s="36"/>
-    </row>
-    <row r="84" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H84" s="38"/>
-    </row>
-    <row r="85" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H85" s="38"/>
-    </row>
-    <row r="86" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H86" s="38"/>
-    </row>
-    <row r="87" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H87" s="38"/>
-    </row>
-    <row r="88" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H88" s="38"/>
+      <c r="H79" s="27"/>
+    </row>
+    <row r="82" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H82" s="27"/>
+    </row>
+    <row r="83" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H83" s="26"/>
+    </row>
+    <row r="84" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H84" s="26"/>
+    </row>
+    <row r="85" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H85" s="26"/>
+    </row>
+    <row r="86" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H86" s="26"/>
+    </row>
+    <row r="87" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H87" s="26"/>
+    </row>
+    <row r="88" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H88" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42046D2-9A90-3248-B350-DFE704DA1F4F}">
+  <dimension ref="A3:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="34.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="37">
+        <v>212.2</v>
+      </c>
+      <c r="C4" s="37">
+        <v>3.4</v>
+      </c>
+      <c r="D4" s="37">
+        <v>19.7</v>
+      </c>
+      <c r="E4" s="37">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="37">
+        <v>535.4</v>
+      </c>
+      <c r="C5" s="37">
+        <v>4.3</v>
+      </c>
+      <c r="D5" s="37">
+        <v>312.60000000000002</v>
+      </c>
+      <c r="E5" s="37">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="37">
+        <v>2074.4</v>
+      </c>
+      <c r="C6" s="37">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="D6" s="37">
+        <v>112.2</v>
+      </c>
+      <c r="E6" s="37">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="37">
+        <v>3417.4</v>
+      </c>
+      <c r="C7" s="37">
+        <v>36</v>
+      </c>
+      <c r="D7" s="37">
+        <v>78.2</v>
+      </c>
+      <c r="E7" s="37">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="37">
+        <v>5621.4</v>
+      </c>
+      <c r="C8" s="37">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D8" s="37">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E8" s="37">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="37">
+        <v>4543.7</v>
+      </c>
+      <c r="C9" s="37">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="D9" s="37">
+        <v>847.8</v>
+      </c>
+      <c r="E9" s="37">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="37">
+        <v>2734.0833333333335</v>
+      </c>
+      <c r="C10" s="37">
+        <v>28.1</v>
+      </c>
+      <c r="D10" s="37">
+        <v>231.4</v>
+      </c>
+      <c r="E10" s="37">
+        <v>5.0333333333333332</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/benchmarks/measure_androidApps.xlsx
+++ b/benchmarks/measure_androidApps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yazeedyousefalmalaq/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B18B6A0-06B6-8540-9C67-D33C21C72225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2D629B-CA4B-C547-A0D0-54C4A5F8EA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{E8F05331-52A1-CA4F-9453-9597BCD39B9A}"/>
   </bookViews>
@@ -18,11 +18,14 @@
     <sheet name="baseline_vs_BatterySaver" sheetId="8" r:id="rId3"/>
     <sheet name="qos_data" sheetId="9" r:id="rId4"/>
     <sheet name="qos_results" sheetId="10" r:id="rId5"/>
+    <sheet name="Qos_web" sheetId="11" r:id="rId6"/>
+    <sheet name="Qos_web_results" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId6"/>
-    <pivotCache cacheId="6" r:id="rId7"/>
+    <pivotCache cacheId="15" r:id="rId8"/>
+    <pivotCache cacheId="16" r:id="rId9"/>
+    <pivotCache cacheId="17" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4867" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5139" uniqueCount="214">
   <si>
     <t>power</t>
   </si>
@@ -306,6 +309,387 @@
   <si>
     <t>Average of Diff_Number_Missed_Vsync</t>
   </si>
+  <si>
+    <t>16:11:09</t>
+  </si>
+  <si>
+    <t>16:13:52</t>
+  </si>
+  <si>
+    <t>16:16:36</t>
+  </si>
+  <si>
+    <t>16:19:07</t>
+  </si>
+  <si>
+    <t>16:21:41</t>
+  </si>
+  <si>
+    <t>16:24:18</t>
+  </si>
+  <si>
+    <t>16:26:53</t>
+  </si>
+  <si>
+    <t>16:29:31</t>
+  </si>
+  <si>
+    <t>16:32:08</t>
+  </si>
+  <si>
+    <t>16:34:47</t>
+  </si>
+  <si>
+    <t>cores</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>16:13:29</t>
+  </si>
+  <si>
+    <t>16:16:13</t>
+  </si>
+  <si>
+    <t>16:18:44</t>
+  </si>
+  <si>
+    <t>16:21:18</t>
+  </si>
+  <si>
+    <t>16:23:55</t>
+  </si>
+  <si>
+    <t>16:26:30</t>
+  </si>
+  <si>
+    <t>16:29:08</t>
+  </si>
+  <si>
+    <t>16:31:44</t>
+  </si>
+  <si>
+    <t>16:34:24</t>
+  </si>
+  <si>
+    <t>16:36:55</t>
+  </si>
+  <si>
+    <t>1s</t>
+  </si>
+  <si>
+    <t>16:37:18</t>
+  </si>
+  <si>
+    <t>16:40:18</t>
+  </si>
+  <si>
+    <t>16:43:17</t>
+  </si>
+  <si>
+    <t>16:46:06</t>
+  </si>
+  <si>
+    <t>16:48:58</t>
+  </si>
+  <si>
+    <t>16:51:52</t>
+  </si>
+  <si>
+    <t>16:54:43</t>
+  </si>
+  <si>
+    <t>16:57:36</t>
+  </si>
+  <si>
+    <t>17:00:15</t>
+  </si>
+  <si>
+    <t>17:02:55</t>
+  </si>
+  <si>
+    <t>16:39:48</t>
+  </si>
+  <si>
+    <t>16:42:46</t>
+  </si>
+  <si>
+    <t>16:45:41</t>
+  </si>
+  <si>
+    <t>16:48:31</t>
+  </si>
+  <si>
+    <t>16:51:26</t>
+  </si>
+  <si>
+    <t>16:54:16</t>
+  </si>
+  <si>
+    <t>16:57:09</t>
+  </si>
+  <si>
+    <t>16:59:48</t>
+  </si>
+  <si>
+    <t>17:02:29</t>
+  </si>
+  <si>
+    <t>17:05:22</t>
+  </si>
+  <si>
+    <t>2s</t>
+  </si>
+  <si>
+    <t>17:05:49</t>
+  </si>
+  <si>
+    <t>17:08:34</t>
+  </si>
+  <si>
+    <t>17:11:28</t>
+  </si>
+  <si>
+    <t>17:14:18</t>
+  </si>
+  <si>
+    <t>17:17:12</t>
+  </si>
+  <si>
+    <t>17:19:56</t>
+  </si>
+  <si>
+    <t>17:22:35</t>
+  </si>
+  <si>
+    <t>17:25:15</t>
+  </si>
+  <si>
+    <t>17:28:08</t>
+  </si>
+  <si>
+    <t>17:30:50</t>
+  </si>
+  <si>
+    <t>17:08:10</t>
+  </si>
+  <si>
+    <t>17:11:04</t>
+  </si>
+  <si>
+    <t>17:13:54</t>
+  </si>
+  <si>
+    <t>17:16:48</t>
+  </si>
+  <si>
+    <t>17:19:32</t>
+  </si>
+  <si>
+    <t>17:22:11</t>
+  </si>
+  <si>
+    <t>17:24:51</t>
+  </si>
+  <si>
+    <t>17:27:44</t>
+  </si>
+  <si>
+    <t>17:30:27</t>
+  </si>
+  <si>
+    <t>17:33:11</t>
+  </si>
+  <si>
+    <t>17:33:35</t>
+  </si>
+  <si>
+    <t>17:36:25</t>
+  </si>
+  <si>
+    <t>17:39:03</t>
+  </si>
+  <si>
+    <t>17:41:45</t>
+  </si>
+  <si>
+    <t>17:44:40</t>
+  </si>
+  <si>
+    <t>17:47:21</t>
+  </si>
+  <si>
+    <t>17:50:02</t>
+  </si>
+  <si>
+    <t>17:52:49</t>
+  </si>
+  <si>
+    <t>17:55:34</t>
+  </si>
+  <si>
+    <t>17:58:15</t>
+  </si>
+  <si>
+    <t>4s</t>
+  </si>
+  <si>
+    <t>17:36:02</t>
+  </si>
+  <si>
+    <t>17:38:40</t>
+  </si>
+  <si>
+    <t>17:41:22</t>
+  </si>
+  <si>
+    <t>17:44:17</t>
+  </si>
+  <si>
+    <t>17:46:58</t>
+  </si>
+  <si>
+    <t>17:49:39</t>
+  </si>
+  <si>
+    <t>17:52:26</t>
+  </si>
+  <si>
+    <t>17:55:10</t>
+  </si>
+  <si>
+    <t>17:57:52</t>
+  </si>
+  <si>
+    <t>18:00:31</t>
+  </si>
+  <si>
+    <t>4s2m</t>
+  </si>
+  <si>
+    <t>4s2l</t>
+  </si>
+  <si>
+    <t>18:26:21</t>
+  </si>
+  <si>
+    <t>18:28:56</t>
+  </si>
+  <si>
+    <t>18:31:35</t>
+  </si>
+  <si>
+    <t>18:34:13</t>
+  </si>
+  <si>
+    <t>18:36:48</t>
+  </si>
+  <si>
+    <t>18:39:26</t>
+  </si>
+  <si>
+    <t>18:42:01</t>
+  </si>
+  <si>
+    <t>18:44:40</t>
+  </si>
+  <si>
+    <t>18:47:15</t>
+  </si>
+  <si>
+    <t>18:49:53</t>
+  </si>
+  <si>
+    <t>18:28:33</t>
+  </si>
+  <si>
+    <t>18:31:12</t>
+  </si>
+  <si>
+    <t>18:33:50</t>
+  </si>
+  <si>
+    <t>18:36:25</t>
+  </si>
+  <si>
+    <t>18:39:03</t>
+  </si>
+  <si>
+    <t>18:41:38</t>
+  </si>
+  <si>
+    <t>18:44:16</t>
+  </si>
+  <si>
+    <t>18:46:52</t>
+  </si>
+  <si>
+    <t>18:49:29</t>
+  </si>
+  <si>
+    <t>18:52:02</t>
+  </si>
+  <si>
+    <t>22:02:23</t>
+  </si>
+  <si>
+    <t>22:05:11</t>
+  </si>
+  <si>
+    <t>22:07:47</t>
+  </si>
+  <si>
+    <t>22:10:30</t>
+  </si>
+  <si>
+    <t>22:13:03</t>
+  </si>
+  <si>
+    <t>22:15:45</t>
+  </si>
+  <si>
+    <t>22:18:21</t>
+  </si>
+  <si>
+    <t>22:21:01</t>
+  </si>
+  <si>
+    <t>22:23:33</t>
+  </si>
+  <si>
+    <t>22:26:19</t>
+  </si>
+  <si>
+    <t>22:04:48</t>
+  </si>
+  <si>
+    <t>22:07:24</t>
+  </si>
+  <si>
+    <t>22:10:07</t>
+  </si>
+  <si>
+    <t>22:12:40</t>
+  </si>
+  <si>
+    <t>22:15:22</t>
+  </si>
+  <si>
+    <t>22:17:58</t>
+  </si>
+  <si>
+    <t>22:20:38</t>
+  </si>
+  <si>
+    <t>22:23:10</t>
+  </si>
+  <si>
+    <t>22:25:56</t>
+  </si>
+  <si>
+    <t>22:28:43</t>
+  </si>
 </sst>
 </file>
 
@@ -315,7 +699,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -353,6 +737,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -643,6 +1034,7 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -667,7 +1059,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3776,6 +4167,88 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45363.938705208333" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="60" xr:uid="{53B628E8-D835-4E4E-B94E-E7751ED140C6}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:T61" sheet="Qos_web"/>
+  </cacheSource>
+  <cacheFields count="20">
+    <cacheField name="app" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="cores" numFmtId="0">
+      <sharedItems count="6">
+        <s v="all"/>
+        <s v="1s"/>
+        <s v="2s"/>
+        <s v="4s"/>
+        <s v="4s2m"/>
+        <s v="4s2l"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Power" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-2.447781" maxValue="-1.4237740000000001"/>
+    </cacheField>
+    <cacheField name="Energy" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-303.60000000000002" maxValue="-193.2"/>
+    </cacheField>
+    <cacheField name="Time" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="120.158507" maxValue="138.15520000000001"/>
+    </cacheField>
+    <cacheField name="start_time" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="start_total_frame" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="19"/>
+    </cacheField>
+    <cacheField name="start_Janky_frames" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+    </cacheField>
+    <cacheField name="start_Janky_frames_legacy" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="11"/>
+    </cacheField>
+    <cacheField name="start_Number_Missed_Vsync" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
+    </cacheField>
+    <cacheField name="end_time" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="end_total_frame" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3258" maxValue="4981"/>
+    </cacheField>
+    <cacheField name="end_Janky_frames" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="45" maxValue="372"/>
+    </cacheField>
+    <cacheField name="end_Janky_frames_legacy" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="107" maxValue="2071"/>
+    </cacheField>
+    <cacheField name="end_Number_Missed_Vsync" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="60"/>
+    </cacheField>
+    <cacheField name="Diff_time" numFmtId="21">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T00:02:08" maxDate="1899-12-30T00:02:32"/>
+    </cacheField>
+    <cacheField name="Diff_total_frame" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3241" maxValue="4965"/>
+    </cacheField>
+    <cacheField name="Diff_Janky_frames" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="43" maxValue="370"/>
+    </cacheField>
+    <cacheField name="Diff_Janky_frames_legacy" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="103" maxValue="2064"/>
+    </cacheField>
+    <cacheField name="Diff_Number_Missed_Vsync" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="58"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="422">
   <r>
@@ -12220,8 +12693,1333 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="60">
+  <r>
+    <s v="web"/>
+    <x v="0"/>
+    <n v="-2.0605739999999999"/>
+    <n v="-276"/>
+    <n v="133.94325699999999"/>
+    <s v="16:11:09"/>
+    <n v="11"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="16:13:29"/>
+    <n v="4810"/>
+    <n v="101"/>
+    <n v="331"/>
+    <n v="7"/>
+    <d v="1899-12-30T00:02:20"/>
+    <n v="4799"/>
+    <n v="99"/>
+    <n v="329"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="0"/>
+    <n v="-2.2314579999999999"/>
+    <n v="-303.60000000000002"/>
+    <n v="136.054519"/>
+    <s v="16:13:52"/>
+    <n v="16"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="1"/>
+    <s v="16:16:13"/>
+    <n v="4981"/>
+    <n v="188"/>
+    <n v="479"/>
+    <n v="6"/>
+    <d v="1899-12-30T00:02:21"/>
+    <n v="4965"/>
+    <n v="185"/>
+    <n v="475"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="0"/>
+    <n v="-2.238048"/>
+    <n v="-276"/>
+    <n v="123.321731"/>
+    <s v="16:16:36"/>
+    <n v="15"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <s v="16:18:44"/>
+    <n v="4377"/>
+    <n v="154"/>
+    <n v="560"/>
+    <n v="7"/>
+    <d v="1899-12-30T00:02:08"/>
+    <n v="4362"/>
+    <n v="152"/>
+    <n v="557"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="0"/>
+    <n v="-1.951838"/>
+    <n v="-248.4"/>
+    <n v="127.26466499999999"/>
+    <s v="16:19:07"/>
+    <n v="18"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="1"/>
+    <s v="16:21:18"/>
+    <n v="4430"/>
+    <n v="179"/>
+    <n v="486"/>
+    <n v="7"/>
+    <d v="1899-12-30T00:02:11"/>
+    <n v="4412"/>
+    <n v="177"/>
+    <n v="482"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="0"/>
+    <n v="-2.1627290000000001"/>
+    <n v="-276"/>
+    <n v="127.616523"/>
+    <s v="16:21:41"/>
+    <n v="18"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="1"/>
+    <s v="16:23:55"/>
+    <n v="4630"/>
+    <n v="143"/>
+    <n v="512"/>
+    <n v="5"/>
+    <d v="1899-12-30T00:02:14"/>
+    <n v="4612"/>
+    <n v="141"/>
+    <n v="508"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="0"/>
+    <n v="-2.1391490000000002"/>
+    <n v="-276"/>
+    <n v="129.02327"/>
+    <s v="16:24:18"/>
+    <n v="18"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="1"/>
+    <s v="16:26:30"/>
+    <n v="4608"/>
+    <n v="184"/>
+    <n v="475"/>
+    <n v="5"/>
+    <d v="1899-12-30T00:02:12"/>
+    <n v="4590"/>
+    <n v="182"/>
+    <n v="469"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="0"/>
+    <n v="-2.206642"/>
+    <n v="-276"/>
+    <n v="125.07693500000001"/>
+    <s v="16:26:53"/>
+    <n v="17"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <s v="16:29:08"/>
+    <n v="4025"/>
+    <n v="198"/>
+    <n v="582"/>
+    <n v="8"/>
+    <d v="1899-12-30T00:02:15"/>
+    <n v="4008"/>
+    <n v="196"/>
+    <n v="579"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="0"/>
+    <n v="-1.973589"/>
+    <n v="-248.4"/>
+    <n v="125.862081"/>
+    <s v="16:29:31"/>
+    <n v="17"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="1"/>
+    <s v="16:31:44"/>
+    <n v="4077"/>
+    <n v="193"/>
+    <n v="573"/>
+    <n v="6"/>
+    <d v="1899-12-30T00:02:13"/>
+    <n v="4060"/>
+    <n v="190"/>
+    <n v="569"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="0"/>
+    <n v="-1.87917"/>
+    <n v="-248.4"/>
+    <n v="132.18602300000001"/>
+    <s v="16:32:08"/>
+    <n v="18"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="1"/>
+    <s v="16:34:24"/>
+    <n v="4139"/>
+    <n v="210"/>
+    <n v="562"/>
+    <n v="5"/>
+    <d v="1899-12-30T00:02:16"/>
+    <n v="4121"/>
+    <n v="208"/>
+    <n v="558"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="0"/>
+    <n v="-2.067269"/>
+    <n v="-248.4"/>
+    <n v="120.158507"/>
+    <s v="16:34:47"/>
+    <n v="17"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="1"/>
+    <s v="16:36:55"/>
+    <n v="3782"/>
+    <n v="205"/>
+    <n v="678"/>
+    <n v="6"/>
+    <d v="1899-12-30T00:02:08"/>
+    <n v="3765"/>
+    <n v="202"/>
+    <n v="673"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="1"/>
+    <n v="-1.4461189999999999"/>
+    <n v="-193.2"/>
+    <n v="133.598972"/>
+    <s v="16:37:18"/>
+    <n v="16"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="1"/>
+    <s v="16:39:48"/>
+    <n v="4425"/>
+    <n v="253"/>
+    <n v="1598"/>
+    <n v="59"/>
+    <d v="1899-12-30T00:02:30"/>
+    <n v="4409"/>
+    <n v="251"/>
+    <n v="1594"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="1"/>
+    <n v="-1.4902820000000001"/>
+    <n v="-193.2"/>
+    <n v="129.63986"/>
+    <s v="16:40:18"/>
+    <n v="8"/>
+    <n v="4"/>
+    <n v="7"/>
+    <n v="2"/>
+    <s v="16:42:46"/>
+    <n v="3636"/>
+    <n v="235"/>
+    <n v="1705"/>
+    <n v="41"/>
+    <d v="1899-12-30T00:02:28"/>
+    <n v="3628"/>
+    <n v="231"/>
+    <n v="1698"/>
+    <n v="39"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="1"/>
+    <n v="-1.453865"/>
+    <n v="-193.2"/>
+    <n v="132.887135"/>
+    <s v="16:43:17"/>
+    <n v="8"/>
+    <n v="3"/>
+    <n v="7"/>
+    <n v="3"/>
+    <s v="16:45:41"/>
+    <n v="3856"/>
+    <n v="240"/>
+    <n v="1383"/>
+    <n v="52"/>
+    <d v="1899-12-30T00:02:24"/>
+    <n v="3848"/>
+    <n v="237"/>
+    <n v="1376"/>
+    <n v="49"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="1"/>
+    <n v="-1.4424239999999999"/>
+    <n v="-193.2"/>
+    <n v="133.94118499999999"/>
+    <s v="16:46:06"/>
+    <n v="6"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="4"/>
+    <s v="16:48:31"/>
+    <n v="3883"/>
+    <n v="202"/>
+    <n v="1377"/>
+    <n v="44"/>
+    <d v="1899-12-30T00:02:25"/>
+    <n v="3877"/>
+    <n v="198"/>
+    <n v="1373"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="1"/>
+    <n v="-1.482183"/>
+    <n v="-193.2"/>
+    <n v="130.34824900000001"/>
+    <s v="16:48:58"/>
+    <n v="7"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="2"/>
+    <s v="16:51:26"/>
+    <n v="4025"/>
+    <n v="213"/>
+    <n v="1367"/>
+    <n v="37"/>
+    <d v="1899-12-30T00:02:28"/>
+    <n v="4018"/>
+    <n v="210"/>
+    <n v="1362"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="1"/>
+    <n v="-1.4237740000000001"/>
+    <n v="-193.2"/>
+    <n v="135.69566800000001"/>
+    <s v="16:51:52"/>
+    <n v="8"/>
+    <n v="4"/>
+    <n v="7"/>
+    <n v="3"/>
+    <s v="16:54:16"/>
+    <n v="3780"/>
+    <n v="239"/>
+    <n v="1341"/>
+    <n v="60"/>
+    <d v="1899-12-30T00:02:24"/>
+    <n v="3772"/>
+    <n v="235"/>
+    <n v="1334"/>
+    <n v="57"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="1"/>
+    <n v="-1.4941759999999999"/>
+    <n v="-193.2"/>
+    <n v="129.30206100000001"/>
+    <s v="16:54:43"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <s v="16:57:09"/>
+    <n v="3793"/>
+    <n v="242"/>
+    <n v="1584"/>
+    <n v="49"/>
+    <d v="1899-12-30T00:02:26"/>
+    <n v="3788"/>
+    <n v="239"/>
+    <n v="1581"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="1"/>
+    <n v="-1.4651989999999999"/>
+    <n v="-193.2"/>
+    <n v="131.85918899999999"/>
+    <s v="16:57:36"/>
+    <n v="7"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="3"/>
+    <s v="16:59:48"/>
+    <n v="3708"/>
+    <n v="221"/>
+    <n v="1697"/>
+    <n v="48"/>
+    <d v="1899-12-30T00:02:12"/>
+    <n v="3701"/>
+    <n v="217"/>
+    <n v="1692"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="1"/>
+    <n v="-1.442415"/>
+    <n v="-193.2"/>
+    <n v="133.94207299999999"/>
+    <s v="17:00:15"/>
+    <n v="8"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="4"/>
+    <s v="17:02:29"/>
+    <n v="3984"/>
+    <n v="217"/>
+    <n v="1256"/>
+    <n v="43"/>
+    <d v="1899-12-30T00:02:14"/>
+    <n v="3976"/>
+    <n v="213"/>
+    <n v="1252"/>
+    <n v="39"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="1"/>
+    <n v="-1.438644"/>
+    <n v="-193.2"/>
+    <n v="134.293128"/>
+    <s v="17:02:55"/>
+    <n v="8"/>
+    <n v="3"/>
+    <n v="7"/>
+    <n v="2"/>
+    <s v="17:05:22"/>
+    <n v="4032"/>
+    <n v="194"/>
+    <n v="2071"/>
+    <n v="41"/>
+    <d v="1899-12-30T00:02:27"/>
+    <n v="4024"/>
+    <n v="191"/>
+    <n v="2064"/>
+    <n v="39"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="2"/>
+    <n v="-1.65808"/>
+    <n v="-220.8"/>
+    <n v="133.16579999999999"/>
+    <s v="17:05:49"/>
+    <n v="7"/>
+    <n v="3"/>
+    <n v="6"/>
+    <n v="3"/>
+    <s v="17:08:10"/>
+    <n v="4075"/>
+    <n v="316"/>
+    <n v="1514"/>
+    <n v="31"/>
+    <d v="1899-12-30T00:02:21"/>
+    <n v="4068"/>
+    <n v="313"/>
+    <n v="1508"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="2"/>
+    <n v="-1.6146100000000001"/>
+    <n v="-220.8"/>
+    <n v="136.75129999999999"/>
+    <s v="17:08:34"/>
+    <n v="10"/>
+    <n v="2"/>
+    <n v="9"/>
+    <n v="2"/>
+    <s v="17:11:04"/>
+    <n v="3936"/>
+    <n v="343"/>
+    <n v="1599"/>
+    <n v="38"/>
+    <d v="1899-12-30T00:02:30"/>
+    <n v="3926"/>
+    <n v="341"/>
+    <n v="1590"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="2"/>
+    <n v="-1.6802600000000001"/>
+    <n v="-220.8"/>
+    <n v="131.40809999999999"/>
+    <s v="17:11:28"/>
+    <n v="11"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="2"/>
+    <s v="17:13:54"/>
+    <n v="4019"/>
+    <n v="273"/>
+    <n v="1655"/>
+    <n v="36"/>
+    <d v="1899-12-30T00:02:26"/>
+    <n v="4008"/>
+    <n v="270"/>
+    <n v="1650"/>
+    <n v="34"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="2"/>
+    <n v="-1.5982000000000001"/>
+    <n v="-220.8"/>
+    <n v="138.15520000000001"/>
+    <s v="17:14:18"/>
+    <n v="11"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="2"/>
+    <s v="17:16:48"/>
+    <n v="3901"/>
+    <n v="312"/>
+    <n v="1445"/>
+    <n v="32"/>
+    <d v="1899-12-30T00:02:30"/>
+    <n v="3890"/>
+    <n v="310"/>
+    <n v="1442"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="2"/>
+    <n v="-1.5223"/>
+    <n v="-193.2"/>
+    <n v="126.9131"/>
+    <s v="17:17:12"/>
+    <n v="10"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="2"/>
+    <s v="17:19:32"/>
+    <n v="3572"/>
+    <n v="245"/>
+    <n v="1224"/>
+    <n v="21"/>
+    <d v="1899-12-30T00:02:20"/>
+    <n v="3562"/>
+    <n v="242"/>
+    <n v="1221"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="2"/>
+    <n v="-1.5892999999999999"/>
+    <n v="-193.2"/>
+    <n v="121.5633"/>
+    <s v="17:19:56"/>
+    <n v="10"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="2"/>
+    <s v="17:22:11"/>
+    <n v="3509"/>
+    <n v="227"/>
+    <n v="1172"/>
+    <n v="17"/>
+    <d v="1899-12-30T00:02:15"/>
+    <n v="3499"/>
+    <n v="225"/>
+    <n v="1169"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="2"/>
+    <n v="-1.5436099999999999"/>
+    <n v="-193.2"/>
+    <n v="125.1614"/>
+    <s v="17:22:35"/>
+    <n v="10"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="3"/>
+    <s v="17:24:51"/>
+    <n v="3688"/>
+    <n v="298"/>
+    <n v="1367"/>
+    <n v="30"/>
+    <d v="1899-12-30T00:02:16"/>
+    <n v="3678"/>
+    <n v="294"/>
+    <n v="1363"/>
+    <n v="27"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="2"/>
+    <n v="-1.60206"/>
+    <n v="-220.8"/>
+    <n v="137.82249999999999"/>
+    <s v="17:25:15"/>
+    <n v="11"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="17:27:44"/>
+    <n v="4459"/>
+    <n v="372"/>
+    <n v="1566"/>
+    <n v="35"/>
+    <d v="1899-12-30T00:02:29"/>
+    <n v="4448"/>
+    <n v="370"/>
+    <n v="1564"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="2"/>
+    <n v="-1.5138400000000001"/>
+    <n v="-193.2"/>
+    <n v="127.62220000000001"/>
+    <s v="17:28:08"/>
+    <n v="11"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="3"/>
+    <s v="17:30:27"/>
+    <n v="3783"/>
+    <n v="302"/>
+    <n v="1436"/>
+    <n v="25"/>
+    <d v="1899-12-30T00:02:19"/>
+    <n v="3772"/>
+    <n v="299"/>
+    <n v="1432"/>
+    <n v="22"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="2"/>
+    <n v="-1.74457"/>
+    <n v="-220.8"/>
+    <n v="126.5643"/>
+    <s v="17:30:50"/>
+    <n v="10"/>
+    <n v="3"/>
+    <n v="7"/>
+    <n v="2"/>
+    <s v="17:33:11"/>
+    <n v="4173"/>
+    <n v="214"/>
+    <n v="1808"/>
+    <n v="36"/>
+    <d v="1899-12-30T00:02:21"/>
+    <n v="4163"/>
+    <n v="211"/>
+    <n v="1801"/>
+    <n v="34"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="3"/>
+    <n v="-1.6713549999999999"/>
+    <n v="-220.8"/>
+    <n v="132.108349"/>
+    <s v="17:33:35"/>
+    <n v="10"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="2"/>
+    <s v="17:36:02"/>
+    <n v="4154"/>
+    <n v="112"/>
+    <n v="354"/>
+    <n v="19"/>
+    <d v="1899-12-30T00:02:27"/>
+    <n v="4144"/>
+    <n v="110"/>
+    <n v="350"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="3"/>
+    <n v="-1.765293"/>
+    <n v="-220.8"/>
+    <n v="125.078366"/>
+    <s v="17:36:25"/>
+    <n v="16"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <s v="17:38:40"/>
+    <n v="3837"/>
+    <n v="141"/>
+    <n v="533"/>
+    <n v="25"/>
+    <d v="1899-12-30T00:02:15"/>
+    <n v="3821"/>
+    <n v="139"/>
+    <n v="530"/>
+    <n v="24"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="3"/>
+    <n v="-1.816208"/>
+    <n v="-220.8"/>
+    <n v="121.571989"/>
+    <s v="17:39:03"/>
+    <n v="16"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="1"/>
+    <s v="17:41:22"/>
+    <n v="4553"/>
+    <n v="139"/>
+    <n v="476"/>
+    <n v="20"/>
+    <d v="1899-12-30T00:02:19"/>
+    <n v="4537"/>
+    <n v="138"/>
+    <n v="474"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="3"/>
+    <n v="-1.6365289999999999"/>
+    <n v="-220.8"/>
+    <n v="134.919715"/>
+    <s v="17:41:45"/>
+    <n v="15"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="2"/>
+    <s v="17:44:17"/>
+    <n v="4895"/>
+    <n v="125"/>
+    <n v="279"/>
+    <n v="21"/>
+    <d v="1899-12-30T00:02:32"/>
+    <n v="4880"/>
+    <n v="122"/>
+    <n v="276"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="3"/>
+    <n v="-1.8214889999999999"/>
+    <n v="-220.8"/>
+    <n v="121.21950099999999"/>
+    <s v="17:44:40"/>
+    <n v="15"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <s v="17:46:58"/>
+    <n v="4768"/>
+    <n v="153"/>
+    <n v="548"/>
+    <n v="15"/>
+    <d v="1899-12-30T00:02:18"/>
+    <n v="4753"/>
+    <n v="151"/>
+    <n v="545"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="3"/>
+    <n v="-1.6703589999999999"/>
+    <n v="-220.8"/>
+    <n v="132.18716900000001"/>
+    <s v="17:47:21"/>
+    <n v="18"/>
+    <n v="5"/>
+    <n v="11"/>
+    <n v="2"/>
+    <s v="17:49:39"/>
+    <n v="4488"/>
+    <n v="141"/>
+    <n v="601"/>
+    <n v="14"/>
+    <d v="1899-12-30T00:02:18"/>
+    <n v="4470"/>
+    <n v="136"/>
+    <n v="590"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="3"/>
+    <n v="-1.6748209999999999"/>
+    <n v="-220.8"/>
+    <n v="131.83495400000001"/>
+    <s v="17:50:02"/>
+    <n v="16"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="3"/>
+    <s v="17:52:26"/>
+    <n v="4506"/>
+    <n v="155"/>
+    <n v="412"/>
+    <n v="24"/>
+    <d v="1899-12-30T00:02:24"/>
+    <n v="4490"/>
+    <n v="151"/>
+    <n v="408"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="3"/>
+    <n v="-1.7504710000000001"/>
+    <n v="-220.8"/>
+    <n v="126.137444"/>
+    <s v="17:52:49"/>
+    <n v="17"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="2"/>
+    <s v="17:55:10"/>
+    <n v="4472"/>
+    <n v="115"/>
+    <n v="569"/>
+    <n v="16"/>
+    <d v="1899-12-30T00:02:21"/>
+    <n v="4455"/>
+    <n v="112"/>
+    <n v="565"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="3"/>
+    <n v="-1.6703840000000001"/>
+    <n v="-220.8"/>
+    <n v="132.185146"/>
+    <s v="17:55:34"/>
+    <n v="15"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="2"/>
+    <s v="17:57:52"/>
+    <n v="4358"/>
+    <n v="127"/>
+    <n v="519"/>
+    <n v="16"/>
+    <d v="1899-12-30T00:02:18"/>
+    <n v="4343"/>
+    <n v="124"/>
+    <n v="516"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="3"/>
+    <n v="-1.680288"/>
+    <n v="-220.8"/>
+    <n v="131.40601899999999"/>
+    <s v="17:58:15"/>
+    <n v="16"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <s v="18:00:31"/>
+    <n v="4345"/>
+    <n v="132"/>
+    <n v="423"/>
+    <n v="20"/>
+    <d v="1899-12-30T00:02:16"/>
+    <n v="4329"/>
+    <n v="130"/>
+    <n v="420"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="4"/>
+    <n v="-1.87914"/>
+    <n v="-248.4"/>
+    <n v="132.188095"/>
+    <s v="22:02:23"/>
+    <n v="17"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <s v="22:04:48"/>
+    <n v="4387"/>
+    <n v="87"/>
+    <n v="315"/>
+    <n v="11"/>
+    <d v="1899-12-30T00:02:25"/>
+    <n v="4370"/>
+    <n v="85"/>
+    <n v="312"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="4"/>
+    <n v="-2.049248"/>
+    <n v="-248.4"/>
+    <n v="121.2152"/>
+    <s v="22:05:11"/>
+    <n v="18"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="1"/>
+    <s v="22:07:24"/>
+    <n v="4486"/>
+    <n v="106"/>
+    <n v="427"/>
+    <n v="9"/>
+    <d v="1899-12-30T00:02:13"/>
+    <n v="4468"/>
+    <n v="104"/>
+    <n v="423"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="4"/>
+    <n v="-2.0837189999999999"/>
+    <n v="-276"/>
+    <n v="132.455502"/>
+    <s v="22:07:47"/>
+    <n v="16"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="1"/>
+    <s v="22:10:07"/>
+    <n v="4602"/>
+    <n v="93"/>
+    <n v="332"/>
+    <n v="11"/>
+    <d v="1899-12-30T00:02:20"/>
+    <n v="4586"/>
+    <n v="91"/>
+    <n v="327"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="4"/>
+    <n v="-1.9572240000000001"/>
+    <n v="-248.4"/>
+    <n v="126.91442000000001"/>
+    <s v="22:10:30"/>
+    <n v="18"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="1"/>
+    <s v="22:12:40"/>
+    <n v="4446"/>
+    <n v="93"/>
+    <n v="439"/>
+    <n v="8"/>
+    <d v="1899-12-30T00:02:10"/>
+    <n v="4428"/>
+    <n v="91"/>
+    <n v="435"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="4"/>
+    <n v="-2.0672109999999999"/>
+    <n v="-248.4"/>
+    <n v="120.161908"/>
+    <s v="22:13:03"/>
+    <n v="17"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <s v="22:15:22"/>
+    <n v="4478"/>
+    <n v="78"/>
+    <n v="154"/>
+    <n v="8"/>
+    <d v="1899-12-30T00:02:19"/>
+    <n v="4461"/>
+    <n v="76"/>
+    <n v="151"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="4"/>
+    <n v="-2.060918"/>
+    <n v="-276"/>
+    <n v="133.920883"/>
+    <s v="22:15:45"/>
+    <n v="17"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <s v="22:17:58"/>
+    <n v="4320"/>
+    <n v="90"/>
+    <n v="275"/>
+    <n v="15"/>
+    <d v="1899-12-30T00:02:13"/>
+    <n v="4303"/>
+    <n v="88"/>
+    <n v="272"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="4"/>
+    <n v="-1.9971110000000001"/>
+    <n v="-248.4"/>
+    <n v="124.379649"/>
+    <s v="22:18:21"/>
+    <n v="15"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <s v="22:20:38"/>
+    <n v="4340"/>
+    <n v="87"/>
+    <n v="460"/>
+    <n v="7"/>
+    <d v="1899-12-30T00:02:17"/>
+    <n v="4325"/>
+    <n v="85"/>
+    <n v="457"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="4"/>
+    <n v="-1.8006580000000001"/>
+    <n v="-220.8"/>
+    <n v="122.621865"/>
+    <s v="22:21:01"/>
+    <n v="15"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <s v="22:23:10"/>
+    <n v="4427"/>
+    <n v="80"/>
+    <n v="279"/>
+    <n v="9"/>
+    <d v="1899-12-30T00:02:09"/>
+    <n v="4412"/>
+    <n v="78"/>
+    <n v="276"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="4"/>
+    <n v="-1.745698"/>
+    <n v="-220.8"/>
+    <n v="126.482376"/>
+    <s v="22:23:33"/>
+    <n v="18"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="1"/>
+    <s v="22:25:56"/>
+    <n v="3751"/>
+    <n v="70"/>
+    <n v="336"/>
+    <n v="10"/>
+    <d v="1899-12-30T00:02:23"/>
+    <n v="3733"/>
+    <n v="68"/>
+    <n v="332"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="4"/>
+    <n v="-1.9252370000000001"/>
+    <n v="-248.4"/>
+    <n v="129.02305100000001"/>
+    <s v="22:26:19"/>
+    <n v="18"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="1"/>
+    <s v="22:28:43"/>
+    <n v="4466"/>
+    <n v="74"/>
+    <n v="179"/>
+    <n v="8"/>
+    <d v="1899-12-30T00:02:24"/>
+    <n v="4448"/>
+    <n v="72"/>
+    <n v="173"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="5"/>
+    <n v="-2.447781"/>
+    <n v="-303.60000000000002"/>
+    <n v="124.030692"/>
+    <s v="18:26:21"/>
+    <n v="17"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <s v="18:28:33"/>
+    <n v="4292"/>
+    <n v="68"/>
+    <n v="202"/>
+    <n v="7"/>
+    <d v="1899-12-30T00:02:12"/>
+    <n v="4275"/>
+    <n v="66"/>
+    <n v="199"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="5"/>
+    <n v="-2.3672629999999999"/>
+    <n v="-303.60000000000002"/>
+    <n v="128.24937800000001"/>
+    <s v="18:28:56"/>
+    <n v="16"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="1"/>
+    <s v="18:31:12"/>
+    <n v="4331"/>
+    <n v="63"/>
+    <n v="256"/>
+    <n v="8"/>
+    <d v="1899-12-30T00:02:16"/>
+    <n v="4315"/>
+    <n v="61"/>
+    <n v="252"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="5"/>
+    <n v="-2.1880709999999999"/>
+    <n v="-276"/>
+    <n v="126.138513"/>
+    <s v="18:31:35"/>
+    <n v="18"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <s v="18:33:50"/>
+    <n v="4306"/>
+    <n v="62"/>
+    <n v="183"/>
+    <n v="7"/>
+    <d v="1899-12-30T00:02:15"/>
+    <n v="4288"/>
+    <n v="60"/>
+    <n v="180"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="5"/>
+    <n v="-2.1686139999999998"/>
+    <n v="-276"/>
+    <n v="127.270224"/>
+    <s v="18:34:13"/>
+    <n v="15"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="1"/>
+    <s v="18:36:25"/>
+    <n v="4209"/>
+    <n v="57"/>
+    <n v="141"/>
+    <n v="9"/>
+    <d v="1899-12-30T00:02:12"/>
+    <n v="4194"/>
+    <n v="55"/>
+    <n v="137"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="5"/>
+    <n v="-2.1002589999999999"/>
+    <n v="-276"/>
+    <n v="131.41235699999999"/>
+    <s v="18:36:48"/>
+    <n v="19"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="1"/>
+    <s v="18:39:03"/>
+    <n v="4228"/>
+    <n v="50"/>
+    <n v="159"/>
+    <n v="8"/>
+    <d v="1899-12-30T00:02:15"/>
+    <n v="4209"/>
+    <n v="48"/>
+    <n v="155"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="5"/>
+    <n v="-2.1103010000000002"/>
+    <n v="-276"/>
+    <n v="130.78705500000001"/>
+    <s v="18:39:26"/>
+    <n v="17"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="1"/>
+    <s v="18:41:38"/>
+    <n v="3258"/>
+    <n v="46"/>
+    <n v="107"/>
+    <n v="7"/>
+    <d v="1899-12-30T00:02:12"/>
+    <n v="3241"/>
+    <n v="43"/>
+    <n v="103"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="5"/>
+    <n v="-2.2003270000000001"/>
+    <n v="-276"/>
+    <n v="125.43588200000001"/>
+    <s v="18:42:01"/>
+    <n v="19"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="1"/>
+    <s v="18:44:16"/>
+    <n v="4052"/>
+    <n v="101"/>
+    <n v="398"/>
+    <n v="7"/>
+    <d v="1899-12-30T00:02:15"/>
+    <n v="4033"/>
+    <n v="99"/>
+    <n v="392"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="5"/>
+    <n v="-2.2050990000000001"/>
+    <n v="-276"/>
+    <n v="125.164452"/>
+    <s v="18:44:40"/>
+    <n v="17"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <s v="18:46:52"/>
+    <n v="3894"/>
+    <n v="54"/>
+    <n v="322"/>
+    <n v="8"/>
+    <d v="1899-12-30T00:02:12"/>
+    <n v="3877"/>
+    <n v="52"/>
+    <n v="319"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="5"/>
+    <n v="-2.3416290000000002"/>
+    <n v="-303.60000000000002"/>
+    <n v="129.65331"/>
+    <s v="18:47:15"/>
+    <n v="17"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="1"/>
+    <s v="18:49:29"/>
+    <n v="4089"/>
+    <n v="173"/>
+    <n v="477"/>
+    <n v="11"/>
+    <d v="1899-12-30T00:02:14"/>
+    <n v="4072"/>
+    <n v="171"/>
+    <n v="473"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <s v="web"/>
+    <x v="5"/>
+    <n v="-2.0141650000000002"/>
+    <n v="-248.4"/>
+    <n v="123.32654100000001"/>
+    <s v="18:49:53"/>
+    <n v="17"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="1"/>
+    <s v="18:52:02"/>
+    <n v="3752"/>
+    <n v="45"/>
+    <n v="189"/>
+    <n v="5"/>
+    <d v="1899-12-30T00:02:09"/>
+    <n v="3735"/>
+    <n v="43"/>
+    <n v="184"/>
+    <n v="4"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B003860-75F0-4244-9EFE-509E78544668}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B003860-75F0-4244-9EFE-509E78544668}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A12:C47" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="9" colPageCount="1"/>
   <pivotFields count="15">
     <pivotField dataField="1" showAll="0"/>
@@ -12529,7 +14327,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{602FBD2F-3E8B-BB4B-B8CB-A76481BF6FD9}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{602FBD2F-3E8B-BB4B-B8CB-A76481BF6FD9}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="19">
     <pivotField axis="axisRow" showAll="0">
@@ -12610,6 +14408,102 @@
     <dataField name="Average of Diff_Janky_frames" fld="16" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="Average of Diff_Janky_frames_legacy" fld="17" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="Average of Diff_Number_Missed_Vsync" fld="18" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BAD00B5B-65A2-BA4E-B5FF-9DA7873339C6}" name="PivotTable2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="20">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="21" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="Average of Diff_total_frame" fld="16" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of Diff_Janky_frames" fld="17" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of Diff_Janky_frames_legacy" fld="18" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of Diff_Number_Missed_Vsync" fld="19" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -33463,34 +35357,34 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29" t="s">
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29" t="s">
+      <c r="K3" s="30"/>
+      <c r="L3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="29"/>
-      <c r="P3" s="29" t="s">
+      <c r="M3" s="30"/>
+      <c r="P3" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29" t="s">
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29" t="s">
+      <c r="T3" s="30"/>
+      <c r="U3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="29"/>
+      <c r="V3" s="30"/>
     </row>
     <row r="4" spans="4:34" x14ac:dyDescent="0.2">
       <c r="E4" t="s">
@@ -33631,23 +35525,23 @@
       <c r="R6" s="6">
         <v>127.961207</v>
       </c>
-      <c r="X6" s="33" t="s">
+      <c r="X6" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="Y6" s="30" t="s">
+      <c r="Y6" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="32"/>
-      <c r="AD6" s="30" t="s">
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="AE6" s="36"/>
-      <c r="AF6" s="36"/>
-      <c r="AG6" s="36"/>
-      <c r="AH6" s="32"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="37"/>
+      <c r="AH6" s="33"/>
     </row>
     <row r="7" spans="4:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D7">
@@ -33677,26 +35571,26 @@
       <c r="R7" s="6">
         <v>152.555452</v>
       </c>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="30" t="s">
+      <c r="X7" s="35"/>
+      <c r="Y7" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="30" t="s">
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="AB7" s="31"/>
+      <c r="AB7" s="32"/>
       <c r="AC7" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AD7" s="30" t="s">
+      <c r="AD7" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="30" t="s">
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="AG7" s="32"/>
+      <c r="AG7" s="33"/>
       <c r="AH7" s="12" t="s">
         <v>42</v>
       </c>
@@ -33729,7 +35623,7 @@
       <c r="R8" s="6">
         <v>126.219352</v>
       </c>
-      <c r="X8" s="35"/>
+      <c r="X8" s="36"/>
       <c r="Y8" s="13" t="s">
         <v>43</v>
       </c>
@@ -34575,8 +36469,8 @@
       </c>
       <c r="U27" s="5"/>
       <c r="V27" s="5"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
     </row>
     <row r="28" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D28">
@@ -35777,8 +37671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0219BCBC-716A-5940-81AB-4D60E7D624CF}">
   <dimension ref="C1:U88"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -39792,7 +41686,7 @@
   <dimension ref="A3:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -39825,16 +41719,16 @@
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4">
         <v>212.2</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4">
         <v>3.4</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4">
         <v>19.7</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4">
         <v>0.3</v>
       </c>
     </row>
@@ -39842,16 +41736,16 @@
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5">
         <v>535.4</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5">
         <v>4.3</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5">
         <v>312.60000000000002</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5">
         <v>0.4</v>
       </c>
     </row>
@@ -39859,16 +41753,16 @@
       <c r="A6" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6">
         <v>2074.4</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6">
         <v>40.799999999999997</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6">
         <v>112.2</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6">
         <v>14.5</v>
       </c>
     </row>
@@ -39876,16 +41770,16 @@
       <c r="A7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7">
         <v>3417.4</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7">
         <v>36</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7">
         <v>78.2</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7">
         <v>4.2</v>
       </c>
     </row>
@@ -39893,16 +41787,16 @@
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8">
         <v>5621.4</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8">
         <v>9.6999999999999993</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8">
         <v>17.899999999999999</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8">
         <v>5.5</v>
       </c>
     </row>
@@ -39910,16 +41804,16 @@
       <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9">
         <v>4543.7</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9">
         <v>74.400000000000006</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9">
         <v>847.8</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9">
         <v>5.3</v>
       </c>
     </row>
@@ -39927,17 +41821,4277 @@
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10">
         <v>2734.0833333333335</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10">
         <v>28.1</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10">
         <v>231.4</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10">
         <v>5.0333333333333332</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71233BDE-C5F2-DA48-A8F4-6336361E2806}">
+  <dimension ref="A1:T61"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="V46" sqref="V46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="18" max="18" width="13.5" customWidth="1"/>
+    <col min="19" max="19" width="16.5" customWidth="1"/>
+    <col min="20" max="20" width="27.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2">
+        <v>-2.0605739999999999</v>
+      </c>
+      <c r="D2">
+        <v>-276</v>
+      </c>
+      <c r="E2">
+        <v>133.94325699999999</v>
+      </c>
+      <c r="F2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L2">
+        <v>4810</v>
+      </c>
+      <c r="M2">
+        <v>101</v>
+      </c>
+      <c r="N2">
+        <v>331</v>
+      </c>
+      <c r="O2">
+        <v>7</v>
+      </c>
+      <c r="P2" s="26">
+        <f>K2-F2</f>
+        <v>1.6203703703704386E-3</v>
+      </c>
+      <c r="Q2">
+        <f>L2-G2</f>
+        <v>4799</v>
+      </c>
+      <c r="R2">
+        <f>M2-H2</f>
+        <v>99</v>
+      </c>
+      <c r="S2">
+        <f>N2-I2</f>
+        <v>329</v>
+      </c>
+      <c r="T2">
+        <f>O2-J2</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3">
+        <v>-2.2314579999999999</v>
+      </c>
+      <c r="D3">
+        <v>-303.60000000000002</v>
+      </c>
+      <c r="E3">
+        <v>136.054519</v>
+      </c>
+      <c r="F3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L3">
+        <v>4981</v>
+      </c>
+      <c r="M3">
+        <v>188</v>
+      </c>
+      <c r="N3">
+        <v>479</v>
+      </c>
+      <c r="O3">
+        <v>6</v>
+      </c>
+      <c r="P3" s="26">
+        <f t="shared" ref="P3:P10" si="0">K3-F3</f>
+        <v>1.6319444444444775E-3</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q10" si="1">L3-G3</f>
+        <v>4965</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R10" si="2">M3-H3</f>
+        <v>185</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S10" si="3">N3-I3</f>
+        <v>475</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T10" si="4">O3-J3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4">
+        <v>-2.238048</v>
+      </c>
+      <c r="D4">
+        <v>-276</v>
+      </c>
+      <c r="E4">
+        <v>123.321731</v>
+      </c>
+      <c r="F4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4">
+        <v>4377</v>
+      </c>
+      <c r="M4">
+        <v>154</v>
+      </c>
+      <c r="N4">
+        <v>560</v>
+      </c>
+      <c r="O4">
+        <v>7</v>
+      </c>
+      <c r="P4" s="26">
+        <f t="shared" si="0"/>
+        <v>1.481481481481528E-3</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>4362</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="3"/>
+        <v>557</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5">
+        <v>-1.951838</v>
+      </c>
+      <c r="D5">
+        <v>-248.4</v>
+      </c>
+      <c r="E5">
+        <v>127.26466499999999</v>
+      </c>
+      <c r="F5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L5">
+        <v>4430</v>
+      </c>
+      <c r="M5">
+        <v>179</v>
+      </c>
+      <c r="N5">
+        <v>486</v>
+      </c>
+      <c r="O5">
+        <v>7</v>
+      </c>
+      <c r="P5" s="26">
+        <f t="shared" si="0"/>
+        <v>1.5162037037037557E-3</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>4412</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="2"/>
+        <v>177</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="3"/>
+        <v>482</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6">
+        <v>-2.1627290000000001</v>
+      </c>
+      <c r="D6">
+        <v>-276</v>
+      </c>
+      <c r="E6">
+        <v>127.616523</v>
+      </c>
+      <c r="F6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6">
+        <v>18</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L6">
+        <v>4630</v>
+      </c>
+      <c r="M6">
+        <v>143</v>
+      </c>
+      <c r="N6">
+        <v>512</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6" s="26">
+        <f t="shared" si="0"/>
+        <v>1.5509259259258723E-3</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>4612</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="3"/>
+        <v>508</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7">
+        <v>-2.1391490000000002</v>
+      </c>
+      <c r="D7">
+        <v>-276</v>
+      </c>
+      <c r="E7">
+        <v>129.02327</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7">
+        <v>18</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L7">
+        <v>4608</v>
+      </c>
+      <c r="M7">
+        <v>184</v>
+      </c>
+      <c r="N7">
+        <v>475</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7" s="26">
+        <f t="shared" si="0"/>
+        <v>1.5277777777776835E-3</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>4590</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="2"/>
+        <v>182</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="3"/>
+        <v>469</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8">
+        <v>-2.206642</v>
+      </c>
+      <c r="D8">
+        <v>-276</v>
+      </c>
+      <c r="E8">
+        <v>125.07693500000001</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8">
+        <v>17</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8">
+        <v>4025</v>
+      </c>
+      <c r="M8">
+        <v>198</v>
+      </c>
+      <c r="N8">
+        <v>582</v>
+      </c>
+      <c r="O8">
+        <v>8</v>
+      </c>
+      <c r="P8" s="26">
+        <f t="shared" si="0"/>
+        <v>1.5625000000000222E-3</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>4008</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="2"/>
+        <v>196</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="3"/>
+        <v>579</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9">
+        <v>-1.973589</v>
+      </c>
+      <c r="D9">
+        <v>-248.4</v>
+      </c>
+      <c r="E9">
+        <v>125.862081</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9">
+        <v>17</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9">
+        <v>4077</v>
+      </c>
+      <c r="M9">
+        <v>193</v>
+      </c>
+      <c r="N9">
+        <v>573</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
+      <c r="P9" s="26">
+        <f t="shared" si="0"/>
+        <v>1.5393518518518334E-3</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>4060</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="3"/>
+        <v>569</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10">
+        <v>-1.87917</v>
+      </c>
+      <c r="D10">
+        <v>-248.4</v>
+      </c>
+      <c r="E10">
+        <v>132.18602300000001</v>
+      </c>
+      <c r="F10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10">
+        <v>18</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10">
+        <v>4139</v>
+      </c>
+      <c r="M10">
+        <v>210</v>
+      </c>
+      <c r="N10">
+        <v>562</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10" s="26">
+        <f t="shared" si="0"/>
+        <v>1.5740740740740611E-3</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>4121</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>208</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="3"/>
+        <v>558</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11">
+        <v>-2.067269</v>
+      </c>
+      <c r="D11">
+        <v>-248.4</v>
+      </c>
+      <c r="E11">
+        <v>120.158507</v>
+      </c>
+      <c r="F11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11">
+        <v>17</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11">
+        <v>3782</v>
+      </c>
+      <c r="M11">
+        <v>205</v>
+      </c>
+      <c r="N11">
+        <v>678</v>
+      </c>
+      <c r="O11">
+        <v>6</v>
+      </c>
+      <c r="P11" s="26">
+        <f>K11-F11</f>
+        <v>1.481481481481528E-3</v>
+      </c>
+      <c r="Q11">
+        <f>L11-G11</f>
+        <v>3765</v>
+      </c>
+      <c r="R11">
+        <f>M11-H11</f>
+        <v>202</v>
+      </c>
+      <c r="S11">
+        <f>N11-I11</f>
+        <v>673</v>
+      </c>
+      <c r="T11">
+        <f>O11-J11</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12">
+        <v>-1.4461189999999999</v>
+      </c>
+      <c r="D12">
+        <v>-193.2</v>
+      </c>
+      <c r="E12">
+        <v>133.598972</v>
+      </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12">
+        <v>16</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12">
+        <v>4425</v>
+      </c>
+      <c r="M12">
+        <v>253</v>
+      </c>
+      <c r="N12">
+        <v>1598</v>
+      </c>
+      <c r="O12">
+        <v>59</v>
+      </c>
+      <c r="P12" s="26">
+        <f t="shared" ref="P12:P21" si="5">K12-F12</f>
+        <v>1.7361111111110494E-3</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" ref="Q12:Q21" si="6">L12-G12</f>
+        <v>4409</v>
+      </c>
+      <c r="R12">
+        <f t="shared" ref="R12:R21" si="7">M12-H12</f>
+        <v>251</v>
+      </c>
+      <c r="S12">
+        <f t="shared" ref="S12:S21" si="8">N12-I12</f>
+        <v>1594</v>
+      </c>
+      <c r="T12">
+        <f t="shared" ref="T12:T31" si="9">O12-J12</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13">
+        <v>-1.4902820000000001</v>
+      </c>
+      <c r="D13">
+        <v>-193.2</v>
+      </c>
+      <c r="E13">
+        <v>129.63986</v>
+      </c>
+      <c r="F13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>7</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13">
+        <v>3636</v>
+      </c>
+      <c r="M13">
+        <v>235</v>
+      </c>
+      <c r="N13">
+        <v>1705</v>
+      </c>
+      <c r="O13">
+        <v>41</v>
+      </c>
+      <c r="P13" s="26">
+        <f t="shared" si="5"/>
+        <v>1.7129629629629717E-3</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="6"/>
+        <v>3628</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="7"/>
+        <v>231</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="8"/>
+        <v>1698</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="9"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14">
+        <v>-1.453865</v>
+      </c>
+      <c r="D14">
+        <v>-193.2</v>
+      </c>
+      <c r="E14">
+        <v>132.887135</v>
+      </c>
+      <c r="F14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>7</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14" t="s">
+        <v>122</v>
+      </c>
+      <c r="L14">
+        <v>3856</v>
+      </c>
+      <c r="M14">
+        <v>240</v>
+      </c>
+      <c r="N14">
+        <v>1383</v>
+      </c>
+      <c r="O14">
+        <v>52</v>
+      </c>
+      <c r="P14" s="26">
+        <f t="shared" si="5"/>
+        <v>1.6666666666665941E-3</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="6"/>
+        <v>3848</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="7"/>
+        <v>237</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="8"/>
+        <v>1376</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15">
+        <v>-1.4424239999999999</v>
+      </c>
+      <c r="D15">
+        <v>-193.2</v>
+      </c>
+      <c r="E15">
+        <v>133.94118499999999</v>
+      </c>
+      <c r="F15" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15" t="s">
+        <v>123</v>
+      </c>
+      <c r="L15">
+        <v>3883</v>
+      </c>
+      <c r="M15">
+        <v>202</v>
+      </c>
+      <c r="N15">
+        <v>1377</v>
+      </c>
+      <c r="O15">
+        <v>44</v>
+      </c>
+      <c r="P15" s="26">
+        <f t="shared" si="5"/>
+        <v>1.678240740740744E-3</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="6"/>
+        <v>3877</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="7"/>
+        <v>198</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="8"/>
+        <v>1373</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16">
+        <v>-1.482183</v>
+      </c>
+      <c r="D16">
+        <v>-193.2</v>
+      </c>
+      <c r="E16">
+        <v>130.34824900000001</v>
+      </c>
+      <c r="F16" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16" t="s">
+        <v>124</v>
+      </c>
+      <c r="L16">
+        <v>4025</v>
+      </c>
+      <c r="M16">
+        <v>213</v>
+      </c>
+      <c r="N16">
+        <v>1367</v>
+      </c>
+      <c r="O16">
+        <v>37</v>
+      </c>
+      <c r="P16" s="26">
+        <f t="shared" si="5"/>
+        <v>1.7129629629629717E-3</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="6"/>
+        <v>4018</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="8"/>
+        <v>1362</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17">
+        <v>-1.4237740000000001</v>
+      </c>
+      <c r="D17">
+        <v>-193.2</v>
+      </c>
+      <c r="E17">
+        <v>135.69566800000001</v>
+      </c>
+      <c r="F17" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>7</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17" t="s">
+        <v>125</v>
+      </c>
+      <c r="L17">
+        <v>3780</v>
+      </c>
+      <c r="M17">
+        <v>239</v>
+      </c>
+      <c r="N17">
+        <v>1341</v>
+      </c>
+      <c r="O17">
+        <v>60</v>
+      </c>
+      <c r="P17" s="26">
+        <f t="shared" si="5"/>
+        <v>1.6666666666667052E-3</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="6"/>
+        <v>3772</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="7"/>
+        <v>235</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="8"/>
+        <v>1334</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="9"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18">
+        <v>-1.4941759999999999</v>
+      </c>
+      <c r="D18">
+        <v>-193.2</v>
+      </c>
+      <c r="E18">
+        <v>129.30206100000001</v>
+      </c>
+      <c r="F18" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18" t="s">
+        <v>126</v>
+      </c>
+      <c r="L18">
+        <v>3793</v>
+      </c>
+      <c r="M18">
+        <v>242</v>
+      </c>
+      <c r="N18">
+        <v>1584</v>
+      </c>
+      <c r="O18">
+        <v>49</v>
+      </c>
+      <c r="P18" s="26">
+        <f t="shared" si="5"/>
+        <v>1.6898148148147829E-3</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="6"/>
+        <v>3788</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="7"/>
+        <v>239</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="8"/>
+        <v>1581</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="9"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19">
+        <v>-1.4651989999999999</v>
+      </c>
+      <c r="D19">
+        <v>-193.2</v>
+      </c>
+      <c r="E19">
+        <v>131.85918899999999</v>
+      </c>
+      <c r="F19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19" t="s">
+        <v>127</v>
+      </c>
+      <c r="L19">
+        <v>3708</v>
+      </c>
+      <c r="M19">
+        <v>221</v>
+      </c>
+      <c r="N19">
+        <v>1697</v>
+      </c>
+      <c r="O19">
+        <v>48</v>
+      </c>
+      <c r="P19" s="26">
+        <f t="shared" si="5"/>
+        <v>1.5277777777777946E-3</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="6"/>
+        <v>3701</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="7"/>
+        <v>217</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="8"/>
+        <v>1692</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20">
+        <v>-1.442415</v>
+      </c>
+      <c r="D20">
+        <v>-193.2</v>
+      </c>
+      <c r="E20">
+        <v>133.94207299999999</v>
+      </c>
+      <c r="F20" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20">
+        <v>8</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20" t="s">
+        <v>128</v>
+      </c>
+      <c r="L20">
+        <v>3984</v>
+      </c>
+      <c r="M20">
+        <v>217</v>
+      </c>
+      <c r="N20">
+        <v>1256</v>
+      </c>
+      <c r="O20">
+        <v>43</v>
+      </c>
+      <c r="P20" s="26">
+        <f t="shared" si="5"/>
+        <v>1.5509259259259833E-3</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="6"/>
+        <v>3976</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="7"/>
+        <v>213</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="8"/>
+        <v>1252</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="9"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21">
+        <v>-1.438644</v>
+      </c>
+      <c r="D21">
+        <v>-193.2</v>
+      </c>
+      <c r="E21">
+        <v>134.293128</v>
+      </c>
+      <c r="F21" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>7</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21" t="s">
+        <v>129</v>
+      </c>
+      <c r="L21">
+        <v>4032</v>
+      </c>
+      <c r="M21">
+        <v>194</v>
+      </c>
+      <c r="N21">
+        <v>2071</v>
+      </c>
+      <c r="O21">
+        <v>41</v>
+      </c>
+      <c r="P21" s="26">
+        <f t="shared" si="5"/>
+        <v>1.7013888888889328E-3</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="6"/>
+        <v>4024</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="7"/>
+        <v>191</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="8"/>
+        <v>2064</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="9"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="29">
+        <v>-1.65808</v>
+      </c>
+      <c r="D22" s="29">
+        <v>-220.8</v>
+      </c>
+      <c r="E22" s="29">
+        <v>133.16579999999999</v>
+      </c>
+      <c r="F22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22">
+        <v>7</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>6</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22" t="s">
+        <v>141</v>
+      </c>
+      <c r="L22">
+        <v>4075</v>
+      </c>
+      <c r="M22">
+        <v>316</v>
+      </c>
+      <c r="N22">
+        <v>1514</v>
+      </c>
+      <c r="O22">
+        <v>31</v>
+      </c>
+      <c r="P22" s="26">
+        <f t="shared" ref="P22:P31" si="10">K22-F22</f>
+        <v>1.6319444444444775E-3</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" ref="Q22:Q31" si="11">L22-G22</f>
+        <v>4068</v>
+      </c>
+      <c r="R22">
+        <f t="shared" ref="R22:R31" si="12">M22-H22</f>
+        <v>313</v>
+      </c>
+      <c r="S22">
+        <f t="shared" ref="S22:S31" si="13">N22-I22</f>
+        <v>1508</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="29">
+        <v>-1.6146100000000001</v>
+      </c>
+      <c r="D23" s="29">
+        <v>-220.8</v>
+      </c>
+      <c r="E23" s="29">
+        <v>136.75129999999999</v>
+      </c>
+      <c r="F23" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>9</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23" t="s">
+        <v>142</v>
+      </c>
+      <c r="L23">
+        <v>3936</v>
+      </c>
+      <c r="M23">
+        <v>343</v>
+      </c>
+      <c r="N23">
+        <v>1599</v>
+      </c>
+      <c r="O23">
+        <v>38</v>
+      </c>
+      <c r="P23" s="26">
+        <f t="shared" si="10"/>
+        <v>1.7361111111110494E-3</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="11"/>
+        <v>3926</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="12"/>
+        <v>341</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="13"/>
+        <v>1590</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="29">
+        <v>-1.6802600000000001</v>
+      </c>
+      <c r="D24" s="29">
+        <v>-220.8</v>
+      </c>
+      <c r="E24" s="29">
+        <v>131.40809999999999</v>
+      </c>
+      <c r="F24" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24">
+        <v>11</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24" t="s">
+        <v>143</v>
+      </c>
+      <c r="L24">
+        <v>4019</v>
+      </c>
+      <c r="M24">
+        <v>273</v>
+      </c>
+      <c r="N24">
+        <v>1655</v>
+      </c>
+      <c r="O24">
+        <v>36</v>
+      </c>
+      <c r="P24" s="26">
+        <f t="shared" si="10"/>
+        <v>1.6898148148147829E-3</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="11"/>
+        <v>4008</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="12"/>
+        <v>270</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="13"/>
+        <v>1650</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="9"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="29">
+        <v>-1.5982000000000001</v>
+      </c>
+      <c r="D25" s="29">
+        <v>-220.8</v>
+      </c>
+      <c r="E25" s="29">
+        <v>138.15520000000001</v>
+      </c>
+      <c r="F25" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25">
+        <v>11</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25" t="s">
+        <v>144</v>
+      </c>
+      <c r="L25">
+        <v>3901</v>
+      </c>
+      <c r="M25">
+        <v>312</v>
+      </c>
+      <c r="N25">
+        <v>1445</v>
+      </c>
+      <c r="O25">
+        <v>32</v>
+      </c>
+      <c r="P25" s="26">
+        <f t="shared" si="10"/>
+        <v>1.7361111111110494E-3</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="11"/>
+        <v>3890</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="12"/>
+        <v>310</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="13"/>
+        <v>1442</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="29">
+        <v>-1.5223</v>
+      </c>
+      <c r="D26" s="29">
+        <v>-193.2</v>
+      </c>
+      <c r="E26" s="29">
+        <v>126.9131</v>
+      </c>
+      <c r="F26" t="s">
+        <v>135</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26" t="s">
+        <v>145</v>
+      </c>
+      <c r="L26">
+        <v>3572</v>
+      </c>
+      <c r="M26">
+        <v>245</v>
+      </c>
+      <c r="N26">
+        <v>1224</v>
+      </c>
+      <c r="O26">
+        <v>21</v>
+      </c>
+      <c r="P26" s="26">
+        <f t="shared" si="10"/>
+        <v>1.6203703703703276E-3</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="11"/>
+        <v>3562</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="12"/>
+        <v>242</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="13"/>
+        <v>1221</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="9"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="29">
+        <v>-1.5892999999999999</v>
+      </c>
+      <c r="D27" s="29">
+        <v>-193.2</v>
+      </c>
+      <c r="E27" s="29">
+        <v>121.5633</v>
+      </c>
+      <c r="F27" t="s">
+        <v>136</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27" t="s">
+        <v>146</v>
+      </c>
+      <c r="L27">
+        <v>3509</v>
+      </c>
+      <c r="M27">
+        <v>227</v>
+      </c>
+      <c r="N27">
+        <v>1172</v>
+      </c>
+      <c r="O27">
+        <v>17</v>
+      </c>
+      <c r="P27" s="26">
+        <f t="shared" si="10"/>
+        <v>1.5625000000000222E-3</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="11"/>
+        <v>3499</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="12"/>
+        <v>225</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="13"/>
+        <v>1169</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="29">
+        <v>-1.5436099999999999</v>
+      </c>
+      <c r="D28" s="29">
+        <v>-193.2</v>
+      </c>
+      <c r="E28" s="29">
+        <v>125.1614</v>
+      </c>
+      <c r="F28" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28" t="s">
+        <v>147</v>
+      </c>
+      <c r="L28">
+        <v>3688</v>
+      </c>
+      <c r="M28">
+        <v>298</v>
+      </c>
+      <c r="N28">
+        <v>1367</v>
+      </c>
+      <c r="O28">
+        <v>30</v>
+      </c>
+      <c r="P28" s="26">
+        <f t="shared" si="10"/>
+        <v>1.5740740740740611E-3</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="11"/>
+        <v>3678</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="12"/>
+        <v>294</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="13"/>
+        <v>1363</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="9"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="29">
+        <v>-1.60206</v>
+      </c>
+      <c r="D29" s="29">
+        <v>-220.8</v>
+      </c>
+      <c r="E29" s="29">
+        <v>137.82249999999999</v>
+      </c>
+      <c r="F29" t="s">
+        <v>138</v>
+      </c>
+      <c r="G29">
+        <v>11</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29" t="s">
+        <v>148</v>
+      </c>
+      <c r="L29">
+        <v>4459</v>
+      </c>
+      <c r="M29">
+        <v>372</v>
+      </c>
+      <c r="N29">
+        <v>1566</v>
+      </c>
+      <c r="O29">
+        <v>35</v>
+      </c>
+      <c r="P29" s="26">
+        <f t="shared" si="10"/>
+        <v>1.7245370370370106E-3</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="11"/>
+        <v>4448</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="12"/>
+        <v>370</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="13"/>
+        <v>1564</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="29">
+        <v>-1.5138400000000001</v>
+      </c>
+      <c r="D30" s="29">
+        <v>-193.2</v>
+      </c>
+      <c r="E30" s="29">
+        <v>127.62220000000001</v>
+      </c>
+      <c r="F30" t="s">
+        <v>139</v>
+      </c>
+      <c r="G30">
+        <v>11</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30" t="s">
+        <v>149</v>
+      </c>
+      <c r="L30">
+        <v>3783</v>
+      </c>
+      <c r="M30">
+        <v>302</v>
+      </c>
+      <c r="N30">
+        <v>1436</v>
+      </c>
+      <c r="O30">
+        <v>25</v>
+      </c>
+      <c r="P30" s="26">
+        <f t="shared" si="10"/>
+        <v>1.6087962962962887E-3</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="11"/>
+        <v>3772</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="12"/>
+        <v>299</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="13"/>
+        <v>1432</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="29">
+        <v>-1.74457</v>
+      </c>
+      <c r="D31" s="29">
+        <v>-220.8</v>
+      </c>
+      <c r="E31" s="29">
+        <v>126.5643</v>
+      </c>
+      <c r="F31" t="s">
+        <v>140</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>7</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31" t="s">
+        <v>150</v>
+      </c>
+      <c r="L31">
+        <v>4173</v>
+      </c>
+      <c r="M31">
+        <v>214</v>
+      </c>
+      <c r="N31">
+        <v>1808</v>
+      </c>
+      <c r="O31">
+        <v>36</v>
+      </c>
+      <c r="P31" s="26">
+        <f t="shared" si="10"/>
+        <v>1.6319444444444775E-3</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="11"/>
+        <v>4163</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="12"/>
+        <v>211</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="13"/>
+        <v>1801</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="9"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32">
+        <v>-1.6713549999999999</v>
+      </c>
+      <c r="D32">
+        <v>-220.8</v>
+      </c>
+      <c r="E32">
+        <v>132.108349</v>
+      </c>
+      <c r="F32" t="s">
+        <v>151</v>
+      </c>
+      <c r="G32">
+        <v>10</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>4</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32" t="s">
+        <v>162</v>
+      </c>
+      <c r="L32">
+        <v>4154</v>
+      </c>
+      <c r="M32">
+        <v>112</v>
+      </c>
+      <c r="N32">
+        <v>354</v>
+      </c>
+      <c r="O32">
+        <v>19</v>
+      </c>
+      <c r="P32" s="26">
+        <f t="shared" ref="P32:P41" si="14">K32-F32</f>
+        <v>1.7013888888889328E-3</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" ref="Q32:Q41" si="15">L32-G32</f>
+        <v>4144</v>
+      </c>
+      <c r="R32">
+        <f t="shared" ref="R32:R41" si="16">M32-H32</f>
+        <v>110</v>
+      </c>
+      <c r="S32">
+        <f t="shared" ref="S32:S41" si="17">N32-I32</f>
+        <v>350</v>
+      </c>
+      <c r="T32">
+        <f t="shared" ref="T32:T41" si="18">O32-J32</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33">
+        <v>-1.765293</v>
+      </c>
+      <c r="D33">
+        <v>-220.8</v>
+      </c>
+      <c r="E33">
+        <v>125.078366</v>
+      </c>
+      <c r="F33" t="s">
+        <v>152</v>
+      </c>
+      <c r="G33">
+        <v>16</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>163</v>
+      </c>
+      <c r="L33">
+        <v>3837</v>
+      </c>
+      <c r="M33">
+        <v>141</v>
+      </c>
+      <c r="N33">
+        <v>533</v>
+      </c>
+      <c r="O33">
+        <v>25</v>
+      </c>
+      <c r="P33" s="26">
+        <f t="shared" si="14"/>
+        <v>1.5625000000000222E-3</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="15"/>
+        <v>3821</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="16"/>
+        <v>139</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="17"/>
+        <v>530</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="18"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34">
+        <v>-1.816208</v>
+      </c>
+      <c r="D34">
+        <v>-220.8</v>
+      </c>
+      <c r="E34">
+        <v>121.571989</v>
+      </c>
+      <c r="F34" t="s">
+        <v>153</v>
+      </c>
+      <c r="G34">
+        <v>16</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>164</v>
+      </c>
+      <c r="L34">
+        <v>4553</v>
+      </c>
+      <c r="M34">
+        <v>139</v>
+      </c>
+      <c r="N34">
+        <v>476</v>
+      </c>
+      <c r="O34">
+        <v>20</v>
+      </c>
+      <c r="P34" s="26">
+        <f t="shared" si="14"/>
+        <v>1.6087962962963998E-3</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="15"/>
+        <v>4537</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="16"/>
+        <v>138</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="17"/>
+        <v>474</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="18"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35">
+        <v>-1.6365289999999999</v>
+      </c>
+      <c r="D35">
+        <v>-220.8</v>
+      </c>
+      <c r="E35">
+        <v>134.919715</v>
+      </c>
+      <c r="F35" t="s">
+        <v>154</v>
+      </c>
+      <c r="G35">
+        <v>15</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+      <c r="K35" t="s">
+        <v>165</v>
+      </c>
+      <c r="L35">
+        <v>4895</v>
+      </c>
+      <c r="M35">
+        <v>125</v>
+      </c>
+      <c r="N35">
+        <v>279</v>
+      </c>
+      <c r="O35">
+        <v>21</v>
+      </c>
+      <c r="P35" s="26">
+        <f t="shared" si="14"/>
+        <v>1.7592592592592382E-3</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="15"/>
+        <v>4880</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="16"/>
+        <v>122</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="17"/>
+        <v>276</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="18"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36">
+        <v>-1.8214889999999999</v>
+      </c>
+      <c r="D36">
+        <v>-220.8</v>
+      </c>
+      <c r="E36">
+        <v>121.21950099999999</v>
+      </c>
+      <c r="F36" t="s">
+        <v>155</v>
+      </c>
+      <c r="G36">
+        <v>15</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36" t="s">
+        <v>166</v>
+      </c>
+      <c r="L36">
+        <v>4768</v>
+      </c>
+      <c r="M36">
+        <v>153</v>
+      </c>
+      <c r="N36">
+        <v>548</v>
+      </c>
+      <c r="O36">
+        <v>15</v>
+      </c>
+      <c r="P36" s="26">
+        <f t="shared" si="14"/>
+        <v>1.5972222222222499E-3</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="15"/>
+        <v>4753</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="16"/>
+        <v>151</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="17"/>
+        <v>545</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="18"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37">
+        <v>-1.6703589999999999</v>
+      </c>
+      <c r="D37">
+        <v>-220.8</v>
+      </c>
+      <c r="E37">
+        <v>132.18716900000001</v>
+      </c>
+      <c r="F37" t="s">
+        <v>156</v>
+      </c>
+      <c r="G37">
+        <v>18</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+      <c r="I37">
+        <v>11</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37" t="s">
+        <v>167</v>
+      </c>
+      <c r="L37">
+        <v>4488</v>
+      </c>
+      <c r="M37">
+        <v>141</v>
+      </c>
+      <c r="N37">
+        <v>601</v>
+      </c>
+      <c r="O37">
+        <v>14</v>
+      </c>
+      <c r="P37" s="26">
+        <f t="shared" si="14"/>
+        <v>1.5972222222222499E-3</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="15"/>
+        <v>4470</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="16"/>
+        <v>136</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="17"/>
+        <v>590</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="18"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38">
+        <v>-1.6748209999999999</v>
+      </c>
+      <c r="D38">
+        <v>-220.8</v>
+      </c>
+      <c r="E38">
+        <v>131.83495400000001</v>
+      </c>
+      <c r="F38" t="s">
+        <v>157</v>
+      </c>
+      <c r="G38">
+        <v>16</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <v>4</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+      <c r="K38" t="s">
+        <v>168</v>
+      </c>
+      <c r="L38">
+        <v>4506</v>
+      </c>
+      <c r="M38">
+        <v>155</v>
+      </c>
+      <c r="N38">
+        <v>412</v>
+      </c>
+      <c r="O38">
+        <v>24</v>
+      </c>
+      <c r="P38" s="26">
+        <f t="shared" si="14"/>
+        <v>1.6666666666667052E-3</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="15"/>
+        <v>4490</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="16"/>
+        <v>151</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="17"/>
+        <v>408</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="18"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39">
+        <v>-1.7504710000000001</v>
+      </c>
+      <c r="D39">
+        <v>-220.8</v>
+      </c>
+      <c r="E39">
+        <v>126.137444</v>
+      </c>
+      <c r="F39" t="s">
+        <v>158</v>
+      </c>
+      <c r="G39">
+        <v>17</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>4</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+      <c r="K39" t="s">
+        <v>169</v>
+      </c>
+      <c r="L39">
+        <v>4472</v>
+      </c>
+      <c r="M39">
+        <v>115</v>
+      </c>
+      <c r="N39">
+        <v>569</v>
+      </c>
+      <c r="O39">
+        <v>16</v>
+      </c>
+      <c r="P39" s="26">
+        <f t="shared" si="14"/>
+        <v>1.6319444444444775E-3</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="15"/>
+        <v>4455</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="16"/>
+        <v>112</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="17"/>
+        <v>565</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="18"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40">
+        <v>-1.6703840000000001</v>
+      </c>
+      <c r="D40">
+        <v>-220.8</v>
+      </c>
+      <c r="E40">
+        <v>132.185146</v>
+      </c>
+      <c r="F40" t="s">
+        <v>159</v>
+      </c>
+      <c r="G40">
+        <v>15</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="K40" t="s">
+        <v>170</v>
+      </c>
+      <c r="L40">
+        <v>4358</v>
+      </c>
+      <c r="M40">
+        <v>127</v>
+      </c>
+      <c r="N40">
+        <v>519</v>
+      </c>
+      <c r="O40">
+        <v>16</v>
+      </c>
+      <c r="P40" s="26">
+        <f t="shared" si="14"/>
+        <v>1.5972222222221388E-3</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="15"/>
+        <v>4343</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="16"/>
+        <v>124</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="17"/>
+        <v>516</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="18"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41">
+        <v>-1.680288</v>
+      </c>
+      <c r="D41">
+        <v>-220.8</v>
+      </c>
+      <c r="E41">
+        <v>131.40601899999999</v>
+      </c>
+      <c r="F41" t="s">
+        <v>160</v>
+      </c>
+      <c r="G41">
+        <v>16</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>171</v>
+      </c>
+      <c r="L41">
+        <v>4345</v>
+      </c>
+      <c r="M41">
+        <v>132</v>
+      </c>
+      <c r="N41">
+        <v>423</v>
+      </c>
+      <c r="O41">
+        <v>20</v>
+      </c>
+      <c r="P41" s="26">
+        <f t="shared" si="14"/>
+        <v>1.5740740740740611E-3</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="15"/>
+        <v>4329</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="16"/>
+        <v>130</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="17"/>
+        <v>420</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="18"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42">
+        <v>-1.87914</v>
+      </c>
+      <c r="D42">
+        <v>-248.4</v>
+      </c>
+      <c r="E42">
+        <v>132.188095</v>
+      </c>
+      <c r="F42" t="s">
+        <v>194</v>
+      </c>
+      <c r="G42">
+        <v>17</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42" t="s">
+        <v>204</v>
+      </c>
+      <c r="L42">
+        <v>4387</v>
+      </c>
+      <c r="M42">
+        <v>87</v>
+      </c>
+      <c r="N42">
+        <v>315</v>
+      </c>
+      <c r="O42">
+        <v>11</v>
+      </c>
+      <c r="P42" s="26">
+        <f t="shared" ref="P42:P51" si="19">K42-F42</f>
+        <v>1.678240740740744E-3</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" ref="Q42:Q51" si="20">L42-G42</f>
+        <v>4370</v>
+      </c>
+      <c r="R42">
+        <f t="shared" ref="R42:R51" si="21">M42-H42</f>
+        <v>85</v>
+      </c>
+      <c r="S42">
+        <f t="shared" ref="S42:S51" si="22">N42-I42</f>
+        <v>312</v>
+      </c>
+      <c r="T42">
+        <f t="shared" ref="T42:T51" si="23">O42-J42</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43">
+        <v>-2.049248</v>
+      </c>
+      <c r="D43">
+        <v>-248.4</v>
+      </c>
+      <c r="E43">
+        <v>121.2152</v>
+      </c>
+      <c r="F43" t="s">
+        <v>195</v>
+      </c>
+      <c r="G43">
+        <v>18</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <v>4</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" t="s">
+        <v>205</v>
+      </c>
+      <c r="L43">
+        <v>4486</v>
+      </c>
+      <c r="M43">
+        <v>106</v>
+      </c>
+      <c r="N43">
+        <v>427</v>
+      </c>
+      <c r="O43">
+        <v>9</v>
+      </c>
+      <c r="P43" s="26">
+        <f t="shared" si="19"/>
+        <v>1.5393518518518334E-3</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="20"/>
+        <v>4468</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="21"/>
+        <v>104</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="22"/>
+        <v>423</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="23"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44">
+        <v>-2.0837189999999999</v>
+      </c>
+      <c r="D44">
+        <v>-276</v>
+      </c>
+      <c r="E44">
+        <v>132.455502</v>
+      </c>
+      <c r="F44" t="s">
+        <v>196</v>
+      </c>
+      <c r="G44">
+        <v>16</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>5</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44" t="s">
+        <v>206</v>
+      </c>
+      <c r="L44">
+        <v>4602</v>
+      </c>
+      <c r="M44">
+        <v>93</v>
+      </c>
+      <c r="N44">
+        <v>332</v>
+      </c>
+      <c r="O44">
+        <v>11</v>
+      </c>
+      <c r="P44" s="26">
+        <f t="shared" si="19"/>
+        <v>1.6203703703704386E-3</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="20"/>
+        <v>4586</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="21"/>
+        <v>91</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="22"/>
+        <v>327</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="23"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45">
+        <v>-1.9572240000000001</v>
+      </c>
+      <c r="D45">
+        <v>-248.4</v>
+      </c>
+      <c r="E45">
+        <v>126.91442000000001</v>
+      </c>
+      <c r="F45" t="s">
+        <v>197</v>
+      </c>
+      <c r="G45">
+        <v>18</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>4</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45" t="s">
+        <v>207</v>
+      </c>
+      <c r="L45">
+        <v>4446</v>
+      </c>
+      <c r="M45">
+        <v>93</v>
+      </c>
+      <c r="N45">
+        <v>439</v>
+      </c>
+      <c r="O45">
+        <v>8</v>
+      </c>
+      <c r="P45" s="26">
+        <f t="shared" si="19"/>
+        <v>1.5046296296296058E-3</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="20"/>
+        <v>4428</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="21"/>
+        <v>91</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="22"/>
+        <v>435</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" t="s">
+        <v>172</v>
+      </c>
+      <c r="C46">
+        <v>-2.0672109999999999</v>
+      </c>
+      <c r="D46">
+        <v>-248.4</v>
+      </c>
+      <c r="E46">
+        <v>120.161908</v>
+      </c>
+      <c r="F46" t="s">
+        <v>198</v>
+      </c>
+      <c r="G46">
+        <v>17</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46" t="s">
+        <v>208</v>
+      </c>
+      <c r="L46">
+        <v>4478</v>
+      </c>
+      <c r="M46">
+        <v>78</v>
+      </c>
+      <c r="N46">
+        <v>154</v>
+      </c>
+      <c r="O46">
+        <v>8</v>
+      </c>
+      <c r="P46" s="26">
+        <f t="shared" si="19"/>
+        <v>1.6087962962962887E-3</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="20"/>
+        <v>4461</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="22"/>
+        <v>151</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" t="s">
+        <v>172</v>
+      </c>
+      <c r="C47">
+        <v>-2.060918</v>
+      </c>
+      <c r="D47">
+        <v>-276</v>
+      </c>
+      <c r="E47">
+        <v>133.920883</v>
+      </c>
+      <c r="F47" t="s">
+        <v>199</v>
+      </c>
+      <c r="G47">
+        <v>17</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47" t="s">
+        <v>209</v>
+      </c>
+      <c r="L47">
+        <v>4320</v>
+      </c>
+      <c r="M47">
+        <v>90</v>
+      </c>
+      <c r="N47">
+        <v>275</v>
+      </c>
+      <c r="O47">
+        <v>15</v>
+      </c>
+      <c r="P47" s="26">
+        <f t="shared" si="19"/>
+        <v>1.5393518518518334E-3</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="20"/>
+        <v>4303</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="21"/>
+        <v>88</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="22"/>
+        <v>272</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="23"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" t="s">
+        <v>172</v>
+      </c>
+      <c r="C48">
+        <v>-1.9971110000000001</v>
+      </c>
+      <c r="D48">
+        <v>-248.4</v>
+      </c>
+      <c r="E48">
+        <v>124.379649</v>
+      </c>
+      <c r="F48" t="s">
+        <v>200</v>
+      </c>
+      <c r="G48">
+        <v>15</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48" t="s">
+        <v>210</v>
+      </c>
+      <c r="L48">
+        <v>4340</v>
+      </c>
+      <c r="M48">
+        <v>87</v>
+      </c>
+      <c r="N48">
+        <v>460</v>
+      </c>
+      <c r="O48">
+        <v>7</v>
+      </c>
+      <c r="P48" s="26">
+        <f t="shared" si="19"/>
+        <v>1.585648148148211E-3</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="20"/>
+        <v>4325</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="21"/>
+        <v>85</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="22"/>
+        <v>457</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="23"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" t="s">
+        <v>172</v>
+      </c>
+      <c r="C49">
+        <v>-1.8006580000000001</v>
+      </c>
+      <c r="D49">
+        <v>-220.8</v>
+      </c>
+      <c r="E49">
+        <v>122.621865</v>
+      </c>
+      <c r="F49" t="s">
+        <v>201</v>
+      </c>
+      <c r="G49">
+        <v>15</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49" t="s">
+        <v>211</v>
+      </c>
+      <c r="L49">
+        <v>4427</v>
+      </c>
+      <c r="M49">
+        <v>80</v>
+      </c>
+      <c r="N49">
+        <v>279</v>
+      </c>
+      <c r="O49">
+        <v>9</v>
+      </c>
+      <c r="P49" s="26">
+        <f t="shared" si="19"/>
+        <v>1.4930555555555669E-3</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="20"/>
+        <v>4412</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="21"/>
+        <v>78</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="22"/>
+        <v>276</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="23"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50">
+        <v>-1.745698</v>
+      </c>
+      <c r="D50">
+        <v>-220.8</v>
+      </c>
+      <c r="E50">
+        <v>126.482376</v>
+      </c>
+      <c r="F50" t="s">
+        <v>202</v>
+      </c>
+      <c r="G50">
+        <v>18</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50">
+        <v>4</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50" t="s">
+        <v>212</v>
+      </c>
+      <c r="L50">
+        <v>3751</v>
+      </c>
+      <c r="M50">
+        <v>70</v>
+      </c>
+      <c r="N50">
+        <v>336</v>
+      </c>
+      <c r="O50">
+        <v>10</v>
+      </c>
+      <c r="P50" s="26">
+        <f t="shared" si="19"/>
+        <v>1.6550925925926663E-3</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="20"/>
+        <v>3733</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="21"/>
+        <v>68</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="22"/>
+        <v>332</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="23"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" t="s">
+        <v>172</v>
+      </c>
+      <c r="C51">
+        <v>-1.9252370000000001</v>
+      </c>
+      <c r="D51">
+        <v>-248.4</v>
+      </c>
+      <c r="E51">
+        <v>129.02305100000001</v>
+      </c>
+      <c r="F51" t="s">
+        <v>203</v>
+      </c>
+      <c r="G51">
+        <v>18</v>
+      </c>
+      <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51">
+        <v>6</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51" t="s">
+        <v>213</v>
+      </c>
+      <c r="L51">
+        <v>4466</v>
+      </c>
+      <c r="M51">
+        <v>74</v>
+      </c>
+      <c r="N51">
+        <v>179</v>
+      </c>
+      <c r="O51">
+        <v>8</v>
+      </c>
+      <c r="P51" s="26">
+        <f t="shared" si="19"/>
+        <v>1.6666666666667052E-3</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="20"/>
+        <v>4448</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="21"/>
+        <v>72</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="22"/>
+        <v>173</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" t="s">
+        <v>173</v>
+      </c>
+      <c r="C52">
+        <v>-2.447781</v>
+      </c>
+      <c r="D52">
+        <v>-303.60000000000002</v>
+      </c>
+      <c r="E52">
+        <v>124.030692</v>
+      </c>
+      <c r="F52" t="s">
+        <v>174</v>
+      </c>
+      <c r="G52">
+        <v>17</v>
+      </c>
+      <c r="H52">
+        <v>2</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52" t="s">
+        <v>184</v>
+      </c>
+      <c r="L52">
+        <v>4292</v>
+      </c>
+      <c r="M52">
+        <v>68</v>
+      </c>
+      <c r="N52">
+        <v>202</v>
+      </c>
+      <c r="O52">
+        <v>7</v>
+      </c>
+      <c r="P52" s="26">
+        <f t="shared" ref="P52:P61" si="24">K52-F52</f>
+        <v>1.5277777777777946E-3</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" ref="Q52:Q61" si="25">L52-G52</f>
+        <v>4275</v>
+      </c>
+      <c r="R52">
+        <f t="shared" ref="R52:R61" si="26">M52-H52</f>
+        <v>66</v>
+      </c>
+      <c r="S52">
+        <f t="shared" ref="S52:S61" si="27">N52-I52</f>
+        <v>199</v>
+      </c>
+      <c r="T52">
+        <f t="shared" ref="T52:T61" si="28">O52-J52</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" t="s">
+        <v>173</v>
+      </c>
+      <c r="C53">
+        <v>-2.3672629999999999</v>
+      </c>
+      <c r="D53">
+        <v>-303.60000000000002</v>
+      </c>
+      <c r="E53">
+        <v>128.24937800000001</v>
+      </c>
+      <c r="F53" t="s">
+        <v>175</v>
+      </c>
+      <c r="G53">
+        <v>16</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53">
+        <v>4</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53" t="s">
+        <v>185</v>
+      </c>
+      <c r="L53">
+        <v>4331</v>
+      </c>
+      <c r="M53">
+        <v>63</v>
+      </c>
+      <c r="N53">
+        <v>256</v>
+      </c>
+      <c r="O53">
+        <v>8</v>
+      </c>
+      <c r="P53" s="26">
+        <f t="shared" si="24"/>
+        <v>1.5740740740740611E-3</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="25"/>
+        <v>4315</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="26"/>
+        <v>61</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="27"/>
+        <v>252</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="28"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" t="s">
+        <v>173</v>
+      </c>
+      <c r="C54">
+        <v>-2.1880709999999999</v>
+      </c>
+      <c r="D54">
+        <v>-276</v>
+      </c>
+      <c r="E54">
+        <v>126.138513</v>
+      </c>
+      <c r="F54" t="s">
+        <v>176</v>
+      </c>
+      <c r="G54">
+        <v>18</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54">
+        <v>3</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54" t="s">
+        <v>186</v>
+      </c>
+      <c r="L54">
+        <v>4306</v>
+      </c>
+      <c r="M54">
+        <v>62</v>
+      </c>
+      <c r="N54">
+        <v>183</v>
+      </c>
+      <c r="O54">
+        <v>7</v>
+      </c>
+      <c r="P54" s="26">
+        <f t="shared" si="24"/>
+        <v>1.5625000000000222E-3</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="25"/>
+        <v>4288</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="26"/>
+        <v>60</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="27"/>
+        <v>180</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="28"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" t="s">
+        <v>173</v>
+      </c>
+      <c r="C55">
+        <v>-2.1686139999999998</v>
+      </c>
+      <c r="D55">
+        <v>-276</v>
+      </c>
+      <c r="E55">
+        <v>127.270224</v>
+      </c>
+      <c r="F55" t="s">
+        <v>177</v>
+      </c>
+      <c r="G55">
+        <v>15</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55">
+        <v>4</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55" t="s">
+        <v>187</v>
+      </c>
+      <c r="L55">
+        <v>4209</v>
+      </c>
+      <c r="M55">
+        <v>57</v>
+      </c>
+      <c r="N55">
+        <v>141</v>
+      </c>
+      <c r="O55">
+        <v>9</v>
+      </c>
+      <c r="P55" s="26">
+        <f t="shared" si="24"/>
+        <v>1.5277777777777946E-3</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="25"/>
+        <v>4194</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="26"/>
+        <v>55</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="27"/>
+        <v>137</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="28"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" t="s">
+        <v>173</v>
+      </c>
+      <c r="C56">
+        <v>-2.1002589999999999</v>
+      </c>
+      <c r="D56">
+        <v>-276</v>
+      </c>
+      <c r="E56">
+        <v>131.41235699999999</v>
+      </c>
+      <c r="F56" t="s">
+        <v>178</v>
+      </c>
+      <c r="G56">
+        <v>19</v>
+      </c>
+      <c r="H56">
+        <v>2</v>
+      </c>
+      <c r="I56">
+        <v>4</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56" t="s">
+        <v>188</v>
+      </c>
+      <c r="L56">
+        <v>4228</v>
+      </c>
+      <c r="M56">
+        <v>50</v>
+      </c>
+      <c r="N56">
+        <v>159</v>
+      </c>
+      <c r="O56">
+        <v>8</v>
+      </c>
+      <c r="P56" s="26">
+        <f t="shared" si="24"/>
+        <v>1.5625000000000222E-3</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="25"/>
+        <v>4209</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="26"/>
+        <v>48</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="27"/>
+        <v>155</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="28"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" t="s">
+        <v>173</v>
+      </c>
+      <c r="C57">
+        <v>-2.1103010000000002</v>
+      </c>
+      <c r="D57">
+        <v>-276</v>
+      </c>
+      <c r="E57">
+        <v>130.78705500000001</v>
+      </c>
+      <c r="F57" t="s">
+        <v>179</v>
+      </c>
+      <c r="G57">
+        <v>17</v>
+      </c>
+      <c r="H57">
+        <v>3</v>
+      </c>
+      <c r="I57">
+        <v>4</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57" t="s">
+        <v>189</v>
+      </c>
+      <c r="L57">
+        <v>3258</v>
+      </c>
+      <c r="M57">
+        <v>46</v>
+      </c>
+      <c r="N57">
+        <v>107</v>
+      </c>
+      <c r="O57">
+        <v>7</v>
+      </c>
+      <c r="P57" s="26">
+        <f t="shared" si="24"/>
+        <v>1.5277777777777946E-3</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="25"/>
+        <v>3241</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="26"/>
+        <v>43</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="27"/>
+        <v>103</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="28"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" t="s">
+        <v>173</v>
+      </c>
+      <c r="C58">
+        <v>-2.2003270000000001</v>
+      </c>
+      <c r="D58">
+        <v>-276</v>
+      </c>
+      <c r="E58">
+        <v>125.43588200000001</v>
+      </c>
+      <c r="F58" t="s">
+        <v>180</v>
+      </c>
+      <c r="G58">
+        <v>19</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58">
+        <v>6</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58" t="s">
+        <v>190</v>
+      </c>
+      <c r="L58">
+        <v>4052</v>
+      </c>
+      <c r="M58">
+        <v>101</v>
+      </c>
+      <c r="N58">
+        <v>398</v>
+      </c>
+      <c r="O58">
+        <v>7</v>
+      </c>
+      <c r="P58" s="26">
+        <f t="shared" si="24"/>
+        <v>1.5625000000000222E-3</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="25"/>
+        <v>4033</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="26"/>
+        <v>99</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="27"/>
+        <v>392</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="28"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59">
+        <v>-2.2050990000000001</v>
+      </c>
+      <c r="D59">
+        <v>-276</v>
+      </c>
+      <c r="E59">
+        <v>125.164452</v>
+      </c>
+      <c r="F59" t="s">
+        <v>181</v>
+      </c>
+      <c r="G59">
+        <v>17</v>
+      </c>
+      <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="I59">
+        <v>3</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59" t="s">
+        <v>191</v>
+      </c>
+      <c r="L59">
+        <v>3894</v>
+      </c>
+      <c r="M59">
+        <v>54</v>
+      </c>
+      <c r="N59">
+        <v>322</v>
+      </c>
+      <c r="O59">
+        <v>8</v>
+      </c>
+      <c r="P59" s="26">
+        <f t="shared" si="24"/>
+        <v>1.5277777777777946E-3</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="25"/>
+        <v>3877</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="26"/>
+        <v>52</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="27"/>
+        <v>319</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="28"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" t="s">
+        <v>173</v>
+      </c>
+      <c r="C60">
+        <v>-2.3416290000000002</v>
+      </c>
+      <c r="D60">
+        <v>-303.60000000000002</v>
+      </c>
+      <c r="E60">
+        <v>129.65331</v>
+      </c>
+      <c r="F60" t="s">
+        <v>182</v>
+      </c>
+      <c r="G60">
+        <v>17</v>
+      </c>
+      <c r="H60">
+        <v>2</v>
+      </c>
+      <c r="I60">
+        <v>4</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60" t="s">
+        <v>192</v>
+      </c>
+      <c r="L60">
+        <v>4089</v>
+      </c>
+      <c r="M60">
+        <v>173</v>
+      </c>
+      <c r="N60">
+        <v>477</v>
+      </c>
+      <c r="O60">
+        <v>11</v>
+      </c>
+      <c r="P60" s="26">
+        <f t="shared" si="24"/>
+        <v>1.5509259259258723E-3</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="25"/>
+        <v>4072</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="26"/>
+        <v>171</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="27"/>
+        <v>473</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="28"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" t="s">
+        <v>173</v>
+      </c>
+      <c r="C61">
+        <v>-2.0141650000000002</v>
+      </c>
+      <c r="D61">
+        <v>-248.4</v>
+      </c>
+      <c r="E61">
+        <v>123.32654100000001</v>
+      </c>
+      <c r="F61" t="s">
+        <v>183</v>
+      </c>
+      <c r="G61">
+        <v>17</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61">
+        <v>5</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61" t="s">
+        <v>193</v>
+      </c>
+      <c r="L61">
+        <v>3752</v>
+      </c>
+      <c r="M61">
+        <v>45</v>
+      </c>
+      <c r="N61">
+        <v>189</v>
+      </c>
+      <c r="O61">
+        <v>5</v>
+      </c>
+      <c r="P61" s="26">
+        <f t="shared" si="24"/>
+        <v>1.4930555555555669E-3</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="25"/>
+        <v>3735</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="26"/>
+        <v>43</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="27"/>
+        <v>184</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68571CE4-03AF-3F45-AE75-7183B18FC709}">
+  <dimension ref="A3:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="34.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4">
+        <v>3904.1</v>
+      </c>
+      <c r="C4">
+        <v>222.2</v>
+      </c>
+      <c r="D4">
+        <v>1532.6</v>
+      </c>
+      <c r="E4">
+        <v>44.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5">
+        <v>3901.4</v>
+      </c>
+      <c r="C5">
+        <v>287.5</v>
+      </c>
+      <c r="D5">
+        <v>1474</v>
+      </c>
+      <c r="E5">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6">
+        <v>4422.2</v>
+      </c>
+      <c r="C6">
+        <v>131.30000000000001</v>
+      </c>
+      <c r="D6">
+        <v>467.4</v>
+      </c>
+      <c r="E6">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7">
+        <v>4023.9</v>
+      </c>
+      <c r="C7">
+        <v>69.8</v>
+      </c>
+      <c r="D7">
+        <v>239.4</v>
+      </c>
+      <c r="E7">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8">
+        <v>4353.3999999999996</v>
+      </c>
+      <c r="C8">
+        <v>83.8</v>
+      </c>
+      <c r="D8">
+        <v>315.8</v>
+      </c>
+      <c r="E8">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9">
+        <v>4369.3999999999996</v>
+      </c>
+      <c r="C9">
+        <v>173.2</v>
+      </c>
+      <c r="D9">
+        <v>519.9</v>
+      </c>
+      <c r="E9">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>4162.3999999999996</v>
+      </c>
+      <c r="C10">
+        <v>161.30000000000001</v>
+      </c>
+      <c r="D10">
+        <v>758.18333333333328</v>
+      </c>
+      <c r="E10">
+        <v>18.366666666666667</v>
       </c>
     </row>
   </sheetData>
